--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_2021_0808\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1BCE0D-2500-4B22-8D3E-130A707B4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912665B-72D3-4ACF-8E08-5B964ACC70D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -363,6 +363,14 @@
   </si>
   <si>
     <t>1,1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>限购数量</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyNumMax</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2002,7 +2010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,16 +2031,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2754,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K105"/>
+  <dimension ref="C1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2766,13 +2771,14 @@
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2794,8 +2800,11 @@
       <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2826,11 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2840,8 +2852,11 @@
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7">
         <v>100001</v>
       </c>
@@ -2863,11 +2878,12 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="7"/>
+      <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7">
         <v>100002</v>
       </c>
@@ -2889,11 +2905,12 @@
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="7"/>
+      <c r="L7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <v>100003</v>
       </c>
@@ -2915,11 +2932,12 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="7"/>
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>100004</v>
       </c>
@@ -2941,11 +2959,12 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="7"/>
+      <c r="L9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7">
         <v>100005</v>
       </c>
@@ -2967,11 +2986,12 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="7"/>
+      <c r="L10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>100006</v>
       </c>
@@ -2993,11 +3013,12 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="7"/>
+      <c r="L11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
         <v>100007</v>
       </c>
@@ -3019,11 +3040,12 @@
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="7"/>
+      <c r="L12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>100008</v>
       </c>
@@ -3045,11 +3067,12 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="7"/>
+      <c r="L13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
         <v>100009</v>
       </c>
@@ -3071,11 +3094,12 @@
       <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="7"/>
+      <c r="L14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7">
         <v>100010</v>
       </c>
@@ -3097,11 +3121,12 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="7"/>
+      <c r="L15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7">
         <v>100011</v>
       </c>
@@ -3123,11 +3148,12 @@
       <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="7"/>
+      <c r="L16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="7">
         <v>100012</v>
       </c>
@@ -3149,11 +3175,12 @@
       <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="7"/>
+      <c r="L17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7">
         <v>100013</v>
       </c>
@@ -3175,11 +3202,12 @@
       <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="7"/>
+      <c r="L18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7">
         <v>100014</v>
       </c>
@@ -3201,11 +3229,12 @@
       <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="7"/>
+      <c r="L19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="7">
         <v>100015</v>
       </c>
@@ -3227,11 +3256,12 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="J20" s="7"/>
+      <c r="L20" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7">
         <v>100016</v>
       </c>
@@ -3253,11 +3283,12 @@
       <c r="I21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="7"/>
+      <c r="L21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7">
         <v>100017</v>
       </c>
@@ -3279,11 +3310,12 @@
       <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="7"/>
+      <c r="L22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7">
         <v>100018</v>
       </c>
@@ -3305,11 +3337,12 @@
       <c r="I23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="7"/>
+      <c r="L23" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7">
         <v>100019</v>
       </c>
@@ -3331,11 +3364,12 @@
       <c r="I24" s="7">
         <v>0</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="7"/>
+      <c r="L24" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7">
         <v>100020</v>
       </c>
@@ -3357,11 +3391,12 @@
       <c r="I25" s="7">
         <v>0</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="7"/>
+      <c r="L25" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="7">
         <v>100021</v>
       </c>
@@ -3383,11 +3418,12 @@
       <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="J26" s="7"/>
+      <c r="L26" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7">
         <v>100022</v>
       </c>
@@ -3409,11 +3445,12 @@
       <c r="I27" s="7">
         <v>0</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="J27" s="7"/>
+      <c r="L27" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="7">
         <v>100023</v>
       </c>
@@ -3435,11 +3472,12 @@
       <c r="I28" s="7">
         <v>0</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="J28" s="7"/>
+      <c r="L28" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="7">
         <v>100024</v>
       </c>
@@ -3461,11 +3499,12 @@
       <c r="I29" s="7">
         <v>0</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="7"/>
+      <c r="L29" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="7">
         <v>100025</v>
       </c>
@@ -3487,11 +3526,12 @@
       <c r="I30" s="7">
         <v>0</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="7"/>
+      <c r="L30" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
         <v>100026</v>
       </c>
@@ -3513,11 +3553,12 @@
       <c r="I31" s="7">
         <v>0</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="7"/>
+      <c r="L31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7">
         <v>100027</v>
       </c>
@@ -3539,12 +3580,13 @@
       <c r="I32" s="7">
         <v>0</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="7"/>
+      <c r="L32" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="11">
+    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="7">
         <v>110001</v>
       </c>
       <c r="D33" s="10">
@@ -3565,12 +3607,13 @@
       <c r="I33" s="7">
         <v>0</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="J33" s="7"/>
+      <c r="L33" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="11">
+    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7">
         <v>110002</v>
       </c>
       <c r="D34" s="10">
@@ -3591,12 +3634,13 @@
       <c r="I34" s="7">
         <v>0</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="J34" s="7"/>
+      <c r="L34" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="11">
+    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="7">
         <v>110003</v>
       </c>
       <c r="D35" s="10">
@@ -3617,12 +3661,13 @@
       <c r="I35" s="7">
         <v>0</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="J35" s="7"/>
+      <c r="L35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="11">
+    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="7">
         <v>110004</v>
       </c>
       <c r="D36" s="10">
@@ -3643,12 +3688,13 @@
       <c r="I36" s="7">
         <v>0</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="J36" s="7"/>
+      <c r="L36" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="11">
+    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="7">
         <v>110005</v>
       </c>
       <c r="D37" s="10">
@@ -3669,12 +3715,13 @@
       <c r="I37" s="7">
         <v>0</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="J37" s="7"/>
+      <c r="L37" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="11">
+    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="7">
         <v>110006</v>
       </c>
       <c r="D38" s="10">
@@ -3695,12 +3742,13 @@
       <c r="I38" s="7">
         <v>0</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="J38" s="7"/>
+      <c r="L38" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="11">
+    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="7">
         <v>110007</v>
       </c>
       <c r="D39" s="10">
@@ -3721,12 +3769,13 @@
       <c r="I39" s="7">
         <v>0</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="J39" s="7"/>
+      <c r="L39" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="11">
+    <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="7">
         <v>110008</v>
       </c>
       <c r="D40" s="10">
@@ -3747,12 +3796,13 @@
       <c r="I40" s="7">
         <v>0</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="J40" s="7"/>
+      <c r="L40" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="11">
+    <row r="41" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="7">
         <v>110009</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -3773,12 +3823,13 @@
       <c r="I41" s="7">
         <v>0</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="J41" s="7"/>
+      <c r="L41" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="11">
+    <row r="42" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="7">
         <v>110010</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -3799,12 +3850,13 @@
       <c r="I42" s="7">
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="J42" s="7"/>
+      <c r="L42" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="11">
+    <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="7">
         <v>120001</v>
       </c>
       <c r="D43" s="10">
@@ -3825,12 +3877,13 @@
       <c r="I43" s="7">
         <v>1</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="J43" s="7"/>
+      <c r="L43" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="11">
+    <row r="44" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="7">
         <v>120002</v>
       </c>
       <c r="D44" s="10">
@@ -3851,12 +3904,13 @@
       <c r="I44" s="7">
         <v>1</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="J44" s="7"/>
+      <c r="L44" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11">
+    <row r="45" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="7">
         <v>120003</v>
       </c>
       <c r="D45" s="10">
@@ -3877,12 +3931,13 @@
       <c r="I45" s="7">
         <v>1</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="J45" s="7"/>
+      <c r="L45" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11">
+    <row r="46" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="7">
         <v>120004</v>
       </c>
       <c r="D46" s="10">
@@ -3903,12 +3958,13 @@
       <c r="I46" s="7">
         <v>1</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="J46" s="7"/>
+      <c r="L46" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11">
+    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="7">
         <v>120005</v>
       </c>
       <c r="D47" s="10">
@@ -3929,12 +3985,13 @@
       <c r="I47" s="7">
         <v>1</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="J47" s="7"/>
+      <c r="L47" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11">
+    <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="7">
         <v>120006</v>
       </c>
       <c r="D48" s="10">
@@ -3955,12 +4012,13 @@
       <c r="I48" s="7">
         <v>1</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="J48" s="7"/>
+      <c r="L48" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11">
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="7">
         <v>120007</v>
       </c>
       <c r="D49" s="10">
@@ -3981,12 +4039,13 @@
       <c r="I49" s="7">
         <v>1</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="J49" s="7"/>
+      <c r="L49" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="11">
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="7">
         <v>120008</v>
       </c>
       <c r="D50" s="10">
@@ -4007,12 +4066,13 @@
       <c r="I50" s="7">
         <v>1</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="J50" s="7"/>
+      <c r="L50" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="11">
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="7">
         <v>120009</v>
       </c>
       <c r="D51" s="10">
@@ -4033,12 +4093,13 @@
       <c r="I51" s="7">
         <v>1</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="J51" s="7"/>
+      <c r="L51" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="11">
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="7">
         <v>120010</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -4059,12 +4120,13 @@
       <c r="I52" s="7">
         <v>1</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="J52" s="7"/>
+      <c r="L52" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="11">
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="7">
         <v>120011</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -4085,12 +4147,13 @@
       <c r="I53" s="7">
         <v>1</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="J53" s="7"/>
+      <c r="L53" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="11">
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="7">
         <v>130001</v>
       </c>
       <c r="D54" s="10">
@@ -4111,12 +4174,13 @@
       <c r="I54" s="7">
         <v>3</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="J54" s="7"/>
+      <c r="L54" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="11">
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="7">
         <v>130002</v>
       </c>
       <c r="D55" s="10">
@@ -4137,12 +4201,13 @@
       <c r="I55" s="7">
         <v>3</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="J55" s="7"/>
+      <c r="L55" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="11">
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="7">
         <v>130003</v>
       </c>
       <c r="D56" s="10">
@@ -4163,12 +4228,13 @@
       <c r="I56" s="7">
         <v>3</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="J56" s="7"/>
+      <c r="L56" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="11">
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="7">
         <v>130004</v>
       </c>
       <c r="D57" s="10">
@@ -4189,12 +4255,13 @@
       <c r="I57" s="7">
         <v>3</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="J57" s="7"/>
+      <c r="L57" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="11">
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="7">
         <v>130005</v>
       </c>
       <c r="D58" s="10">
@@ -4215,12 +4282,13 @@
       <c r="I58" s="7">
         <v>3</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="J58" s="7"/>
+      <c r="L58" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="11">
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="7">
         <v>130006</v>
       </c>
       <c r="D59" s="10">
@@ -4241,12 +4309,13 @@
       <c r="I59" s="7">
         <v>3</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="J59" s="7"/>
+      <c r="L59" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="11">
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="7">
         <v>130007</v>
       </c>
       <c r="D60" s="10">
@@ -4267,12 +4336,13 @@
       <c r="I60" s="7">
         <v>3</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="J60" s="7"/>
+      <c r="L60" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="11">
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="7">
         <v>130008</v>
       </c>
       <c r="D61" s="10">
@@ -4293,12 +4363,13 @@
       <c r="I61" s="7">
         <v>3</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="J61" s="7"/>
+      <c r="L61" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11">
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="7">
         <v>130009</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -4319,12 +4390,13 @@
       <c r="I62" s="7">
         <v>3</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="J62" s="7"/>
+      <c r="L62" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11">
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="7">
         <v>130010</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -4345,12 +4417,13 @@
       <c r="I63" s="7">
         <v>3</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="J63" s="7"/>
+      <c r="L63" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="11">
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="7">
         <v>140001</v>
       </c>
       <c r="D64" s="10">
@@ -4371,12 +4444,13 @@
       <c r="I64" s="7">
         <v>5</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="J64" s="7"/>
+      <c r="L64" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11">
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="7">
         <v>140002</v>
       </c>
       <c r="D65" s="10">
@@ -4397,12 +4471,13 @@
       <c r="I65" s="7">
         <v>5</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="J65" s="7"/>
+      <c r="L65" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11">
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="7">
         <v>140003</v>
       </c>
       <c r="D66" s="10">
@@ -4423,12 +4498,13 @@
       <c r="I66" s="7">
         <v>5</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="J66" s="7"/>
+      <c r="L66" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11">
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="7">
         <v>140004</v>
       </c>
       <c r="D67" s="10">
@@ -4449,12 +4525,13 @@
       <c r="I67" s="7">
         <v>5</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="J67" s="7"/>
+      <c r="L67" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11">
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="7">
         <v>140005</v>
       </c>
       <c r="D68" s="10">
@@ -4475,12 +4552,13 @@
       <c r="I68" s="7">
         <v>5</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="J68" s="7"/>
+      <c r="L68" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="11">
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="7">
         <v>140006</v>
       </c>
       <c r="D69" s="10">
@@ -4501,12 +4579,13 @@
       <c r="I69" s="7">
         <v>5</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="J69" s="7"/>
+      <c r="L69" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="11">
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="7">
         <v>140007</v>
       </c>
       <c r="D70" s="10">
@@ -4527,12 +4606,13 @@
       <c r="I70" s="7">
         <v>5</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="J70" s="7"/>
+      <c r="L70" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="11">
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="7">
         <v>140008</v>
       </c>
       <c r="D71" s="10">
@@ -4553,12 +4633,13 @@
       <c r="I71" s="7">
         <v>5</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="J71" s="7"/>
+      <c r="L71" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="11">
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="7">
         <v>140009</v>
       </c>
       <c r="D72" s="9" t="s">
@@ -4579,12 +4660,13 @@
       <c r="I72" s="7">
         <v>5</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="J72" s="7"/>
+      <c r="L72" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="11">
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="7">
         <v>140010</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -4605,17 +4687,18 @@
       <c r="I73" s="7">
         <v>5</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="J73" s="7"/>
+      <c r="L73" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912665B-72D3-4ACF-8E08-5B964ACC70D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C455E99-4554-4B99-9BF3-AD8CEDAEFA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -98,287 +98,294 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>初级锻造鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级首饰鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级防具鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级锻造鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级首饰鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级防具鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级锻造鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级首饰鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级防具鉴定符</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级锻造鉴定符</t>
-  </si>
-  <si>
-    <t>超级首饰鉴定符</t>
-  </si>
-  <si>
-    <t>超级防具鉴定符</t>
-  </si>
-  <si>
-    <t>小团团宠物蛋</t>
-  </si>
-  <si>
-    <t>南瓜勇士宠物蛋</t>
-  </si>
-  <si>
-    <t>小火焰宠物蛋</t>
-  </si>
-  <si>
-    <t>盔甲武士宠物蛋</t>
-  </si>
-  <si>
-    <t>螳螂战士宠物蛋</t>
-  </si>
-  <si>
-    <t>灵狐宠物蛋</t>
-  </si>
-  <si>
-    <t>战斗猩猩宠物蛋</t>
-  </si>
-  <si>
-    <t>勇敢牛牛宠物蛋</t>
-  </si>
-  <si>
-    <t>皮皮宠物蛋</t>
-  </si>
-  <si>
     <t>无色晶体</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>宠灵之核</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>重铸之石</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦境羽毛</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦境币</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物碎片</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛兰晶体</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>森之魔叶</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>森之核</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>花之液</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>树叶</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵之气</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护碎片</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨岩碎片</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛兰徽记</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦境之核</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封之核</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封之灵</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰心</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰刺</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰蛇皮</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰蛋</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蛛网</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪块</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼毛</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封结晶</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗迹之核</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗迹之灵</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰灰烬</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>花之结晶</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿木块</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>花瓣</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨石碎片</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨石之灵</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗迹晶体</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠之核</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠徽记</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠气体</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇皮</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖刺</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙土</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠浆液</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>花之蜜</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟹壳</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬木块</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠晶体</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>限购数量</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>BuyNumMax</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>灿烂的结晶</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼石袋子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备晶石袋子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战铃铛</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼小的宠物蛋</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀少的宠物蛋</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍贵的宠物蛋</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物骨头</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物牛奶</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型宝石箱子</t>
+  </si>
+  <si>
+    <t>基础宝石箱子</t>
+  </si>
+  <si>
+    <t>中级宝石箱子</t>
+  </si>
+  <si>
+    <t>高级宝石箱子</t>
+  </si>
+  <si>
+    <t>第一章装备盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章装备盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章装备盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章装备盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章装备盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>狼皮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿洞水珠</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛丝</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>防腐液</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴木</t>
+  </si>
+  <si>
+    <t>古墓灵石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林印记</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林奖章</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林晶体</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼皮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的螃蟹壳</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒结晶</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>地牢灵魂</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>启天灵石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精灵石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘魂石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒漠印记</t>
+  </si>
+  <si>
+    <t>荒漠奖章</t>
+  </si>
+  <si>
+    <t>荒漠晶体</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰狼皮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛蛋</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵结晶</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>千针石块</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪果实</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气之心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪之心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封印记</t>
+  </si>
+  <si>
+    <t>冰封奖章</t>
+  </si>
+  <si>
+    <t>冰封晶体</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>树皮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>白熊毛皮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘布料</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石碎块</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色结晶</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>上好的木材</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色之心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色印记</t>
+  </si>
+  <si>
+    <t>暮色奖章</t>
+  </si>
+  <si>
+    <t>暮色晶体</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙皮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩裂石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗骨块</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗灵魂</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩炙水</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩之心</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古魔石</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙热印记</t>
+  </si>
+  <si>
+    <t>炙热奖章</t>
+  </si>
+  <si>
+    <t>炙热晶体</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,8 +610,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,8 +823,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -957,6 +990,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2010,7 +2073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2037,7 +2100,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L105"/>
+  <dimension ref="C1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2774,11 +2867,12 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:15" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2801,10 +2895,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2827,10 +2921,10 @@
         <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2856,301 +2950,383 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7">
         <v>100001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5">
-        <v>11200001</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10000143</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
-        <v>5000</v>
+        <v>450</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="L6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7">
         <v>100002</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5">
-        <v>11200002</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10000141</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="L7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <v>100003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5">
-        <v>11200003</v>
+        <v>39</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10000142</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="L8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3</v>
+      </c>
+      <c r="O8" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>100004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5">
-        <v>11200004</v>
+        <v>39</v>
+      </c>
+      <c r="E9" s="14">
+        <v>10010087</v>
       </c>
       <c r="F9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
-        <v>10000</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7">
         <v>100005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5">
-        <v>11200005</v>
+        <v>40</v>
+      </c>
+      <c r="E10" s="14">
+        <v>10010091</v>
       </c>
       <c r="F10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="7">
-        <v>10000</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="L10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="9">
+        <v>5</v>
+      </c>
+      <c r="O10" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>100006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5">
-        <v>11200006</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10010092</v>
       </c>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="7">
-        <v>10000</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="L11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="9">
+        <v>6</v>
+      </c>
+      <c r="O11" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
         <v>100007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5">
-        <v>11200007</v>
+        <v>40</v>
+      </c>
+      <c r="E12" s="14">
+        <v>10010093</v>
       </c>
       <c r="F12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="7">
-        <v>15000</v>
+        <v>480</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="L12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="9">
+        <v>7</v>
+      </c>
+      <c r="O12" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>100008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5">
-        <v>11200008</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10010098</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7">
-        <v>15000</v>
+        <v>680</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="L13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="9">
+        <v>8</v>
+      </c>
+      <c r="O13" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
         <v>100009</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5">
-        <v>11200009</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="15">
+        <v>10010099</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="7">
-        <v>15000</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="L14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="9">
+        <v>9</v>
+      </c>
+      <c r="O14" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7">
         <v>100010</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5">
-        <v>11200010</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="14">
+        <v>10000101</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="7">
-        <v>20000</v>
+        <v>240</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="L15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="9">
+        <v>10</v>
+      </c>
+      <c r="O15" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7">
         <v>100011</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5">
-        <v>11200011</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10000102</v>
       </c>
       <c r="F16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7">
-        <v>20000</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="L16" s="6" t="s">
-        <v>27</v>
+      <c r="I16" s="13">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3158,1541 +3334,1683 @@
         <v>100012</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="5">
-        <v>11200012</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="14">
+        <v>10000103</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7">
-        <v>20000</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="L17" s="6" t="s">
-        <v>28</v>
+      <c r="I17" s="13">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7">
         <v>100013</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="5">
-        <v>11100001</v>
+      <c r="D18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="14">
+        <v>10000104</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="7">
-        <v>30000</v>
+        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="L18" s="6" t="s">
-        <v>29</v>
+      <c r="I18" s="13">
+        <v>7</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7">
         <v>100014</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="5">
-        <v>11100002</v>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="14">
+        <v>10000121</v>
       </c>
       <c r="F19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="7">
-        <v>30000</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="L19" s="6" t="s">
-        <v>30</v>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="7">
         <v>100015</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="5">
-        <v>11100003</v>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="14">
+        <v>10000122</v>
       </c>
       <c r="F20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="7">
-        <v>30000</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="L20" s="6" t="s">
-        <v>31</v>
+      <c r="I20" s="13">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7">
         <v>100016</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="5">
-        <v>11100004</v>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="14">
+        <v>10000123</v>
       </c>
       <c r="F21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="7">
-        <v>50000</v>
+        <v>360</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="L21" s="6" t="s">
-        <v>32</v>
+      <c r="I21" s="13">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7">
         <v>100017</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="5">
-        <v>11100005</v>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="14">
+        <v>10000124</v>
       </c>
       <c r="F22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="7">
-        <v>50000</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="L22" s="6" t="s">
-        <v>33</v>
+      <c r="I22" s="13">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7">
         <v>100018</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="5">
-        <v>11100006</v>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="14">
+        <v>10000125</v>
       </c>
       <c r="F23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="7">
-        <v>50000</v>
+        <v>360</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="L23" s="6" t="s">
-        <v>34</v>
+      <c r="I23" s="13">
+        <v>7</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7">
-        <v>100019</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="5">
-        <v>11100007</v>
+        <v>200001</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="16">
+        <v>10020001</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>100000</v>
-      </c>
-      <c r="H24" s="7">
         <v>50</v>
       </c>
+      <c r="H24" s="19">
+        <v>50</v>
+      </c>
       <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="19">
+        <v>20</v>
+      </c>
       <c r="L24" s="6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7">
-        <v>100020</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="5">
-        <v>11100008</v>
+        <v>200002</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="16">
+        <v>10021001</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>100000</v>
-      </c>
-      <c r="H25" s="7">
         <v>50</v>
       </c>
+      <c r="H25" s="19">
+        <v>50</v>
+      </c>
       <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="L25" s="6" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <v>20</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="7">
-        <v>100021</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="5">
-        <v>11100009</v>
+        <v>200003</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="16">
+        <v>10021002</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>100000</v>
-      </c>
-      <c r="H26" s="7">
         <v>50</v>
       </c>
+      <c r="H26" s="19">
+        <v>50</v>
+      </c>
       <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="L26" s="6" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>20</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7">
-        <v>100022</v>
-      </c>
-      <c r="D27" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E27" s="5">
-        <v>12000001</v>
+        <v>200004</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="16">
+        <v>10021003</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>100</v>
-      </c>
-      <c r="H27" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H27" s="19">
+        <v>50</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="L27" s="6" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="J27" s="19">
+        <v>20</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="7">
-        <v>100023</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>200005</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="16">
+        <v>10021004</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>50</v>
+      </c>
+      <c r="H28" s="19">
+        <v>50</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19">
+        <v>20</v>
+      </c>
+      <c r="L28" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" s="5">
-        <v>12000003</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>17500</v>
-      </c>
-      <c r="H28" s="7">
-        <v>100</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="L28" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="7">
-        <v>100024</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="5">
-        <v>12000004</v>
+        <v>200006</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="16">
+        <v>10021005</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>2500</v>
-      </c>
-      <c r="H29" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H29" s="19">
+        <v>50</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="L29" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="J29" s="19">
+        <v>20</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="7">
-        <v>100025</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="5">
-        <v>12000005</v>
+        <v>200007</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="16">
+        <v>10021006</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>2500</v>
-      </c>
-      <c r="H30" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H30" s="19">
+        <v>50</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="L30" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="J30" s="19">
+        <v>20</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
-        <v>100026</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="5">
-        <v>12000006</v>
+        <v>200008</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="16">
+        <v>10021007</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H31" s="19">
+        <v>50</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="L31" s="6" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="J31" s="19">
+        <v>20</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7">
-        <v>100027</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="5">
-        <v>12000008</v>
+        <v>200009</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="16">
+        <v>10021008</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>2500</v>
-      </c>
-      <c r="H32" s="7">
-        <v>100</v>
+        <v>10000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>10000</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="L32" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7">
-        <v>110001</v>
-      </c>
-      <c r="D33" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E33" s="5">
-        <v>12001001</v>
+        <v>200010</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="16">
+        <v>10021009</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>100</v>
-      </c>
-      <c r="H33" s="7">
-        <v>100</v>
+        <v>25000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>25000</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="L33" s="6" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="J33" s="19">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7">
-        <v>110002</v>
-      </c>
-      <c r="D34" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E34" s="5">
-        <v>12001002</v>
+        <v>200011</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="16">
+        <v>10021010</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <v>100</v>
-      </c>
-      <c r="H34" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H34" s="19">
+        <v>50</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="L34" s="6" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="J34" s="19">
+        <v>20</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7">
-        <v>110003</v>
-      </c>
-      <c r="D35" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E35" s="5">
-        <v>12001003</v>
+        <v>200012</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="16">
+        <v>10022001</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="7">
-        <v>100</v>
-      </c>
-      <c r="H35" s="7">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="H35" s="19">
+        <v>80</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="L35" s="6" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="J35" s="19">
+        <v>20</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7">
-        <v>110004</v>
-      </c>
-      <c r="D36" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E36" s="5">
-        <v>12001004</v>
+        <v>200013</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="16">
+        <v>10022002</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <v>100</v>
-      </c>
-      <c r="H36" s="7">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="H36" s="19">
+        <v>80</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="L36" s="6" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="J36" s="19">
+        <v>20</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
-        <v>110005</v>
-      </c>
-      <c r="D37" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E37" s="5">
-        <v>12001005</v>
+        <v>200014</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="16">
+        <v>10022003</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>100</v>
-      </c>
-      <c r="H37" s="7">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="H37" s="19">
+        <v>80</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="L37" s="6" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="J37" s="19">
+        <v>20</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="7">
-        <v>110006</v>
-      </c>
-      <c r="D38" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E38" s="5">
-        <v>12001006</v>
+        <v>200015</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="16">
+        <v>10022004</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
-        <v>100</v>
-      </c>
-      <c r="H38" s="7">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="H38" s="19">
+        <v>80</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="L38" s="6" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="J38" s="19">
+        <v>20</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="7">
-        <v>110007</v>
-      </c>
-      <c r="D39" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E39" s="5">
-        <v>12001007</v>
+        <v>200016</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="16">
+        <v>10022005</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>100</v>
-      </c>
-      <c r="H39" s="7">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="H39" s="19">
+        <v>80</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="L39" s="6" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="J39" s="19">
+        <v>20</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
-        <v>110008</v>
-      </c>
-      <c r="D40" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E40" s="5">
-        <v>12001008</v>
+        <v>200017</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="16">
+        <v>10022006</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>100</v>
-      </c>
-      <c r="H40" s="7">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="H40" s="19">
+        <v>80</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="L40" s="6" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="J40" s="19">
+        <v>20</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7">
-        <v>110009</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="5">
-        <v>12001009</v>
+        <v>200018</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="16">
+        <v>10022007</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>5000</v>
-      </c>
-      <c r="H41" s="7">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="H41" s="19">
+        <v>80</v>
       </c>
       <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="L41" s="5" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="J41" s="19">
+        <v>20</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7">
-        <v>110010</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="5">
-        <v>12001010</v>
+        <v>200019</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="16">
+        <v>10022008</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>5000</v>
-      </c>
-      <c r="H42" s="7">
-        <v>50</v>
+        <v>15000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>15000</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="19">
+        <v>1</v>
+      </c>
       <c r="L42" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7">
-        <v>120001</v>
-      </c>
-      <c r="D43" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E43" s="5">
-        <v>12002001</v>
+        <v>200020</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="16">
+        <v>10022009</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="9">
-        <v>150</v>
-      </c>
-      <c r="H43" s="7">
-        <v>100</v>
+      <c r="G43" s="7">
+        <v>30000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>30000</v>
       </c>
       <c r="I43" s="7">
-        <v>1</v>
-      </c>
-      <c r="J43" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J43" s="19">
+        <v>1</v>
+      </c>
       <c r="L43" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7">
-        <v>120002</v>
-      </c>
-      <c r="D44" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E44" s="5">
-        <v>12002002</v>
+        <v>200021</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="16">
+        <v>10022010</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
-      <c r="G44" s="9">
-        <v>150</v>
-      </c>
-      <c r="H44" s="7">
-        <v>100</v>
+      <c r="G44" s="7">
+        <v>80</v>
+      </c>
+      <c r="H44" s="19">
+        <v>80</v>
       </c>
       <c r="I44" s="7">
-        <v>1</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="L44" s="5" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="J44" s="19">
+        <v>20</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7">
-        <v>120003</v>
-      </c>
-      <c r="D45" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E45" s="5">
-        <v>12002003</v>
+        <v>200022</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="16">
+        <v>10023001</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="9">
-        <v>150</v>
-      </c>
-      <c r="H45" s="7">
-        <v>100</v>
+      <c r="G45" s="7">
+        <v>120</v>
+      </c>
+      <c r="H45" s="19">
+        <v>120</v>
       </c>
       <c r="I45" s="7">
-        <v>1</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="L45" s="5" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+      <c r="J45" s="19">
+        <v>20</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7">
-        <v>120004</v>
-      </c>
-      <c r="D46" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E46" s="5">
-        <v>12002004</v>
+        <v>200023</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="16">
+        <v>10023002</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="9">
-        <v>150</v>
-      </c>
-      <c r="H46" s="7">
-        <v>100</v>
+      <c r="G46" s="7">
+        <v>120</v>
+      </c>
+      <c r="H46" s="19">
+        <v>120</v>
       </c>
       <c r="I46" s="7">
-        <v>1</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="L46" s="5" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="J46" s="19">
+        <v>20</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
-        <v>120005</v>
-      </c>
-      <c r="D47" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E47" s="5">
-        <v>12002005</v>
+        <v>200024</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="16">
+        <v>10023003</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="9">
-        <v>150</v>
-      </c>
-      <c r="H47" s="7">
-        <v>100</v>
+      <c r="G47" s="7">
+        <v>120</v>
+      </c>
+      <c r="H47" s="19">
+        <v>120</v>
       </c>
       <c r="I47" s="7">
-        <v>1</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="L47" s="5" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="J47" s="19">
+        <v>20</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7">
-        <v>120006</v>
-      </c>
-      <c r="D48" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E48" s="5">
-        <v>12002006</v>
+        <v>200025</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="16">
+        <v>10023004</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
-      <c r="G48" s="9">
-        <v>150</v>
-      </c>
-      <c r="H48" s="7">
-        <v>100</v>
+      <c r="G48" s="7">
+        <v>120</v>
+      </c>
+      <c r="H48" s="19">
+        <v>120</v>
       </c>
       <c r="I48" s="7">
-        <v>1</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="L48" s="5" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="J48" s="19">
+        <v>20</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7">
-        <v>120007</v>
-      </c>
-      <c r="D49" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E49" s="5">
-        <v>12002007</v>
+        <v>200026</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="16">
+        <v>10023005</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
-      <c r="G49" s="9">
-        <v>150</v>
-      </c>
-      <c r="H49" s="7">
-        <v>100</v>
+      <c r="G49" s="7">
+        <v>120</v>
+      </c>
+      <c r="H49" s="19">
+        <v>120</v>
       </c>
       <c r="I49" s="7">
-        <v>1</v>
-      </c>
-      <c r="J49" s="7"/>
-      <c r="L49" s="5" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="J49" s="19">
+        <v>20</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7">
-        <v>120008</v>
-      </c>
-      <c r="D50" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E50" s="5">
-        <v>12002008</v>
+        <v>200027</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="16">
+        <v>10023006</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
       </c>
-      <c r="G50" s="9">
-        <v>150</v>
-      </c>
-      <c r="H50" s="7">
-        <v>100</v>
+      <c r="G50" s="7">
+        <v>120</v>
+      </c>
+      <c r="H50" s="19">
+        <v>120</v>
       </c>
       <c r="I50" s="7">
-        <v>1</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="L50" s="5" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="J50" s="19">
+        <v>20</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="7">
-        <v>120009</v>
-      </c>
-      <c r="D51" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E51" s="5">
-        <v>12002009</v>
+        <v>200028</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="16">
+        <v>10023007</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
-      <c r="G51" s="9">
-        <v>150</v>
-      </c>
-      <c r="H51" s="7">
-        <v>100</v>
+      <c r="G51" s="7">
+        <v>120</v>
+      </c>
+      <c r="H51" s="19">
+        <v>120</v>
       </c>
       <c r="I51" s="7">
-        <v>1</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="L51" s="5" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="J51" s="19">
+        <v>20</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="7">
-        <v>120010</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="5">
-        <v>12002010</v>
+        <v>200029</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="16">
+        <v>10023008</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
-      <c r="G52" s="9">
-        <v>7500</v>
-      </c>
-      <c r="H52" s="7">
-        <v>50</v>
+      <c r="G52" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H52" s="19">
+        <v>20000</v>
       </c>
       <c r="I52" s="7">
-        <v>1</v>
-      </c>
-      <c r="J52" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="J52" s="19">
+        <v>1</v>
+      </c>
       <c r="L52" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="7">
-        <v>120011</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="5">
-        <v>12002011</v>
+        <v>200030</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="16">
+        <v>10023009</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
-      <c r="G53" s="9">
-        <v>7500</v>
-      </c>
-      <c r="H53" s="7">
-        <v>50</v>
+      <c r="G53" s="7">
+        <v>40000</v>
+      </c>
+      <c r="H53" s="19">
+        <v>40000</v>
       </c>
       <c r="I53" s="7">
-        <v>1</v>
-      </c>
-      <c r="J53" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="J53" s="19">
+        <v>1</v>
+      </c>
       <c r="L53" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7">
-        <v>130001</v>
-      </c>
-      <c r="D54" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E54" s="5">
-        <v>12003001</v>
+        <v>200031</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="16">
+        <v>10023010</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
-      <c r="G54" s="9">
-        <v>200</v>
-      </c>
-      <c r="H54" s="7">
-        <v>100</v>
+      <c r="G54" s="7">
+        <v>120</v>
+      </c>
+      <c r="H54" s="19">
+        <v>120</v>
       </c>
       <c r="I54" s="7">
         <v>3</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="L54" s="5" t="s">
-        <v>74</v>
+      <c r="J54" s="19">
+        <v>20</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="7">
-        <v>130002</v>
-      </c>
-      <c r="D55" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E55" s="5">
-        <v>12003002</v>
+        <v>200032</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="16">
+        <v>10024001</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
-      <c r="G55" s="9">
-        <v>200</v>
-      </c>
-      <c r="H55" s="7">
-        <v>100</v>
+      <c r="G55" s="7">
+        <v>150</v>
+      </c>
+      <c r="H55" s="19">
+        <v>150</v>
       </c>
       <c r="I55" s="7">
-        <v>3</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="L55" s="5" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="J55" s="19">
+        <v>20</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
-        <v>130003</v>
-      </c>
-      <c r="D56" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E56" s="5">
-        <v>12003003</v>
+        <v>200033</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="16">
+        <v>10024002</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
-      <c r="G56" s="9">
-        <v>200</v>
-      </c>
-      <c r="H56" s="7">
-        <v>100</v>
+      <c r="G56" s="7">
+        <v>150</v>
+      </c>
+      <c r="H56" s="19">
+        <v>150</v>
       </c>
       <c r="I56" s="7">
-        <v>3</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="L56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="19">
+        <v>20</v>
+      </c>
+      <c r="L56" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7">
-        <v>130004</v>
-      </c>
-      <c r="D57" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E57" s="5">
-        <v>12003004</v>
+        <v>200034</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="16">
+        <v>10024003</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="9">
-        <v>200</v>
-      </c>
-      <c r="H57" s="7">
-        <v>100</v>
+      <c r="G57" s="7">
+        <v>150</v>
+      </c>
+      <c r="H57" s="19">
+        <v>150</v>
       </c>
       <c r="I57" s="7">
-        <v>3</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="L57" s="5" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="J57" s="19">
+        <v>20</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
-        <v>130005</v>
-      </c>
-      <c r="D58" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E58" s="5">
-        <v>12003005</v>
+        <v>200035</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="16">
+        <v>10024004</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
-      <c r="G58" s="9">
-        <v>200</v>
-      </c>
-      <c r="H58" s="7">
-        <v>100</v>
+      <c r="G58" s="7">
+        <v>150</v>
+      </c>
+      <c r="H58" s="19">
+        <v>150</v>
       </c>
       <c r="I58" s="7">
-        <v>3</v>
-      </c>
-      <c r="J58" s="7"/>
-      <c r="L58" s="5" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="J58" s="19">
+        <v>20</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="7">
-        <v>130006</v>
-      </c>
-      <c r="D59" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E59" s="5">
-        <v>12003006</v>
+        <v>200036</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="16">
+        <v>10024005</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
-      <c r="G59" s="9">
-        <v>200</v>
-      </c>
-      <c r="H59" s="7">
-        <v>100</v>
+      <c r="G59" s="7">
+        <v>150</v>
+      </c>
+      <c r="H59" s="19">
+        <v>150</v>
       </c>
       <c r="I59" s="7">
-        <v>3</v>
-      </c>
-      <c r="J59" s="7"/>
-      <c r="L59" s="5" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="J59" s="19">
+        <v>20</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="7">
-        <v>130007</v>
-      </c>
-      <c r="D60" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E60" s="5">
-        <v>12003007</v>
+        <v>200037</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="16">
+        <v>10024006</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
-      <c r="G60" s="9">
-        <v>200</v>
-      </c>
-      <c r="H60" s="7">
-        <v>100</v>
+      <c r="G60" s="7">
+        <v>150</v>
+      </c>
+      <c r="H60" s="19">
+        <v>150</v>
       </c>
       <c r="I60" s="7">
-        <v>3</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="L60" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="J60" s="19">
+        <v>20</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
-        <v>130008</v>
-      </c>
-      <c r="D61" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E61" s="5">
-        <v>12003008</v>
+        <v>200038</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="16">
+        <v>10024007</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
-      <c r="G61" s="9">
-        <v>200</v>
-      </c>
-      <c r="H61" s="7">
-        <v>100</v>
+      <c r="G61" s="7">
+        <v>150</v>
+      </c>
+      <c r="H61" s="19">
+        <v>150</v>
       </c>
       <c r="I61" s="7">
-        <v>3</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="L61" s="5" t="s">
-        <v>67</v>
+        <v>5</v>
+      </c>
+      <c r="J61" s="19">
+        <v>20</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="7">
-        <v>130009</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="5">
-        <v>12003009</v>
+        <v>200039</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="16">
+        <v>10024008</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
-      <c r="G62" s="9">
-        <v>10000</v>
-      </c>
-      <c r="H62" s="7">
-        <v>50</v>
+      <c r="G62" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H62" s="19">
+        <v>25000</v>
       </c>
       <c r="I62" s="7">
-        <v>3</v>
-      </c>
-      <c r="J62" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="J62" s="19">
+        <v>1</v>
+      </c>
       <c r="L62" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="7">
-        <v>130010</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="5">
-        <v>12003010</v>
+        <v>200040</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="16">
+        <v>10024009</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
       </c>
-      <c r="G63" s="9">
-        <v>10000</v>
-      </c>
-      <c r="H63" s="7">
-        <v>50</v>
+      <c r="G63" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H63" s="19">
+        <v>50000</v>
       </c>
       <c r="I63" s="7">
-        <v>3</v>
-      </c>
-      <c r="J63" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="J63" s="19">
+        <v>1</v>
+      </c>
       <c r="L63" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
-        <v>140001</v>
-      </c>
-      <c r="D64" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E64" s="5">
-        <v>12004001</v>
+        <v>200041</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="16">
+        <v>10024010</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
       </c>
-      <c r="G64" s="9">
-        <v>250</v>
-      </c>
-      <c r="H64" s="7">
-        <v>100</v>
+      <c r="G64" s="7">
+        <v>150</v>
+      </c>
+      <c r="H64" s="19">
+        <v>150</v>
       </c>
       <c r="I64" s="7">
         <v>5</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="L64" s="5" t="s">
-        <v>64</v>
+      <c r="J64" s="19">
+        <v>20</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
-        <v>140002</v>
-      </c>
-      <c r="D65" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E65" s="5">
-        <v>12004002</v>
+        <v>200042</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="16">
+        <v>10025001</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
       </c>
-      <c r="G65" s="9">
-        <v>250</v>
-      </c>
-      <c r="H65" s="7">
-        <v>100</v>
+      <c r="G65" s="7">
+        <v>180</v>
+      </c>
+      <c r="H65" s="19">
+        <v>180</v>
       </c>
       <c r="I65" s="7">
-        <v>5</v>
-      </c>
-      <c r="J65" s="7"/>
-      <c r="L65" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="J65" s="19">
+        <v>20</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="7">
-        <v>140003</v>
-      </c>
-      <c r="D66" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E66" s="5">
-        <v>12004003</v>
+        <v>200043</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="16">
+        <v>10025002</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
       </c>
-      <c r="G66" s="9">
-        <v>250</v>
-      </c>
-      <c r="H66" s="7">
-        <v>100</v>
+      <c r="G66" s="7">
+        <v>180</v>
+      </c>
+      <c r="H66" s="19">
+        <v>180</v>
       </c>
       <c r="I66" s="7">
-        <v>5</v>
-      </c>
-      <c r="J66" s="7"/>
-      <c r="L66" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="J66" s="19">
+        <v>20</v>
+      </c>
+      <c r="L66" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="7">
-        <v>140004</v>
-      </c>
-      <c r="D67" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E67" s="5">
-        <v>12004004</v>
+        <v>200044</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="16">
+        <v>10025003</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
-      <c r="G67" s="9">
-        <v>250</v>
-      </c>
-      <c r="H67" s="7">
-        <v>100</v>
+      <c r="G67" s="7">
+        <v>180</v>
+      </c>
+      <c r="H67" s="19">
+        <v>180</v>
       </c>
       <c r="I67" s="7">
-        <v>5</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="L67" s="5" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="J67" s="19">
+        <v>20</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="7">
-        <v>140005</v>
-      </c>
-      <c r="D68" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E68" s="5">
-        <v>12004005</v>
+        <v>200045</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="16">
+        <v>10025004</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
       </c>
-      <c r="G68" s="9">
-        <v>250</v>
-      </c>
-      <c r="H68" s="7">
-        <v>100</v>
+      <c r="G68" s="7">
+        <v>180</v>
+      </c>
+      <c r="H68" s="19">
+        <v>180</v>
       </c>
       <c r="I68" s="7">
-        <v>5</v>
-      </c>
-      <c r="J68" s="7"/>
-      <c r="L68" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="J68" s="19">
+        <v>20</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7">
-        <v>140006</v>
-      </c>
-      <c r="D69" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E69" s="5">
-        <v>12004006</v>
+        <v>200046</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="16">
+        <v>10025005</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
-      <c r="G69" s="9">
-        <v>250</v>
-      </c>
-      <c r="H69" s="7">
-        <v>100</v>
+      <c r="G69" s="7">
+        <v>180</v>
+      </c>
+      <c r="H69" s="19">
+        <v>180</v>
       </c>
       <c r="I69" s="7">
-        <v>5</v>
-      </c>
-      <c r="J69" s="7"/>
-      <c r="L69" s="5" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="J69" s="19">
+        <v>20</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="7">
-        <v>140007</v>
-      </c>
-      <c r="D70" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E70" s="5">
-        <v>12004007</v>
+        <v>200047</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="16">
+        <v>10025006</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
-      <c r="G70" s="9">
-        <v>250</v>
-      </c>
-      <c r="H70" s="7">
-        <v>100</v>
+      <c r="G70" s="7">
+        <v>180</v>
+      </c>
+      <c r="H70" s="19">
+        <v>180</v>
       </c>
       <c r="I70" s="7">
-        <v>5</v>
-      </c>
-      <c r="J70" s="7"/>
-      <c r="L70" s="5" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="J70" s="19">
+        <v>20</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="7">
-        <v>140008</v>
-      </c>
-      <c r="D71" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E71" s="5">
-        <v>12004008</v>
+        <v>200048</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="16">
+        <v>10025007</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
-      <c r="G71" s="9">
-        <v>250</v>
-      </c>
-      <c r="H71" s="7">
-        <v>100</v>
+      <c r="G71" s="7">
+        <v>180</v>
+      </c>
+      <c r="H71" s="19">
+        <v>180</v>
       </c>
       <c r="I71" s="7">
-        <v>5</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="L71" s="5" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="J71" s="19">
+        <v>20</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
-        <v>140009</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="5">
-        <v>12004009</v>
+        <v>200049</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="16">
+        <v>10025008</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
       </c>
-      <c r="G72" s="9">
-        <v>12500</v>
-      </c>
-      <c r="H72" s="7">
-        <v>50</v>
+      <c r="G72" s="7">
+        <v>30000</v>
+      </c>
+      <c r="H72" s="19">
+        <v>30000</v>
       </c>
       <c r="I72" s="7">
-        <v>5</v>
-      </c>
-      <c r="J72" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="J72" s="19">
+        <v>1</v>
+      </c>
       <c r="L72" s="5" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="7">
-        <v>140010</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="5">
-        <v>12004010</v>
+        <v>200050</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="16">
+        <v>10025009</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
-      <c r="G73" s="9">
-        <v>12500</v>
-      </c>
-      <c r="H73" s="7">
-        <v>50</v>
+      <c r="G73" s="7">
+        <v>60000</v>
+      </c>
+      <c r="H73" s="19">
+        <v>60000</v>
       </c>
       <c r="I73" s="7">
-        <v>5</v>
-      </c>
-      <c r="J73" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="J73" s="19">
+        <v>1</v>
+      </c>
       <c r="L73" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="7">
+        <v>200051</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="16">
+        <v>10025010</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7">
+        <v>180</v>
+      </c>
+      <c r="H74" s="19">
+        <v>180</v>
+      </c>
+      <c r="I74" s="7">
+        <v>7</v>
+      </c>
+      <c r="J74" s="19">
+        <v>20</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C455E99-4554-4B99-9BF3-AD8CEDAEFA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97441106-1740-4B98-AFFB-E9080348304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>300,300</t>
+  </si>
+  <si>
+    <t>NextId</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2852,88 +2856,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O105"/>
+  <dimension ref="C1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="34.125" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2949,2074 +2959,2284 @@
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7">
         <v>100001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="7">
+        <v>100002</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <v>10000143</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>450</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>100</v>
       </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
         <v>5</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
       <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7">
         <v>100002</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="7">
+        <v>100003</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F7" s="14">
         <v>10000141</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>150</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>100</v>
       </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>2</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <v>100003</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="7">
+        <v>100004</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="14">
         <v>10000142</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>150</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>100</v>
       </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>100004</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="7">
+        <v>100005</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="14">
         <v>10010087</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>120</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>100</v>
       </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>4</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7">
         <v>100005</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="7">
+        <v>100006</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F10" s="14">
         <v>10010091</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>240</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>100</v>
       </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>5</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>100006</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="7">
+        <v>100007</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="14">
         <v>10010092</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>360</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>100</v>
       </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>6</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
         <v>100007</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="7">
+        <v>100008</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>10010093</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>480</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>100</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11" t="s">
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>7</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>100008</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="7">
+        <v>100009</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F13" s="15">
         <v>10010098</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>680</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>100</v>
       </c>
-      <c r="I13" s="13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>8</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
         <v>100009</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="7">
+        <v>100010</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F14" s="15">
         <v>10010099</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>120</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>100</v>
       </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>9</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7">
         <v>100010</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="7">
+        <v>100011</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F15" s="14">
         <v>10000101</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>240</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>100</v>
       </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>10</v>
       </c>
-      <c r="O15" s="9">
+      <c r="P15" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7">
         <v>100011</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="7">
+        <v>100012</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="14">
+      <c r="F16" s="14">
         <v>10000102</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>240</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>100</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13">
         <v>3</v>
       </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="7">
         <v>100012</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="7">
+        <v>100013</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F17" s="14">
         <v>10000103</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>240</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>100</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <v>5</v>
       </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7">
         <v>100013</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="7">
+        <v>100014</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="14">
+      <c r="F18" s="14">
         <v>10000104</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>240</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>50</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13">
         <v>7</v>
       </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7">
         <v>100014</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="7">
+        <v>100015</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="14">
+      <c r="F19" s="14">
         <v>10000121</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>360</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>50</v>
       </c>
-      <c r="I19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="7">
         <v>100015</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="7">
+        <v>100016</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="14">
         <v>10000122</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>360</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>50</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7">
         <v>100016</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="7">
+        <v>100017</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F21" s="14">
         <v>10000123</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>3</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>360</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>50</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7">
         <v>100017</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="7">
+        <v>100018</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="14">
+      <c r="F22" s="14">
         <v>10000124</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>360</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>50</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="13">
         <v>5</v>
       </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7">
         <v>100018</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="14">
+      <c r="F23" s="14">
         <v>10000125</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>3</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>360</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
         <v>50</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="13">
         <v>7</v>
       </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7">
         <v>200001</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="7">
+        <v>200002</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="16">
+      <c r="F24" s="16">
         <v>10020001</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
       <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
         <v>50</v>
       </c>
-      <c r="H24" s="19">
+      <c r="I24" s="19">
         <v>50</v>
       </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19">
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="19">
         <v>20</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7">
         <v>200002</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="7">
+        <v>200003</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="16">
+      <c r="F25" s="16">
         <v>10021001</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
       <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
         <v>50</v>
       </c>
-      <c r="H25" s="19">
+      <c r="I25" s="19">
         <v>50</v>
       </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="19">
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="19">
         <v>20</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="7">
         <v>200003</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="7">
+        <v>200004</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="16">
+      <c r="F26" s="16">
         <v>10021002</v>
       </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
       <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
         <v>50</v>
       </c>
-      <c r="H26" s="19">
+      <c r="I26" s="19">
         <v>50</v>
       </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19">
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="19">
         <v>20</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7">
         <v>200004</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="7">
+        <v>200005</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="16">
+      <c r="F27" s="16">
         <v>10021003</v>
       </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
       <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
         <v>50</v>
       </c>
-      <c r="H27" s="19">
+      <c r="I27" s="19">
         <v>50</v>
       </c>
-      <c r="I27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19">
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="19">
         <v>20</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="7">
         <v>200005</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="7">
+        <v>200006</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="16">
+      <c r="F28" s="16">
         <v>10021004</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
       <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
         <v>50</v>
       </c>
-      <c r="H28" s="19">
+      <c r="I28" s="19">
         <v>50</v>
       </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19">
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="19">
         <v>20</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="M28" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="7">
         <v>200006</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="7">
+        <v>200007</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="16">
+      <c r="F29" s="16">
         <v>10021005</v>
       </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
       <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
         <v>50</v>
       </c>
-      <c r="H29" s="19">
+      <c r="I29" s="19">
         <v>50</v>
       </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="19">
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19">
         <v>20</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="M29" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="7">
         <v>200007</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="7">
+        <v>200008</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="16">
+      <c r="F30" s="16">
         <v>10021006</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
       <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
         <v>50</v>
       </c>
-      <c r="H30" s="19">
+      <c r="I30" s="19">
         <v>50</v>
       </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19">
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="19">
         <v>20</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="M30" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
         <v>200008</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="7">
+        <v>200009</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="16">
+      <c r="F31" s="16">
         <v>10021007</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
       <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
         <v>50</v>
       </c>
-      <c r="H31" s="19">
+      <c r="I31" s="19">
         <v>50</v>
       </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="19">
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="19">
         <v>20</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7">
         <v>200009</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="7">
+        <v>200010</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="16">
+      <c r="F32" s="16">
         <v>10021008</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
       <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
         <v>10000</v>
       </c>
-      <c r="H32" s="19">
+      <c r="I32" s="19">
         <v>10000</v>
       </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="19">
-        <v>1</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7">
         <v>200010</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="7">
+        <v>200011</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="16">
+      <c r="F33" s="16">
         <v>10021009</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
       <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
         <v>25000</v>
       </c>
-      <c r="H33" s="19">
+      <c r="I33" s="19">
         <v>25000</v>
       </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="19">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5" t="s">
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7">
         <v>200011</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="7">
+        <v>200012</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="16">
+      <c r="F34" s="16">
         <v>10021010</v>
       </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
       <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
         <v>50</v>
       </c>
-      <c r="H34" s="19">
+      <c r="I34" s="19">
         <v>50</v>
       </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-      <c r="J34" s="19">
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="19">
         <v>20</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7">
         <v>200012</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="7">
+        <v>200013</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="16">
+      <c r="F35" s="16">
         <v>10022001</v>
       </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
       <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
         <v>80</v>
       </c>
-      <c r="H35" s="19">
+      <c r="I35" s="19">
         <v>80</v>
       </c>
-      <c r="I35" s="7">
+      <c r="J35" s="7">
         <v>2</v>
       </c>
-      <c r="J35" s="19">
+      <c r="K35" s="19">
         <v>20</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7">
         <v>200013</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="7">
+        <v>200014</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="16">
+      <c r="F36" s="16">
         <v>10022002</v>
       </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
       <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
         <v>80</v>
       </c>
-      <c r="H36" s="19">
+      <c r="I36" s="19">
         <v>80</v>
       </c>
-      <c r="I36" s="7">
+      <c r="J36" s="7">
         <v>2</v>
       </c>
-      <c r="J36" s="19">
+      <c r="K36" s="19">
         <v>20</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
         <v>200014</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="7">
+        <v>200015</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="16">
+      <c r="F37" s="16">
         <v>10022003</v>
       </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
       <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
         <v>80</v>
       </c>
-      <c r="H37" s="19">
+      <c r="I37" s="19">
         <v>80</v>
       </c>
-      <c r="I37" s="7">
+      <c r="J37" s="7">
         <v>2</v>
       </c>
-      <c r="J37" s="19">
+      <c r="K37" s="19">
         <v>20</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="7">
         <v>200015</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="7">
+        <v>200016</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="16">
+      <c r="F38" s="16">
         <v>10022004</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
       <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
         <v>80</v>
       </c>
-      <c r="H38" s="19">
+      <c r="I38" s="19">
         <v>80</v>
       </c>
-      <c r="I38" s="7">
+      <c r="J38" s="7">
         <v>2</v>
       </c>
-      <c r="J38" s="19">
+      <c r="K38" s="19">
         <v>20</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="M38" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="7">
         <v>200016</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="7">
+        <v>200017</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="16">
+      <c r="F39" s="16">
         <v>10022005</v>
       </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
       <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
         <v>80</v>
       </c>
-      <c r="H39" s="19">
+      <c r="I39" s="19">
         <v>80</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J39" s="7">
         <v>2</v>
       </c>
-      <c r="J39" s="19">
+      <c r="K39" s="19">
         <v>20</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="M39" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
         <v>200017</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="7">
+        <v>200018</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="16">
+      <c r="F40" s="16">
         <v>10022006</v>
       </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
       <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
         <v>80</v>
       </c>
-      <c r="H40" s="19">
+      <c r="I40" s="19">
         <v>80</v>
       </c>
-      <c r="I40" s="7">
+      <c r="J40" s="7">
         <v>2</v>
       </c>
-      <c r="J40" s="19">
+      <c r="K40" s="19">
         <v>20</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="M40" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7">
         <v>200018</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="7">
+        <v>200019</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="16">
+      <c r="F41" s="16">
         <v>10022007</v>
       </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
       <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
         <v>80</v>
       </c>
-      <c r="H41" s="19">
+      <c r="I41" s="19">
         <v>80</v>
       </c>
-      <c r="I41" s="7">
+      <c r="J41" s="7">
         <v>2</v>
       </c>
-      <c r="J41" s="19">
+      <c r="K41" s="19">
         <v>20</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="M41" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7">
         <v>200019</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="7">
+        <v>200020</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="16">
+      <c r="F42" s="16">
         <v>10022008</v>
       </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
       <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
         <v>15000</v>
       </c>
-      <c r="H42" s="19">
+      <c r="I42" s="19">
         <v>15000</v>
       </c>
-      <c r="I42" s="7">
+      <c r="J42" s="7">
         <v>2</v>
       </c>
-      <c r="J42" s="19">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5" t="s">
+      <c r="K42" s="19">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7">
         <v>200020</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="7">
+        <v>200021</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="16">
+      <c r="F43" s="16">
         <v>10022009</v>
       </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
       <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
         <v>30000</v>
       </c>
-      <c r="H43" s="19">
+      <c r="I43" s="19">
         <v>30000</v>
       </c>
-      <c r="I43" s="7">
+      <c r="J43" s="7">
         <v>2</v>
       </c>
-      <c r="J43" s="19">
-        <v>1</v>
-      </c>
-      <c r="L43" s="5" t="s">
+      <c r="K43" s="19">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7">
         <v>200021</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="7">
+        <v>200022</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="16">
+      <c r="F44" s="16">
         <v>10022010</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
       <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
         <v>80</v>
       </c>
-      <c r="H44" s="19">
+      <c r="I44" s="19">
         <v>80</v>
       </c>
-      <c r="I44" s="7">
+      <c r="J44" s="7">
         <v>2</v>
       </c>
-      <c r="J44" s="19">
+      <c r="K44" s="19">
         <v>20</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="M44" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7">
         <v>200022</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="7">
+        <v>200023</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="16">
+      <c r="F45" s="16">
         <v>10023001</v>
       </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
       <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
         <v>120</v>
       </c>
-      <c r="H45" s="19">
+      <c r="I45" s="19">
         <v>120</v>
       </c>
-      <c r="I45" s="7">
+      <c r="J45" s="7">
         <v>3</v>
       </c>
-      <c r="J45" s="19">
+      <c r="K45" s="19">
         <v>20</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="M45" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7">
         <v>200023</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="7">
+        <v>200024</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="16">
+      <c r="F46" s="16">
         <v>10023002</v>
       </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
       <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
         <v>120</v>
       </c>
-      <c r="H46" s="19">
+      <c r="I46" s="19">
         <v>120</v>
       </c>
-      <c r="I46" s="7">
+      <c r="J46" s="7">
         <v>3</v>
       </c>
-      <c r="J46" s="19">
+      <c r="K46" s="19">
         <v>20</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="M46" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <v>200024</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="7">
+        <v>200025</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="16">
+      <c r="F47" s="16">
         <v>10023003</v>
       </c>
-      <c r="F47" s="7">
-        <v>1</v>
-      </c>
       <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
         <v>120</v>
       </c>
-      <c r="H47" s="19">
+      <c r="I47" s="19">
         <v>120</v>
       </c>
-      <c r="I47" s="7">
+      <c r="J47" s="7">
         <v>3</v>
       </c>
-      <c r="J47" s="19">
+      <c r="K47" s="19">
         <v>20</v>
       </c>
-      <c r="L47" s="17" t="s">
+      <c r="M47" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7">
         <v>200025</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="7">
+        <v>200026</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="16">
+      <c r="F48" s="16">
         <v>10023004</v>
       </c>
-      <c r="F48" s="7">
-        <v>1</v>
-      </c>
       <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
         <v>120</v>
       </c>
-      <c r="H48" s="19">
+      <c r="I48" s="19">
         <v>120</v>
       </c>
-      <c r="I48" s="7">
+      <c r="J48" s="7">
         <v>3</v>
       </c>
-      <c r="J48" s="19">
+      <c r="K48" s="19">
         <v>20</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="M48" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7">
         <v>200026</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="7">
+        <v>200027</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="16">
+      <c r="F49" s="16">
         <v>10023005</v>
       </c>
-      <c r="F49" s="7">
-        <v>1</v>
-      </c>
       <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7">
         <v>120</v>
       </c>
-      <c r="H49" s="19">
+      <c r="I49" s="19">
         <v>120</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J49" s="7">
         <v>3</v>
       </c>
-      <c r="J49" s="19">
+      <c r="K49" s="19">
         <v>20</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="M49" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7">
         <v>200027</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="7">
+        <v>200028</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="16">
+      <c r="F50" s="16">
         <v>10023006</v>
       </c>
-      <c r="F50" s="7">
-        <v>1</v>
-      </c>
       <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
         <v>120</v>
       </c>
-      <c r="H50" s="19">
+      <c r="I50" s="19">
         <v>120</v>
       </c>
-      <c r="I50" s="7">
+      <c r="J50" s="7">
         <v>3</v>
       </c>
-      <c r="J50" s="19">
+      <c r="K50" s="19">
         <v>20</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="M50" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="7">
         <v>200028</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="7">
+        <v>200029</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="16">
+      <c r="F51" s="16">
         <v>10023007</v>
       </c>
-      <c r="F51" s="7">
-        <v>1</v>
-      </c>
       <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
         <v>120</v>
       </c>
-      <c r="H51" s="19">
+      <c r="I51" s="19">
         <v>120</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J51" s="7">
         <v>3</v>
       </c>
-      <c r="J51" s="19">
+      <c r="K51" s="19">
         <v>20</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="M51" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="7">
         <v>200029</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="7">
+        <v>200030</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="16">
+      <c r="F52" s="16">
         <v>10023008</v>
       </c>
-      <c r="F52" s="7">
-        <v>1</v>
-      </c>
       <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
         <v>20000</v>
       </c>
-      <c r="H52" s="19">
+      <c r="I52" s="19">
         <v>20000</v>
       </c>
-      <c r="I52" s="7">
+      <c r="J52" s="7">
         <v>3</v>
       </c>
-      <c r="J52" s="19">
-        <v>1</v>
-      </c>
-      <c r="L52" s="5" t="s">
+      <c r="K52" s="19">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="7">
         <v>200030</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="7">
+        <v>200031</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="16">
+      <c r="F53" s="16">
         <v>10023009</v>
       </c>
-      <c r="F53" s="7">
-        <v>1</v>
-      </c>
       <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
         <v>40000</v>
       </c>
-      <c r="H53" s="19">
+      <c r="I53" s="19">
         <v>40000</v>
       </c>
-      <c r="I53" s="7">
+      <c r="J53" s="7">
         <v>3</v>
       </c>
-      <c r="J53" s="19">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5" t="s">
+      <c r="K53" s="19">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7">
         <v>200031</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="7">
+        <v>200032</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="16">
+      <c r="F54" s="16">
         <v>10023010</v>
       </c>
-      <c r="F54" s="7">
-        <v>1</v>
-      </c>
       <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
         <v>120</v>
       </c>
-      <c r="H54" s="19">
+      <c r="I54" s="19">
         <v>120</v>
       </c>
-      <c r="I54" s="7">
+      <c r="J54" s="7">
         <v>3</v>
       </c>
-      <c r="J54" s="19">
+      <c r="K54" s="19">
         <v>20</v>
       </c>
-      <c r="L54" s="17" t="s">
+      <c r="M54" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="7">
         <v>200032</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="7">
+        <v>200033</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="16">
+      <c r="F55" s="16">
         <v>10024001</v>
       </c>
-      <c r="F55" s="7">
-        <v>1</v>
-      </c>
       <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
         <v>150</v>
       </c>
-      <c r="H55" s="19">
+      <c r="I55" s="19">
         <v>150</v>
       </c>
-      <c r="I55" s="7">
+      <c r="J55" s="7">
         <v>5</v>
       </c>
-      <c r="J55" s="19">
+      <c r="K55" s="19">
         <v>20</v>
       </c>
-      <c r="L55" s="17" t="s">
+      <c r="M55" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
         <v>200033</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="7">
+        <v>200034</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="16">
+      <c r="F56" s="16">
         <v>10024002</v>
       </c>
-      <c r="F56" s="7">
-        <v>1</v>
-      </c>
       <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
         <v>150</v>
       </c>
-      <c r="H56" s="19">
+      <c r="I56" s="19">
         <v>150</v>
       </c>
-      <c r="I56" s="7">
+      <c r="J56" s="7">
         <v>5</v>
       </c>
-      <c r="J56" s="19">
+      <c r="K56" s="19">
         <v>20</v>
       </c>
-      <c r="L56" s="17" t="s">
+      <c r="M56" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7">
         <v>200034</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="7">
+        <v>200035</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="16">
+      <c r="F57" s="16">
         <v>10024003</v>
       </c>
-      <c r="F57" s="7">
-        <v>1</v>
-      </c>
       <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
         <v>150</v>
       </c>
-      <c r="H57" s="19">
+      <c r="I57" s="19">
         <v>150</v>
       </c>
-      <c r="I57" s="7">
+      <c r="J57" s="7">
         <v>5</v>
       </c>
-      <c r="J57" s="19">
+      <c r="K57" s="19">
         <v>20</v>
       </c>
-      <c r="L57" s="17" t="s">
+      <c r="M57" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
         <v>200035</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="7">
+        <v>200036</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="16">
+      <c r="F58" s="16">
         <v>10024004</v>
       </c>
-      <c r="F58" s="7">
-        <v>1</v>
-      </c>
       <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7">
         <v>150</v>
       </c>
-      <c r="H58" s="19">
+      <c r="I58" s="19">
         <v>150</v>
       </c>
-      <c r="I58" s="7">
+      <c r="J58" s="7">
         <v>5</v>
       </c>
-      <c r="J58" s="19">
+      <c r="K58" s="19">
         <v>20</v>
       </c>
-      <c r="L58" s="17" t="s">
+      <c r="M58" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="7">
         <v>200036</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="7">
+        <v>200037</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="16">
+      <c r="F59" s="16">
         <v>10024005</v>
       </c>
-      <c r="F59" s="7">
-        <v>1</v>
-      </c>
       <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
         <v>150</v>
       </c>
-      <c r="H59" s="19">
+      <c r="I59" s="19">
         <v>150</v>
       </c>
-      <c r="I59" s="7">
+      <c r="J59" s="7">
         <v>5</v>
       </c>
-      <c r="J59" s="19">
+      <c r="K59" s="19">
         <v>20</v>
       </c>
-      <c r="L59" s="17" t="s">
+      <c r="M59" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="7">
         <v>200037</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="7">
+        <v>200038</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="16">
+      <c r="F60" s="16">
         <v>10024006</v>
       </c>
-      <c r="F60" s="7">
-        <v>1</v>
-      </c>
       <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
         <v>150</v>
       </c>
-      <c r="H60" s="19">
+      <c r="I60" s="19">
         <v>150</v>
       </c>
-      <c r="I60" s="7">
+      <c r="J60" s="7">
         <v>5</v>
       </c>
-      <c r="J60" s="19">
+      <c r="K60" s="19">
         <v>20</v>
       </c>
-      <c r="L60" s="17" t="s">
+      <c r="M60" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
         <v>200038</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="7">
+        <v>200039</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="16">
+      <c r="F61" s="16">
         <v>10024007</v>
       </c>
-      <c r="F61" s="7">
-        <v>1</v>
-      </c>
       <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
         <v>150</v>
       </c>
-      <c r="H61" s="19">
+      <c r="I61" s="19">
         <v>150</v>
       </c>
-      <c r="I61" s="7">
+      <c r="J61" s="7">
         <v>5</v>
       </c>
-      <c r="J61" s="19">
+      <c r="K61" s="19">
         <v>20</v>
       </c>
-      <c r="L61" s="17" t="s">
+      <c r="M61" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="7">
         <v>200039</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="7">
+        <v>200040</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="16">
+      <c r="F62" s="16">
         <v>10024008</v>
       </c>
-      <c r="F62" s="7">
-        <v>1</v>
-      </c>
       <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7">
         <v>25000</v>
       </c>
-      <c r="H62" s="19">
+      <c r="I62" s="19">
         <v>25000</v>
       </c>
-      <c r="I62" s="7">
+      <c r="J62" s="7">
         <v>5</v>
       </c>
-      <c r="J62" s="19">
-        <v>1</v>
-      </c>
-      <c r="L62" s="5" t="s">
+      <c r="K62" s="19">
+        <v>1</v>
+      </c>
+      <c r="M62" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="7">
         <v>200040</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="7">
+        <v>200041</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="16">
+      <c r="F63" s="16">
         <v>10024009</v>
       </c>
-      <c r="F63" s="7">
-        <v>1</v>
-      </c>
       <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7">
         <v>50000</v>
       </c>
-      <c r="H63" s="19">
+      <c r="I63" s="19">
         <v>50000</v>
       </c>
-      <c r="I63" s="7">
+      <c r="J63" s="7">
         <v>5</v>
       </c>
-      <c r="J63" s="19">
-        <v>1</v>
-      </c>
-      <c r="L63" s="5" t="s">
+      <c r="K63" s="19">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
         <v>200041</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="7">
+        <v>200042</v>
+      </c>
+      <c r="E64" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="16">
+      <c r="F64" s="16">
         <v>10024010</v>
       </c>
-      <c r="F64" s="7">
-        <v>1</v>
-      </c>
       <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
         <v>150</v>
       </c>
-      <c r="H64" s="19">
+      <c r="I64" s="19">
         <v>150</v>
       </c>
-      <c r="I64" s="7">
+      <c r="J64" s="7">
         <v>5</v>
       </c>
-      <c r="J64" s="19">
+      <c r="K64" s="19">
         <v>20</v>
       </c>
-      <c r="L64" s="17" t="s">
+      <c r="M64" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
         <v>200042</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="7">
+        <v>200043</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="16">
+      <c r="F65" s="16">
         <v>10025001</v>
       </c>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
       <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7">
         <v>180</v>
       </c>
-      <c r="H65" s="19">
+      <c r="I65" s="19">
         <v>180</v>
       </c>
-      <c r="I65" s="7">
+      <c r="J65" s="7">
         <v>7</v>
       </c>
-      <c r="J65" s="19">
+      <c r="K65" s="19">
         <v>20</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="M65" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="7">
         <v>200043</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="7">
+        <v>200044</v>
+      </c>
+      <c r="E66" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="16">
+      <c r="F66" s="16">
         <v>10025002</v>
       </c>
-      <c r="F66" s="7">
-        <v>1</v>
-      </c>
       <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7">
         <v>180</v>
       </c>
-      <c r="H66" s="19">
+      <c r="I66" s="19">
         <v>180</v>
       </c>
-      <c r="I66" s="7">
+      <c r="J66" s="7">
         <v>7</v>
       </c>
-      <c r="J66" s="19">
+      <c r="K66" s="19">
         <v>20</v>
       </c>
-      <c r="L66" s="17" t="s">
+      <c r="M66" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="7">
         <v>200044</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="7">
+        <v>200045</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="16">
+      <c r="F67" s="16">
         <v>10025003</v>
       </c>
-      <c r="F67" s="7">
-        <v>1</v>
-      </c>
       <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7">
         <v>180</v>
       </c>
-      <c r="H67" s="19">
+      <c r="I67" s="19">
         <v>180</v>
       </c>
-      <c r="I67" s="7">
+      <c r="J67" s="7">
         <v>7</v>
       </c>
-      <c r="J67" s="19">
+      <c r="K67" s="19">
         <v>20</v>
       </c>
-      <c r="L67" s="17" t="s">
+      <c r="M67" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="7">
         <v>200045</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="7">
+        <v>200046</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="16">
+      <c r="F68" s="16">
         <v>10025004</v>
       </c>
-      <c r="F68" s="7">
-        <v>1</v>
-      </c>
       <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
         <v>180</v>
       </c>
-      <c r="H68" s="19">
+      <c r="I68" s="19">
         <v>180</v>
       </c>
-      <c r="I68" s="7">
+      <c r="J68" s="7">
         <v>7</v>
       </c>
-      <c r="J68" s="19">
+      <c r="K68" s="19">
         <v>20</v>
       </c>
-      <c r="L68" s="17" t="s">
+      <c r="M68" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7">
         <v>200046</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="7">
+        <v>200047</v>
+      </c>
+      <c r="E69" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="16">
+      <c r="F69" s="16">
         <v>10025005</v>
       </c>
-      <c r="F69" s="7">
-        <v>1</v>
-      </c>
       <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7">
         <v>180</v>
       </c>
-      <c r="H69" s="19">
+      <c r="I69" s="19">
         <v>180</v>
       </c>
-      <c r="I69" s="7">
+      <c r="J69" s="7">
         <v>7</v>
       </c>
-      <c r="J69" s="19">
+      <c r="K69" s="19">
         <v>20</v>
       </c>
-      <c r="L69" s="17" t="s">
+      <c r="M69" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="7">
         <v>200047</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="7">
+        <v>200048</v>
+      </c>
+      <c r="E70" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="16">
+      <c r="F70" s="16">
         <v>10025006</v>
       </c>
-      <c r="F70" s="7">
-        <v>1</v>
-      </c>
       <c r="G70" s="7">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7">
         <v>180</v>
       </c>
-      <c r="H70" s="19">
+      <c r="I70" s="19">
         <v>180</v>
       </c>
-      <c r="I70" s="7">
+      <c r="J70" s="7">
         <v>7</v>
       </c>
-      <c r="J70" s="19">
+      <c r="K70" s="19">
         <v>20</v>
       </c>
-      <c r="L70" s="17" t="s">
+      <c r="M70" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="7">
         <v>200048</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="7">
+        <v>200049</v>
+      </c>
+      <c r="E71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="16">
+      <c r="F71" s="16">
         <v>10025007</v>
       </c>
-      <c r="F71" s="7">
-        <v>1</v>
-      </c>
       <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7">
         <v>180</v>
       </c>
-      <c r="H71" s="19">
+      <c r="I71" s="19">
         <v>180</v>
       </c>
-      <c r="I71" s="7">
+      <c r="J71" s="7">
         <v>7</v>
       </c>
-      <c r="J71" s="19">
+      <c r="K71" s="19">
         <v>20</v>
       </c>
-      <c r="L71" s="17" t="s">
+      <c r="M71" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
         <v>200049</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="7">
+        <v>200050</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="16">
+      <c r="F72" s="16">
         <v>10025008</v>
       </c>
-      <c r="F72" s="7">
-        <v>1</v>
-      </c>
       <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7">
         <v>30000</v>
       </c>
-      <c r="H72" s="19">
+      <c r="I72" s="19">
         <v>30000</v>
       </c>
-      <c r="I72" s="7">
+      <c r="J72" s="7">
         <v>7</v>
       </c>
-      <c r="J72" s="19">
-        <v>1</v>
-      </c>
-      <c r="L72" s="5" t="s">
+      <c r="K72" s="19">
+        <v>1</v>
+      </c>
+      <c r="M72" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="7">
         <v>200050</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="7">
+        <v>200051</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="16">
+      <c r="F73" s="16">
         <v>10025009</v>
       </c>
-      <c r="F73" s="7">
-        <v>1</v>
-      </c>
       <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7">
         <v>60000</v>
       </c>
-      <c r="H73" s="19">
+      <c r="I73" s="19">
         <v>60000</v>
       </c>
-      <c r="I73" s="7">
+      <c r="J73" s="7">
         <v>7</v>
       </c>
-      <c r="J73" s="19">
-        <v>1</v>
-      </c>
-      <c r="L73" s="5" t="s">
+      <c r="K73" s="19">
+        <v>1</v>
+      </c>
+      <c r="M73" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="7">
         <v>200051</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="16">
+      <c r="F74" s="16">
         <v>10025010</v>
       </c>
-      <c r="F74" s="7">
-        <v>1</v>
-      </c>
       <c r="G74" s="7">
+        <v>1</v>
+      </c>
+      <c r="H74" s="7">
         <v>180</v>
       </c>
-      <c r="H74" s="19">
+      <c r="I74" s="19">
         <v>180</v>
       </c>
-      <c r="I74" s="7">
+      <c r="J74" s="7">
         <v>7</v>
       </c>
-      <c r="J74" s="19">
+      <c r="K74" s="19">
         <v>20</v>
       </c>
-      <c r="L74" s="5" t="s">
+      <c r="M74" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97441106-1740-4B98-AFFB-E9080348304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BF6D42-B554-45C9-AF20-96C4673D4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -382,6 +373,45 @@
   </si>
   <si>
     <t>NextId</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级生肖袋子</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级生肖袋子</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级生肖袋子</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>领主刷新券</t>
+  </si>
+  <si>
+    <t>藏宝图</t>
+  </si>
+  <si>
+    <t>史诗宝石宝箱</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钥匙</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间清空</t>
+  </si>
+  <si>
+    <t>宠之晶</t>
+  </si>
+  <si>
+    <t>经验盒子</t>
+  </si>
+  <si>
+    <t>50,50</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +657,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2077,7 +2120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2135,6 +2178,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2856,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P105"/>
+  <dimension ref="C1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3246,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="7">
-        <v>680</v>
+        <v>120</v>
       </c>
       <c r="I13" s="7">
         <v>100</v>
@@ -3284,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="I14" s="7">
         <v>100</v>
@@ -3572,7 +3618,7 @@
         <v>100018</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>100019</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3601,336 +3647,336 @@
     </row>
     <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7">
-        <v>200001</v>
+        <v>100019</v>
       </c>
       <c r="D24" s="7">
-        <v>200002</v>
+        <v>100020</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="16">
-        <v>10020001</v>
+        <v>40</v>
+      </c>
+      <c r="F24" s="14">
+        <v>10010026</v>
       </c>
       <c r="G24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="7">
+        <v>720</v>
+      </c>
+      <c r="I24" s="7">
         <v>50</v>
       </c>
-      <c r="I24" s="19">
-        <v>50</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19">
-        <v>20</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>17</v>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7">
-        <v>200002</v>
+        <v>100020</v>
       </c>
       <c r="D25" s="7">
-        <v>200003</v>
+        <v>100021</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="16">
-        <v>10021001</v>
+        <v>40</v>
+      </c>
+      <c r="F25" s="14">
+        <v>10010051</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="7">
+        <v>120</v>
+      </c>
+      <c r="I25" s="7">
         <v>50</v>
       </c>
-      <c r="I25" s="19">
-        <v>50</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-      <c r="K25" s="19">
-        <v>20</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>41</v>
+      <c r="J25" s="13">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="7">
-        <v>200003</v>
+        <v>100021</v>
       </c>
       <c r="D26" s="7">
-        <v>200004</v>
+        <v>100022</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="16">
-        <v>10021002</v>
+        <v>40</v>
+      </c>
+      <c r="F26" s="14">
+        <v>10010052</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="7">
+        <v>300</v>
+      </c>
+      <c r="I26" s="7">
         <v>50</v>
       </c>
-      <c r="I26" s="19">
-        <v>50</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
-      <c r="K26" s="19">
-        <v>20</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>42</v>
+      <c r="J26" s="13">
+        <v>5</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7">
-        <v>200004</v>
+        <v>100022</v>
       </c>
       <c r="D27" s="7">
-        <v>200005</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="16">
-        <v>10021003</v>
+        <v>100023</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="14">
+        <v>10010053</v>
       </c>
       <c r="G27" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="7">
+        <v>750</v>
+      </c>
+      <c r="I27" s="7">
         <v>50</v>
       </c>
-      <c r="I27" s="19">
-        <v>50</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27" s="19">
-        <v>20</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>43</v>
+      <c r="J27" s="13">
+        <v>7</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="7">
-        <v>200005</v>
+        <v>100023</v>
       </c>
       <c r="D28" s="7">
-        <v>200006</v>
+        <v>100024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="16">
-        <v>10021004</v>
+        <v>40</v>
+      </c>
+      <c r="F28" s="14">
+        <v>10010046</v>
       </c>
       <c r="G28" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="7">
+        <v>240</v>
+      </c>
+      <c r="I28" s="7">
         <v>50</v>
       </c>
-      <c r="I28" s="19">
-        <v>50</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="19">
-        <v>20</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>44</v>
+      <c r="J28" s="13">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="7">
-        <v>200006</v>
+        <v>100024</v>
       </c>
       <c r="D29" s="7">
-        <v>200007</v>
+        <v>100025</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="16">
-        <v>10021005</v>
+        <v>40</v>
+      </c>
+      <c r="F29" s="14">
+        <v>10010039</v>
       </c>
       <c r="G29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="7">
+        <v>180</v>
+      </c>
+      <c r="I29" s="7">
         <v>50</v>
       </c>
-      <c r="I29" s="19">
-        <v>50</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19">
-        <v>20</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>45</v>
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="7">
-        <v>200007</v>
+        <v>100025</v>
       </c>
       <c r="D30" s="7">
-        <v>200008</v>
+        <v>100026</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="16">
-        <v>10021006</v>
+        <v>40</v>
+      </c>
+      <c r="F30" s="14">
+        <v>10000105</v>
       </c>
       <c r="G30" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="7">
+        <v>3750</v>
+      </c>
+      <c r="I30" s="7">
         <v>50</v>
       </c>
-      <c r="I30" s="19">
-        <v>50</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1</v>
-      </c>
-      <c r="K30" s="19">
-        <v>20</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>46</v>
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
-        <v>200008</v>
+        <v>100026</v>
       </c>
       <c r="D31" s="7">
-        <v>200009</v>
+        <v>100027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="16">
-        <v>10021007</v>
+        <v>40</v>
+      </c>
+      <c r="F31" s="14">
+        <v>10010033</v>
       </c>
       <c r="G31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="7">
+        <v>180</v>
+      </c>
+      <c r="I31" s="7">
         <v>50</v>
       </c>
-      <c r="I31" s="19">
-        <v>50</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1</v>
-      </c>
-      <c r="K31" s="19">
-        <v>20</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>47</v>
+      <c r="J31" s="13">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7">
-        <v>200009</v>
+        <v>100027</v>
       </c>
       <c r="D32" s="7">
-        <v>200010</v>
+        <v>100028</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="16">
-        <v>10021008</v>
+      <c r="F32" s="14">
+        <v>10010086</v>
       </c>
       <c r="G32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I32" s="19">
-        <v>10000</v>
-      </c>
-      <c r="J32" s="7">
-        <v>1</v>
-      </c>
-      <c r="K32" s="19">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>48</v>
+        <v>240</v>
+      </c>
+      <c r="I32" s="7">
+        <v>50</v>
+      </c>
+      <c r="J32" s="13">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7">
-        <v>200010</v>
+        <v>100028</v>
       </c>
       <c r="D33" s="7">
-        <v>200011</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="16">
-        <v>10021009</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="14">
+        <v>10010041</v>
       </c>
       <c r="G33" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="7">
-        <v>25000</v>
-      </c>
-      <c r="I33" s="19">
-        <v>25000</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1</v>
-      </c>
-      <c r="K33" s="19">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>49</v>
+        <v>120</v>
+      </c>
+      <c r="I33" s="7">
+        <v>50</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>5</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7">
-        <v>200011</v>
+        <v>200001</v>
       </c>
       <c r="D34" s="7">
-        <v>200012</v>
-      </c>
-      <c r="E34" s="20" t="s">
+        <v>200002</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="16">
-        <v>10021010</v>
+        <v>10020001</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
@@ -3947,1312 +3993,1622 @@
       <c r="K34" s="19">
         <v>20</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>50</v>
+      <c r="M34" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7">
-        <v>200012</v>
+        <v>200002</v>
       </c>
       <c r="D35" s="7">
-        <v>200013</v>
-      </c>
-      <c r="E35" s="20" t="s">
+        <v>200003</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="16">
-        <v>10022001</v>
+        <v>10021001</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I35" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="19">
         <v>20</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7">
-        <v>200013</v>
+        <v>200003</v>
       </c>
       <c r="D36" s="7">
-        <v>200014</v>
-      </c>
-      <c r="E36" s="20" t="s">
+        <v>200004</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="16">
-        <v>10022002</v>
+        <v>10021002</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
       </c>
       <c r="H36" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I36" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="19">
         <v>20</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
-        <v>200014</v>
+        <v>200004</v>
       </c>
       <c r="D37" s="7">
-        <v>200015</v>
+        <v>200005</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="16">
-        <v>10022003</v>
+        <v>10021003</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
       <c r="H37" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I37" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="19">
         <v>20</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="7">
-        <v>200015</v>
+        <v>200005</v>
       </c>
       <c r="D38" s="7">
-        <v>200016</v>
-      </c>
-      <c r="E38" s="20" t="s">
+        <v>200006</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F38" s="16">
-        <v>10022004</v>
+        <v>10021004</v>
       </c>
       <c r="G38" s="7">
         <v>1</v>
       </c>
       <c r="H38" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I38" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="19">
         <v>20</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="7">
-        <v>200016</v>
+        <v>200006</v>
       </c>
       <c r="D39" s="7">
-        <v>200017</v>
-      </c>
-      <c r="E39" s="20" t="s">
+        <v>200007</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F39" s="16">
-        <v>10022005</v>
+        <v>10021005</v>
       </c>
       <c r="G39" s="7">
         <v>1</v>
       </c>
       <c r="H39" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I39" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J39" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="19">
         <v>20</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
-        <v>200017</v>
+        <v>200007</v>
       </c>
       <c r="D40" s="7">
-        <v>200018</v>
-      </c>
-      <c r="E40" s="20" t="s">
+        <v>200008</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="16">
-        <v>10022006</v>
+        <v>10021006</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
       </c>
       <c r="H40" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I40" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J40" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="19">
         <v>20</v>
       </c>
-      <c r="M40" s="18" t="s">
-        <v>56</v>
+      <c r="M40" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7">
-        <v>200018</v>
+        <v>200008</v>
       </c>
       <c r="D41" s="7">
-        <v>200019</v>
+        <v>200009</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F41" s="16">
-        <v>10022007</v>
+        <v>10021007</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
       </c>
       <c r="H41" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I41" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J41" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="19">
         <v>20</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7">
-        <v>200019</v>
+        <v>200009</v>
       </c>
       <c r="D42" s="7">
-        <v>200020</v>
+        <v>200010</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="16">
-        <v>10022008</v>
+        <v>10021008</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
       </c>
       <c r="H42" s="7">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="I42" s="19">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="19">
         <v>1</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7">
-        <v>200020</v>
+        <v>200010</v>
       </c>
       <c r="D43" s="7">
-        <v>200021</v>
+        <v>200011</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="16">
-        <v>10022009</v>
+        <v>10021009</v>
       </c>
       <c r="G43" s="7">
         <v>1</v>
       </c>
       <c r="H43" s="7">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="I43" s="19">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="J43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" s="19">
         <v>1</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7">
-        <v>200021</v>
+        <v>200011</v>
       </c>
       <c r="D44" s="7">
-        <v>200022</v>
+        <v>200012</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F44" s="16">
-        <v>10022010</v>
+        <v>10021010</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
       </c>
       <c r="H44" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I44" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="19">
         <v>20</v>
       </c>
-      <c r="M44" s="17" t="s">
-        <v>60</v>
+      <c r="M44" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7">
-        <v>200022</v>
+        <v>200012</v>
       </c>
       <c r="D45" s="7">
-        <v>200023</v>
+        <v>200013</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F45" s="16">
-        <v>10023001</v>
+        <v>10022001</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
       </c>
       <c r="H45" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I45" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" s="19">
         <v>20</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7">
-        <v>200023</v>
+        <v>200013</v>
       </c>
       <c r="D46" s="7">
-        <v>200024</v>
+        <v>200014</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F46" s="16">
-        <v>10023002</v>
+        <v>10022002</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
       </c>
       <c r="H46" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I46" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J46" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" s="19">
         <v>20</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
-        <v>200024</v>
+        <v>200014</v>
       </c>
       <c r="D47" s="7">
-        <v>200025</v>
+        <v>200015</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F47" s="16">
-        <v>10023003</v>
+        <v>10022003</v>
       </c>
       <c r="G47" s="7">
         <v>1</v>
       </c>
       <c r="H47" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I47" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J47" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="19">
         <v>20</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7">
-        <v>200025</v>
+        <v>200015</v>
       </c>
       <c r="D48" s="7">
-        <v>200026</v>
+        <v>200016</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F48" s="16">
-        <v>10023004</v>
+        <v>10022004</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
       </c>
       <c r="H48" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I48" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J48" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" s="19">
         <v>20</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7">
-        <v>200026</v>
+        <v>200016</v>
       </c>
       <c r="D49" s="7">
-        <v>200027</v>
+        <v>200017</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F49" s="16">
-        <v>10023005</v>
+        <v>10022005</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I49" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J49" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" s="19">
         <v>20</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7">
-        <v>200027</v>
+        <v>200017</v>
       </c>
       <c r="D50" s="7">
-        <v>200028</v>
+        <v>200018</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F50" s="16">
-        <v>10023006</v>
+        <v>10022006</v>
       </c>
       <c r="G50" s="7">
         <v>1</v>
       </c>
       <c r="H50" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I50" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50" s="19">
         <v>20</v>
       </c>
-      <c r="M50" s="17" t="s">
-        <v>66</v>
+      <c r="M50" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="7">
-        <v>200028</v>
+        <v>200018</v>
       </c>
       <c r="D51" s="7">
-        <v>200029</v>
-      </c>
-      <c r="E51" s="20" t="s">
+        <v>200019</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F51" s="16">
-        <v>10023007</v>
+        <v>10022007</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
       </c>
       <c r="H51" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I51" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J51" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="19">
         <v>20</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="7">
-        <v>200029</v>
+        <v>200019</v>
       </c>
       <c r="D52" s="7">
-        <v>200030</v>
+        <v>200020</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="16">
-        <v>10023008</v>
+        <v>10022008</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
       </c>
       <c r="H52" s="7">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="I52" s="19">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="J52" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" s="19">
         <v>1</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="7">
-        <v>200030</v>
+        <v>200020</v>
       </c>
       <c r="D53" s="7">
-        <v>200031</v>
-      </c>
-      <c r="E53" s="7" t="s">
+        <v>200021</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="16">
-        <v>10023009</v>
+        <v>10022009</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="7">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="I53" s="19">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="J53" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" s="19">
         <v>1</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7">
-        <v>200031</v>
+        <v>200021</v>
       </c>
       <c r="D54" s="7">
-        <v>200032</v>
+        <v>200022</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F54" s="16">
-        <v>10023010</v>
+        <v>10022010</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
       </c>
       <c r="H54" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I54" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" s="19">
         <v>20</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="7">
-        <v>200032</v>
+        <v>200022</v>
       </c>
       <c r="D55" s="7">
-        <v>200033</v>
+        <v>200023</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F55" s="16">
-        <v>10024001</v>
+        <v>10023001</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
       </c>
       <c r="H55" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I55" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J55" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K55" s="19">
         <v>20</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
-        <v>200033</v>
+        <v>200023</v>
       </c>
       <c r="D56" s="7">
-        <v>200034</v>
+        <v>200024</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F56" s="16">
-        <v>10024002</v>
+        <v>10023002</v>
       </c>
       <c r="G56" s="7">
         <v>1</v>
       </c>
       <c r="H56" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I56" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J56" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56" s="19">
         <v>20</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7">
-        <v>200034</v>
+        <v>200024</v>
       </c>
       <c r="D57" s="7">
-        <v>200035</v>
+        <v>200025</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F57" s="16">
-        <v>10024003</v>
+        <v>10023003</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I57" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J57" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K57" s="19">
         <v>20</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
-        <v>200035</v>
+        <v>200025</v>
       </c>
       <c r="D58" s="7">
-        <v>200036</v>
+        <v>200026</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F58" s="16">
-        <v>10024004</v>
+        <v>10023004</v>
       </c>
       <c r="G58" s="7">
         <v>1</v>
       </c>
       <c r="H58" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I58" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J58" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58" s="19">
         <v>20</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="7">
-        <v>200036</v>
+        <v>200026</v>
       </c>
       <c r="D59" s="7">
-        <v>200037</v>
+        <v>200027</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="16">
-        <v>10024005</v>
+        <v>10023005</v>
       </c>
       <c r="G59" s="7">
         <v>1</v>
       </c>
       <c r="H59" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I59" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J59" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59" s="19">
         <v>20</v>
       </c>
       <c r="M59" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="7">
-        <v>200037</v>
+        <v>200027</v>
       </c>
       <c r="D60" s="7">
-        <v>200038</v>
+        <v>200028</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F60" s="16">
-        <v>10024006</v>
+        <v>10023006</v>
       </c>
       <c r="G60" s="7">
         <v>1</v>
       </c>
       <c r="H60" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I60" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J60" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60" s="19">
         <v>20</v>
       </c>
       <c r="M60" s="17" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
-        <v>200038</v>
+        <v>200028</v>
       </c>
       <c r="D61" s="7">
-        <v>200039</v>
+        <v>200029</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F61" s="16">
-        <v>10024007</v>
+        <v>10023007</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I61" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J61" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" s="19">
         <v>20</v>
       </c>
       <c r="M61" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="7">
-        <v>200039</v>
+        <v>200029</v>
       </c>
       <c r="D62" s="7">
-        <v>200040</v>
+        <v>200030</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="16">
-        <v>10024008</v>
+        <v>10023008</v>
       </c>
       <c r="G62" s="7">
         <v>1</v>
       </c>
       <c r="H62" s="7">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I62" s="19">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J62" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K62" s="19">
         <v>1</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="7">
-        <v>200040</v>
+        <v>200030</v>
       </c>
       <c r="D63" s="7">
-        <v>200041</v>
+        <v>200031</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="16">
-        <v>10024009</v>
+        <v>10023009</v>
       </c>
       <c r="G63" s="7">
         <v>1</v>
       </c>
       <c r="H63" s="7">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I63" s="19">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="J63" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63" s="19">
         <v>1</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
-        <v>200041</v>
+        <v>200031</v>
       </c>
       <c r="D64" s="7">
-        <v>200042</v>
+        <v>200032</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F64" s="16">
-        <v>10024010</v>
+        <v>10023010</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
       </c>
       <c r="H64" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I64" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J64" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64" s="19">
         <v>20</v>
       </c>
       <c r="M64" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
-        <v>200042</v>
+        <v>200032</v>
       </c>
       <c r="D65" s="7">
-        <v>200043</v>
+        <v>200033</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F65" s="16">
-        <v>10025001</v>
+        <v>10024001</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I65" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J65" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K65" s="19">
         <v>20</v>
       </c>
       <c r="M65" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="7">
-        <v>200043</v>
+        <v>200033</v>
       </c>
       <c r="D66" s="7">
-        <v>200044</v>
+        <v>200034</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F66" s="16">
-        <v>10025002</v>
+        <v>10024002</v>
       </c>
       <c r="G66" s="7">
         <v>1</v>
       </c>
       <c r="H66" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I66" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J66" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K66" s="19">
         <v>20</v>
       </c>
       <c r="M66" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="7">
-        <v>200044</v>
+        <v>200034</v>
       </c>
       <c r="D67" s="7">
-        <v>200045</v>
+        <v>200035</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="16">
-        <v>10025003</v>
+        <v>10024003</v>
       </c>
       <c r="G67" s="7">
         <v>1</v>
       </c>
       <c r="H67" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I67" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J67" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K67" s="19">
         <v>20</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="7">
-        <v>200045</v>
+        <v>200035</v>
       </c>
       <c r="D68" s="7">
-        <v>200046</v>
+        <v>200036</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F68" s="16">
-        <v>10025004</v>
+        <v>10024004</v>
       </c>
       <c r="G68" s="7">
         <v>1</v>
       </c>
       <c r="H68" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I68" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J68" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K68" s="19">
         <v>20</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7">
-        <v>200046</v>
+        <v>200036</v>
       </c>
       <c r="D69" s="7">
-        <v>200047</v>
+        <v>200037</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F69" s="16">
-        <v>10025005</v>
+        <v>10024005</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I69" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J69" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K69" s="19">
         <v>20</v>
       </c>
       <c r="M69" s="17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="7">
-        <v>200047</v>
+        <v>200037</v>
       </c>
       <c r="D70" s="7">
-        <v>200048</v>
+        <v>200038</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F70" s="16">
-        <v>10025006</v>
+        <v>10024006</v>
       </c>
       <c r="G70" s="7">
         <v>1</v>
       </c>
       <c r="H70" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I70" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J70" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K70" s="19">
         <v>20</v>
       </c>
       <c r="M70" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="7">
-        <v>200048</v>
+        <v>200038</v>
       </c>
       <c r="D71" s="7">
-        <v>200049</v>
+        <v>200039</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F71" s="16">
-        <v>10025007</v>
+        <v>10024007</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
       </c>
       <c r="H71" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I71" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J71" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K71" s="19">
         <v>20</v>
       </c>
       <c r="M71" s="17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
-        <v>200049</v>
+        <v>200039</v>
       </c>
       <c r="D72" s="7">
-        <v>200050</v>
+        <v>200040</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F72" s="16">
-        <v>10025008</v>
+        <v>10024008</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
       </c>
       <c r="H72" s="7">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="I72" s="19">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="J72" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K72" s="19">
         <v>1</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="7">
-        <v>200050</v>
+        <v>200040</v>
       </c>
       <c r="D73" s="7">
-        <v>200051</v>
+        <v>200041</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F73" s="16">
-        <v>10025009</v>
+        <v>10024009</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="7">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I73" s="19">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J73" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K73" s="19">
         <v>1</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="7">
-        <v>200051</v>
+        <v>200041</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
-      </c>
-      <c r="E74" s="7" t="s">
+        <v>200042</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F74" s="16">
-        <v>10025010</v>
+        <v>10024010</v>
       </c>
       <c r="G74" s="7">
         <v>1</v>
       </c>
       <c r="H74" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I74" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J74" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K74" s="19">
         <v>20</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="7">
+        <v>200042</v>
+      </c>
+      <c r="D75" s="7">
+        <v>200043</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="16">
+        <v>10025001</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7">
+        <v>180</v>
+      </c>
+      <c r="I75" s="19">
+        <v>180</v>
+      </c>
+      <c r="J75" s="7">
+        <v>7</v>
+      </c>
+      <c r="K75" s="19">
+        <v>20</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="7">
+        <v>200043</v>
+      </c>
+      <c r="D76" s="7">
+        <v>200044</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="16">
+        <v>10025002</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7">
+        <v>180</v>
+      </c>
+      <c r="I76" s="19">
+        <v>180</v>
+      </c>
+      <c r="J76" s="7">
+        <v>7</v>
+      </c>
+      <c r="K76" s="19">
+        <v>20</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="7">
+        <v>200044</v>
+      </c>
+      <c r="D77" s="7">
+        <v>200045</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="16">
+        <v>10025003</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7">
+        <v>180</v>
+      </c>
+      <c r="I77" s="19">
+        <v>180</v>
+      </c>
+      <c r="J77" s="7">
+        <v>7</v>
+      </c>
+      <c r="K77" s="19">
+        <v>20</v>
+      </c>
+      <c r="M77" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="7">
+        <v>200045</v>
+      </c>
+      <c r="D78" s="7">
+        <v>200046</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="16">
+        <v>10025004</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7">
+        <v>180</v>
+      </c>
+      <c r="I78" s="19">
+        <v>180</v>
+      </c>
+      <c r="J78" s="7">
+        <v>7</v>
+      </c>
+      <c r="K78" s="19">
+        <v>20</v>
+      </c>
+      <c r="M78" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="7">
+        <v>200046</v>
+      </c>
+      <c r="D79" s="7">
+        <v>200047</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="16">
+        <v>10025005</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7">
+        <v>180</v>
+      </c>
+      <c r="I79" s="19">
+        <v>180</v>
+      </c>
+      <c r="J79" s="7">
+        <v>7</v>
+      </c>
+      <c r="K79" s="19">
+        <v>20</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="7">
+        <v>200047</v>
+      </c>
+      <c r="D80" s="7">
+        <v>200048</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="16">
+        <v>10025006</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="H80" s="7">
+        <v>180</v>
+      </c>
+      <c r="I80" s="19">
+        <v>180</v>
+      </c>
+      <c r="J80" s="7">
+        <v>7</v>
+      </c>
+      <c r="K80" s="19">
+        <v>20</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="7">
+        <v>200048</v>
+      </c>
+      <c r="D81" s="7">
+        <v>200049</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="16">
+        <v>10025007</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7">
+        <v>180</v>
+      </c>
+      <c r="I81" s="19">
+        <v>180</v>
+      </c>
+      <c r="J81" s="7">
+        <v>7</v>
+      </c>
+      <c r="K81" s="19">
+        <v>20</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="7">
+        <v>200049</v>
+      </c>
+      <c r="D82" s="7">
+        <v>200050</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="16">
+        <v>10025008</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I82" s="19">
+        <v>30000</v>
+      </c>
+      <c r="J82" s="7">
+        <v>7</v>
+      </c>
+      <c r="K82" s="19">
+        <v>1</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="7">
+        <v>200050</v>
+      </c>
+      <c r="D83" s="7">
+        <v>200051</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="16">
+        <v>10025009</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I83" s="19">
+        <v>60000</v>
+      </c>
+      <c r="J83" s="7">
+        <v>7</v>
+      </c>
+      <c r="K83" s="19">
+        <v>1</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="7">
+        <v>200051</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="16">
+        <v>10025010</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7">
+        <v>180</v>
+      </c>
+      <c r="I84" s="19">
+        <v>180</v>
+      </c>
+      <c r="J84" s="7">
+        <v>7</v>
+      </c>
+      <c r="K84" s="19">
+        <v>20</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5262,6 +5618,16 @@
     <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BF6D42-B554-45C9-AF20-96C4673D4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2C2B5-408B-436E-9D9F-9755F93AF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -412,6 +412,10 @@
   </si>
   <si>
     <t>50,50</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊券</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2902,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P115"/>
+  <dimension ref="C1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3938,7 +3942,7 @@
         <v>100028</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>100029</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>103</v>
@@ -3967,48 +3971,48 @@
     </row>
     <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7">
-        <v>200001</v>
+        <v>100029</v>
       </c>
       <c r="D34" s="7">
-        <v>200002</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="16">
-        <v>10020001</v>
+        <v>103</v>
+      </c>
+      <c r="F34" s="14">
+        <v>10000150</v>
       </c>
       <c r="G34" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="7">
+        <v>980</v>
+      </c>
+      <c r="I34" s="7">
         <v>50</v>
       </c>
-      <c r="I34" s="19">
-        <v>50</v>
-      </c>
-      <c r="J34" s="7">
-        <v>1</v>
-      </c>
-      <c r="K34" s="19">
-        <v>20</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>17</v>
+      <c r="J34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7">
+        <v>200001</v>
+      </c>
+      <c r="D35" s="7">
         <v>200002</v>
-      </c>
-      <c r="D35" s="7">
-        <v>200003</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="16">
-        <v>10021001</v>
+        <v>10020001</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
@@ -4025,22 +4029,22 @@
       <c r="K35" s="19">
         <v>20</v>
       </c>
-      <c r="M35" s="17" t="s">
-        <v>41</v>
+      <c r="M35" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7">
+        <v>200002</v>
+      </c>
+      <c r="D36" s="7">
         <v>200003</v>
-      </c>
-      <c r="D36" s="7">
-        <v>200004</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="16">
-        <v>10021002</v>
+        <v>10021001</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -4058,21 +4062,21 @@
         <v>20</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
+        <v>200003</v>
+      </c>
+      <c r="D37" s="7">
         <v>200004</v>
       </c>
-      <c r="D37" s="7">
-        <v>200005</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="16">
-        <v>10021003</v>
+        <v>10021002</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -4090,21 +4094,21 @@
         <v>20</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="7">
+        <v>200004</v>
+      </c>
+      <c r="D38" s="7">
         <v>200005</v>
       </c>
-      <c r="D38" s="7">
-        <v>200006</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F38" s="16">
-        <v>10021004</v>
+        <v>10021003</v>
       </c>
       <c r="G38" s="7">
         <v>1</v>
@@ -4122,21 +4126,21 @@
         <v>20</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="7">
+        <v>200005</v>
+      </c>
+      <c r="D39" s="7">
         <v>200006</v>
-      </c>
-      <c r="D39" s="7">
-        <v>200007</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F39" s="16">
-        <v>10021005</v>
+        <v>10021004</v>
       </c>
       <c r="G39" s="7">
         <v>1</v>
@@ -4154,21 +4158,21 @@
         <v>20</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
+        <v>200006</v>
+      </c>
+      <c r="D40" s="7">
         <v>200007</v>
-      </c>
-      <c r="D40" s="7">
-        <v>200008</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="16">
-        <v>10021006</v>
+        <v>10021005</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -4186,21 +4190,21 @@
         <v>20</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7">
+        <v>200007</v>
+      </c>
+      <c r="D41" s="7">
         <v>200008</v>
-      </c>
-      <c r="D41" s="7">
-        <v>200009</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F41" s="16">
-        <v>10021007</v>
+        <v>10021006</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -4218,62 +4222,62 @@
         <v>20</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7">
+        <v>200008</v>
+      </c>
+      <c r="D42" s="7">
         <v>200009</v>
       </c>
-      <c r="D42" s="7">
-        <v>200010</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F42" s="16">
-        <v>10021008</v>
+        <v>10021007</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
       </c>
       <c r="H42" s="7">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I42" s="19">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J42" s="7">
         <v>1</v>
       </c>
       <c r="K42" s="19">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7">
+        <v>200009</v>
+      </c>
+      <c r="D43" s="7">
         <v>200010</v>
       </c>
-      <c r="D43" s="7">
-        <v>200011</v>
-      </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="16">
-        <v>10021009</v>
+        <v>10021008</v>
       </c>
       <c r="G43" s="7">
         <v>1</v>
       </c>
       <c r="H43" s="7">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="I43" s="19">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="J43" s="7">
         <v>1</v>
@@ -4282,85 +4286,85 @@
         <v>1</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7">
+        <v>200010</v>
+      </c>
+      <c r="D44" s="7">
         <v>200011</v>
       </c>
-      <c r="D44" s="7">
-        <v>200012</v>
-      </c>
       <c r="E44" s="20" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F44" s="16">
-        <v>10021010</v>
+        <v>10021009</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
       </c>
       <c r="H44" s="7">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="I44" s="19">
-        <v>50</v>
+        <v>25000</v>
       </c>
       <c r="J44" s="7">
         <v>1</v>
       </c>
       <c r="K44" s="19">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7">
+        <v>200011</v>
+      </c>
+      <c r="D45" s="7">
         <v>200012</v>
-      </c>
-      <c r="D45" s="7">
-        <v>200013</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F45" s="16">
-        <v>10022001</v>
+        <v>10021010</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
       </c>
       <c r="H45" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I45" s="19">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="19">
         <v>20</v>
       </c>
-      <c r="M45" s="17" t="s">
-        <v>51</v>
+      <c r="M45" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7">
+        <v>200012</v>
+      </c>
+      <c r="D46" s="7">
         <v>200013</v>
-      </c>
-      <c r="D46" s="7">
-        <v>200014</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F46" s="16">
-        <v>10022002</v>
+        <v>10022001</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -4378,21 +4382,21 @@
         <v>20</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
+        <v>200013</v>
+      </c>
+      <c r="D47" s="7">
         <v>200014</v>
-      </c>
-      <c r="D47" s="7">
-        <v>200015</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F47" s="16">
-        <v>10022003</v>
+        <v>10022002</v>
       </c>
       <c r="G47" s="7">
         <v>1</v>
@@ -4410,21 +4414,21 @@
         <v>20</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7">
+        <v>200014</v>
+      </c>
+      <c r="D48" s="7">
         <v>200015</v>
-      </c>
-      <c r="D48" s="7">
-        <v>200016</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F48" s="16">
-        <v>10022004</v>
+        <v>10022003</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
@@ -4442,21 +4446,21 @@
         <v>20</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7">
+        <v>200015</v>
+      </c>
+      <c r="D49" s="7">
         <v>200016</v>
-      </c>
-      <c r="D49" s="7">
-        <v>200017</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F49" s="16">
-        <v>10022005</v>
+        <v>10022004</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
@@ -4474,21 +4478,21 @@
         <v>20</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7">
+        <v>200016</v>
+      </c>
+      <c r="D50" s="7">
         <v>200017</v>
-      </c>
-      <c r="D50" s="7">
-        <v>200018</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F50" s="16">
-        <v>10022006</v>
+        <v>10022005</v>
       </c>
       <c r="G50" s="7">
         <v>1</v>
@@ -4505,22 +4509,22 @@
       <c r="K50" s="19">
         <v>20</v>
       </c>
-      <c r="M50" s="18" t="s">
-        <v>56</v>
+      <c r="M50" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="7">
+        <v>200017</v>
+      </c>
+      <c r="D51" s="7">
         <v>200018</v>
       </c>
-      <c r="D51" s="7">
-        <v>200019</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F51" s="16">
-        <v>10022007</v>
+        <v>10022006</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
@@ -4537,63 +4541,63 @@
       <c r="K51" s="19">
         <v>20</v>
       </c>
-      <c r="M51" s="17" t="s">
-        <v>57</v>
+      <c r="M51" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="7">
+        <v>200018</v>
+      </c>
+      <c r="D52" s="7">
         <v>200019</v>
       </c>
-      <c r="D52" s="7">
-        <v>200020</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F52" s="16">
-        <v>10022008</v>
+        <v>10022007</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
       </c>
       <c r="H52" s="7">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="I52" s="19">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="J52" s="7">
         <v>2</v>
       </c>
       <c r="K52" s="19">
-        <v>1</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="7">
+        <v>200019</v>
+      </c>
+      <c r="D53" s="7">
         <v>200020</v>
       </c>
-      <c r="D53" s="7">
-        <v>200021</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="16">
-        <v>10022009</v>
+        <v>10022008</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="I53" s="19">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="J53" s="7">
         <v>2</v>
@@ -4602,85 +4606,85 @@
         <v>1</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7">
+        <v>200020</v>
+      </c>
+      <c r="D54" s="7">
         <v>200021</v>
       </c>
-      <c r="D54" s="7">
-        <v>200022</v>
-      </c>
       <c r="E54" s="20" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F54" s="16">
-        <v>10022010</v>
+        <v>10022009</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
       </c>
       <c r="H54" s="7">
-        <v>80</v>
+        <v>30000</v>
       </c>
       <c r="I54" s="19">
-        <v>80</v>
+        <v>30000</v>
       </c>
       <c r="J54" s="7">
         <v>2</v>
       </c>
       <c r="K54" s="19">
-        <v>20</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="7">
+        <v>200021</v>
+      </c>
+      <c r="D55" s="7">
         <v>200022</v>
-      </c>
-      <c r="D55" s="7">
-        <v>200023</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F55" s="16">
-        <v>10023001</v>
+        <v>10022010</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
       </c>
       <c r="H55" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I55" s="19">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" s="19">
         <v>20</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
+        <v>200022</v>
+      </c>
+      <c r="D56" s="7">
         <v>200023</v>
-      </c>
-      <c r="D56" s="7">
-        <v>200024</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F56" s="16">
-        <v>10023002</v>
+        <v>10023001</v>
       </c>
       <c r="G56" s="7">
         <v>1</v>
@@ -4698,21 +4702,21 @@
         <v>20</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7">
+        <v>200023</v>
+      </c>
+      <c r="D57" s="7">
         <v>200024</v>
-      </c>
-      <c r="D57" s="7">
-        <v>200025</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F57" s="16">
-        <v>10023003</v>
+        <v>10023002</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
@@ -4730,21 +4734,21 @@
         <v>20</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
+        <v>200024</v>
+      </c>
+      <c r="D58" s="7">
         <v>200025</v>
-      </c>
-      <c r="D58" s="7">
-        <v>200026</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F58" s="16">
-        <v>10023004</v>
+        <v>10023003</v>
       </c>
       <c r="G58" s="7">
         <v>1</v>
@@ -4762,21 +4766,21 @@
         <v>20</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="7">
+        <v>200025</v>
+      </c>
+      <c r="D59" s="7">
         <v>200026</v>
-      </c>
-      <c r="D59" s="7">
-        <v>200027</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="16">
-        <v>10023005</v>
+        <v>10023004</v>
       </c>
       <c r="G59" s="7">
         <v>1</v>
@@ -4794,21 +4798,21 @@
         <v>20</v>
       </c>
       <c r="M59" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="7">
+        <v>200026</v>
+      </c>
+      <c r="D60" s="7">
         <v>200027</v>
-      </c>
-      <c r="D60" s="7">
-        <v>200028</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F60" s="16">
-        <v>10023006</v>
+        <v>10023005</v>
       </c>
       <c r="G60" s="7">
         <v>1</v>
@@ -4826,21 +4830,21 @@
         <v>20</v>
       </c>
       <c r="M60" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
+        <v>200027</v>
+      </c>
+      <c r="D61" s="7">
         <v>200028</v>
-      </c>
-      <c r="D61" s="7">
-        <v>200029</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F61" s="16">
-        <v>10023007</v>
+        <v>10023006</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
@@ -4858,62 +4862,62 @@
         <v>20</v>
       </c>
       <c r="M61" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="7">
+        <v>200028</v>
+      </c>
+      <c r="D62" s="7">
         <v>200029</v>
       </c>
-      <c r="D62" s="7">
-        <v>200030</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>40</v>
+      <c r="E62" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="F62" s="16">
-        <v>10023008</v>
+        <v>10023007</v>
       </c>
       <c r="G62" s="7">
         <v>1</v>
       </c>
       <c r="H62" s="7">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="I62" s="19">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="J62" s="7">
         <v>3</v>
       </c>
       <c r="K62" s="19">
-        <v>1</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="7">
+        <v>200029</v>
+      </c>
+      <c r="D63" s="7">
         <v>200030</v>
-      </c>
-      <c r="D63" s="7">
-        <v>200031</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="16">
-        <v>10023009</v>
+        <v>10023008</v>
       </c>
       <c r="G63" s="7">
         <v>1</v>
       </c>
       <c r="H63" s="7">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I63" s="19">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="J63" s="7">
         <v>3</v>
@@ -4922,85 +4926,85 @@
         <v>1</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
+        <v>200030</v>
+      </c>
+      <c r="D64" s="7">
         <v>200031</v>
       </c>
-      <c r="D64" s="7">
-        <v>200032</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>91</v>
+      <c r="E64" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="F64" s="16">
-        <v>10023010</v>
+        <v>10023009</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
       </c>
       <c r="H64" s="7">
-        <v>120</v>
+        <v>40000</v>
       </c>
       <c r="I64" s="19">
-        <v>120</v>
+        <v>40000</v>
       </c>
       <c r="J64" s="7">
         <v>3</v>
       </c>
       <c r="K64" s="19">
-        <v>20</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
+        <v>200031</v>
+      </c>
+      <c r="D65" s="7">
         <v>200032</v>
-      </c>
-      <c r="D65" s="7">
-        <v>200033</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F65" s="16">
-        <v>10024001</v>
+        <v>10023010</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I65" s="19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J65" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65" s="19">
         <v>20</v>
       </c>
       <c r="M65" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="7">
+        <v>200032</v>
+      </c>
+      <c r="D66" s="7">
         <v>200033</v>
-      </c>
-      <c r="D66" s="7">
-        <v>200034</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F66" s="16">
-        <v>10024002</v>
+        <v>10024001</v>
       </c>
       <c r="G66" s="7">
         <v>1</v>
@@ -5018,21 +5022,21 @@
         <v>20</v>
       </c>
       <c r="M66" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="7">
+        <v>200033</v>
+      </c>
+      <c r="D67" s="7">
         <v>200034</v>
-      </c>
-      <c r="D67" s="7">
-        <v>200035</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="16">
-        <v>10024003</v>
+        <v>10024002</v>
       </c>
       <c r="G67" s="7">
         <v>1</v>
@@ -5050,21 +5054,21 @@
         <v>20</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="7">
+        <v>200034</v>
+      </c>
+      <c r="D68" s="7">
         <v>200035</v>
-      </c>
-      <c r="D68" s="7">
-        <v>200036</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F68" s="16">
-        <v>10024004</v>
+        <v>10024003</v>
       </c>
       <c r="G68" s="7">
         <v>1</v>
@@ -5082,21 +5086,21 @@
         <v>20</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7">
+        <v>200035</v>
+      </c>
+      <c r="D69" s="7">
         <v>200036</v>
-      </c>
-      <c r="D69" s="7">
-        <v>200037</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F69" s="16">
-        <v>10024005</v>
+        <v>10024004</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
@@ -5114,21 +5118,21 @@
         <v>20</v>
       </c>
       <c r="M69" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="7">
+        <v>200036</v>
+      </c>
+      <c r="D70" s="7">
         <v>200037</v>
-      </c>
-      <c r="D70" s="7">
-        <v>200038</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F70" s="16">
-        <v>10024006</v>
+        <v>10024005</v>
       </c>
       <c r="G70" s="7">
         <v>1</v>
@@ -5146,21 +5150,21 @@
         <v>20</v>
       </c>
       <c r="M70" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="7">
+        <v>200037</v>
+      </c>
+      <c r="D71" s="7">
         <v>200038</v>
-      </c>
-      <c r="D71" s="7">
-        <v>200039</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F71" s="16">
-        <v>10024007</v>
+        <v>10024006</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
@@ -5178,62 +5182,62 @@
         <v>20</v>
       </c>
       <c r="M71" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
+        <v>200038</v>
+      </c>
+      <c r="D72" s="7">
         <v>200039</v>
       </c>
-      <c r="D72" s="7">
-        <v>200040</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>40</v>
+      <c r="E72" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="F72" s="16">
-        <v>10024008</v>
+        <v>10024007</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
       </c>
       <c r="H72" s="7">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="I72" s="19">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="J72" s="7">
         <v>5</v>
       </c>
       <c r="K72" s="19">
-        <v>1</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="7">
+        <v>200039</v>
+      </c>
+      <c r="D73" s="7">
         <v>200040</v>
-      </c>
-      <c r="D73" s="7">
-        <v>200041</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F73" s="16">
-        <v>10024009</v>
+        <v>10024008</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="7">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I73" s="19">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="J73" s="7">
         <v>5</v>
@@ -5242,85 +5246,85 @@
         <v>1</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="7">
+        <v>200040</v>
+      </c>
+      <c r="D74" s="7">
         <v>200041</v>
       </c>
-      <c r="D74" s="7">
-        <v>200042</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>91</v>
+      <c r="E74" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="F74" s="16">
-        <v>10024010</v>
+        <v>10024009</v>
       </c>
       <c r="G74" s="7">
         <v>1</v>
       </c>
       <c r="H74" s="7">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="I74" s="19">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="J74" s="7">
         <v>5</v>
       </c>
       <c r="K74" s="19">
-        <v>20</v>
-      </c>
-      <c r="M74" s="17" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="7">
+        <v>200041</v>
+      </c>
+      <c r="D75" s="7">
         <v>200042</v>
-      </c>
-      <c r="D75" s="7">
-        <v>200043</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F75" s="16">
-        <v>10025001</v>
+        <v>10024010</v>
       </c>
       <c r="G75" s="7">
         <v>1</v>
       </c>
       <c r="H75" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I75" s="19">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J75" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K75" s="19">
         <v>20</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="7">
+        <v>200042</v>
+      </c>
+      <c r="D76" s="7">
         <v>200043</v>
-      </c>
-      <c r="D76" s="7">
-        <v>200044</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F76" s="16">
-        <v>10025002</v>
+        <v>10025001</v>
       </c>
       <c r="G76" s="7">
         <v>1</v>
@@ -5338,21 +5342,21 @@
         <v>20</v>
       </c>
       <c r="M76" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="7">
+        <v>200043</v>
+      </c>
+      <c r="D77" s="7">
         <v>200044</v>
-      </c>
-      <c r="D77" s="7">
-        <v>200045</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F77" s="16">
-        <v>10025003</v>
+        <v>10025002</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
@@ -5370,21 +5374,21 @@
         <v>20</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="7">
+        <v>200044</v>
+      </c>
+      <c r="D78" s="7">
         <v>200045</v>
-      </c>
-      <c r="D78" s="7">
-        <v>200046</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F78" s="16">
-        <v>10025004</v>
+        <v>10025003</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -5402,21 +5406,21 @@
         <v>20</v>
       </c>
       <c r="M78" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="7">
+        <v>200045</v>
+      </c>
+      <c r="D79" s="7">
         <v>200046</v>
-      </c>
-      <c r="D79" s="7">
-        <v>200047</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F79" s="16">
-        <v>10025005</v>
+        <v>10025004</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -5434,21 +5438,21 @@
         <v>20</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="7">
+        <v>200046</v>
+      </c>
+      <c r="D80" s="7">
         <v>200047</v>
-      </c>
-      <c r="D80" s="7">
-        <v>200048</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F80" s="16">
-        <v>10025006</v>
+        <v>10025005</v>
       </c>
       <c r="G80" s="7">
         <v>1</v>
@@ -5466,21 +5470,21 @@
         <v>20</v>
       </c>
       <c r="M80" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="7">
+        <v>200047</v>
+      </c>
+      <c r="D81" s="7">
         <v>200048</v>
-      </c>
-      <c r="D81" s="7">
-        <v>200049</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F81" s="16">
-        <v>10025007</v>
+        <v>10025006</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
@@ -5498,62 +5502,62 @@
         <v>20</v>
       </c>
       <c r="M81" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="7">
+        <v>200048</v>
+      </c>
+      <c r="D82" s="7">
         <v>200049</v>
       </c>
-      <c r="D82" s="7">
-        <v>200050</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>40</v>
+      <c r="E82" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="F82" s="16">
-        <v>10025008</v>
+        <v>10025007</v>
       </c>
       <c r="G82" s="7">
         <v>1</v>
       </c>
       <c r="H82" s="7">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="I82" s="19">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="J82" s="7">
         <v>7</v>
       </c>
       <c r="K82" s="19">
-        <v>1</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="7">
+        <v>200049</v>
+      </c>
+      <c r="D83" s="7">
         <v>200050</v>
-      </c>
-      <c r="D83" s="7">
-        <v>200051</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F83" s="16">
-        <v>10025009</v>
+        <v>10025008</v>
       </c>
       <c r="G83" s="7">
         <v>1</v>
       </c>
       <c r="H83" s="7">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I83" s="19">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="J83" s="7">
         <v>7</v>
@@ -5562,42 +5566,73 @@
         <v>1</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="7">
+        <v>200050</v>
+      </c>
+      <c r="D84" s="7">
         <v>200051</v>
       </c>
-      <c r="D84" s="7">
-        <v>0</v>
-      </c>
       <c r="E84" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F84" s="16">
-        <v>10025010</v>
+        <v>10025009</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
       </c>
       <c r="H84" s="7">
-        <v>180</v>
+        <v>60000</v>
       </c>
       <c r="I84" s="19">
-        <v>180</v>
+        <v>60000</v>
       </c>
       <c r="J84" s="7">
         <v>7</v>
       </c>
       <c r="K84" s="19">
+        <v>1</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="7">
+        <v>200051</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="16">
+        <v>10025010</v>
+      </c>
+      <c r="G85" s="7">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7">
+        <v>180</v>
+      </c>
+      <c r="I85" s="19">
+        <v>180</v>
+      </c>
+      <c r="J85" s="7">
+        <v>7</v>
+      </c>
+      <c r="K85" s="19">
         <v>20</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M85" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5628,6 +5663,7 @@
     <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>Id</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>中级生肖袋子</t>
-  </si>
-  <si>
-    <t>高级生肖袋子</t>
   </si>
   <si>
     <t>领主刷新券</t>
@@ -335,7 +332,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,13 +351,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -396,8 +386,121 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,20 +522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -440,121 +529,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,7 +569,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,25 +671,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,139 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,27 +833,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,41 +877,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,8 +897,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -968,1155 +914,1176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
@@ -2127,29 +2094,29 @@
     <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="18"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
+    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
     <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36"/>
     <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
+    <cellStyle name="标题" xfId="26" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="28"/>
     <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="31"/>
+    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="33"/>
+    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="37"/>
+    <cellStyle name="常规 5 2 6" xfId="38"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="39"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
     <cellStyle name="输出" xfId="42" builtinId="21"/>
@@ -2157,87 +2124,87 @@
     <cellStyle name="计算" xfId="44" builtinId="22"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
     <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="49"/>
     <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
+    <cellStyle name="汇总" xfId="53" builtinId="25"/>
+    <cellStyle name="好" xfId="54" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="55"/>
+    <cellStyle name="适中" xfId="56" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="57" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="58"/>
+    <cellStyle name="强调文字颜色 1" xfId="59" builtinId="29"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="60"/>
+    <cellStyle name="注释 2 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="62" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="63"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="64" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="66" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="68" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="69" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="70" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="71" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="72" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="73" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="74" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="75" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="76" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="78" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="79" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="82"/>
+    <cellStyle name="常规 2 3 2 4" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="87"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
+    <cellStyle name="常规 2 3 2 5" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
+    <cellStyle name="常规 2 3 2 6" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
+    <cellStyle name="常规 2 3 2 7" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
+    <cellStyle name="常规 2 3 3 3" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
+    <cellStyle name="常规 2 3 3 4" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
+    <cellStyle name="常规 2 3 4 3" xfId="109"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
@@ -2260,8 +2227,8 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
+    <cellStyle name="常规 3" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
@@ -2271,27 +2238,27 @@
     <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
+    <cellStyle name="常规 4" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
+    <cellStyle name="常规 5" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
+    <cellStyle name="注释 2" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="173"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
@@ -2303,42 +2270,42 @@
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="201"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="203"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="213"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="217"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="219"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="常规 5 7" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
+    <cellStyle name="注释 2 2 3 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
@@ -2356,31 +2323,31 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
+    <cellStyle name="注释 2 5 2" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
+    <cellStyle name="常规 2 3 2 2" xfId="251"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
+    <cellStyle name="常规 2 3 3 5" xfId="267"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
+    <cellStyle name="常规 2 3 3 6" xfId="270"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
@@ -2405,12 +2372,12 @@
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
+    <cellStyle name="注释 2 2" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
+    <cellStyle name="常规 5 6" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
@@ -2432,24 +2399,24 @@
     <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
     <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
     <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
+    <cellStyle name="注释 2 3 2" xfId="323"/>
     <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
     <cellStyle name="常规 2 3 3" xfId="325"/>
     <cellStyle name="常规 2 3 3 2" xfId="326"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
     <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
+    <cellStyle name="注释 2 5" xfId="330"/>
     <cellStyle name="常规 2 3 4" xfId="331"/>
     <cellStyle name="常规 2 3 4 2" xfId="332"/>
     <cellStyle name="常规 2 3 5" xfId="333"/>
     <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 5 2 2 2" xfId="336"/>
     <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
+    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 5 2 2 3" xfId="339"/>
     <cellStyle name="常规 2 3 8" xfId="340"/>
     <cellStyle name="常规 5 2 3 2" xfId="341"/>
     <cellStyle name="常规 5 2 4 2" xfId="342"/>
@@ -2794,7 +2761,7 @@
   <dimension ref="C1:P116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3615,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="5">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="I26" s="5">
         <v>50</v>
@@ -3641,13 +3608,13 @@
         <v>24</v>
       </c>
       <c r="F27" s="6">
-        <v>10010053</v>
+        <v>10010052</v>
       </c>
       <c r="G27" s="5">
         <v>3</v>
       </c>
       <c r="H27" s="5">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="I27" s="5">
         <v>50</v>
@@ -3659,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="3:13">
@@ -3691,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="3:13">
@@ -3723,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="3:13">
@@ -3755,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="3:13">
@@ -3787,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="3:13">
@@ -3819,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="3:13">
@@ -3830,7 +3797,7 @@
         <v>100029</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="6">
         <v>10010041</v>
@@ -3851,7 +3818,7 @@
         <v>5</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="20.1" customHeight="1" spans="3:13">
@@ -3862,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="6">
         <v>10000150</v>
@@ -3883,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="3:13">
@@ -3894,7 +3861,7 @@
         <v>200002</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="8">
         <v>10020001</v>
@@ -3905,17 +3872,17 @@
       <c r="H35" s="5">
         <v>50</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="11">
         <v>50</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="11">
         <v>20</v>
       </c>
-      <c r="M35" s="18" t="s">
-        <v>52</v>
+      <c r="M35" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="3:13">
@@ -3926,7 +3893,7 @@
         <v>200003</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="8">
         <v>10021001</v>
@@ -3937,17 +3904,17 @@
       <c r="H36" s="5">
         <v>50</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <v>50</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="11">
         <v>20</v>
       </c>
-      <c r="M36" s="19" t="s">
-        <v>53</v>
+      <c r="M36" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="3:13">
@@ -3958,7 +3925,7 @@
         <v>200004</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="8">
         <v>10021002</v>
@@ -3969,17 +3936,17 @@
       <c r="H37" s="5">
         <v>50</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="11">
         <v>50</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="11">
         <v>20</v>
       </c>
-      <c r="M37" s="19" t="s">
-        <v>54</v>
+      <c r="M37" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="3:13">
@@ -3990,7 +3957,7 @@
         <v>200005</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="8">
         <v>10021003</v>
@@ -4001,17 +3968,17 @@
       <c r="H38" s="5">
         <v>50</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="11">
         <v>50</v>
       </c>
       <c r="J38" s="5">
         <v>1</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="11">
         <v>20</v>
       </c>
-      <c r="M38" s="19" t="s">
-        <v>55</v>
+      <c r="M38" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="3:13">
@@ -4022,7 +3989,7 @@
         <v>200006</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="8">
         <v>10021004</v>
@@ -4033,17 +4000,17 @@
       <c r="H39" s="5">
         <v>50</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="11">
         <v>50</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="11">
         <v>20</v>
       </c>
-      <c r="M39" s="19" t="s">
-        <v>56</v>
+      <c r="M39" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="3:13">
@@ -4054,7 +4021,7 @@
         <v>200007</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="8">
         <v>10021005</v>
@@ -4065,17 +4032,17 @@
       <c r="H40" s="5">
         <v>50</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="11">
         <v>50</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="11">
         <v>20</v>
       </c>
-      <c r="M40" s="19" t="s">
-        <v>57</v>
+      <c r="M40" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="3:13">
@@ -4086,7 +4053,7 @@
         <v>200008</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="8">
         <v>10021006</v>
@@ -4097,17 +4064,17 @@
       <c r="H41" s="5">
         <v>50</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="11">
         <v>50</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="11">
         <v>20</v>
       </c>
-      <c r="M41" s="19" t="s">
-        <v>58</v>
+      <c r="M41" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="3:13">
@@ -4118,7 +4085,7 @@
         <v>200009</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="8">
         <v>10021007</v>
@@ -4129,17 +4096,17 @@
       <c r="H42" s="5">
         <v>50</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="11">
         <v>50</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="11">
         <v>20</v>
       </c>
-      <c r="M42" s="19" t="s">
-        <v>59</v>
+      <c r="M42" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="3:13">
@@ -4161,17 +4128,17 @@
       <c r="H43" s="5">
         <v>10000</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="11">
         <v>10000</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
       </c>
-      <c r="K43" s="17">
-        <v>1</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>60</v>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="3:13">
@@ -4193,17 +4160,17 @@
       <c r="H44" s="5">
         <v>25000</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="11">
         <v>25000</v>
       </c>
       <c r="J44" s="5">
         <v>1</v>
       </c>
-      <c r="K44" s="17">
-        <v>1</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>61</v>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="3:13">
@@ -4214,7 +4181,7 @@
         <v>200012</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="8">
         <v>10021010</v>
@@ -4225,17 +4192,17 @@
       <c r="H45" s="5">
         <v>50</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="11">
         <v>50</v>
       </c>
       <c r="J45" s="5">
         <v>1</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="11">
         <v>20</v>
       </c>
-      <c r="M45" s="20" t="s">
-        <v>62</v>
+      <c r="M45" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="3:13">
@@ -4246,7 +4213,7 @@
         <v>200013</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="8">
         <v>10022001</v>
@@ -4257,17 +4224,17 @@
       <c r="H46" s="5">
         <v>80</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="11">
         <v>80</v>
       </c>
       <c r="J46" s="5">
         <v>2</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="11">
         <v>20</v>
       </c>
-      <c r="M46" s="19" t="s">
-        <v>63</v>
+      <c r="M46" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="3:13">
@@ -4278,7 +4245,7 @@
         <v>200014</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="8">
         <v>10022002</v>
@@ -4289,17 +4256,17 @@
       <c r="H47" s="5">
         <v>80</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="11">
         <v>80</v>
       </c>
       <c r="J47" s="5">
         <v>2</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="11">
         <v>20</v>
       </c>
-      <c r="M47" s="19" t="s">
-        <v>64</v>
+      <c r="M47" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="3:13">
@@ -4310,7 +4277,7 @@
         <v>200015</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="8">
         <v>10022003</v>
@@ -4321,17 +4288,17 @@
       <c r="H48" s="5">
         <v>80</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="11">
         <v>80</v>
       </c>
       <c r="J48" s="5">
         <v>2</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="11">
         <v>20</v>
       </c>
-      <c r="M48" s="19" t="s">
-        <v>65</v>
+      <c r="M48" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="3:13">
@@ -4342,7 +4309,7 @@
         <v>200016</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="8">
         <v>10022004</v>
@@ -4353,17 +4320,17 @@
       <c r="H49" s="5">
         <v>80</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="11">
         <v>80</v>
       </c>
       <c r="J49" s="5">
         <v>2</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="11">
         <v>20</v>
       </c>
-      <c r="M49" s="19" t="s">
-        <v>66</v>
+      <c r="M49" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="3:13">
@@ -4374,7 +4341,7 @@
         <v>200017</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="8">
         <v>10022005</v>
@@ -4385,17 +4352,17 @@
       <c r="H50" s="5">
         <v>80</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="11">
         <v>80</v>
       </c>
       <c r="J50" s="5">
         <v>2</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="11">
         <v>20</v>
       </c>
-      <c r="M50" s="19" t="s">
-        <v>67</v>
+      <c r="M50" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="3:13">
@@ -4406,7 +4373,7 @@
         <v>200018</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="8">
         <v>10022006</v>
@@ -4417,17 +4384,17 @@
       <c r="H51" s="5">
         <v>80</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="11">
         <v>80</v>
       </c>
       <c r="J51" s="5">
         <v>2</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="11">
         <v>20</v>
       </c>
-      <c r="M51" s="21" t="s">
-        <v>68</v>
+      <c r="M51" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="3:13">
@@ -4438,7 +4405,7 @@
         <v>200019</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="8">
         <v>10022007</v>
@@ -4449,17 +4416,17 @@
       <c r="H52" s="5">
         <v>80</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="11">
         <v>80</v>
       </c>
       <c r="J52" s="5">
         <v>2</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="11">
         <v>20</v>
       </c>
-      <c r="M52" s="19" t="s">
-        <v>69</v>
+      <c r="M52" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="3:13">
@@ -4481,17 +4448,17 @@
       <c r="H53" s="5">
         <v>15000</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="11">
         <v>15000</v>
       </c>
       <c r="J53" s="5">
         <v>2</v>
       </c>
-      <c r="K53" s="17">
-        <v>1</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>70</v>
+      <c r="K53" s="11">
+        <v>1</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="3:13">
@@ -4513,17 +4480,17 @@
       <c r="H54" s="5">
         <v>30000</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="11">
         <v>30000</v>
       </c>
       <c r="J54" s="5">
         <v>2</v>
       </c>
-      <c r="K54" s="17">
-        <v>1</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>71</v>
+      <c r="K54" s="11">
+        <v>1</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="3:13">
@@ -4534,7 +4501,7 @@
         <v>200022</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="8">
         <v>10022010</v>
@@ -4545,17 +4512,17 @@
       <c r="H55" s="5">
         <v>80</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="11">
         <v>80</v>
       </c>
       <c r="J55" s="5">
         <v>2</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="11">
         <v>20</v>
       </c>
-      <c r="M55" s="19" t="s">
-        <v>72</v>
+      <c r="M55" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="3:13">
@@ -4566,7 +4533,7 @@
         <v>200023</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" s="8">
         <v>10023001</v>
@@ -4577,17 +4544,17 @@
       <c r="H56" s="5">
         <v>120</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="11">
         <v>120</v>
       </c>
       <c r="J56" s="5">
         <v>3</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="11">
         <v>20</v>
       </c>
-      <c r="M56" s="19" t="s">
-        <v>73</v>
+      <c r="M56" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="3:13">
@@ -4598,7 +4565,7 @@
         <v>200024</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" s="8">
         <v>10023002</v>
@@ -4609,17 +4576,17 @@
       <c r="H57" s="5">
         <v>120</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="11">
         <v>120</v>
       </c>
       <c r="J57" s="5">
         <v>3</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="11">
         <v>20</v>
       </c>
-      <c r="M57" s="19" t="s">
-        <v>74</v>
+      <c r="M57" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="3:13">
@@ -4630,7 +4597,7 @@
         <v>200025</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" s="8">
         <v>10023003</v>
@@ -4641,17 +4608,17 @@
       <c r="H58" s="5">
         <v>120</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="11">
         <v>120</v>
       </c>
       <c r="J58" s="5">
         <v>3</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="11">
         <v>20</v>
       </c>
-      <c r="M58" s="19" t="s">
-        <v>75</v>
+      <c r="M58" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="3:13">
@@ -4662,7 +4629,7 @@
         <v>200026</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" s="8">
         <v>10023004</v>
@@ -4673,17 +4640,17 @@
       <c r="H59" s="5">
         <v>120</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="11">
         <v>120</v>
       </c>
       <c r="J59" s="5">
         <v>3</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="11">
         <v>20</v>
       </c>
-      <c r="M59" s="19" t="s">
-        <v>76</v>
+      <c r="M59" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" ht="20.1" customHeight="1" spans="3:13">
@@ -4694,7 +4661,7 @@
         <v>200027</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" s="8">
         <v>10023005</v>
@@ -4705,17 +4672,17 @@
       <c r="H60" s="5">
         <v>120</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="11">
         <v>120</v>
       </c>
       <c r="J60" s="5">
         <v>3</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="11">
         <v>20</v>
       </c>
-      <c r="M60" s="19" t="s">
-        <v>77</v>
+      <c r="M60" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="3:13">
@@ -4726,7 +4693,7 @@
         <v>200028</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F61" s="8">
         <v>10023006</v>
@@ -4737,17 +4704,17 @@
       <c r="H61" s="5">
         <v>120</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="11">
         <v>120</v>
       </c>
       <c r="J61" s="5">
         <v>3</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="11">
         <v>20</v>
       </c>
-      <c r="M61" s="19" t="s">
-        <v>78</v>
+      <c r="M61" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="20.1" customHeight="1" spans="3:13">
@@ -4758,7 +4725,7 @@
         <v>200029</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F62" s="8">
         <v>10023007</v>
@@ -4769,17 +4736,17 @@
       <c r="H62" s="5">
         <v>120</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="11">
         <v>120</v>
       </c>
       <c r="J62" s="5">
         <v>3</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="11">
         <v>20</v>
       </c>
-      <c r="M62" s="19" t="s">
-        <v>79</v>
+      <c r="M62" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" ht="20.1" customHeight="1" spans="3:13">
@@ -4801,17 +4768,17 @@
       <c r="H63" s="5">
         <v>20000</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="11">
         <v>20000</v>
       </c>
       <c r="J63" s="5">
         <v>3</v>
       </c>
-      <c r="K63" s="17">
-        <v>1</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>80</v>
+      <c r="K63" s="11">
+        <v>1</v>
+      </c>
+      <c r="M63" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64" ht="20.1" customHeight="1" spans="3:13">
@@ -4833,17 +4800,17 @@
       <c r="H64" s="5">
         <v>40000</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="11">
         <v>40000</v>
       </c>
       <c r="J64" s="5">
         <v>3</v>
       </c>
-      <c r="K64" s="17">
-        <v>1</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>81</v>
+      <c r="K64" s="11">
+        <v>1</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" ht="20.1" customHeight="1" spans="3:13">
@@ -4854,7 +4821,7 @@
         <v>200032</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" s="8">
         <v>10023010</v>
@@ -4865,17 +4832,17 @@
       <c r="H65" s="5">
         <v>120</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="11">
         <v>120</v>
       </c>
       <c r="J65" s="5">
         <v>3</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="11">
         <v>20</v>
       </c>
-      <c r="M65" s="19" t="s">
-        <v>82</v>
+      <c r="M65" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" ht="20.1" customHeight="1" spans="3:13">
@@ -4886,7 +4853,7 @@
         <v>200033</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F66" s="8">
         <v>10024001</v>
@@ -4897,17 +4864,17 @@
       <c r="H66" s="5">
         <v>150</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="11">
         <v>150</v>
       </c>
       <c r="J66" s="5">
         <v>5</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="11">
         <v>20</v>
       </c>
-      <c r="M66" s="19" t="s">
-        <v>83</v>
+      <c r="M66" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67" ht="20.1" customHeight="1" spans="3:13">
@@ -4918,7 +4885,7 @@
         <v>200034</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F67" s="8">
         <v>10024002</v>
@@ -4929,17 +4896,17 @@
       <c r="H67" s="5">
         <v>150</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="11">
         <v>150</v>
       </c>
       <c r="J67" s="5">
         <v>5</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="11">
         <v>20</v>
       </c>
-      <c r="M67" s="19" t="s">
-        <v>84</v>
+      <c r="M67" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="3:13">
@@ -4950,7 +4917,7 @@
         <v>200035</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F68" s="8">
         <v>10024003</v>
@@ -4961,17 +4928,17 @@
       <c r="H68" s="5">
         <v>150</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="11">
         <v>150</v>
       </c>
       <c r="J68" s="5">
         <v>5</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="11">
         <v>20</v>
       </c>
-      <c r="M68" s="19" t="s">
-        <v>85</v>
+      <c r="M68" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69" ht="20.1" customHeight="1" spans="3:13">
@@ -4982,7 +4949,7 @@
         <v>200036</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" s="8">
         <v>10024004</v>
@@ -4993,17 +4960,17 @@
       <c r="H69" s="5">
         <v>150</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="11">
         <v>150</v>
       </c>
       <c r="J69" s="5">
         <v>5</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="11">
         <v>20</v>
       </c>
-      <c r="M69" s="19" t="s">
-        <v>86</v>
+      <c r="M69" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" ht="20.1" customHeight="1" spans="3:13">
@@ -5014,7 +4981,7 @@
         <v>200037</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F70" s="8">
         <v>10024005</v>
@@ -5025,17 +4992,17 @@
       <c r="H70" s="5">
         <v>150</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="11">
         <v>150</v>
       </c>
       <c r="J70" s="5">
         <v>5</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="11">
         <v>20</v>
       </c>
-      <c r="M70" s="19" t="s">
-        <v>87</v>
+      <c r="M70" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" ht="20.1" customHeight="1" spans="3:13">
@@ -5046,7 +5013,7 @@
         <v>200038</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F71" s="8">
         <v>10024006</v>
@@ -5057,17 +5024,17 @@
       <c r="H71" s="5">
         <v>150</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="11">
         <v>150</v>
       </c>
       <c r="J71" s="5">
         <v>5</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="11">
         <v>20</v>
       </c>
-      <c r="M71" s="19" t="s">
-        <v>88</v>
+      <c r="M71" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" ht="20.1" customHeight="1" spans="3:13">
@@ -5078,7 +5045,7 @@
         <v>200039</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F72" s="8">
         <v>10024007</v>
@@ -5089,17 +5056,17 @@
       <c r="H72" s="5">
         <v>150</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="11">
         <v>150</v>
       </c>
       <c r="J72" s="5">
         <v>5</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K72" s="11">
         <v>20</v>
       </c>
-      <c r="M72" s="19" t="s">
-        <v>89</v>
+      <c r="M72" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="73" ht="20.1" customHeight="1" spans="3:13">
@@ -5121,17 +5088,17 @@
       <c r="H73" s="5">
         <v>25000</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="11">
         <v>25000</v>
       </c>
       <c r="J73" s="5">
         <v>5</v>
       </c>
-      <c r="K73" s="17">
-        <v>1</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>90</v>
+      <c r="K73" s="11">
+        <v>1</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="3:13">
@@ -5153,17 +5120,17 @@
       <c r="H74" s="5">
         <v>50000</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="11">
         <v>50000</v>
       </c>
       <c r="J74" s="5">
         <v>5</v>
       </c>
-      <c r="K74" s="17">
-        <v>1</v>
-      </c>
-      <c r="M74" s="20" t="s">
-        <v>91</v>
+      <c r="K74" s="11">
+        <v>1</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75" ht="20.1" customHeight="1" spans="3:13">
@@ -5174,7 +5141,7 @@
         <v>200042</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F75" s="8">
         <v>10024010</v>
@@ -5185,17 +5152,17 @@
       <c r="H75" s="5">
         <v>150</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="11">
         <v>150</v>
       </c>
       <c r="J75" s="5">
         <v>5</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K75" s="11">
         <v>20</v>
       </c>
-      <c r="M75" s="19" t="s">
-        <v>92</v>
+      <c r="M75" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76" ht="20.1" customHeight="1" spans="3:13">
@@ -5206,7 +5173,7 @@
         <v>200043</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F76" s="8">
         <v>10025001</v>
@@ -5217,17 +5184,17 @@
       <c r="H76" s="5">
         <v>180</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="11">
         <v>180</v>
       </c>
       <c r="J76" s="5">
         <v>7</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K76" s="11">
         <v>20</v>
       </c>
-      <c r="M76" s="19" t="s">
-        <v>93</v>
+      <c r="M76" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1" spans="3:13">
@@ -5238,7 +5205,7 @@
         <v>200044</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F77" s="8">
         <v>10025002</v>
@@ -5249,17 +5216,17 @@
       <c r="H77" s="5">
         <v>180</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="11">
         <v>180</v>
       </c>
       <c r="J77" s="5">
         <v>7</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="11">
         <v>20</v>
       </c>
-      <c r="M77" s="19" t="s">
-        <v>94</v>
+      <c r="M77" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" ht="20.1" customHeight="1" spans="3:13">
@@ -5270,7 +5237,7 @@
         <v>200045</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F78" s="8">
         <v>10025003</v>
@@ -5281,17 +5248,17 @@
       <c r="H78" s="5">
         <v>180</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="11">
         <v>180</v>
       </c>
       <c r="J78" s="5">
         <v>7</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="11">
         <v>20</v>
       </c>
-      <c r="M78" s="19" t="s">
-        <v>95</v>
+      <c r="M78" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" ht="20.1" customHeight="1" spans="3:13">
@@ -5302,7 +5269,7 @@
         <v>200046</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" s="8">
         <v>10025004</v>
@@ -5313,17 +5280,17 @@
       <c r="H79" s="5">
         <v>180</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="11">
         <v>180</v>
       </c>
       <c r="J79" s="5">
         <v>7</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K79" s="11">
         <v>20</v>
       </c>
-      <c r="M79" s="19" t="s">
-        <v>96</v>
+      <c r="M79" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="80" ht="20.1" customHeight="1" spans="3:13">
@@ -5334,7 +5301,7 @@
         <v>200047</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F80" s="8">
         <v>10025005</v>
@@ -5345,17 +5312,17 @@
       <c r="H80" s="5">
         <v>180</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="11">
         <v>180</v>
       </c>
       <c r="J80" s="5">
         <v>7</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K80" s="11">
         <v>20</v>
       </c>
-      <c r="M80" s="19" t="s">
-        <v>97</v>
+      <c r="M80" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="81" ht="20.1" customHeight="1" spans="3:13">
@@ -5366,7 +5333,7 @@
         <v>200048</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="8">
         <v>10025006</v>
@@ -5377,17 +5344,17 @@
       <c r="H81" s="5">
         <v>180</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="11">
         <v>180</v>
       </c>
       <c r="J81" s="5">
         <v>7</v>
       </c>
-      <c r="K81" s="17">
+      <c r="K81" s="11">
         <v>20</v>
       </c>
-      <c r="M81" s="19" t="s">
-        <v>98</v>
+      <c r="M81" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="82" ht="20.1" customHeight="1" spans="3:13">
@@ -5398,7 +5365,7 @@
         <v>200049</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" s="8">
         <v>10025007</v>
@@ -5409,17 +5376,17 @@
       <c r="H82" s="5">
         <v>180</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="11">
         <v>180</v>
       </c>
       <c r="J82" s="5">
         <v>7</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K82" s="11">
         <v>20</v>
       </c>
-      <c r="M82" s="19" t="s">
-        <v>99</v>
+      <c r="M82" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="83" ht="20.1" customHeight="1" spans="3:13">
@@ -5441,17 +5408,17 @@
       <c r="H83" s="5">
         <v>30000</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="11">
         <v>30000</v>
       </c>
       <c r="J83" s="5">
         <v>7</v>
       </c>
-      <c r="K83" s="17">
-        <v>1</v>
-      </c>
-      <c r="M83" s="20" t="s">
-        <v>100</v>
+      <c r="K83" s="11">
+        <v>1</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="84" ht="20.1" customHeight="1" spans="3:13">
@@ -5473,17 +5440,17 @@
       <c r="H84" s="5">
         <v>60000</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="11">
         <v>60000</v>
       </c>
       <c r="J84" s="5">
         <v>7</v>
       </c>
-      <c r="K84" s="17">
-        <v>1</v>
-      </c>
-      <c r="M84" s="20" t="s">
-        <v>101</v>
+      <c r="K84" s="11">
+        <v>1</v>
+      </c>
+      <c r="M84" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85" ht="20.1" customHeight="1" spans="3:13">
@@ -5494,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F85" s="8">
         <v>10025010</v>
@@ -5505,17 +5472,17 @@
       <c r="H85" s="5">
         <v>180</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="11">
         <v>180</v>
       </c>
       <c r="J85" s="5">
         <v>7</v>
       </c>
-      <c r="K85" s="17">
+      <c r="K85" s="11">
         <v>20</v>
       </c>
-      <c r="M85" s="20" t="s">
-        <v>102</v>
+      <c r="M85" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" ht="20.1" customHeight="1"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1440E31-2846-4AE4-A22E-2B92848ADF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
@@ -320,19 +326,21 @@
   </si>
   <si>
     <t>炙热晶体</t>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师球</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +351,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -350,12 +359,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -363,18 +374,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -382,6 +395,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -389,148 +403,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,37 +446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,162 +482,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -833,21 +614,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -861,397 +627,622 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,452 +1251,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,6 +1278,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,133 +1296,124 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -1897,134 +1442,134 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2033,7 +1578,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,7 +1587,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2054,396 +1599,351 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="18"/>
-    <cellStyle name="注释" xfId="19" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="20"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
-    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="标题" xfId="26" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="28"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="31"/>
-    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="37"/>
-    <cellStyle name="常规 5 2 6" xfId="38"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="49"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
-    <cellStyle name="汇总" xfId="53" builtinId="25"/>
-    <cellStyle name="好" xfId="54" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="55"/>
-    <cellStyle name="适中" xfId="56" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="57" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="58"/>
-    <cellStyle name="强调文字颜色 1" xfId="59" builtinId="29"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="60"/>
-    <cellStyle name="注释 2 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="62" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="63"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="64" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="66" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="68" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="69" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="70" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="71" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="72" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="73" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="74" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="75" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="76" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="78" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="79" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="82"/>
-    <cellStyle name="常规 2 3 2 4" xfId="83"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="84"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="87"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="常规 2 3 2 5" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="常规 2 3 2 6" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="常规 2 3 2 7" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
-    <cellStyle name="常规 2 3 3 3" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="常规 2 3 3 4" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
-    <cellStyle name="常规 2 3 4 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
-    <cellStyle name="常规 3" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
-    <cellStyle name="常规 4" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
-    <cellStyle name="常规 5" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
-    <cellStyle name="注释 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="常规 5 7" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
-    <cellStyle name="注释 2 2 3 2" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
-    <cellStyle name="注释 2 5 2" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
-    <cellStyle name="常规 2 3 2 2" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
-    <cellStyle name="常规 2 3 3 5" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
-    <cellStyle name="常规 2 3 3 6" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
-    <cellStyle name="注释 2 2" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
-    <cellStyle name="常规 5 6" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
-    <cellStyle name="注释 2 3 2" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
-    <cellStyle name="注释 2 5" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 5 2 2 2" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
-    <cellStyle name="常规 5 2 2 3" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="常规 4" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="常规 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 5 7" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="注释 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="注释 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2463,11 +1963,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2752,19 +2260,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:P116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="4" width="18.875" customWidth="1"/>
@@ -2777,8 +2285,8 @@
     <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:11">
+    <row r="1" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:11">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:11">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:16">
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -2903,7 +2411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:16">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -2941,7 +2449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:16">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -2979,7 +2487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:16">
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -3017,7 +2525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:16">
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -3055,7 +2563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:16">
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -3093,7 +2601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:16">
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
@@ -3131,7 +2639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:16">
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
@@ -3169,7 +2677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:16">
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
@@ -3207,7 +2715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:16">
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
@@ -3245,7 +2753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:13">
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
@@ -3277,7 +2785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:13">
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
@@ -3309,7 +2817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:13">
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
@@ -3341,7 +2849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:13">
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
@@ -3373,7 +2881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:13">
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
@@ -3405,7 +2913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:13">
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
@@ -3437,7 +2945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:13">
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
@@ -3469,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:13">
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5">
         <v>100018</v>
       </c>
@@ -3501,7 +3009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:13">
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5">
         <v>100019</v>
       </c>
@@ -3533,7 +3041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:13">
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
         <v>100020</v>
       </c>
@@ -3565,7 +3073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:13">
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
         <v>100021</v>
       </c>
@@ -3597,7 +3105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:13">
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5">
         <v>100022</v>
       </c>
@@ -3629,7 +3137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:13">
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5">
         <v>100023</v>
       </c>
@@ -3661,7 +3169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5">
         <v>100024</v>
       </c>
@@ -3693,7 +3201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:13">
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="5">
         <v>100025</v>
       </c>
@@ -3725,7 +3233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:13">
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
         <v>100026</v>
       </c>
@@ -3757,7 +3265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:13">
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
         <v>100027</v>
       </c>
@@ -3789,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
         <v>100028</v>
       </c>
@@ -3821,15 +3329,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:13">
+    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
         <v>100029</v>
       </c>
       <c r="D34" s="5">
-        <v>0</v>
+        <v>100030</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F34" s="6">
         <v>10000150</v>
@@ -3853,50 +3361,50 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:13">
+    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
+        <v>100030</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="6">
+        <v>10000155</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>450</v>
+      </c>
+      <c r="I35" s="5">
+        <v>50</v>
+      </c>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="5">
         <v>200001</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>200002</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="8">
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="8">
         <v>10020001</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>50</v>
-      </c>
-      <c r="I35" s="11">
-        <v>50</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="11">
-        <v>20</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C36" s="5">
-        <v>200002</v>
-      </c>
-      <c r="D36" s="5">
-        <v>200003</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="8">
-        <v>10021001</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -3913,22 +3421,22 @@
       <c r="K36" s="11">
         <v>20</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:13">
+      <c r="M36" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5">
+        <v>200002</v>
+      </c>
+      <c r="D37" s="5">
         <v>200003</v>
       </c>
-      <c r="D37" s="5">
-        <v>200004</v>
-      </c>
       <c r="E37" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="8">
-        <v>10021002</v>
+        <v>10021001</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -3946,21 +3454,21 @@
         <v>20</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
+        <v>200003</v>
+      </c>
+      <c r="D38" s="5">
         <v>200004</v>
       </c>
-      <c r="D38" s="5">
-        <v>200005</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="8">
-        <v>10021003</v>
+        <v>10021002</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -3978,21 +3486,21 @@
         <v>20</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5">
+        <v>200004</v>
+      </c>
+      <c r="D39" s="5">
         <v>200005</v>
       </c>
-      <c r="D39" s="5">
-        <v>200006</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="8">
-        <v>10021004</v>
+        <v>10021003</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -4010,21 +3518,21 @@
         <v>20</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
+        <v>200005</v>
+      </c>
+      <c r="D40" s="5">
         <v>200006</v>
       </c>
-      <c r="D40" s="5">
-        <v>200007</v>
-      </c>
       <c r="E40" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="8">
-        <v>10021005</v>
+        <v>10021004</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -4042,21 +3550,21 @@
         <v>20</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
+        <v>200006</v>
+      </c>
+      <c r="D41" s="5">
         <v>200007</v>
       </c>
-      <c r="D41" s="5">
-        <v>200008</v>
-      </c>
       <c r="E41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="8">
-        <v>10021006</v>
+        <v>10021005</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -4074,21 +3582,21 @@
         <v>20</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
+        <v>200007</v>
+      </c>
+      <c r="D42" s="5">
         <v>200008</v>
       </c>
-      <c r="D42" s="5">
-        <v>200009</v>
-      </c>
       <c r="E42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F42" s="8">
-        <v>10021007</v>
+        <v>10021006</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -4106,149 +3614,149 @@
         <v>20</v>
       </c>
       <c r="M42" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="5">
+        <v>200008</v>
+      </c>
+      <c r="D43" s="5">
+        <v>200009</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="8">
+        <v>10021007</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>50</v>
+      </c>
+      <c r="I43" s="11">
+        <v>50</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="11">
+        <v>20</v>
+      </c>
+      <c r="M43" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C43" s="5">
+    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
         <v>200009</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>200010</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>10021008</v>
       </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
         <v>10000</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I44" s="11">
         <v>10000</v>
       </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="19" t="s">
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C44" s="5">
+    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
         <v>200010</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="5">
         <v>200011</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="8">
         <v>10021009</v>
       </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
         <v>25000</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="11">
         <v>25000</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11">
-        <v>1</v>
-      </c>
-      <c r="M44" s="19" t="s">
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
+      <c r="M45" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C45" s="5">
+    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
         <v>200011</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>200012</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="8">
+      <c r="E46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="8">
         <v>10021010</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>50</v>
-      </c>
-      <c r="I45" s="11">
-        <v>50</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11">
-        <v>20</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C46" s="5">
-        <v>200012</v>
-      </c>
-      <c r="D46" s="5">
-        <v>200013</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="8">
-        <v>10022001</v>
-      </c>
       <c r="G46" s="5">
         <v>1</v>
       </c>
       <c r="H46" s="5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I46" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="11">
         <v>20</v>
       </c>
-      <c r="M46" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:13">
+      <c r="M46" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="5">
+        <v>200012</v>
+      </c>
+      <c r="D47" s="5">
         <v>200013</v>
       </c>
-      <c r="D47" s="5">
-        <v>200014</v>
-      </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="8">
-        <v>10022002</v>
+        <v>10022001</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -4266,21 +3774,21 @@
         <v>20</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="5">
+        <v>200013</v>
+      </c>
+      <c r="D48" s="5">
         <v>200014</v>
       </c>
-      <c r="D48" s="5">
-        <v>200015</v>
-      </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="8">
-        <v>10022003</v>
+        <v>10022002</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -4298,21 +3806,21 @@
         <v>20</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
+        <v>200014</v>
+      </c>
+      <c r="D49" s="5">
         <v>200015</v>
       </c>
-      <c r="D49" s="5">
-        <v>200016</v>
-      </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="8">
-        <v>10022004</v>
+        <v>10022003</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -4330,21 +3838,21 @@
         <v>20</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
+        <v>200015</v>
+      </c>
+      <c r="D50" s="5">
         <v>200016</v>
       </c>
-      <c r="D50" s="5">
-        <v>200017</v>
-      </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="8">
-        <v>10022005</v>
+        <v>10022004</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -4362,21 +3870,21 @@
         <v>20</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
+        <v>200016</v>
+      </c>
+      <c r="D51" s="5">
         <v>200017</v>
       </c>
-      <c r="D51" s="5">
-        <v>200018</v>
-      </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="8">
-        <v>10022006</v>
+        <v>10022005</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -4393,22 +3901,22 @@
       <c r="K51" s="11">
         <v>20</v>
       </c>
-      <c r="M51" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:13">
+      <c r="M51" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
+        <v>200017</v>
+      </c>
+      <c r="D52" s="5">
         <v>200018</v>
       </c>
-      <c r="D52" s="5">
-        <v>200019</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="8">
-        <v>10022007</v>
+        <v>10022006</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -4425,63 +3933,63 @@
       <c r="K52" s="11">
         <v>20</v>
       </c>
-      <c r="M52" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:13">
+      <c r="M52" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
+        <v>200018</v>
+      </c>
+      <c r="D53" s="5">
         <v>200019</v>
       </c>
-      <c r="D53" s="5">
-        <v>200020</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F53" s="8">
-        <v>10022008</v>
+        <v>10022007</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
       </c>
       <c r="H53" s="5">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="I53" s="11">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="J53" s="5">
         <v>2</v>
       </c>
       <c r="K53" s="11">
-        <v>1</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:13">
+        <v>20</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
+        <v>200019</v>
+      </c>
+      <c r="D54" s="5">
         <v>200020</v>
       </c>
-      <c r="D54" s="5">
-        <v>200021</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="8">
-        <v>10022009</v>
+        <v>10022008</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
       </c>
       <c r="H54" s="5">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="I54" s="11">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="J54" s="5">
         <v>2</v>
@@ -4490,85 +3998,85 @@
         <v>1</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
+        <v>200020</v>
+      </c>
+      <c r="D55" s="5">
         <v>200021</v>
       </c>
-      <c r="D55" s="5">
-        <v>200022</v>
-      </c>
       <c r="E55" s="9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F55" s="8">
-        <v>10022010</v>
+        <v>10022009</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
       </c>
       <c r="H55" s="5">
-        <v>80</v>
+        <v>30000</v>
       </c>
       <c r="I55" s="11">
-        <v>80</v>
+        <v>30000</v>
       </c>
       <c r="J55" s="5">
         <v>2</v>
       </c>
       <c r="K55" s="11">
-        <v>20</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:13">
+        <v>1</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
+        <v>200021</v>
+      </c>
+      <c r="D56" s="5">
         <v>200022</v>
       </c>
-      <c r="D56" s="5">
-        <v>200023</v>
-      </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F56" s="8">
-        <v>10023001</v>
+        <v>10022010</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
       </c>
       <c r="H56" s="5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I56" s="11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" s="11">
         <v>20</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
+        <v>200022</v>
+      </c>
+      <c r="D57" s="5">
         <v>200023</v>
       </c>
-      <c r="D57" s="5">
-        <v>200024</v>
-      </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F57" s="8">
-        <v>10023002</v>
+        <v>10023001</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -4586,21 +4094,21 @@
         <v>20</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
+        <v>200023</v>
+      </c>
+      <c r="D58" s="5">
         <v>200024</v>
       </c>
-      <c r="D58" s="5">
-        <v>200025</v>
-      </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F58" s="8">
-        <v>10023003</v>
+        <v>10023002</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -4618,21 +4126,21 @@
         <v>20</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
+        <v>200024</v>
+      </c>
+      <c r="D59" s="5">
         <v>200025</v>
       </c>
-      <c r="D59" s="5">
-        <v>200026</v>
-      </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="8">
-        <v>10023004</v>
+        <v>10023003</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -4650,21 +4158,21 @@
         <v>20</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
+        <v>200025</v>
+      </c>
+      <c r="D60" s="5">
         <v>200026</v>
       </c>
-      <c r="D60" s="5">
-        <v>200027</v>
-      </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F60" s="8">
-        <v>10023005</v>
+        <v>10023004</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -4682,21 +4190,21 @@
         <v>20</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
+        <v>200026</v>
+      </c>
+      <c r="D61" s="5">
         <v>200027</v>
       </c>
-      <c r="D61" s="5">
-        <v>200028</v>
-      </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F61" s="8">
-        <v>10023006</v>
+        <v>10023005</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
@@ -4714,21 +4222,21 @@
         <v>20</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
+        <v>200027</v>
+      </c>
+      <c r="D62" s="5">
         <v>200028</v>
       </c>
-      <c r="D62" s="5">
-        <v>200029</v>
-      </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F62" s="8">
-        <v>10023007</v>
+        <v>10023006</v>
       </c>
       <c r="G62" s="5">
         <v>1</v>
@@ -4746,62 +4254,62 @@
         <v>20</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
+        <v>200028</v>
+      </c>
+      <c r="D63" s="5">
         <v>200029</v>
       </c>
-      <c r="D63" s="5">
-        <v>200030</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>24</v>
+      <c r="E63" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F63" s="8">
-        <v>10023008</v>
+        <v>10023007</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
       </c>
       <c r="H63" s="5">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="I63" s="11">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="J63" s="5">
         <v>3</v>
       </c>
       <c r="K63" s="11">
-        <v>1</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:13">
+        <v>20</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
+        <v>200029</v>
+      </c>
+      <c r="D64" s="5">
         <v>200030</v>
-      </c>
-      <c r="D64" s="5">
-        <v>200031</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="8">
-        <v>10023009</v>
+        <v>10023008</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I64" s="11">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="J64" s="5">
         <v>3</v>
@@ -4810,85 +4318,85 @@
         <v>1</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
+        <v>200030</v>
+      </c>
+      <c r="D65" s="5">
         <v>200031</v>
       </c>
-      <c r="D65" s="5">
-        <v>200032</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>50</v>
+      <c r="E65" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F65" s="8">
-        <v>10023010</v>
+        <v>10023009</v>
       </c>
       <c r="G65" s="5">
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>120</v>
+        <v>40000</v>
       </c>
       <c r="I65" s="11">
-        <v>120</v>
+        <v>40000</v>
       </c>
       <c r="J65" s="5">
         <v>3</v>
       </c>
       <c r="K65" s="11">
-        <v>20</v>
-      </c>
-      <c r="M65" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:13">
+        <v>1</v>
+      </c>
+      <c r="M65" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
+        <v>200031</v>
+      </c>
+      <c r="D66" s="5">
         <v>200032</v>
       </c>
-      <c r="D66" s="5">
-        <v>200033</v>
-      </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F66" s="8">
-        <v>10024001</v>
+        <v>10023010</v>
       </c>
       <c r="G66" s="5">
         <v>1</v>
       </c>
       <c r="H66" s="5">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I66" s="11">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J66" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66" s="11">
         <v>20</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5">
+        <v>200032</v>
+      </c>
+      <c r="D67" s="5">
         <v>200033</v>
       </c>
-      <c r="D67" s="5">
-        <v>200034</v>
-      </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F67" s="8">
-        <v>10024002</v>
+        <v>10024001</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -4906,21 +4414,21 @@
         <v>20</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5">
+        <v>200033</v>
+      </c>
+      <c r="D68" s="5">
         <v>200034</v>
       </c>
-      <c r="D68" s="5">
-        <v>200035</v>
-      </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F68" s="8">
-        <v>10024003</v>
+        <v>10024002</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -4938,21 +4446,21 @@
         <v>20</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5">
+        <v>200034</v>
+      </c>
+      <c r="D69" s="5">
         <v>200035</v>
       </c>
-      <c r="D69" s="5">
-        <v>200036</v>
-      </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F69" s="8">
-        <v>10024004</v>
+        <v>10024003</v>
       </c>
       <c r="G69" s="5">
         <v>1</v>
@@ -4970,21 +4478,21 @@
         <v>20</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="5">
+        <v>200035</v>
+      </c>
+      <c r="D70" s="5">
         <v>200036</v>
       </c>
-      <c r="D70" s="5">
-        <v>200037</v>
-      </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F70" s="8">
-        <v>10024005</v>
+        <v>10024004</v>
       </c>
       <c r="G70" s="5">
         <v>1</v>
@@ -5002,21 +4510,21 @@
         <v>20</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="5">
+        <v>200036</v>
+      </c>
+      <c r="D71" s="5">
         <v>200037</v>
       </c>
-      <c r="D71" s="5">
-        <v>200038</v>
-      </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F71" s="8">
-        <v>10024006</v>
+        <v>10024005</v>
       </c>
       <c r="G71" s="5">
         <v>1</v>
@@ -5034,21 +4542,21 @@
         <v>20</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5">
+        <v>200037</v>
+      </c>
+      <c r="D72" s="5">
         <v>200038</v>
       </c>
-      <c r="D72" s="5">
-        <v>200039</v>
-      </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F72" s="8">
-        <v>10024007</v>
+        <v>10024006</v>
       </c>
       <c r="G72" s="5">
         <v>1</v>
@@ -5066,62 +4574,62 @@
         <v>20</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="5">
+        <v>200038</v>
+      </c>
+      <c r="D73" s="5">
         <v>200039</v>
       </c>
-      <c r="D73" s="5">
-        <v>200040</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>24</v>
+      <c r="E73" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F73" s="8">
-        <v>10024008</v>
+        <v>10024007</v>
       </c>
       <c r="G73" s="5">
         <v>1</v>
       </c>
       <c r="H73" s="5">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="I73" s="11">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="J73" s="5">
         <v>5</v>
       </c>
       <c r="K73" s="11">
-        <v>1</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:13">
+        <v>20</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="5">
+        <v>200039</v>
+      </c>
+      <c r="D74" s="5">
         <v>200040</v>
-      </c>
-      <c r="D74" s="5">
-        <v>200041</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="8">
-        <v>10024009</v>
+        <v>10024008</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I74" s="11">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="J74" s="5">
         <v>5</v>
@@ -5130,85 +4638,85 @@
         <v>1</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5">
+        <v>200040</v>
+      </c>
+      <c r="D75" s="5">
         <v>200041</v>
       </c>
-      <c r="D75" s="5">
-        <v>200042</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>50</v>
+      <c r="E75" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F75" s="8">
-        <v>10024010</v>
+        <v>10024009</v>
       </c>
       <c r="G75" s="5">
         <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="I75" s="11">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="J75" s="5">
         <v>5</v>
       </c>
       <c r="K75" s="11">
-        <v>20</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:13">
+        <v>1</v>
+      </c>
+      <c r="M75" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="5">
+        <v>200041</v>
+      </c>
+      <c r="D76" s="5">
         <v>200042</v>
       </c>
-      <c r="D76" s="5">
-        <v>200043</v>
-      </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F76" s="8">
-        <v>10025001</v>
+        <v>10024010</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
       </c>
       <c r="H76" s="5">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I76" s="11">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J76" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K76" s="11">
         <v>20</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="5">
+        <v>200042</v>
+      </c>
+      <c r="D77" s="5">
         <v>200043</v>
       </c>
-      <c r="D77" s="5">
-        <v>200044</v>
-      </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F77" s="8">
-        <v>10025002</v>
+        <v>10025001</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -5226,21 +4734,21 @@
         <v>20</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="5">
+        <v>200043</v>
+      </c>
+      <c r="D78" s="5">
         <v>200044</v>
       </c>
-      <c r="D78" s="5">
-        <v>200045</v>
-      </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="8">
-        <v>10025003</v>
+        <v>10025002</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -5258,21 +4766,21 @@
         <v>20</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="5">
+        <v>200044</v>
+      </c>
+      <c r="D79" s="5">
         <v>200045</v>
       </c>
-      <c r="D79" s="5">
-        <v>200046</v>
-      </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F79" s="8">
-        <v>10025004</v>
+        <v>10025003</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
@@ -5290,21 +4798,21 @@
         <v>20</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5">
+        <v>200045</v>
+      </c>
+      <c r="D80" s="5">
         <v>200046</v>
       </c>
-      <c r="D80" s="5">
-        <v>200047</v>
-      </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F80" s="8">
-        <v>10025005</v>
+        <v>10025004</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -5322,21 +4830,21 @@
         <v>20</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5">
+        <v>200046</v>
+      </c>
+      <c r="D81" s="5">
         <v>200047</v>
       </c>
-      <c r="D81" s="5">
-        <v>200048</v>
-      </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F81" s="8">
-        <v>10025006</v>
+        <v>10025005</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
@@ -5354,21 +4862,21 @@
         <v>20</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5">
+        <v>200047</v>
+      </c>
+      <c r="D82" s="5">
         <v>200048</v>
       </c>
-      <c r="D82" s="5">
-        <v>200049</v>
-      </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F82" s="8">
-        <v>10025007</v>
+        <v>10025006</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -5386,62 +4894,62 @@
         <v>20</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="5">
+        <v>200048</v>
+      </c>
+      <c r="D83" s="5">
         <v>200049</v>
       </c>
-      <c r="D83" s="5">
-        <v>200050</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>24</v>
+      <c r="E83" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F83" s="8">
-        <v>10025008</v>
+        <v>10025007</v>
       </c>
       <c r="G83" s="5">
         <v>1</v>
       </c>
       <c r="H83" s="5">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="I83" s="11">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="J83" s="5">
         <v>7</v>
       </c>
       <c r="K83" s="11">
-        <v>1</v>
-      </c>
-      <c r="M83" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:13">
+        <v>20</v>
+      </c>
+      <c r="M83" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="5">
+        <v>200049</v>
+      </c>
+      <c r="D84" s="5">
         <v>200050</v>
-      </c>
-      <c r="D84" s="5">
-        <v>200051</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F84" s="8">
-        <v>10025009</v>
+        <v>10025008</v>
       </c>
       <c r="G84" s="5">
         <v>1</v>
       </c>
       <c r="H84" s="5">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I84" s="11">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="J84" s="5">
         <v>7</v>
@@ -5450,75 +4958,107 @@
         <v>1</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="5">
+        <v>200050</v>
+      </c>
+      <c r="D85" s="5">
         <v>200051</v>
       </c>
-      <c r="D85" s="5">
-        <v>0</v>
-      </c>
       <c r="E85" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F85" s="8">
-        <v>10025010</v>
+        <v>10025009</v>
       </c>
       <c r="G85" s="5">
         <v>1</v>
       </c>
       <c r="H85" s="5">
-        <v>180</v>
+        <v>60000</v>
       </c>
       <c r="I85" s="11">
-        <v>180</v>
+        <v>60000</v>
       </c>
       <c r="J85" s="5">
         <v>7</v>
       </c>
       <c r="K85" s="11">
+        <v>1</v>
+      </c>
+      <c r="M85" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="5">
+        <v>200051</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="8">
+        <v>10025010</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5">
+        <v>180</v>
+      </c>
+      <c r="I86" s="11">
+        <v>180</v>
+      </c>
+      <c r="J86" s="5">
+        <v>7</v>
+      </c>
+      <c r="K86" s="11">
         <v>20</v>
       </c>
-      <c r="M85" s="19" t="s">
+      <c r="M86" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1"/>
-    <row r="87" ht="20.1" customHeight="1"/>
-    <row r="88" ht="20.1" customHeight="1"/>
-    <row r="89" ht="20.1" customHeight="1"/>
-    <row r="90" ht="20.1" customHeight="1"/>
-    <row r="91" ht="20.1" customHeight="1"/>
-    <row r="92" ht="20.1" customHeight="1"/>
-    <row r="93" ht="20.1" customHeight="1"/>
-    <row r="94" ht="20.1" customHeight="1"/>
-    <row r="95" ht="20.1" customHeight="1"/>
-    <row r="96" ht="20.1" customHeight="1"/>
-    <row r="97" ht="20.1" customHeight="1"/>
-    <row r="98" ht="20.1" customHeight="1"/>
-    <row r="99" ht="20.1" customHeight="1"/>
-    <row r="100" ht="20.1" customHeight="1"/>
-    <row r="101" ht="20.1" customHeight="1"/>
-    <row r="102" ht="20.1" customHeight="1"/>
-    <row r="103" ht="20.1" customHeight="1"/>
-    <row r="104" ht="20.1" customHeight="1"/>
-    <row r="105" ht="20.1" customHeight="1"/>
-    <row r="106" ht="20.1" customHeight="1"/>
-    <row r="107" ht="20.1" customHeight="1"/>
-    <row r="108" ht="20.1" customHeight="1"/>
-    <row r="109" ht="20.1" customHeight="1"/>
-    <row r="110" ht="20.1" customHeight="1"/>
-    <row r="111" ht="20.1" customHeight="1"/>
-    <row r="112" ht="20.1" customHeight="1"/>
-    <row r="113" ht="20.1" customHeight="1"/>
-    <row r="114" ht="20.1" customHeight="1"/>
-    <row r="115" ht="20.1" customHeight="1"/>
-    <row r="116" ht="20.1" customHeight="1"/>
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1440E31-2846-4AE4-A22E-2B92848ADF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +43,9 @@
     <t>限购数量</t>
   </si>
   <si>
+    <t>家园等级</t>
+  </si>
+  <si>
     <t>NumberLimit</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>BuyNumMax</t>
   </si>
   <si>
+    <t>JiaYuanLv</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -172,6 +172,9 @@
     <t>深渊券</t>
   </si>
   <si>
+    <t>大师球</t>
+  </si>
+  <si>
     <t>300,300</t>
   </si>
   <si>
@@ -328,19 +331,62 @@
     <t>炙热晶体</t>
   </si>
   <si>
-    <t>10,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师球</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>葱种子</t>
+  </si>
+  <si>
+    <t>蒜种子</t>
+  </si>
+  <si>
+    <t>胡萝卜苗</t>
+  </si>
+  <si>
+    <t>红萝卜种子</t>
+  </si>
+  <si>
+    <t>红薯幼苗</t>
+  </si>
+  <si>
+    <t>包菜种子</t>
+  </si>
+  <si>
+    <t>土豆种子</t>
+  </si>
+  <si>
+    <t>西瓜种子</t>
+  </si>
+  <si>
+    <t>南瓜种子</t>
+  </si>
+  <si>
+    <t>黄瓜种子</t>
+  </si>
+  <si>
+    <t>西红柿幼苗</t>
+  </si>
+  <si>
+    <t>小麦种子</t>
+  </si>
+  <si>
+    <t>玉米幼苗</t>
+  </si>
+  <si>
+    <t>向日葵种子</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +397,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -359,14 +404,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -374,20 +417,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -395,31 +436,194 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,31 +650,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14951017792291"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,60 +722,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -614,6 +1010,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -627,949 +1047,1152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1578,7 +2201,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,7 +2210,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,351 +2222,411 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="314">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+  <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="常规 4" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="常规 5 6" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 5 7" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="注释 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="注释 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 5 2 5" xfId="11"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="19"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
+    <cellStyle name="注释" xfId="21" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
+    <cellStyle name="常规 5 2 4" xfId="23"/>
+    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="26"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
+    <cellStyle name="标题" xfId="28" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
+    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="32"/>
+    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
+    <cellStyle name="常规 5 2 3" xfId="35"/>
+    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
+    <cellStyle name="常规 5 2 6" xfId="37"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
+    <cellStyle name="输出" xfId="42" builtinId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
+    <cellStyle name="计算" xfId="44" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
+    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
+    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
+    <cellStyle name="汇总" xfId="54" builtinId="25"/>
+    <cellStyle name="好" xfId="55" builtinId="26"/>
+    <cellStyle name="常规 2 3 2 4" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
+    <cellStyle name="适中" xfId="60" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
+    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
+    <cellStyle name="注释 2 3 3" xfId="65"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
+    <cellStyle name="常规 2 3 2 3" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 5" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="常规 2 3 2 6" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
+    <cellStyle name="常规 2 3 2 7" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
+    <cellStyle name="常规 2 3 3 3" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
+    <cellStyle name="常规 2 3 3 4" xfId="105"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
+    <cellStyle name="常规 2 3 4 3" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
+    <cellStyle name="常规 3" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
+    <cellStyle name="常规 4" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
+    <cellStyle name="常规 5" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
+    <cellStyle name="注释 2" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
+    <cellStyle name="常规 5 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
+    <cellStyle name="注释 2 2 3 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
+    <cellStyle name="注释 2 5 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
+    <cellStyle name="常规 2 3 2 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
+    <cellStyle name="常规 2 3 3 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
+    <cellStyle name="常规 2 3 3 6" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
+    <cellStyle name="注释 2 2" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
+    <cellStyle name="常规 5 6" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
+    <cellStyle name="常规 2" xfId="313"/>
+    <cellStyle name="常规 2 2" xfId="314"/>
+    <cellStyle name="常规 2 3" xfId="315"/>
+    <cellStyle name="常规 2 3 2" xfId="316"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
+    <cellStyle name="注释 2 3 2" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
+    <cellStyle name="常规 2 3 3" xfId="325"/>
+    <cellStyle name="常规 2 3 3 2" xfId="326"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
+    <cellStyle name="注释 2 5" xfId="329"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
+    <cellStyle name="常规 2 3 4" xfId="331"/>
+    <cellStyle name="常规 2 3 4 2" xfId="332"/>
+    <cellStyle name="常规 2 3 5" xfId="333"/>
+    <cellStyle name="常规 2 3 5 2" xfId="334"/>
+    <cellStyle name="常规 5 2 2 2" xfId="335"/>
+    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 2 3 6 2" xfId="337"/>
+    <cellStyle name="常规 5 2 2 3" xfId="338"/>
+    <cellStyle name="常规 2 3 7" xfId="339"/>
+    <cellStyle name="常规 2 3 8" xfId="340"/>
+    <cellStyle name="常规 5 2 3 2" xfId="341"/>
+    <cellStyle name="常规 5 2 4 2" xfId="342"/>
+    <cellStyle name="常规 5 3" xfId="343"/>
+    <cellStyle name="常规 5 3 2" xfId="344"/>
+    <cellStyle name="常规 5 3 3" xfId="345"/>
+    <cellStyle name="常规 5 4" xfId="346"/>
+    <cellStyle name="常规 5 4 2" xfId="347"/>
+    <cellStyle name="常规 5 5" xfId="348"/>
+    <cellStyle name="常规 5 5 2" xfId="349"/>
+    <cellStyle name="注释 2 2 2" xfId="350"/>
+    <cellStyle name="注释 2 2 2 2" xfId="351"/>
+    <cellStyle name="注释 2 2 2 3" xfId="352"/>
+    <cellStyle name="注释 2 2 3" xfId="353"/>
+    <cellStyle name="注释 2 2 4" xfId="354"/>
+    <cellStyle name="注释 2 2 4 2" xfId="355"/>
+    <cellStyle name="注释 2 2 5" xfId="356"/>
+    <cellStyle name="注释 2 2 6" xfId="357"/>
+    <cellStyle name="注释 2 4" xfId="358"/>
+    <cellStyle name="注释 2 4 2" xfId="359"/>
+    <cellStyle name="注释 2 6" xfId="360"/>
+    <cellStyle name="注释 2 7" xfId="361"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -1963,19 +2646,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2260,19 +2935,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="4" width="18.875" customWidth="1"/>
@@ -2281,12 +2956,12 @@
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:12">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2311,11 +2986,14 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:12">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2323,57 +3001,63 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="3:16">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -2381,7 +3065,7 @@
         <v>100002</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6">
         <v>10000143</v>
@@ -2401,8 +3085,11 @@
       <c r="K6" s="5">
         <v>5</v>
       </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
       <c r="M6" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O6" s="13">
         <v>1</v>
@@ -2411,7 +3098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="20.1" customHeight="1" spans="3:16">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -2419,7 +3106,7 @@
         <v>100003</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6">
         <v>10000141</v>
@@ -2439,8 +3126,11 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
       <c r="M7" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O7" s="13">
         <v>2</v>
@@ -2449,7 +3139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="20.1" customHeight="1" spans="3:16">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -2457,7 +3147,7 @@
         <v>100004</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6">
         <v>10000142</v>
@@ -2477,8 +3167,11 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
       <c r="M8" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O8" s="13">
         <v>3</v>
@@ -2487,7 +3180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="20.1" customHeight="1" spans="3:16">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -2495,7 +3188,7 @@
         <v>100005</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6">
         <v>10010087</v>
@@ -2515,8 +3208,11 @@
       <c r="K9" s="5">
         <v>1</v>
       </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
       <c r="M9" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="13">
         <v>4</v>
@@ -2525,7 +3221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="20.1" customHeight="1" spans="3:16">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -2533,7 +3229,7 @@
         <v>100006</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6">
         <v>10010091</v>
@@ -2553,8 +3249,11 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
       <c r="M10" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="13">
         <v>5</v>
@@ -2563,7 +3262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="20.1" customHeight="1" spans="3:16">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -2571,7 +3270,7 @@
         <v>100007</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6">
         <v>10010092</v>
@@ -2591,8 +3290,11 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
       <c r="M11" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O11" s="13">
         <v>6</v>
@@ -2601,7 +3303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="20.1" customHeight="1" spans="3:16">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
@@ -2609,7 +3311,7 @@
         <v>100008</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="6">
         <v>10010093</v>
@@ -2629,8 +3331,11 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
       <c r="M12" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O12" s="13">
         <v>7</v>
@@ -2639,7 +3344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="20.1" customHeight="1" spans="3:16">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
@@ -2647,7 +3352,7 @@
         <v>100009</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7">
         <v>10010098</v>
@@ -2667,8 +3372,11 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
       <c r="M13" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O13" s="13">
         <v>8</v>
@@ -2677,7 +3385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="20.1" customHeight="1" spans="3:16">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
@@ -2685,7 +3393,7 @@
         <v>100010</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7">
         <v>10010099</v>
@@ -2705,8 +3413,11 @@
       <c r="K14" s="5">
         <v>1</v>
       </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
       <c r="M14" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O14" s="13">
         <v>9</v>
@@ -2715,7 +3426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="20.1" customHeight="1" spans="3:16">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
@@ -2723,7 +3434,7 @@
         <v>100011</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6">
         <v>10000101</v>
@@ -2743,8 +3454,11 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
       <c r="M15" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O15" s="13">
         <v>10</v>
@@ -2753,7 +3467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="20.1" customHeight="1" spans="3:13">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
@@ -2761,7 +3475,7 @@
         <v>100012</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6">
         <v>10000102</v>
@@ -2781,11 +3495,14 @@
       <c r="K16" s="5">
         <v>1</v>
       </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
       <c r="M16" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:13">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
@@ -2793,7 +3510,7 @@
         <v>100013</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="6">
         <v>10000103</v>
@@ -2813,11 +3530,14 @@
       <c r="K17" s="5">
         <v>1</v>
       </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
       <c r="M17" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:13">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
@@ -2825,7 +3545,7 @@
         <v>100014</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6">
         <v>10000104</v>
@@ -2845,11 +3565,14 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
       <c r="M18" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:13">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
@@ -2857,7 +3580,7 @@
         <v>100015</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="6">
         <v>10000121</v>
@@ -2877,11 +3600,14 @@
       <c r="K19" s="5">
         <v>1</v>
       </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
       <c r="M19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:13">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
@@ -2889,7 +3615,7 @@
         <v>100016</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6">
         <v>10000122</v>
@@ -2909,11 +3635,14 @@
       <c r="K20" s="5">
         <v>1</v>
       </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
       <c r="M20" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:13">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
@@ -2921,7 +3650,7 @@
         <v>100017</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6">
         <v>10000123</v>
@@ -2941,11 +3670,14 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
       <c r="M21" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:13">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
@@ -2953,7 +3685,7 @@
         <v>100018</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" s="6">
         <v>10000124</v>
@@ -2973,11 +3705,14 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
       <c r="M22" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="20.1" customHeight="1" spans="3:13">
       <c r="C23" s="5">
         <v>100018</v>
       </c>
@@ -2985,7 +3720,7 @@
         <v>100019</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6">
         <v>10000125</v>
@@ -3005,11 +3740,14 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
       <c r="M23" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="3:13">
       <c r="C24" s="5">
         <v>100019</v>
       </c>
@@ -3017,7 +3755,7 @@
         <v>100020</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6">
         <v>10010026</v>
@@ -3037,11 +3775,14 @@
       <c r="K24" s="5">
         <v>1</v>
       </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
       <c r="M24" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="3:13">
       <c r="C25" s="5">
         <v>100020</v>
       </c>
@@ -3049,7 +3790,7 @@
         <v>100021</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F25" s="6">
         <v>10010051</v>
@@ -3069,11 +3810,14 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
       <c r="M25" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" ht="20.1" customHeight="1" spans="3:13">
       <c r="C26" s="5">
         <v>100021</v>
       </c>
@@ -3081,7 +3825,7 @@
         <v>100022</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6">
         <v>10010052</v>
@@ -3101,11 +3845,14 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
       <c r="M26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="3:13">
       <c r="C27" s="5">
         <v>100022</v>
       </c>
@@ -3113,7 +3860,7 @@
         <v>100023</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6">
         <v>10010052</v>
@@ -3133,11 +3880,14 @@
       <c r="K27" s="5">
         <v>1</v>
       </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
       <c r="M27" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="3:13">
       <c r="C28" s="5">
         <v>100023</v>
       </c>
@@ -3145,7 +3895,7 @@
         <v>100024</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F28" s="6">
         <v>10010046</v>
@@ -3165,11 +3915,14 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
       <c r="M28" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="3:13">
       <c r="C29" s="5">
         <v>100024</v>
       </c>
@@ -3177,7 +3930,7 @@
         <v>100025</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="6">
         <v>10010039</v>
@@ -3197,11 +3950,14 @@
       <c r="K29" s="5">
         <v>1</v>
       </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
       <c r="M29" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="3:13">
       <c r="C30" s="5">
         <v>100025</v>
       </c>
@@ -3209,7 +3965,7 @@
         <v>100026</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" s="6">
         <v>10000105</v>
@@ -3229,11 +3985,14 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
       <c r="M30" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" ht="20.1" customHeight="1" spans="3:13">
       <c r="C31" s="5">
         <v>100026</v>
       </c>
@@ -3241,7 +4000,7 @@
         <v>100027</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="6">
         <v>10010033</v>
@@ -3261,11 +4020,14 @@
       <c r="K31" s="5">
         <v>1</v>
       </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
       <c r="M31" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" ht="20.1" customHeight="1" spans="3:13">
       <c r="C32" s="5">
         <v>100027</v>
       </c>
@@ -3273,7 +4035,7 @@
         <v>100028</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F32" s="6">
         <v>10010086</v>
@@ -3293,11 +4055,14 @@
       <c r="K32" s="5">
         <v>1</v>
       </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
       <c r="M32" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" ht="20.1" customHeight="1" spans="3:13">
       <c r="C33" s="5">
         <v>100028</v>
       </c>
@@ -3305,7 +4070,7 @@
         <v>100029</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6">
         <v>10010041</v>
@@ -3325,11 +4090,14 @@
       <c r="K33" s="5">
         <v>5</v>
       </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
       <c r="M33" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:13">
       <c r="C34" s="5">
         <v>100029</v>
       </c>
@@ -3337,7 +4105,7 @@
         <v>100030</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="6">
         <v>10000150</v>
@@ -3357,11 +4125,14 @@
       <c r="K34" s="5">
         <v>1</v>
       </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
       <c r="M34" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" ht="20.1" customHeight="1" spans="3:13">
       <c r="C35" s="5">
         <v>100030</v>
       </c>
@@ -3369,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="F35" s="6">
         <v>10000155</v>
@@ -3389,11 +4160,14 @@
       <c r="K35" s="5">
         <v>1</v>
       </c>
-      <c r="M35" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" ht="20.1" customHeight="1" spans="3:13">
       <c r="C36" s="5">
         <v>200001</v>
       </c>
@@ -3401,7 +4175,7 @@
         <v>200002</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F36" s="8">
         <v>10020001</v>
@@ -3415,17 +4189,20 @@
       <c r="I36" s="11">
         <v>50</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="11">
         <v>1</v>
       </c>
       <c r="K36" s="11">
         <v>20</v>
       </c>
-      <c r="M36" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="20.1" customHeight="1" spans="3:13">
       <c r="C37" s="5">
         <v>200002</v>
       </c>
@@ -3433,7 +4210,7 @@
         <v>200003</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F37" s="8">
         <v>10021001</v>
@@ -3447,17 +4224,20 @@
       <c r="I37" s="11">
         <v>50</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="11">
         <v>1</v>
       </c>
       <c r="K37" s="11">
         <v>20</v>
       </c>
-      <c r="M37" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:13">
       <c r="C38" s="5">
         <v>200003</v>
       </c>
@@ -3465,7 +4245,7 @@
         <v>200004</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F38" s="8">
         <v>10021002</v>
@@ -3479,17 +4259,20 @@
       <c r="I38" s="11">
         <v>50</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="11">
         <v>1</v>
       </c>
       <c r="K38" s="11">
         <v>20</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:13">
       <c r="C39" s="5">
         <v>200004</v>
       </c>
@@ -3497,7 +4280,7 @@
         <v>200005</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F39" s="8">
         <v>10021003</v>
@@ -3511,17 +4294,20 @@
       <c r="I39" s="11">
         <v>50</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="11">
         <v>1</v>
       </c>
       <c r="K39" s="11">
         <v>20</v>
       </c>
-      <c r="M39" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="20.1" customHeight="1" spans="3:13">
       <c r="C40" s="5">
         <v>200005</v>
       </c>
@@ -3529,7 +4315,7 @@
         <v>200006</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F40" s="8">
         <v>10021004</v>
@@ -3543,17 +4329,20 @@
       <c r="I40" s="11">
         <v>50</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="11">
         <v>1</v>
       </c>
       <c r="K40" s="11">
         <v>20</v>
       </c>
-      <c r="M40" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" ht="20.1" customHeight="1" spans="3:13">
       <c r="C41" s="5">
         <v>200006</v>
       </c>
@@ -3561,7 +4350,7 @@
         <v>200007</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F41" s="8">
         <v>10021005</v>
@@ -3575,17 +4364,20 @@
       <c r="I41" s="11">
         <v>50</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="11">
         <v>1</v>
       </c>
       <c r="K41" s="11">
         <v>20</v>
       </c>
-      <c r="M41" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="20.1" customHeight="1" spans="3:13">
       <c r="C42" s="5">
         <v>200007</v>
       </c>
@@ -3593,7 +4385,7 @@
         <v>200008</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F42" s="8">
         <v>10021006</v>
@@ -3607,17 +4399,20 @@
       <c r="I42" s="11">
         <v>50</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="11">
         <v>1</v>
       </c>
       <c r="K42" s="11">
         <v>20</v>
       </c>
-      <c r="M42" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="3:13">
       <c r="C43" s="5">
         <v>200008</v>
       </c>
@@ -3625,7 +4420,7 @@
         <v>200009</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F43" s="8">
         <v>10021007</v>
@@ -3639,17 +4434,20 @@
       <c r="I43" s="11">
         <v>50</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="11">
         <v>1</v>
       </c>
       <c r="K43" s="11">
         <v>20</v>
       </c>
-      <c r="M43" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="3:13">
       <c r="C44" s="5">
         <v>200009</v>
       </c>
@@ -3657,7 +4455,7 @@
         <v>200010</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F44" s="8">
         <v>10021008</v>
@@ -3671,17 +4469,20 @@
       <c r="I44" s="11">
         <v>10000</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="11">
         <v>1</v>
       </c>
       <c r="K44" s="11">
         <v>1</v>
       </c>
-      <c r="M44" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:13">
       <c r="C45" s="5">
         <v>200010</v>
       </c>
@@ -3689,7 +4490,7 @@
         <v>200011</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F45" s="8">
         <v>10021009</v>
@@ -3703,17 +4504,20 @@
       <c r="I45" s="11">
         <v>25000</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="11">
         <v>1</v>
       </c>
       <c r="K45" s="11">
         <v>1</v>
       </c>
-      <c r="M45" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" ht="20.1" customHeight="1" spans="3:13">
       <c r="C46" s="5">
         <v>200011</v>
       </c>
@@ -3721,7 +4525,7 @@
         <v>200012</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F46" s="8">
         <v>10021010</v>
@@ -3735,17 +4539,20 @@
       <c r="I46" s="11">
         <v>50</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" s="11">
         <v>20</v>
       </c>
-      <c r="M46" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:13">
       <c r="C47" s="5">
         <v>200012</v>
       </c>
@@ -3753,7 +4560,7 @@
         <v>200013</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F47" s="8">
         <v>10022001</v>
@@ -3767,17 +4574,20 @@
       <c r="I47" s="11">
         <v>80</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="11">
         <v>2</v>
       </c>
       <c r="K47" s="11">
         <v>20</v>
       </c>
-      <c r="M47" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:13">
       <c r="C48" s="5">
         <v>200013</v>
       </c>
@@ -3785,7 +4595,7 @@
         <v>200014</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F48" s="8">
         <v>10022002</v>
@@ -3799,17 +4609,20 @@
       <c r="I48" s="11">
         <v>80</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="11">
         <v>2</v>
       </c>
       <c r="K48" s="11">
         <v>20</v>
       </c>
-      <c r="M48" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" ht="20.1" customHeight="1" spans="3:13">
       <c r="C49" s="5">
         <v>200014</v>
       </c>
@@ -3817,7 +4630,7 @@
         <v>200015</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F49" s="8">
         <v>10022003</v>
@@ -3831,17 +4644,20 @@
       <c r="I49" s="11">
         <v>80</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="11">
         <v>2</v>
       </c>
       <c r="K49" s="11">
         <v>20</v>
       </c>
-      <c r="M49" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" ht="20.1" customHeight="1" spans="3:13">
       <c r="C50" s="5">
         <v>200015</v>
       </c>
@@ -3849,7 +4665,7 @@
         <v>200016</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F50" s="8">
         <v>10022004</v>
@@ -3863,17 +4679,20 @@
       <c r="I50" s="11">
         <v>80</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="11">
         <v>2</v>
       </c>
       <c r="K50" s="11">
         <v>20</v>
       </c>
-      <c r="M50" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" ht="20.1" customHeight="1" spans="3:13">
       <c r="C51" s="5">
         <v>200016</v>
       </c>
@@ -3881,7 +4700,7 @@
         <v>200017</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F51" s="8">
         <v>10022005</v>
@@ -3895,17 +4714,20 @@
       <c r="I51" s="11">
         <v>80</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="11">
         <v>2</v>
       </c>
       <c r="K51" s="11">
         <v>20</v>
       </c>
-      <c r="M51" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" ht="20.1" customHeight="1" spans="3:13">
       <c r="C52" s="5">
         <v>200017</v>
       </c>
@@ -3913,7 +4735,7 @@
         <v>200018</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F52" s="8">
         <v>10022006</v>
@@ -3927,17 +4749,20 @@
       <c r="I52" s="11">
         <v>80</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="11">
         <v>2</v>
       </c>
       <c r="K52" s="11">
         <v>20</v>
       </c>
-      <c r="M52" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" ht="20.1" customHeight="1" spans="3:13">
       <c r="C53" s="5">
         <v>200018</v>
       </c>
@@ -3945,7 +4770,7 @@
         <v>200019</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F53" s="8">
         <v>10022007</v>
@@ -3959,17 +4784,20 @@
       <c r="I53" s="11">
         <v>80</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="11">
         <v>2</v>
       </c>
       <c r="K53" s="11">
         <v>20</v>
       </c>
-      <c r="M53" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" ht="20.1" customHeight="1" spans="3:13">
       <c r="C54" s="5">
         <v>200019</v>
       </c>
@@ -3977,7 +4805,7 @@
         <v>200020</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F54" s="8">
         <v>10022008</v>
@@ -3991,17 +4819,20 @@
       <c r="I54" s="11">
         <v>15000</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="11">
         <v>2</v>
       </c>
       <c r="K54" s="11">
         <v>1</v>
       </c>
-      <c r="M54" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" ht="20.1" customHeight="1" spans="3:13">
       <c r="C55" s="5">
         <v>200020</v>
       </c>
@@ -4009,7 +4840,7 @@
         <v>200021</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F55" s="8">
         <v>10022009</v>
@@ -4023,17 +4854,20 @@
       <c r="I55" s="11">
         <v>30000</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="11">
         <v>2</v>
       </c>
       <c r="K55" s="11">
         <v>1</v>
       </c>
-      <c r="M55" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:13">
       <c r="C56" s="5">
         <v>200021</v>
       </c>
@@ -4041,7 +4875,7 @@
         <v>200022</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F56" s="8">
         <v>10022010</v>
@@ -4055,17 +4889,20 @@
       <c r="I56" s="11">
         <v>80</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="11">
         <v>2</v>
       </c>
       <c r="K56" s="11">
         <v>20</v>
       </c>
-      <c r="M56" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" ht="20.1" customHeight="1" spans="3:13">
       <c r="C57" s="5">
         <v>200022</v>
       </c>
@@ -4073,7 +4910,7 @@
         <v>200023</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F57" s="8">
         <v>10023001</v>
@@ -4087,17 +4924,20 @@
       <c r="I57" s="11">
         <v>120</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="11">
         <v>3</v>
       </c>
       <c r="K57" s="11">
         <v>20</v>
       </c>
-      <c r="M57" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:13">
       <c r="C58" s="5">
         <v>200023</v>
       </c>
@@ -4105,7 +4945,7 @@
         <v>200024</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" s="8">
         <v>10023002</v>
@@ -4119,17 +4959,20 @@
       <c r="I58" s="11">
         <v>120</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="11">
         <v>3</v>
       </c>
       <c r="K58" s="11">
         <v>20</v>
       </c>
-      <c r="M58" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:13">
       <c r="C59" s="5">
         <v>200024</v>
       </c>
@@ -4137,7 +4980,7 @@
         <v>200025</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F59" s="8">
         <v>10023003</v>
@@ -4151,17 +4994,20 @@
       <c r="I59" s="11">
         <v>120</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="11">
         <v>3</v>
       </c>
       <c r="K59" s="11">
         <v>20</v>
       </c>
-      <c r="M59" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" ht="20.1" customHeight="1" spans="3:13">
       <c r="C60" s="5">
         <v>200025</v>
       </c>
@@ -4169,7 +5015,7 @@
         <v>200026</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F60" s="8">
         <v>10023004</v>
@@ -4183,17 +5029,20 @@
       <c r="I60" s="11">
         <v>120</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="11">
         <v>3</v>
       </c>
       <c r="K60" s="11">
         <v>20</v>
       </c>
-      <c r="M60" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:13">
       <c r="C61" s="5">
         <v>200026</v>
       </c>
@@ -4201,7 +5050,7 @@
         <v>200027</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F61" s="8">
         <v>10023005</v>
@@ -4215,17 +5064,20 @@
       <c r="I61" s="11">
         <v>120</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="11">
         <v>3</v>
       </c>
       <c r="K61" s="11">
         <v>20</v>
       </c>
-      <c r="M61" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" ht="20.1" customHeight="1" spans="3:13">
       <c r="C62" s="5">
         <v>200027</v>
       </c>
@@ -4233,7 +5085,7 @@
         <v>200028</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F62" s="8">
         <v>10023006</v>
@@ -4247,17 +5099,20 @@
       <c r="I62" s="11">
         <v>120</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="11">
         <v>3</v>
       </c>
       <c r="K62" s="11">
         <v>20</v>
       </c>
-      <c r="M62" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" ht="20.1" customHeight="1" spans="3:13">
       <c r="C63" s="5">
         <v>200028</v>
       </c>
@@ -4265,7 +5120,7 @@
         <v>200029</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F63" s="8">
         <v>10023007</v>
@@ -4279,17 +5134,20 @@
       <c r="I63" s="11">
         <v>120</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="11">
         <v>3</v>
       </c>
       <c r="K63" s="11">
         <v>20</v>
       </c>
-      <c r="M63" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" ht="20.1" customHeight="1" spans="3:13">
       <c r="C64" s="5">
         <v>200029</v>
       </c>
@@ -4297,7 +5155,7 @@
         <v>200030</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F64" s="8">
         <v>10023008</v>
@@ -4311,17 +5169,20 @@
       <c r="I64" s="11">
         <v>20000</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="11">
         <v>3</v>
       </c>
       <c r="K64" s="11">
         <v>1</v>
       </c>
-      <c r="M64" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" ht="20.1" customHeight="1" spans="3:13">
       <c r="C65" s="5">
         <v>200030</v>
       </c>
@@ -4329,7 +5190,7 @@
         <v>200031</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F65" s="8">
         <v>10023009</v>
@@ -4343,17 +5204,20 @@
       <c r="I65" s="11">
         <v>40000</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="11">
         <v>3</v>
       </c>
       <c r="K65" s="11">
         <v>1</v>
       </c>
-      <c r="M65" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:13">
       <c r="C66" s="5">
         <v>200031</v>
       </c>
@@ -4361,7 +5225,7 @@
         <v>200032</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F66" s="8">
         <v>10023010</v>
@@ -4375,17 +5239,20 @@
       <c r="I66" s="11">
         <v>120</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="11">
         <v>3</v>
       </c>
       <c r="K66" s="11">
         <v>20</v>
       </c>
-      <c r="M66" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:13">
       <c r="C67" s="5">
         <v>200032</v>
       </c>
@@ -4393,7 +5260,7 @@
         <v>200033</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F67" s="8">
         <v>10024001</v>
@@ -4407,17 +5274,20 @@
       <c r="I67" s="11">
         <v>150</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="11">
         <v>5</v>
       </c>
       <c r="K67" s="11">
         <v>20</v>
       </c>
-      <c r="M67" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:13">
       <c r="C68" s="5">
         <v>200033</v>
       </c>
@@ -4425,7 +5295,7 @@
         <v>200034</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F68" s="8">
         <v>10024002</v>
@@ -4439,17 +5309,20 @@
       <c r="I68" s="11">
         <v>150</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="11">
         <v>5</v>
       </c>
       <c r="K68" s="11">
         <v>20</v>
       </c>
-      <c r="M68" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" ht="20.1" customHeight="1" spans="3:13">
       <c r="C69" s="5">
         <v>200034</v>
       </c>
@@ -4457,7 +5330,7 @@
         <v>200035</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F69" s="8">
         <v>10024003</v>
@@ -4471,17 +5344,20 @@
       <c r="I69" s="11">
         <v>150</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="11">
         <v>5</v>
       </c>
       <c r="K69" s="11">
         <v>20</v>
       </c>
-      <c r="M69" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:13">
       <c r="C70" s="5">
         <v>200035</v>
       </c>
@@ -4489,7 +5365,7 @@
         <v>200036</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F70" s="8">
         <v>10024004</v>
@@ -4503,17 +5379,20 @@
       <c r="I70" s="11">
         <v>150</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="11">
         <v>5</v>
       </c>
       <c r="K70" s="11">
         <v>20</v>
       </c>
-      <c r="M70" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:13">
       <c r="C71" s="5">
         <v>200036</v>
       </c>
@@ -4521,7 +5400,7 @@
         <v>200037</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F71" s="8">
         <v>10024005</v>
@@ -4535,17 +5414,20 @@
       <c r="I71" s="11">
         <v>150</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="11">
         <v>5</v>
       </c>
       <c r="K71" s="11">
         <v>20</v>
       </c>
-      <c r="M71" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:13">
       <c r="C72" s="5">
         <v>200037</v>
       </c>
@@ -4553,7 +5435,7 @@
         <v>200038</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F72" s="8">
         <v>10024006</v>
@@ -4567,17 +5449,20 @@
       <c r="I72" s="11">
         <v>150</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="11">
         <v>5</v>
       </c>
       <c r="K72" s="11">
         <v>20</v>
       </c>
-      <c r="M72" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" ht="20.1" customHeight="1" spans="3:13">
       <c r="C73" s="5">
         <v>200038</v>
       </c>
@@ -4585,7 +5470,7 @@
         <v>200039</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F73" s="8">
         <v>10024007</v>
@@ -4599,17 +5484,20 @@
       <c r="I73" s="11">
         <v>150</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="11">
         <v>5</v>
       </c>
       <c r="K73" s="11">
         <v>20</v>
       </c>
-      <c r="M73" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" ht="20.1" customHeight="1" spans="3:13">
       <c r="C74" s="5">
         <v>200039</v>
       </c>
@@ -4617,7 +5505,7 @@
         <v>200040</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F74" s="8">
         <v>10024008</v>
@@ -4631,17 +5519,20 @@
       <c r="I74" s="11">
         <v>25000</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="11">
         <v>5</v>
       </c>
       <c r="K74" s="11">
         <v>1</v>
       </c>
-      <c r="M74" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:13">
       <c r="C75" s="5">
         <v>200040</v>
       </c>
@@ -4649,7 +5540,7 @@
         <v>200041</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F75" s="8">
         <v>10024009</v>
@@ -4663,17 +5554,20 @@
       <c r="I75" s="11">
         <v>50000</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="11">
         <v>5</v>
       </c>
       <c r="K75" s="11">
         <v>1</v>
       </c>
-      <c r="M75" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:13">
       <c r="C76" s="5">
         <v>200041</v>
       </c>
@@ -4681,7 +5575,7 @@
         <v>200042</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F76" s="8">
         <v>10024010</v>
@@ -4695,17 +5589,20 @@
       <c r="I76" s="11">
         <v>150</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="11">
         <v>5</v>
       </c>
       <c r="K76" s="11">
         <v>20</v>
       </c>
-      <c r="M76" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" ht="20.1" customHeight="1" spans="3:13">
       <c r="C77" s="5">
         <v>200042</v>
       </c>
@@ -4713,7 +5610,7 @@
         <v>200043</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F77" s="8">
         <v>10025001</v>
@@ -4727,17 +5624,20 @@
       <c r="I77" s="11">
         <v>180</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="11">
         <v>7</v>
       </c>
       <c r="K77" s="11">
         <v>20</v>
       </c>
-      <c r="M77" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" ht="20.1" customHeight="1" spans="3:13">
       <c r="C78" s="5">
         <v>200043</v>
       </c>
@@ -4745,7 +5645,7 @@
         <v>200044</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F78" s="8">
         <v>10025002</v>
@@ -4759,17 +5659,20 @@
       <c r="I78" s="11">
         <v>180</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="11">
         <v>7</v>
       </c>
       <c r="K78" s="11">
         <v>20</v>
       </c>
-      <c r="M78" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" ht="20.1" customHeight="1" spans="3:13">
       <c r="C79" s="5">
         <v>200044</v>
       </c>
@@ -4777,7 +5680,7 @@
         <v>200045</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F79" s="8">
         <v>10025003</v>
@@ -4791,17 +5694,20 @@
       <c r="I79" s="11">
         <v>180</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="11">
         <v>7</v>
       </c>
       <c r="K79" s="11">
         <v>20</v>
       </c>
-      <c r="M79" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" ht="20.1" customHeight="1" spans="3:13">
       <c r="C80" s="5">
         <v>200045</v>
       </c>
@@ -4809,7 +5715,7 @@
         <v>200046</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F80" s="8">
         <v>10025004</v>
@@ -4823,17 +5729,20 @@
       <c r="I80" s="11">
         <v>180</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="11">
         <v>7</v>
       </c>
       <c r="K80" s="11">
         <v>20</v>
       </c>
-      <c r="M80" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" ht="20.1" customHeight="1" spans="3:13">
       <c r="C81" s="5">
         <v>200046</v>
       </c>
@@ -4841,7 +5750,7 @@
         <v>200047</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F81" s="8">
         <v>10025005</v>
@@ -4855,17 +5764,20 @@
       <c r="I81" s="11">
         <v>180</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="11">
         <v>7</v>
       </c>
       <c r="K81" s="11">
         <v>20</v>
       </c>
-      <c r="M81" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L81" s="5">
+        <v>0</v>
+      </c>
+      <c r="M81" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" ht="20.1" customHeight="1" spans="3:13">
       <c r="C82" s="5">
         <v>200047</v>
       </c>
@@ -4873,7 +5785,7 @@
         <v>200048</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F82" s="8">
         <v>10025006</v>
@@ -4887,17 +5799,20 @@
       <c r="I82" s="11">
         <v>180</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="11">
         <v>7</v>
       </c>
       <c r="K82" s="11">
         <v>20</v>
       </c>
-      <c r="M82" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L82" s="5">
+        <v>0</v>
+      </c>
+      <c r="M82" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" ht="20.1" customHeight="1" spans="3:13">
       <c r="C83" s="5">
         <v>200048</v>
       </c>
@@ -4905,7 +5820,7 @@
         <v>200049</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F83" s="8">
         <v>10025007</v>
@@ -4919,17 +5834,20 @@
       <c r="I83" s="11">
         <v>180</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="11">
         <v>7</v>
       </c>
       <c r="K83" s="11">
         <v>20</v>
       </c>
-      <c r="M83" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="5">
+        <v>0</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:13">
       <c r="C84" s="5">
         <v>200049</v>
       </c>
@@ -4937,7 +5855,7 @@
         <v>200050</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F84" s="8">
         <v>10025008</v>
@@ -4951,17 +5869,20 @@
       <c r="I84" s="11">
         <v>30000</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="11">
         <v>7</v>
       </c>
       <c r="K84" s="11">
         <v>1</v>
       </c>
-      <c r="M84" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+      <c r="M84" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:13">
       <c r="C85" s="5">
         <v>200050</v>
       </c>
@@ -4969,7 +5890,7 @@
         <v>200051</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F85" s="8">
         <v>10025009</v>
@@ -4983,17 +5904,20 @@
       <c r="I85" s="11">
         <v>60000</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="11">
         <v>7</v>
       </c>
       <c r="K85" s="11">
         <v>1</v>
       </c>
-      <c r="M85" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" ht="20.1" customHeight="1" spans="3:13">
       <c r="C86" s="5">
         <v>200051</v>
       </c>
@@ -5001,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F86" s="8">
         <v>10025010</v>
@@ -5015,50 +5939,529 @@
       <c r="I86" s="11">
         <v>180</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="11">
         <v>7</v>
       </c>
       <c r="K86" s="11">
         <v>20</v>
       </c>
-      <c r="M86" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C87" s="22">
+        <v>300001</v>
+      </c>
+      <c r="D87" s="22">
+        <v>300002</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" s="23">
+        <v>10034001</v>
+      </c>
+      <c r="G87" s="11">
+        <v>13</v>
+      </c>
+      <c r="H87" s="11">
+        <v>600</v>
+      </c>
+      <c r="I87" s="11">
+        <v>100</v>
+      </c>
+      <c r="J87" s="11">
+        <v>1</v>
+      </c>
+      <c r="K87" s="11">
+        <v>99</v>
+      </c>
+      <c r="L87" s="11">
+        <v>1</v>
+      </c>
+      <c r="M87" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C88" s="22">
+        <v>300002</v>
+      </c>
+      <c r="D88" s="22">
+        <v>300003</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="23">
+        <v>10034002</v>
+      </c>
+      <c r="G88" s="11">
+        <v>13</v>
+      </c>
+      <c r="H88" s="11">
+        <v>900</v>
+      </c>
+      <c r="I88" s="11">
+        <v>100</v>
+      </c>
+      <c r="J88" s="11">
+        <v>1</v>
+      </c>
+      <c r="K88" s="11">
+        <v>99</v>
+      </c>
+      <c r="L88" s="11">
+        <v>2</v>
+      </c>
+      <c r="M88" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C89" s="22">
+        <v>300003</v>
+      </c>
+      <c r="D89" s="22">
+        <v>300004</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" s="23">
+        <v>10034003</v>
+      </c>
+      <c r="G89" s="11">
+        <v>13</v>
+      </c>
+      <c r="H89" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I89" s="11">
+        <v>100</v>
+      </c>
+      <c r="J89" s="11">
+        <v>1</v>
+      </c>
+      <c r="K89" s="11">
+        <v>99</v>
+      </c>
+      <c r="L89" s="11">
+        <v>3</v>
+      </c>
+      <c r="M89" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C90" s="22">
+        <v>300004</v>
+      </c>
+      <c r="D90" s="22">
+        <v>300005</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="23">
+        <v>10034004</v>
+      </c>
+      <c r="G90" s="11">
+        <v>13</v>
+      </c>
+      <c r="H90" s="11">
+        <v>1500</v>
+      </c>
+      <c r="I90" s="11">
+        <v>100</v>
+      </c>
+      <c r="J90" s="11">
+        <v>1</v>
+      </c>
+      <c r="K90" s="11">
+        <v>99</v>
+      </c>
+      <c r="L90" s="11">
+        <v>5</v>
+      </c>
+      <c r="M90" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C91" s="22">
+        <v>300005</v>
+      </c>
+      <c r="D91" s="22">
+        <v>300006</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="23">
+        <v>10034005</v>
+      </c>
+      <c r="G91" s="11">
+        <v>13</v>
+      </c>
+      <c r="H91" s="11">
+        <v>1800</v>
+      </c>
+      <c r="I91" s="11">
+        <v>100</v>
+      </c>
+      <c r="J91" s="11">
+        <v>1</v>
+      </c>
+      <c r="K91" s="11">
+        <v>99</v>
+      </c>
+      <c r="L91" s="11">
+        <v>7</v>
+      </c>
+      <c r="M91" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C92" s="22">
+        <v>300006</v>
+      </c>
+      <c r="D92" s="22">
+        <v>300007</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="23">
+        <v>10034006</v>
+      </c>
+      <c r="G92" s="11">
+        <v>13</v>
+      </c>
+      <c r="H92" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I92" s="11">
+        <v>100</v>
+      </c>
+      <c r="J92" s="11">
+        <v>1</v>
+      </c>
+      <c r="K92" s="11">
+        <v>99</v>
+      </c>
+      <c r="L92" s="11">
+        <v>9</v>
+      </c>
+      <c r="M92" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C93" s="22">
+        <v>300007</v>
+      </c>
+      <c r="D93" s="22">
+        <v>300008</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" s="23">
+        <v>10034007</v>
+      </c>
+      <c r="G93" s="11">
+        <v>13</v>
+      </c>
+      <c r="H93" s="11">
+        <v>2300</v>
+      </c>
+      <c r="I93" s="11">
+        <v>100</v>
+      </c>
+      <c r="J93" s="11">
+        <v>1</v>
+      </c>
+      <c r="K93" s="11">
+        <v>99</v>
+      </c>
+      <c r="L93" s="11">
+        <v>11</v>
+      </c>
+      <c r="M93" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C94" s="22">
+        <v>300008</v>
+      </c>
+      <c r="D94" s="22">
+        <v>300009</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="23">
+        <v>10034008</v>
+      </c>
+      <c r="G94" s="11">
+        <v>13</v>
+      </c>
+      <c r="H94" s="11">
+        <v>2600</v>
+      </c>
+      <c r="I94" s="11">
+        <v>100</v>
+      </c>
+      <c r="J94" s="11">
+        <v>1</v>
+      </c>
+      <c r="K94" s="11">
+        <v>99</v>
+      </c>
+      <c r="L94" s="11">
+        <v>13</v>
+      </c>
+      <c r="M94" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C95" s="22">
+        <v>300009</v>
+      </c>
+      <c r="D95" s="22">
+        <v>300010</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="23">
+        <v>10034009</v>
+      </c>
+      <c r="G95" s="11">
+        <v>13</v>
+      </c>
+      <c r="H95" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I95" s="11">
+        <v>100</v>
+      </c>
+      <c r="J95" s="11">
+        <v>1</v>
+      </c>
+      <c r="K95" s="11">
+        <v>99</v>
+      </c>
+      <c r="L95" s="11">
+        <v>15</v>
+      </c>
+      <c r="M95" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C96" s="22">
+        <v>300010</v>
+      </c>
+      <c r="D96" s="22">
+        <v>300011</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="23">
+        <v>10034010</v>
+      </c>
+      <c r="G96" s="11">
+        <v>13</v>
+      </c>
+      <c r="H96" s="11">
+        <v>3400</v>
+      </c>
+      <c r="I96" s="11">
+        <v>100</v>
+      </c>
+      <c r="J96" s="11">
+        <v>1</v>
+      </c>
+      <c r="K96" s="11">
+        <v>99</v>
+      </c>
+      <c r="L96" s="11">
+        <v>17</v>
+      </c>
+      <c r="M96" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C97" s="22">
+        <v>300011</v>
+      </c>
+      <c r="D97" s="22">
+        <v>300012</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" s="23">
+        <v>10034011</v>
+      </c>
+      <c r="G97" s="11">
+        <v>13</v>
+      </c>
+      <c r="H97" s="11">
+        <v>3800</v>
+      </c>
+      <c r="I97" s="11">
+        <v>100</v>
+      </c>
+      <c r="J97" s="11">
+        <v>1</v>
+      </c>
+      <c r="K97" s="11">
+        <v>99</v>
+      </c>
+      <c r="L97" s="11">
+        <v>19</v>
+      </c>
+      <c r="M97" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C98" s="22">
+        <v>300012</v>
+      </c>
+      <c r="D98" s="22">
+        <v>300013</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" s="23">
+        <v>10034012</v>
+      </c>
+      <c r="G98" s="11">
+        <v>13</v>
+      </c>
+      <c r="H98" s="11">
+        <v>4200</v>
+      </c>
+      <c r="I98" s="11">
+        <v>100</v>
+      </c>
+      <c r="J98" s="11">
+        <v>1</v>
+      </c>
+      <c r="K98" s="11">
+        <v>99</v>
+      </c>
+      <c r="L98" s="11">
+        <v>21</v>
+      </c>
+      <c r="M98" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C99" s="22">
+        <v>300013</v>
+      </c>
+      <c r="D99" s="22">
+        <v>300014</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" s="23">
+        <v>10034013</v>
+      </c>
+      <c r="G99" s="11">
+        <v>13</v>
+      </c>
+      <c r="H99" s="11">
+        <v>4600</v>
+      </c>
+      <c r="I99" s="11">
+        <v>100</v>
+      </c>
+      <c r="J99" s="11">
+        <v>1</v>
+      </c>
+      <c r="K99" s="11">
+        <v>99</v>
+      </c>
+      <c r="L99" s="11">
+        <v>23</v>
+      </c>
+      <c r="M99" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C100" s="22">
+        <v>300014</v>
+      </c>
+      <c r="D100" s="24">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="23">
+        <v>10034014</v>
+      </c>
+      <c r="G100" s="11">
+        <v>13</v>
+      </c>
+      <c r="H100" s="11">
+        <v>5000</v>
+      </c>
+      <c r="I100" s="11">
+        <v>100</v>
+      </c>
+      <c r="J100" s="11">
+        <v>1</v>
+      </c>
+      <c r="K100" s="11">
+        <v>99</v>
+      </c>
+      <c r="L100" s="11">
+        <v>25</v>
+      </c>
+      <c r="M100" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" ht="20.1" customHeight="1"/>
+    <row r="102" ht="20.1" customHeight="1"/>
+    <row r="103" ht="20.1" customHeight="1"/>
+    <row r="104" ht="20.1" customHeight="1"/>
+    <row r="105" ht="20.1" customHeight="1"/>
+    <row r="106" ht="20.1" customHeight="1"/>
+    <row r="107" ht="20.1" customHeight="1"/>
+    <row r="108" ht="20.1" customHeight="1"/>
+    <row r="109" ht="20.1" customHeight="1"/>
+    <row r="110" ht="20.1" customHeight="1"/>
+    <row r="111" ht="20.1" customHeight="1"/>
+    <row r="112" ht="20.1" customHeight="1"/>
+    <row r="113" ht="20.1" customHeight="1"/>
+    <row r="114" ht="20.1" customHeight="1"/>
+    <row r="115" ht="20.1" customHeight="1"/>
+    <row r="116" ht="20.1" customHeight="1"/>
+    <row r="117" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B961DA5-B5CD-4FD9-B71C-FBB459A1FF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -379,14 +385,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +417,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -443,7 +443,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,170 +460,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,67 +504,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
+        <fgColor theme="0" tint="-0.14947965941343425"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,216 +564,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1010,30 +678,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1047,1152 +691,949 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2201,7 +1642,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,7 +1651,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2222,10 +1663,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,13 +1675,13 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,381 +1693,330 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2646,11 +2036,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2935,19 +2333,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="4" width="18.875" customWidth="1"/>
@@ -2960,8 +2358,8 @@
     <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+    <row r="1" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2993,7 +2391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +2423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -3057,7 +2455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:16">
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>100001</v>
       </c>
@@ -3098,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:16">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>100002</v>
       </c>
@@ -3139,7 +2537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:16">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
         <v>100003</v>
       </c>
@@ -3180,7 +2578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:16">
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>100004</v>
       </c>
@@ -3221,7 +2619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:16">
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>100005</v>
       </c>
@@ -3262,7 +2660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:16">
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <v>100006</v>
       </c>
@@ -3303,7 +2701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:16">
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>100007</v>
       </c>
@@ -3344,7 +2742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:16">
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>100008</v>
       </c>
@@ -3385,7 +2783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:16">
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>100009</v>
       </c>
@@ -3426,7 +2824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:16">
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>100010</v>
       </c>
@@ -3467,7 +2865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:13">
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <v>100011</v>
       </c>
@@ -3502,7 +2900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:13">
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <v>100012</v>
       </c>
@@ -3537,7 +2935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:13">
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
         <v>100013</v>
       </c>
@@ -3572,7 +2970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:13">
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
         <v>100014</v>
       </c>
@@ -3607,7 +3005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:13">
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5">
         <v>100015</v>
       </c>
@@ -3642,7 +3040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:13">
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5">
         <v>100016</v>
       </c>
@@ -3677,7 +3075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:13">
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5">
         <v>100017</v>
       </c>
@@ -3712,7 +3110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:13">
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5">
         <v>100018</v>
       </c>
@@ -3747,7 +3145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:13">
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5">
         <v>100019</v>
       </c>
@@ -3782,7 +3180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:13">
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
         <v>100020</v>
       </c>
@@ -3817,7 +3215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:13">
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
         <v>100021</v>
       </c>
@@ -3852,7 +3250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:13">
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5">
         <v>100022</v>
       </c>
@@ -3887,7 +3285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:13">
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5">
         <v>100023</v>
       </c>
@@ -3922,7 +3320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5">
         <v>100024</v>
       </c>
@@ -3957,7 +3355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:13">
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="5">
         <v>100025</v>
       </c>
@@ -3992,7 +3390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:13">
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
         <v>100026</v>
       </c>
@@ -4027,7 +3425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:13">
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
         <v>100027</v>
       </c>
@@ -4062,7 +3460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
         <v>100028</v>
       </c>
@@ -4097,7 +3495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:13">
+    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
         <v>100029</v>
       </c>
@@ -4132,7 +3530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:13">
+    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
         <v>100030</v>
       </c>
@@ -4167,7 +3565,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:13">
+    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
         <v>200001</v>
       </c>
@@ -4202,7 +3600,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:13">
+    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5">
         <v>200002</v>
       </c>
@@ -4237,7 +3635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:13">
+    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
         <v>200003</v>
       </c>
@@ -4272,7 +3670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:13">
+    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5">
         <v>200004</v>
       </c>
@@ -4307,7 +3705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:13">
+    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
         <v>200005</v>
       </c>
@@ -4342,7 +3740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:13">
+    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
         <v>200006</v>
       </c>
@@ -4377,7 +3775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:13">
+    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
         <v>200007</v>
       </c>
@@ -4412,7 +3810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:13">
+    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5">
         <v>200008</v>
       </c>
@@ -4447,7 +3845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:13">
+    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="5">
         <v>200009</v>
       </c>
@@ -4482,7 +3880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
+    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="5">
         <v>200010</v>
       </c>
@@ -4517,7 +3915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:13">
+    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="5">
         <v>200011</v>
       </c>
@@ -4552,7 +3950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:13">
+    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="5">
         <v>200012</v>
       </c>
@@ -4587,7 +3985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:13">
+    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="5">
         <v>200013</v>
       </c>
@@ -4622,7 +4020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:13">
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
         <v>200014</v>
       </c>
@@ -4657,7 +4055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:13">
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
         <v>200015</v>
       </c>
@@ -4692,7 +4090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:13">
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
         <v>200016</v>
       </c>
@@ -4727,7 +4125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:13">
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
         <v>200017</v>
       </c>
@@ -4762,7 +4160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:13">
+    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
         <v>200018</v>
       </c>
@@ -4797,7 +4195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:13">
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
         <v>200019</v>
       </c>
@@ -4832,7 +4230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:13">
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
         <v>200020</v>
       </c>
@@ -4867,7 +4265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:13">
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
         <v>200021</v>
       </c>
@@ -4902,7 +4300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:13">
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
         <v>200022</v>
       </c>
@@ -4937,7 +4335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:13">
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
         <v>200023</v>
       </c>
@@ -4972,7 +4370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:13">
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
         <v>200024</v>
       </c>
@@ -5007,7 +4405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:13">
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
         <v>200025</v>
       </c>
@@ -5042,7 +4440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:13">
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
         <v>200026</v>
       </c>
@@ -5077,7 +4475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:13">
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
         <v>200027</v>
       </c>
@@ -5112,7 +4510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:13">
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
         <v>200028</v>
       </c>
@@ -5147,7 +4545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:13">
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
         <v>200029</v>
       </c>
@@ -5182,7 +4580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:13">
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
         <v>200030</v>
       </c>
@@ -5217,7 +4615,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:13">
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
         <v>200031</v>
       </c>
@@ -5252,7 +4650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5">
         <v>200032</v>
       </c>
@@ -5287,7 +4685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:13">
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5">
         <v>200033</v>
       </c>
@@ -5322,7 +4720,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:13">
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5">
         <v>200034</v>
       </c>
@@ -5357,7 +4755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:13">
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="5">
         <v>200035</v>
       </c>
@@ -5392,7 +4790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:13">
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="5">
         <v>200036</v>
       </c>
@@ -5427,7 +4825,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:13">
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5">
         <v>200037</v>
       </c>
@@ -5462,7 +4860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="5">
         <v>200038</v>
       </c>
@@ -5497,7 +4895,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:13">
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="5">
         <v>200039</v>
       </c>
@@ -5532,7 +4930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:13">
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5">
         <v>200040</v>
       </c>
@@ -5567,7 +4965,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:13">
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="5">
         <v>200041</v>
       </c>
@@ -5602,7 +5000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:13">
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="5">
         <v>200042</v>
       </c>
@@ -5637,7 +5035,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="5">
         <v>200043</v>
       </c>
@@ -5672,7 +5070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:13">
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="5">
         <v>200044</v>
       </c>
@@ -5707,7 +5105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:13">
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5">
         <v>200045</v>
       </c>
@@ -5742,7 +5140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:13">
+    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5">
         <v>200046</v>
       </c>
@@ -5777,7 +5175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:13">
+    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5">
         <v>200047</v>
       </c>
@@ -5812,7 +5210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:13">
+    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="5">
         <v>200048</v>
       </c>
@@ -5847,7 +5245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:13">
+    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="5">
         <v>200049</v>
       </c>
@@ -5882,7 +5280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:13">
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="5">
         <v>200050</v>
       </c>
@@ -5917,7 +5315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:13">
+    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="5">
         <v>200051</v>
       </c>
@@ -5952,7 +5350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:13">
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="22">
         <v>300001</v>
       </c>
@@ -5983,11 +5381,11 @@
       <c r="L87" s="11">
         <v>1</v>
       </c>
-      <c r="M87" s="25" t="s">
+      <c r="M87" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:13">
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="22">
         <v>300002</v>
       </c>
@@ -6018,11 +5416,11 @@
       <c r="L88" s="11">
         <v>2</v>
       </c>
-      <c r="M88" s="25" t="s">
+      <c r="M88" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:13">
+    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="22">
         <v>300003</v>
       </c>
@@ -6053,11 +5451,11 @@
       <c r="L89" s="11">
         <v>3</v>
       </c>
-      <c r="M89" s="25" t="s">
+      <c r="M89" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:13">
+    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="22">
         <v>300004</v>
       </c>
@@ -6088,11 +5486,11 @@
       <c r="L90" s="11">
         <v>5</v>
       </c>
-      <c r="M90" s="25" t="s">
+      <c r="M90" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:13">
+    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="22">
         <v>300005</v>
       </c>
@@ -6123,11 +5521,11 @@
       <c r="L91" s="11">
         <v>7</v>
       </c>
-      <c r="M91" s="25" t="s">
+      <c r="M91" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:13">
+    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="22">
         <v>300006</v>
       </c>
@@ -6158,11 +5556,11 @@
       <c r="L92" s="11">
         <v>9</v>
       </c>
-      <c r="M92" s="25" t="s">
+      <c r="M92" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:13">
+    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="22">
         <v>300007</v>
       </c>
@@ -6193,11 +5591,11 @@
       <c r="L93" s="11">
         <v>11</v>
       </c>
-      <c r="M93" s="25" t="s">
+      <c r="M93" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:13">
+    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="22">
         <v>300008</v>
       </c>
@@ -6228,11 +5626,11 @@
       <c r="L94" s="11">
         <v>13</v>
       </c>
-      <c r="M94" s="25" t="s">
+      <c r="M94" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:13">
+    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="22">
         <v>300009</v>
       </c>
@@ -6263,11 +5661,11 @@
       <c r="L95" s="11">
         <v>15</v>
       </c>
-      <c r="M95" s="25" t="s">
+      <c r="M95" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:13">
+    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="22">
         <v>300010</v>
       </c>
@@ -6298,11 +5696,11 @@
       <c r="L96" s="11">
         <v>17</v>
       </c>
-      <c r="M96" s="25" t="s">
+      <c r="M96" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:13">
+    <row r="97" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="22">
         <v>300011</v>
       </c>
@@ -6333,11 +5731,11 @@
       <c r="L97" s="11">
         <v>19</v>
       </c>
-      <c r="M97" s="25" t="s">
+      <c r="M97" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:13">
+    <row r="98" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="22">
         <v>300012</v>
       </c>
@@ -6368,11 +5766,11 @@
       <c r="L98" s="11">
         <v>21</v>
       </c>
-      <c r="M98" s="25" t="s">
+      <c r="M98" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:13">
+    <row r="99" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="22">
         <v>300013</v>
       </c>
@@ -6403,15 +5801,15 @@
       <c r="L99" s="11">
         <v>23</v>
       </c>
-      <c r="M99" s="25" t="s">
+      <c r="M99" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:13">
+    <row r="100" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="22">
         <v>300014</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="22">
         <v>0</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -6438,30 +5836,30 @@
       <c r="L100" s="11">
         <v>25</v>
       </c>
-      <c r="M100" s="25" t="s">
+      <c r="M100" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1"/>
-    <row r="102" ht="20.1" customHeight="1"/>
-    <row r="103" ht="20.1" customHeight="1"/>
-    <row r="104" ht="20.1" customHeight="1"/>
-    <row r="105" ht="20.1" customHeight="1"/>
-    <row r="106" ht="20.1" customHeight="1"/>
-    <row r="107" ht="20.1" customHeight="1"/>
-    <row r="108" ht="20.1" customHeight="1"/>
-    <row r="109" ht="20.1" customHeight="1"/>
-    <row r="110" ht="20.1" customHeight="1"/>
-    <row r="111" ht="20.1" customHeight="1"/>
-    <row r="112" ht="20.1" customHeight="1"/>
-    <row r="113" ht="20.1" customHeight="1"/>
-    <row r="114" ht="20.1" customHeight="1"/>
-    <row r="115" ht="20.1" customHeight="1"/>
-    <row r="116" ht="20.1" customHeight="1"/>
-    <row r="117" ht="20.1" customHeight="1"/>
+    <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B961DA5-B5CD-4FD9-B71C-FBB459A1FF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB0C85-E277-488B-A04D-601D53F36FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2341,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB0C85-E277-488B-A04D-601D53F36FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84EF11-311A-4534-AEA5-F19E76D8A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -380,6 +380,13 @@
   </si>
   <si>
     <t>向日葵种子</t>
+  </si>
+  <si>
+    <t>璀璨传承</t>
+  </si>
+  <si>
+    <t>传承灵石</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,6 +404,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -404,12 +412,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -423,12 +433,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -436,6 +448,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -449,12 +462,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -462,6 +477,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2339,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P117"/>
+  <dimension ref="C1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3460,7 +3476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
         <v>100028</v>
       </c>
@@ -3495,7 +3511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
         <v>100029</v>
       </c>
@@ -3530,12 +3546,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
         <v>100030</v>
       </c>
       <c r="D35" s="5">
-        <v>0</v>
+        <v>100031</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>22</v>
@@ -3565,88 +3581,100 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
+        <v>100031</v>
+      </c>
+      <c r="D36" s="5">
+        <v>100032</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10000152</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>960</v>
+      </c>
+      <c r="I36" s="5">
+        <v>200</v>
+      </c>
+      <c r="J36" s="11">
+        <v>7</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" s="13">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5">
+        <v>100032</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="6">
+        <v>10000157</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>960</v>
+      </c>
+      <c r="I37" s="5">
+        <v>200</v>
+      </c>
+      <c r="J37" s="11">
+        <v>7</v>
+      </c>
+      <c r="K37" s="5">
+        <v>2</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O37" s="13">
+        <v>1</v>
+      </c>
+      <c r="P37" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="5">
         <v>200001</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D38" s="5">
         <v>200002</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="8">
-        <v>10020001</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5">
-        <v>50</v>
-      </c>
-      <c r="I36" s="11">
-        <v>50</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="11">
-        <v>20</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="5">
-        <v>200002</v>
-      </c>
-      <c r="D37" s="5">
-        <v>200003</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="8">
-        <v>10021001</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>50</v>
-      </c>
-      <c r="I37" s="11">
-        <v>50</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11">
-        <v>20</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="5">
-        <v>200003</v>
-      </c>
-      <c r="D38" s="5">
-        <v>200004</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="8">
-        <v>10021002</v>
+        <v>10020001</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -3666,22 +3694,22 @@
       <c r="L38" s="5">
         <v>0</v>
       </c>
-      <c r="M38" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5">
-        <v>200004</v>
+        <v>200002</v>
       </c>
       <c r="D39" s="5">
-        <v>200005</v>
-      </c>
-      <c r="E39" s="9" t="s">
+        <v>200003</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="8">
-        <v>10021003</v>
+        <v>10021001</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -3702,21 +3730,21 @@
         <v>0</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
-        <v>200005</v>
+        <v>200003</v>
       </c>
       <c r="D40" s="5">
-        <v>200006</v>
+        <v>200004</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="8">
-        <v>10021004</v>
+        <v>10021002</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -3737,21 +3765,21 @@
         <v>0</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
-        <v>200006</v>
+        <v>200004</v>
       </c>
       <c r="D41" s="5">
-        <v>200007</v>
-      </c>
-      <c r="E41" s="5" t="s">
+        <v>200005</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="8">
-        <v>10021005</v>
+        <v>10021003</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -3772,21 +3800,21 @@
         <v>0</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
-        <v>200007</v>
+        <v>200005</v>
       </c>
       <c r="D42" s="5">
-        <v>200008</v>
+        <v>200006</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F42" s="8">
-        <v>10021006</v>
+        <v>10021004</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -3807,21 +3835,21 @@
         <v>0</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5">
-        <v>200008</v>
+        <v>200006</v>
       </c>
       <c r="D43" s="5">
-        <v>200009</v>
+        <v>200007</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F43" s="8">
-        <v>10021007</v>
+        <v>10021005</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -3842,173 +3870,173 @@
         <v>0</v>
       </c>
       <c r="M43" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
+        <v>200007</v>
+      </c>
+      <c r="D44" s="5">
+        <v>200008</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="8">
+        <v>10021006</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>50</v>
+      </c>
+      <c r="I44" s="11">
+        <v>50</v>
+      </c>
+      <c r="J44" s="11">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>20</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
+        <v>200008</v>
+      </c>
+      <c r="D45" s="5">
+        <v>200009</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="8">
+        <v>10021007</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>50</v>
+      </c>
+      <c r="I45" s="11">
+        <v>50</v>
+      </c>
+      <c r="J45" s="11">
+        <v>1</v>
+      </c>
+      <c r="K45" s="11">
+        <v>20</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="5">
+    <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
         <v>200009</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D46" s="5">
         <v>200010</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F46" s="8">
         <v>10021008</v>
       </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
         <v>10000</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I46" s="11">
         <v>10000</v>
       </c>
-      <c r="J44" s="11">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11">
-        <v>1</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="20" t="s">
+      <c r="J46" s="11">
+        <v>1</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="5">
+    <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="5">
         <v>200010</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D47" s="5">
         <v>200011</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F47" s="8">
         <v>10021009</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
         <v>25000</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I47" s="11">
         <v>25000</v>
       </c>
-      <c r="J45" s="11">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11">
-        <v>1</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="20" t="s">
+      <c r="J47" s="11">
+        <v>1</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="5">
+    <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
         <v>200011</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D48" s="5">
         <v>200012</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="8">
-        <v>10021010</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
-        <v>50</v>
-      </c>
-      <c r="I46" s="11">
-        <v>50</v>
-      </c>
-      <c r="J46" s="11">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11">
-        <v>20</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="5">
-        <v>200012</v>
-      </c>
-      <c r="D47" s="5">
-        <v>200013</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="8">
-        <v>10022001</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
-        <v>80</v>
-      </c>
-      <c r="I47" s="11">
-        <v>80</v>
-      </c>
-      <c r="J47" s="11">
-        <v>2</v>
-      </c>
-      <c r="K47" s="11">
-        <v>20</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="5">
-        <v>200013</v>
-      </c>
-      <c r="D48" s="5">
-        <v>200014</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F48" s="8">
-        <v>10022002</v>
+        <v>10021010</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
       </c>
       <c r="H48" s="5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I48" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J48" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="11">
         <v>20</v>
@@ -4016,22 +4044,22 @@
       <c r="L48" s="5">
         <v>0</v>
       </c>
-      <c r="M48" s="19" t="s">
-        <v>66</v>
+      <c r="M48" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
-        <v>200014</v>
+        <v>200012</v>
       </c>
       <c r="D49" s="5">
-        <v>200015</v>
+        <v>200013</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F49" s="8">
-        <v>10022003</v>
+        <v>10022001</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -4052,21 +4080,21 @@
         <v>0</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
-        <v>200015</v>
+        <v>200013</v>
       </c>
       <c r="D50" s="5">
-        <v>200016</v>
+        <v>200014</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F50" s="8">
-        <v>10022004</v>
+        <v>10022002</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -4087,21 +4115,21 @@
         <v>0</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
-        <v>200016</v>
+        <v>200014</v>
       </c>
       <c r="D51" s="5">
-        <v>200017</v>
+        <v>200015</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F51" s="8">
-        <v>10022005</v>
+        <v>10022003</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -4122,21 +4150,21 @@
         <v>0</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
-        <v>200017</v>
+        <v>200015</v>
       </c>
       <c r="D52" s="5">
-        <v>200018</v>
+        <v>200016</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F52" s="8">
-        <v>10022006</v>
+        <v>10022004</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -4156,22 +4184,22 @@
       <c r="L52" s="5">
         <v>0</v>
       </c>
-      <c r="M52" s="21" t="s">
-        <v>70</v>
+      <c r="M52" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
-        <v>200018</v>
+        <v>200016</v>
       </c>
       <c r="D53" s="5">
-        <v>200019</v>
-      </c>
-      <c r="E53" s="5" t="s">
+        <v>200017</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F53" s="8">
-        <v>10022007</v>
+        <v>10022005</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
@@ -4192,173 +4220,173 @@
         <v>0</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
-        <v>200019</v>
+        <v>200017</v>
       </c>
       <c r="D54" s="5">
-        <v>200020</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>26</v>
+        <v>200018</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F54" s="8">
-        <v>10022008</v>
+        <v>10022006</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
       </c>
       <c r="H54" s="5">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="I54" s="11">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="J54" s="11">
         <v>2</v>
       </c>
       <c r="K54" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L54" s="5">
         <v>0</v>
       </c>
-      <c r="M54" s="20" t="s">
-        <v>72</v>
+      <c r="M54" s="21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
-        <v>200020</v>
+        <v>200018</v>
       </c>
       <c r="D55" s="5">
-        <v>200021</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
+        <v>200019</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F55" s="8">
-        <v>10022009</v>
+        <v>10022007</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
       </c>
       <c r="H55" s="5">
-        <v>30000</v>
+        <v>80</v>
       </c>
       <c r="I55" s="11">
-        <v>30000</v>
+        <v>80</v>
       </c>
       <c r="J55" s="11">
         <v>2</v>
       </c>
       <c r="K55" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L55" s="5">
         <v>0</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>73</v>
+      <c r="M55" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
-        <v>200021</v>
+        <v>200019</v>
       </c>
       <c r="D56" s="5">
-        <v>200022</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>53</v>
+        <v>200020</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F56" s="8">
-        <v>10022010</v>
+        <v>10022008</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
       </c>
       <c r="H56" s="5">
-        <v>80</v>
+        <v>15000</v>
       </c>
       <c r="I56" s="11">
-        <v>80</v>
+        <v>15000</v>
       </c>
       <c r="J56" s="11">
         <v>2</v>
       </c>
       <c r="K56" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L56" s="5">
         <v>0</v>
       </c>
-      <c r="M56" s="19" t="s">
-        <v>74</v>
+      <c r="M56" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
-        <v>200022</v>
+        <v>200020</v>
       </c>
       <c r="D57" s="5">
-        <v>200023</v>
+        <v>200021</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F57" s="8">
-        <v>10023001</v>
+        <v>10022009</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
       </c>
       <c r="H57" s="5">
-        <v>120</v>
+        <v>30000</v>
       </c>
       <c r="I57" s="11">
-        <v>120</v>
+        <v>30000</v>
       </c>
       <c r="J57" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L57" s="5">
         <v>0</v>
       </c>
-      <c r="M57" s="19" t="s">
-        <v>75</v>
+      <c r="M57" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
-        <v>200023</v>
+        <v>200021</v>
       </c>
       <c r="D58" s="5">
-        <v>200024</v>
+        <v>200022</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F58" s="8">
-        <v>10023002</v>
+        <v>10022010</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
       </c>
       <c r="H58" s="5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I58" s="11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J58" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" s="11">
         <v>20</v>
@@ -4367,21 +4395,21 @@
         <v>0</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
-        <v>200024</v>
+        <v>200022</v>
       </c>
       <c r="D59" s="5">
-        <v>200025</v>
+        <v>200023</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F59" s="8">
-        <v>10023003</v>
+        <v>10023001</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -4402,21 +4430,21 @@
         <v>0</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
-        <v>200025</v>
+        <v>200023</v>
       </c>
       <c r="D60" s="5">
-        <v>200026</v>
+        <v>200024</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F60" s="8">
-        <v>10023004</v>
+        <v>10023002</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -4437,21 +4465,21 @@
         <v>0</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
-        <v>200026</v>
+        <v>200024</v>
       </c>
       <c r="D61" s="5">
-        <v>200027</v>
+        <v>200025</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F61" s="8">
-        <v>10023005</v>
+        <v>10023003</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
@@ -4472,21 +4500,21 @@
         <v>0</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
-        <v>200027</v>
+        <v>200025</v>
       </c>
       <c r="D62" s="5">
-        <v>200028</v>
+        <v>200026</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F62" s="8">
-        <v>10023006</v>
+        <v>10023004</v>
       </c>
       <c r="G62" s="5">
         <v>1</v>
@@ -4507,21 +4535,21 @@
         <v>0</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
-        <v>200028</v>
+        <v>200026</v>
       </c>
       <c r="D63" s="5">
-        <v>200029</v>
+        <v>200027</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F63" s="8">
-        <v>10023007</v>
+        <v>10023005</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -4542,173 +4570,173 @@
         <v>0</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
-        <v>200029</v>
+        <v>200027</v>
       </c>
       <c r="D64" s="5">
-        <v>200030</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>26</v>
+        <v>200028</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F64" s="8">
-        <v>10023008</v>
+        <v>10023006</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="I64" s="11">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="J64" s="11">
         <v>3</v>
       </c>
       <c r="K64" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L64" s="5">
         <v>0</v>
       </c>
-      <c r="M64" s="20" t="s">
-        <v>82</v>
+      <c r="M64" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
-        <v>200030</v>
+        <v>200028</v>
       </c>
       <c r="D65" s="5">
-        <v>200031</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>26</v>
+        <v>200029</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F65" s="8">
-        <v>10023009</v>
+        <v>10023007</v>
       </c>
       <c r="G65" s="5">
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="I65" s="11">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="J65" s="11">
         <v>3</v>
       </c>
       <c r="K65" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
       </c>
-      <c r="M65" s="20" t="s">
-        <v>83</v>
+      <c r="M65" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
-        <v>200031</v>
+        <v>200029</v>
       </c>
       <c r="D66" s="5">
-        <v>200032</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>53</v>
+        <v>200030</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F66" s="8">
-        <v>10023010</v>
+        <v>10023008</v>
       </c>
       <c r="G66" s="5">
         <v>1</v>
       </c>
       <c r="H66" s="5">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="I66" s="11">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="J66" s="11">
         <v>3</v>
       </c>
       <c r="K66" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L66" s="5">
         <v>0</v>
       </c>
-      <c r="M66" s="19" t="s">
-        <v>84</v>
+      <c r="M66" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5">
-        <v>200032</v>
+        <v>200030</v>
       </c>
       <c r="D67" s="5">
-        <v>200033</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>53</v>
+        <v>200031</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F67" s="8">
-        <v>10024001</v>
+        <v>10023009</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
       </c>
       <c r="H67" s="5">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="I67" s="11">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="J67" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>
       </c>
-      <c r="M67" s="19" t="s">
-        <v>85</v>
+      <c r="M67" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5">
-        <v>200033</v>
+        <v>200031</v>
       </c>
       <c r="D68" s="5">
-        <v>200034</v>
+        <v>200032</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F68" s="8">
-        <v>10024002</v>
+        <v>10023010</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I68" s="11">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J68" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68" s="11">
         <v>20</v>
@@ -4717,21 +4745,21 @@
         <v>0</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5">
-        <v>200034</v>
+        <v>200032</v>
       </c>
       <c r="D69" s="5">
-        <v>200035</v>
+        <v>200033</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F69" s="8">
-        <v>10024003</v>
+        <v>10024001</v>
       </c>
       <c r="G69" s="5">
         <v>1</v>
@@ -4752,21 +4780,21 @@
         <v>0</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="5">
-        <v>200035</v>
+        <v>200033</v>
       </c>
       <c r="D70" s="5">
-        <v>200036</v>
+        <v>200034</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F70" s="8">
-        <v>10024004</v>
+        <v>10024002</v>
       </c>
       <c r="G70" s="5">
         <v>1</v>
@@ -4787,21 +4815,21 @@
         <v>0</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="5">
-        <v>200036</v>
+        <v>200034</v>
       </c>
       <c r="D71" s="5">
-        <v>200037</v>
+        <v>200035</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F71" s="8">
-        <v>10024005</v>
+        <v>10024003</v>
       </c>
       <c r="G71" s="5">
         <v>1</v>
@@ -4822,21 +4850,21 @@
         <v>0</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5">
-        <v>200037</v>
+        <v>200035</v>
       </c>
       <c r="D72" s="5">
-        <v>200038</v>
+        <v>200036</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F72" s="8">
-        <v>10024006</v>
+        <v>10024004</v>
       </c>
       <c r="G72" s="5">
         <v>1</v>
@@ -4857,21 +4885,21 @@
         <v>0</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="5">
-        <v>200038</v>
+        <v>200036</v>
       </c>
       <c r="D73" s="5">
-        <v>200039</v>
+        <v>200037</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F73" s="8">
-        <v>10024007</v>
+        <v>10024005</v>
       </c>
       <c r="G73" s="5">
         <v>1</v>
@@ -4892,173 +4920,173 @@
         <v>0</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="5">
-        <v>200039</v>
+        <v>200037</v>
       </c>
       <c r="D74" s="5">
-        <v>200040</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>26</v>
+        <v>200038</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F74" s="8">
-        <v>10024008</v>
+        <v>10024006</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="I74" s="11">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="J74" s="11">
         <v>5</v>
       </c>
       <c r="K74" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L74" s="5">
         <v>0</v>
       </c>
-      <c r="M74" s="20" t="s">
-        <v>92</v>
+      <c r="M74" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5">
-        <v>200040</v>
+        <v>200038</v>
       </c>
       <c r="D75" s="5">
-        <v>200041</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>26</v>
+        <v>200039</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F75" s="8">
-        <v>10024009</v>
+        <v>10024007</v>
       </c>
       <c r="G75" s="5">
         <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="I75" s="11">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="J75" s="11">
         <v>5</v>
       </c>
       <c r="K75" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L75" s="5">
         <v>0</v>
       </c>
-      <c r="M75" s="20" t="s">
-        <v>93</v>
+      <c r="M75" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="5">
-        <v>200041</v>
+        <v>200039</v>
       </c>
       <c r="D76" s="5">
-        <v>200042</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>53</v>
+        <v>200040</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F76" s="8">
-        <v>10024010</v>
+        <v>10024008</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
       </c>
       <c r="H76" s="5">
-        <v>150</v>
+        <v>25000</v>
       </c>
       <c r="I76" s="11">
-        <v>150</v>
+        <v>25000</v>
       </c>
       <c r="J76" s="11">
         <v>5</v>
       </c>
       <c r="K76" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L76" s="5">
         <v>0</v>
       </c>
-      <c r="M76" s="19" t="s">
-        <v>94</v>
+      <c r="M76" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="5">
-        <v>200042</v>
+        <v>200040</v>
       </c>
       <c r="D77" s="5">
-        <v>200043</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>53</v>
+        <v>200041</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F77" s="8">
-        <v>10025001</v>
+        <v>10024009</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
       </c>
       <c r="H77" s="5">
-        <v>180</v>
+        <v>50000</v>
       </c>
       <c r="I77" s="11">
-        <v>180</v>
+        <v>50000</v>
       </c>
       <c r="J77" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K77" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L77" s="5">
         <v>0</v>
       </c>
-      <c r="M77" s="19" t="s">
-        <v>95</v>
+      <c r="M77" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="5">
-        <v>200043</v>
+        <v>200041</v>
       </c>
       <c r="D78" s="5">
-        <v>200044</v>
+        <v>200042</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F78" s="8">
-        <v>10025002</v>
+        <v>10024010</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
       </c>
       <c r="H78" s="5">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I78" s="11">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J78" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K78" s="11">
         <v>20</v>
@@ -5067,21 +5095,21 @@
         <v>0</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="5">
-        <v>200044</v>
+        <v>200042</v>
       </c>
       <c r="D79" s="5">
-        <v>200045</v>
+        <v>200043</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F79" s="8">
-        <v>10025003</v>
+        <v>10025001</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
@@ -5102,21 +5130,21 @@
         <v>0</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5">
-        <v>200045</v>
+        <v>200043</v>
       </c>
       <c r="D80" s="5">
-        <v>200046</v>
+        <v>200044</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F80" s="8">
-        <v>10025004</v>
+        <v>10025002</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -5137,21 +5165,21 @@
         <v>0</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5">
-        <v>200046</v>
+        <v>200044</v>
       </c>
       <c r="D81" s="5">
-        <v>200047</v>
+        <v>200045</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F81" s="8">
-        <v>10025005</v>
+        <v>10025003</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
@@ -5172,21 +5200,21 @@
         <v>0</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5">
-        <v>200047</v>
+        <v>200045</v>
       </c>
       <c r="D82" s="5">
-        <v>200048</v>
+        <v>200046</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F82" s="8">
-        <v>10025006</v>
+        <v>10025004</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -5207,21 +5235,21 @@
         <v>0</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="5">
-        <v>200048</v>
+        <v>200046</v>
       </c>
       <c r="D83" s="5">
-        <v>200049</v>
+        <v>200047</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F83" s="8">
-        <v>10025007</v>
+        <v>10025005</v>
       </c>
       <c r="G83" s="5">
         <v>1</v>
@@ -5242,202 +5270,202 @@
         <v>0</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="5">
-        <v>200049</v>
+        <v>200047</v>
       </c>
       <c r="D84" s="5">
-        <v>200050</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>26</v>
+        <v>200048</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F84" s="8">
-        <v>10025008</v>
+        <v>10025006</v>
       </c>
       <c r="G84" s="5">
         <v>1</v>
       </c>
       <c r="H84" s="5">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="I84" s="11">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="J84" s="11">
         <v>7</v>
       </c>
       <c r="K84" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L84" s="5">
         <v>0</v>
       </c>
-      <c r="M84" s="20" t="s">
-        <v>102</v>
+      <c r="M84" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="5">
-        <v>200050</v>
+        <v>200048</v>
       </c>
       <c r="D85" s="5">
-        <v>200051</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>26</v>
+        <v>200049</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F85" s="8">
-        <v>10025009</v>
+        <v>10025007</v>
       </c>
       <c r="G85" s="5">
         <v>1</v>
       </c>
       <c r="H85" s="5">
-        <v>60000</v>
+        <v>180</v>
       </c>
       <c r="I85" s="11">
-        <v>60000</v>
+        <v>180</v>
       </c>
       <c r="J85" s="11">
         <v>7</v>
       </c>
       <c r="K85" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L85" s="5">
         <v>0</v>
       </c>
-      <c r="M85" s="20" t="s">
-        <v>103</v>
+      <c r="M85" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="5">
-        <v>200051</v>
+        <v>200049</v>
       </c>
       <c r="D86" s="5">
-        <v>0</v>
+        <v>200050</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F86" s="8">
-        <v>10025010</v>
+        <v>10025008</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
       </c>
       <c r="H86" s="5">
-        <v>180</v>
+        <v>30000</v>
       </c>
       <c r="I86" s="11">
-        <v>180</v>
+        <v>30000</v>
       </c>
       <c r="J86" s="11">
         <v>7</v>
       </c>
       <c r="K86" s="11">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="5">
+        <v>200050</v>
+      </c>
+      <c r="D87" s="5">
+        <v>200051</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="8">
+        <v>10025009</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5">
+        <v>60000</v>
+      </c>
+      <c r="I87" s="11">
+        <v>60000</v>
+      </c>
+      <c r="J87" s="11">
+        <v>7</v>
+      </c>
+      <c r="K87" s="11">
+        <v>1</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0</v>
+      </c>
+      <c r="M87" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="5">
+        <v>200051</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="8">
+        <v>10025010</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>180</v>
+      </c>
+      <c r="I88" s="11">
+        <v>180</v>
+      </c>
+      <c r="J88" s="11">
+        <v>7</v>
+      </c>
+      <c r="K88" s="11">
         <v>20</v>
       </c>
-      <c r="L86" s="5">
-        <v>0</v>
-      </c>
-      <c r="M86" s="20" t="s">
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="20" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="22">
-        <v>300001</v>
-      </c>
-      <c r="D87" s="22">
-        <v>300002</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F87" s="23">
-        <v>10034001</v>
-      </c>
-      <c r="G87" s="11">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11">
-        <v>600</v>
-      </c>
-      <c r="I87" s="11">
-        <v>100</v>
-      </c>
-      <c r="J87" s="11">
-        <v>1</v>
-      </c>
-      <c r="K87" s="11">
-        <v>99</v>
-      </c>
-      <c r="L87" s="11">
-        <v>1</v>
-      </c>
-      <c r="M87" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="22">
-        <v>300002</v>
-      </c>
-      <c r="D88" s="22">
-        <v>300003</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F88" s="23">
-        <v>10034002</v>
-      </c>
-      <c r="G88" s="11">
-        <v>13</v>
-      </c>
-      <c r="H88" s="11">
-        <v>900</v>
-      </c>
-      <c r="I88" s="11">
-        <v>100</v>
-      </c>
-      <c r="J88" s="11">
-        <v>1</v>
-      </c>
-      <c r="K88" s="11">
-        <v>99</v>
-      </c>
-      <c r="L88" s="11">
-        <v>2</v>
-      </c>
-      <c r="M88" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="22">
-        <v>300003</v>
+        <v>300001</v>
       </c>
       <c r="D89" s="22">
-        <v>300004</v>
+        <v>300002</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F89" s="23">
-        <v>10034003</v>
+        <v>10034001</v>
       </c>
       <c r="G89" s="11">
         <v>13</v>
       </c>
       <c r="H89" s="11">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="I89" s="11">
         <v>100</v>
@@ -5449,30 +5477,30 @@
         <v>99</v>
       </c>
       <c r="L89" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M89" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="22">
-        <v>300004</v>
+        <v>300002</v>
       </c>
       <c r="D90" s="22">
-        <v>300005</v>
+        <v>300003</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F90" s="23">
-        <v>10034004</v>
+        <v>10034002</v>
       </c>
       <c r="G90" s="11">
         <v>13</v>
       </c>
       <c r="H90" s="11">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="I90" s="11">
         <v>100</v>
@@ -5484,30 +5512,30 @@
         <v>99</v>
       </c>
       <c r="L90" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M90" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="22">
-        <v>300005</v>
+        <v>300003</v>
       </c>
       <c r="D91" s="22">
-        <v>300006</v>
+        <v>300004</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F91" s="23">
-        <v>10034005</v>
+        <v>10034003</v>
       </c>
       <c r="G91" s="11">
         <v>13</v>
       </c>
       <c r="H91" s="11">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="I91" s="11">
         <v>100</v>
@@ -5519,30 +5547,30 @@
         <v>99</v>
       </c>
       <c r="L91" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M91" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="22">
-        <v>300006</v>
+        <v>300004</v>
       </c>
       <c r="D92" s="22">
-        <v>300007</v>
+        <v>300005</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F92" s="23">
-        <v>10034006</v>
+        <v>10034004</v>
       </c>
       <c r="G92" s="11">
         <v>13</v>
       </c>
       <c r="H92" s="11">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I92" s="11">
         <v>100</v>
@@ -5554,30 +5582,30 @@
         <v>99</v>
       </c>
       <c r="L92" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M92" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="22">
-        <v>300007</v>
+        <v>300005</v>
       </c>
       <c r="D93" s="22">
-        <v>300008</v>
+        <v>300006</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F93" s="23">
-        <v>10034007</v>
+        <v>10034005</v>
       </c>
       <c r="G93" s="11">
         <v>13</v>
       </c>
       <c r="H93" s="11">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="I93" s="11">
         <v>100</v>
@@ -5589,30 +5617,30 @@
         <v>99</v>
       </c>
       <c r="L93" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="22">
-        <v>300008</v>
+        <v>300006</v>
       </c>
       <c r="D94" s="22">
-        <v>300009</v>
+        <v>300007</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F94" s="23">
-        <v>10034008</v>
+        <v>10034006</v>
       </c>
       <c r="G94" s="11">
         <v>13</v>
       </c>
       <c r="H94" s="11">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="I94" s="11">
         <v>100</v>
@@ -5624,30 +5652,30 @@
         <v>99</v>
       </c>
       <c r="L94" s="11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="22">
-        <v>300009</v>
+        <v>300007</v>
       </c>
       <c r="D95" s="22">
-        <v>300010</v>
+        <v>300008</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F95" s="23">
-        <v>10034009</v>
+        <v>10034007</v>
       </c>
       <c r="G95" s="11">
         <v>13</v>
       </c>
       <c r="H95" s="11">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="I95" s="11">
         <v>100</v>
@@ -5659,30 +5687,30 @@
         <v>99</v>
       </c>
       <c r="L95" s="11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="22">
-        <v>300010</v>
+        <v>300008</v>
       </c>
       <c r="D96" s="22">
-        <v>300011</v>
+        <v>300009</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F96" s="23">
-        <v>10034010</v>
+        <v>10034008</v>
       </c>
       <c r="G96" s="11">
         <v>13</v>
       </c>
       <c r="H96" s="11">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="I96" s="11">
         <v>100</v>
@@ -5694,30 +5722,30 @@
         <v>99</v>
       </c>
       <c r="L96" s="11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="22">
-        <v>300011</v>
+        <v>300009</v>
       </c>
       <c r="D97" s="22">
-        <v>300012</v>
+        <v>300010</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F97" s="23">
-        <v>10034011</v>
+        <v>10034009</v>
       </c>
       <c r="G97" s="11">
         <v>13</v>
       </c>
       <c r="H97" s="11">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="I97" s="11">
         <v>100</v>
@@ -5729,30 +5757,30 @@
         <v>99</v>
       </c>
       <c r="L97" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M97" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="22">
-        <v>300012</v>
+        <v>300010</v>
       </c>
       <c r="D98" s="22">
-        <v>300013</v>
+        <v>300011</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F98" s="23">
-        <v>10034012</v>
+        <v>10034010</v>
       </c>
       <c r="G98" s="11">
         <v>13</v>
       </c>
       <c r="H98" s="11">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="I98" s="11">
         <v>100</v>
@@ -5764,30 +5792,30 @@
         <v>99</v>
       </c>
       <c r="L98" s="11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M98" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="22">
-        <v>300013</v>
+        <v>300011</v>
       </c>
       <c r="D99" s="22">
-        <v>300014</v>
+        <v>300012</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F99" s="23">
-        <v>10034013</v>
+        <v>10034011</v>
       </c>
       <c r="G99" s="11">
         <v>13</v>
       </c>
       <c r="H99" s="11">
-        <v>4600</v>
+        <v>3800</v>
       </c>
       <c r="I99" s="11">
         <v>100</v>
@@ -5799,30 +5827,30 @@
         <v>99</v>
       </c>
       <c r="L99" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="22">
-        <v>300014</v>
+        <v>300012</v>
       </c>
       <c r="D100" s="22">
-        <v>0</v>
+        <v>300013</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F100" s="23">
-        <v>10034014</v>
+        <v>10034012</v>
       </c>
       <c r="G100" s="11">
         <v>13</v>
       </c>
       <c r="H100" s="11">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="I100" s="11">
         <v>100</v>
@@ -5834,14 +5862,82 @@
         <v>99</v>
       </c>
       <c r="L100" s="11">
+        <v>21</v>
+      </c>
+      <c r="M100" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="22">
+        <v>300013</v>
+      </c>
+      <c r="D101" s="22">
+        <v>300014</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="23">
+        <v>10034013</v>
+      </c>
+      <c r="G101" s="11">
+        <v>13</v>
+      </c>
+      <c r="H101" s="11">
+        <v>4600</v>
+      </c>
+      <c r="I101" s="11">
+        <v>100</v>
+      </c>
+      <c r="J101" s="11">
+        <v>1</v>
+      </c>
+      <c r="K101" s="11">
+        <v>99</v>
+      </c>
+      <c r="L101" s="11">
+        <v>23</v>
+      </c>
+      <c r="M101" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="22">
+        <v>300014</v>
+      </c>
+      <c r="D102" s="22">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="23">
+        <v>10034014</v>
+      </c>
+      <c r="G102" s="11">
+        <v>13</v>
+      </c>
+      <c r="H102" s="11">
+        <v>5000</v>
+      </c>
+      <c r="I102" s="11">
+        <v>100</v>
+      </c>
+      <c r="J102" s="11">
+        <v>1</v>
+      </c>
+      <c r="K102" s="11">
+        <v>99</v>
+      </c>
+      <c r="L102" s="11">
         <v>25</v>
       </c>
-      <c r="M100" s="24" t="s">
+      <c r="M102" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="104" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="105" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5857,6 +5953,8 @@
     <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84EF11-311A-4534-AEA5-F19E76D8A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785967B2-7AA8-4CAA-9166-B45DA98089DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2693,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="5">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="I11" s="5">
         <v>100</v>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="5">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="I12" s="5">
         <v>100</v>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785967B2-7AA8-4CAA-9166-B45DA98089DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5726CE-3EBE-4824-9903-50153DCE1D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AE6C5-5A2E-4D53-9610-905E758DBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="150">
   <si>
     <t>Id</t>
   </si>
@@ -469,14 +475,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,25 +487,28 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -513,18 +516,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -532,6 +537,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -539,6 +545,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -546,168 +553,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,79 +596,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149479659413434"/>
+        <fgColor theme="0" tint="-0.14944914090395825"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149021881771294"/>
+        <fgColor theme="0" tint="-0.1489913632618183"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.148991363261818"/>
+        <fgColor theme="0" tint="-0.14896084475234231"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,218 +702,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1112,7 +788,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.398998992889187"/>
+        <color theme="4" tint="0.39896847437971128"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -1130,36 +806,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.398998992889187"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.39896847437971128"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,91 +825,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1274,73 +843,31 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,58 +877,31 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1410,88 +910,43 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,12 +955,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1515,7 +964,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1524,7 +973,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1533,7 +982,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,7 +997,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1569,67 +1018,67 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1680,7 +1129,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,7 +1176,7 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1736,433 +1185,433 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -2188,7 +1637,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2209,7 +1658,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2272,40 +1721,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2318,10 +1767,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2330,7 +1779,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2339,7 +1788,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2351,10 +1800,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,13 +1812,13 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2390,7 +1839,7 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2403,374 +1852,326 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2790,11 +2191,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3079,19 +2488,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="4" width="18.875" customWidth="1"/>
@@ -3104,8 +2513,8 @@
     <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+    <row r="1" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +2546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +2578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3201,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:16">
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>100001</v>
       </c>
@@ -3242,7 +2651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:16">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
         <v>100002</v>
       </c>
@@ -3283,7 +2692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:16">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <v>100003</v>
       </c>
@@ -3324,7 +2733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:16">
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>100004</v>
       </c>
@@ -3365,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:16">
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>100005</v>
       </c>
@@ -3406,7 +2815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:16">
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>100006</v>
       </c>
@@ -3447,7 +2856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:16">
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>100007</v>
       </c>
@@ -3488,7 +2897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:16">
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>100008</v>
       </c>
@@ -3529,7 +2938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:16">
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
         <v>100009</v>
       </c>
@@ -3570,7 +2979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:16">
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
         <v>100010</v>
       </c>
@@ -3611,7 +3020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:13">
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>100011</v>
       </c>
@@ -3646,7 +3055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:13">
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
         <v>100012</v>
       </c>
@@ -3681,7 +3090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:13">
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
         <v>100013</v>
       </c>
@@ -3716,7 +3125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:13">
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
         <v>100014</v>
       </c>
@@ -3751,7 +3160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:13">
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
         <v>100015</v>
       </c>
@@ -3786,7 +3195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:13">
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
         <v>100016</v>
       </c>
@@ -3821,7 +3230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:13">
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
         <v>100017</v>
       </c>
@@ -3856,7 +3265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:13">
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
         <v>100018</v>
       </c>
@@ -3891,7 +3300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:13">
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>100019</v>
       </c>
@@ -3926,7 +3335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:13">
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
         <v>100020</v>
       </c>
@@ -3961,7 +3370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:13">
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>100021</v>
       </c>
@@ -3996,7 +3405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:13">
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
         <v>100022</v>
       </c>
@@ -4031,7 +3440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:13">
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <v>100023</v>
       </c>
@@ -4066,7 +3475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>100024</v>
       </c>
@@ -4101,7 +3510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:13">
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
         <v>100025</v>
       </c>
@@ -4136,7 +3545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:13">
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="6">
         <v>100026</v>
       </c>
@@ -4171,7 +3580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:13">
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6">
         <v>100027</v>
       </c>
@@ -4206,7 +3615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+    <row r="33" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="6">
         <v>100028</v>
       </c>
@@ -4241,7 +3650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:13">
+    <row r="34" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="6">
         <v>100029</v>
       </c>
@@ -4276,7 +3685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:13">
+    <row r="35" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="6">
         <v>100030</v>
       </c>
@@ -4311,7 +3720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="3:16">
+    <row r="36" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="6">
         <v>100031</v>
       </c>
@@ -4352,7 +3761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="3:16">
+    <row r="37" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="6">
         <v>100032</v>
       </c>
@@ -4393,7 +3802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:13">
+    <row r="38" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="6">
         <v>200001</v>
       </c>
@@ -4428,7 +3837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:13">
+    <row r="39" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6">
         <v>200002</v>
       </c>
@@ -4463,7 +3872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:13">
+    <row r="40" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="6">
         <v>200003</v>
       </c>
@@ -4498,7 +3907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:13">
+    <row r="41" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="6">
         <v>200004</v>
       </c>
@@ -4533,7 +3942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:13">
+    <row r="42" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="6">
         <v>200005</v>
       </c>
@@ -4568,7 +3977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:13">
+    <row r="43" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="6">
         <v>200006</v>
       </c>
@@ -4603,7 +4012,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:13">
+    <row r="44" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="6">
         <v>200007</v>
       </c>
@@ -4638,7 +4047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
+    <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="6">
         <v>200008</v>
       </c>
@@ -4673,7 +4082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:13">
+    <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="6">
         <v>200009</v>
       </c>
@@ -4708,7 +4117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:13">
+    <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="6">
         <v>200010</v>
       </c>
@@ -4743,7 +4152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:13">
+    <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="6">
         <v>200011</v>
       </c>
@@ -4778,7 +4187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:13">
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="6">
         <v>200012</v>
       </c>
@@ -4813,7 +4222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:13">
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="6">
         <v>200013</v>
       </c>
@@ -4848,7 +4257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:13">
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="6">
         <v>200014</v>
       </c>
@@ -4883,7 +4292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:13">
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="6">
         <v>200015</v>
       </c>
@@ -4918,7 +4327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:13">
+    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="6">
         <v>200016</v>
       </c>
@@ -4953,7 +4362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:13">
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="6">
         <v>200017</v>
       </c>
@@ -4988,7 +4397,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:13">
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6">
         <v>200018</v>
       </c>
@@ -5023,7 +4432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:13">
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6">
         <v>200019</v>
       </c>
@@ -5058,7 +4467,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:13">
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
         <v>200020</v>
       </c>
@@ -5093,7 +4502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:13">
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6">
         <v>200021</v>
       </c>
@@ -5128,7 +4537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:13">
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="6">
         <v>200022</v>
       </c>
@@ -5163,7 +4572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:13">
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <v>200023</v>
       </c>
@@ -5198,7 +4607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:13">
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <v>200024</v>
       </c>
@@ -5233,7 +4642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:13">
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="6">
         <v>200025</v>
       </c>
@@ -5268,7 +4677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:13">
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <v>200026</v>
       </c>
@@ -5303,7 +4712,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:13">
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="6">
         <v>200027</v>
       </c>
@@ -5338,7 +4747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:13">
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="6">
         <v>200028</v>
       </c>
@@ -5373,7 +4782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:13">
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="6">
         <v>200029</v>
       </c>
@@ -5408,7 +4817,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="6">
         <v>200030</v>
       </c>
@@ -5443,7 +4852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:13">
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="6">
         <v>200031</v>
       </c>
@@ -5478,7 +4887,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:13">
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="6">
         <v>200032</v>
       </c>
@@ -5513,7 +4922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:13">
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="6">
         <v>200033</v>
       </c>
@@ -5548,7 +4957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:13">
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="6">
         <v>200034</v>
       </c>
@@ -5583,7 +4992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:13">
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="6">
         <v>200035</v>
       </c>
@@ -5618,7 +5027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="6">
         <v>200036</v>
       </c>
@@ -5653,7 +5062,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:13">
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="6">
         <v>200037</v>
       </c>
@@ -5688,7 +5097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:13">
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="6">
         <v>200038</v>
       </c>
@@ -5723,7 +5132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:13">
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="6">
         <v>200039</v>
       </c>
@@ -5758,7 +5167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:13">
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="6">
         <v>200040</v>
       </c>
@@ -5793,7 +5202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="6">
         <v>200041</v>
       </c>
@@ -5828,7 +5237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:13">
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="6">
         <v>200042</v>
       </c>
@@ -5863,7 +5272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:13">
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="6">
         <v>200043</v>
       </c>
@@ -5898,7 +5307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:13">
+    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="6">
         <v>200044</v>
       </c>
@@ -5933,7 +5342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:13">
+    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="6">
         <v>200045</v>
       </c>
@@ -5968,7 +5377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:13">
+    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="6">
         <v>200046</v>
       </c>
@@ -6003,7 +5412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:13">
+    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="6">
         <v>200047</v>
       </c>
@@ -6038,7 +5447,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:13">
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="6">
         <v>200048</v>
       </c>
@@ -6073,7 +5482,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:13">
+    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="6">
         <v>200049</v>
       </c>
@@ -6108,7 +5517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:13">
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="6">
         <v>200050</v>
       </c>
@@ -6143,7 +5552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:13">
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="6">
         <v>200051</v>
       </c>
@@ -6178,7 +5587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:13">
+    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="6">
         <v>300001</v>
       </c>
@@ -6213,7 +5622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:13">
+    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="6">
         <v>300002</v>
       </c>
@@ -6248,7 +5657,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:13">
+    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="6">
         <v>300003</v>
       </c>
@@ -6283,7 +5692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:13">
+    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="6">
         <v>300004</v>
       </c>
@@ -6318,7 +5727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:13">
+    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="6">
         <v>300005</v>
       </c>
@@ -6353,7 +5762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:13">
+    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="6">
         <v>300006</v>
       </c>
@@ -6388,7 +5797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:13">
+    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="6">
         <v>300007</v>
       </c>
@@ -6423,7 +5832,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:13">
+    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="6">
         <v>300008</v>
       </c>
@@ -6458,7 +5867,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:13">
+    <row r="97" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="6">
         <v>300009</v>
       </c>
@@ -6493,7 +5902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:13">
+    <row r="98" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="6">
         <v>300010</v>
       </c>
@@ -6528,7 +5937,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:13">
+    <row r="99" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="6">
         <v>300011</v>
       </c>
@@ -6563,7 +5972,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:13">
+    <row r="100" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="6">
         <v>300012</v>
       </c>
@@ -6598,7 +6007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:13">
+    <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="6">
         <v>300013</v>
       </c>
@@ -6633,7 +6042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:13">
+    <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="6">
         <v>300014</v>
       </c>
@@ -6668,7 +6077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="103" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="6">
         <v>400001</v>
       </c>
@@ -6704,7 +6113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="104" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="6">
         <v>400002</v>
       </c>
@@ -6740,7 +6149,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="105" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="6">
         <v>400003</v>
       </c>
@@ -6776,7 +6185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="106" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="6">
         <v>400004</v>
       </c>
@@ -6812,7 +6221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="107" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="6">
         <v>400005</v>
       </c>
@@ -6848,7 +6257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="108" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="6">
         <v>400006</v>
       </c>
@@ -6884,7 +6293,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="109" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="6">
         <v>400007</v>
       </c>
@@ -6920,7 +6329,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="110" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="6">
         <v>400008</v>
       </c>
@@ -6956,7 +6365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="111" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="6">
         <v>400009</v>
       </c>
@@ -6992,7 +6401,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="112" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="6">
         <v>400010</v>
       </c>
@@ -7028,7 +6437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="113" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="6">
         <v>400011</v>
       </c>
@@ -7064,7 +6473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="114" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="6">
         <v>400012</v>
       </c>
@@ -7100,7 +6509,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="115" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="6">
         <v>400013</v>
       </c>
@@ -7136,7 +6545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="116" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="6">
         <v>400014</v>
       </c>
@@ -7172,7 +6581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="117" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="6">
         <v>400015</v>
       </c>
@@ -7208,7 +6617,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="118" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="6">
         <v>400016</v>
       </c>
@@ -7244,7 +6653,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="119" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="6">
         <v>400017</v>
       </c>
@@ -7280,7 +6689,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="120" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="6">
         <v>400018</v>
       </c>
@@ -7316,7 +6725,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="121" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="6">
         <v>400019</v>
       </c>
@@ -7352,7 +6761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="122" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="6">
         <v>400020</v>
       </c>
@@ -7388,7 +6797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="123" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="6">
         <v>400021</v>
       </c>
@@ -7424,7 +6833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="124" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="6">
         <v>400022</v>
       </c>
@@ -7460,7 +6869,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="125" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="6">
         <v>400023</v>
       </c>
@@ -7496,7 +6905,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="126" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="6">
         <v>400024</v>
       </c>
@@ -7532,7 +6941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="127" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="6">
         <v>400025</v>
       </c>
@@ -7568,7 +6977,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="128" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="6">
         <v>400026</v>
       </c>
@@ -7604,7 +7013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="129" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="6">
         <v>400027</v>
       </c>
@@ -7640,7 +7049,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="130" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="6">
         <v>400028</v>
       </c>
@@ -7676,17 +7085,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="132" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="133" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="134" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="135" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="136" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="137" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="138" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="131" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133E8F91-927F-4B7B-BD0B-E7AEC570DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -574,14 +580,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,25 +592,28 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -618,12 +621,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -631,6 +636,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -638,6 +644,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -645,29 +652,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -675,145 +660,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,49 +703,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149449140903958"/>
+        <fgColor theme="0" tint="-0.14941862239448225"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.148991363261818"/>
+        <fgColor theme="0" tint="-0.14896084475234231"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.148960844752342"/>
+        <fgColor theme="0" tint="-0.14893032624286631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149021881771294"/>
+        <fgColor theme="0" tint="-0.1489913632618183"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641044"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641044"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641044"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,252 +793,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1224,7 +901,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.398968474379711"/>
+        <color theme="4" tint="0.39893795587023528"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -1242,7 +919,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.398968474379711"/>
+        <color theme="4" tint="0.39893795587023528"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,27 +934,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.398998992889187"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.39896847437971128"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,1143 +953,936 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2445,16 +1895,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2463,7 +1913,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2475,10 +1925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2487,13 +1937,13 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2514,7 +1964,7 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,374 +1983,326 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2920,11 +2322,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3209,19 +2619,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:P165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:P179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B129" workbookViewId="0">
-      <selection activeCell="B165" sqref="$A137:$XFD165"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="4" width="18.875" customWidth="1"/>
@@ -3234,8 +2644,8 @@
     <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+    <row r="1" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +2677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +2709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +2741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:16">
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>100001</v>
       </c>
@@ -3372,7 +2782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:16">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>100002</v>
       </c>
@@ -3413,7 +2823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:16">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>100003</v>
       </c>
@@ -3454,7 +2864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:16">
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>100004</v>
       </c>
@@ -3495,7 +2905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:16">
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>100005</v>
       </c>
@@ -3536,7 +2946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:16">
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>100006</v>
       </c>
@@ -3577,7 +2987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:16">
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>100007</v>
       </c>
@@ -3618,7 +3028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:16">
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>100008</v>
       </c>
@@ -3659,7 +3069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:16">
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>100009</v>
       </c>
@@ -3700,7 +3110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:16">
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>100010</v>
       </c>
@@ -3741,7 +3151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:13">
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>100011</v>
       </c>
@@ -3776,7 +3186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:13">
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>100012</v>
       </c>
@@ -3811,7 +3221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:13">
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>100013</v>
       </c>
@@ -3846,7 +3256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:13">
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>100014</v>
       </c>
@@ -3881,7 +3291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:13">
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>100015</v>
       </c>
@@ -3916,7 +3326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:13">
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>100016</v>
       </c>
@@ -3951,7 +3361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:13">
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>100017</v>
       </c>
@@ -3986,7 +3396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:13">
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>100018</v>
       </c>
@@ -4021,7 +3431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:13">
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>100019</v>
       </c>
@@ -4056,7 +3466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:13">
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>100020</v>
       </c>
@@ -4091,7 +3501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:13">
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>100021</v>
       </c>
@@ -4126,7 +3536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:13">
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>100022</v>
       </c>
@@ -4161,7 +3571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:13">
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>100023</v>
       </c>
@@ -4196,7 +3606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>100024</v>
       </c>
@@ -4231,7 +3641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:13">
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>100025</v>
       </c>
@@ -4266,7 +3676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:13">
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>100026</v>
       </c>
@@ -4301,7 +3711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:13">
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>100027</v>
       </c>
@@ -4336,7 +3746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+    <row r="33" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>100028</v>
       </c>
@@ -4371,7 +3781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:13">
+    <row r="34" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>100029</v>
       </c>
@@ -4406,7 +3816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:13">
+    <row r="35" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>100030</v>
       </c>
@@ -4441,7 +3851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="3:16">
+    <row r="36" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>100031</v>
       </c>
@@ -4482,7 +3892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="3:16">
+    <row r="37" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>100032</v>
       </c>
@@ -4523,7 +3933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:13">
+    <row r="38" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>200001</v>
       </c>
@@ -4558,7 +3968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:13">
+    <row r="39" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>200002</v>
       </c>
@@ -4593,7 +4003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:13">
+    <row r="40" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>200003</v>
       </c>
@@ -4628,7 +4038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:13">
+    <row r="41" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>200004</v>
       </c>
@@ -4663,7 +4073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:13">
+    <row r="42" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
         <v>200005</v>
       </c>
@@ -4698,7 +4108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:13">
+    <row r="43" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>200006</v>
       </c>
@@ -4733,7 +4143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:13">
+    <row r="44" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>200007</v>
       </c>
@@ -4768,7 +4178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
+    <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>200008</v>
       </c>
@@ -4803,7 +4213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:13">
+    <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>200009</v>
       </c>
@@ -4838,7 +4248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:13">
+    <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>200010</v>
       </c>
@@ -4873,7 +4283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:13">
+    <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
         <v>200011</v>
       </c>
@@ -4908,7 +4318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:13">
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>200012</v>
       </c>
@@ -4943,7 +4353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:13">
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>200013</v>
       </c>
@@ -4978,7 +4388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:13">
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
         <v>200014</v>
       </c>
@@ -5013,7 +4423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:13">
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>200015</v>
       </c>
@@ -5048,7 +4458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:13">
+    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>200016</v>
       </c>
@@ -5083,7 +4493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:13">
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="2">
         <v>200017</v>
       </c>
@@ -5118,7 +4528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:13">
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
         <v>200018</v>
       </c>
@@ -5153,7 +4563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:13">
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
         <v>200019</v>
       </c>
@@ -5188,7 +4598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:13">
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
         <v>200020</v>
       </c>
@@ -5223,7 +4633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:13">
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="2">
         <v>200021</v>
       </c>
@@ -5258,7 +4668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:13">
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="2">
         <v>200022</v>
       </c>
@@ -5293,7 +4703,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:13">
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="2">
         <v>200023</v>
       </c>
@@ -5328,7 +4738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:13">
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
         <v>200024</v>
       </c>
@@ -5363,7 +4773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:13">
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="2">
         <v>200025</v>
       </c>
@@ -5398,7 +4808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:13">
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="2">
         <v>200026</v>
       </c>
@@ -5433,7 +4843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:13">
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
         <v>200027</v>
       </c>
@@ -5468,7 +4878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:13">
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
         <v>200028</v>
       </c>
@@ -5503,7 +4913,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:13">
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="2">
         <v>200029</v>
       </c>
@@ -5538,7 +4948,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
         <v>200030</v>
       </c>
@@ -5573,7 +4983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:13">
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
         <v>200031</v>
       </c>
@@ -5608,7 +5018,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:13">
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="2">
         <v>200032</v>
       </c>
@@ -5643,7 +5053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:13">
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
         <v>200033</v>
       </c>
@@ -5678,7 +5088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:13">
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="2">
         <v>200034</v>
       </c>
@@ -5713,7 +5123,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:13">
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="2">
         <v>200035</v>
       </c>
@@ -5748,7 +5158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="2">
         <v>200036</v>
       </c>
@@ -5783,7 +5193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:13">
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="2">
         <v>200037</v>
       </c>
@@ -5818,7 +5228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:13">
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="2">
         <v>200038</v>
       </c>
@@ -5853,7 +5263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:13">
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
         <v>200039</v>
       </c>
@@ -5888,7 +5298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:13">
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
         <v>200040</v>
       </c>
@@ -5923,7 +5333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="2">
         <v>200041</v>
       </c>
@@ -5958,7 +5368,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:13">
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="2">
         <v>200042</v>
       </c>
@@ -5993,7 +5403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:13">
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="2">
         <v>200043</v>
       </c>
@@ -6028,7 +5438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:13">
+    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="2">
         <v>200044</v>
       </c>
@@ -6063,7 +5473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:13">
+    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
         <v>200045</v>
       </c>
@@ -6098,7 +5508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:13">
+    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
         <v>200046</v>
       </c>
@@ -6133,7 +5543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:13">
+    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
         <v>200047</v>
       </c>
@@ -6168,7 +5578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:13">
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
         <v>200048</v>
       </c>
@@ -6203,7 +5613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:13">
+    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
         <v>200049</v>
       </c>
@@ -6238,7 +5648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:13">
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="2">
         <v>200050</v>
       </c>
@@ -6273,7 +5683,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:13">
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
         <v>200051</v>
       </c>
@@ -6308,7 +5718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:13">
+    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
         <v>300001</v>
       </c>
@@ -6343,7 +5753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:13">
+    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
         <v>300002</v>
       </c>
@@ -6378,7 +5788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:13">
+    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
         <v>300003</v>
       </c>
@@ -6413,7 +5823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:13">
+    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
         <v>300004</v>
       </c>
@@ -6448,7 +5858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:13">
+    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="2">
         <v>300005</v>
       </c>
@@ -6483,7 +5893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:13">
+    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
         <v>300006</v>
       </c>
@@ -6518,7 +5928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:13">
+    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
         <v>300007</v>
       </c>
@@ -6553,7 +5963,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:13">
+    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
         <v>300008</v>
       </c>
@@ -6588,7 +5998,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:13">
+    <row r="97" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
         <v>300009</v>
       </c>
@@ -6623,7 +6033,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:13">
+    <row r="98" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
         <v>300010</v>
       </c>
@@ -6658,7 +6068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:13">
+    <row r="99" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
         <v>300011</v>
       </c>
@@ -6693,7 +6103,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:13">
+    <row r="100" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
         <v>300012</v>
       </c>
@@ -6728,7 +6138,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:13">
+    <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
         <v>300013</v>
       </c>
@@ -6763,7 +6173,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:13">
+    <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2">
         <v>300014</v>
       </c>
@@ -6798,7 +6208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="103" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="2">
         <v>400001</v>
       </c>
@@ -6833,7 +6243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="104" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2">
         <v>400002</v>
       </c>
@@ -6868,7 +6278,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="105" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="2">
         <v>400003</v>
       </c>
@@ -6903,7 +6313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="106" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
         <v>400004</v>
       </c>
@@ -6938,7 +6348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="107" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
         <v>400005</v>
       </c>
@@ -6973,7 +6383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="108" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="2">
         <v>400006</v>
       </c>
@@ -7008,7 +6418,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="109" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="2">
         <v>400007</v>
       </c>
@@ -7043,7 +6453,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="110" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
         <v>400008</v>
       </c>
@@ -7078,7 +6488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="111" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="2">
         <v>400009</v>
       </c>
@@ -7113,7 +6523,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="112" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="2">
         <v>400010</v>
       </c>
@@ -7148,7 +6558,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="113" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
         <v>400011</v>
       </c>
@@ -7183,7 +6593,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="114" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
         <v>400012</v>
       </c>
@@ -7218,7 +6628,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="115" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2">
         <v>400013</v>
       </c>
@@ -7253,7 +6663,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="116" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="2">
         <v>400014</v>
       </c>
@@ -7288,7 +6698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="117" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="2">
         <v>400015</v>
       </c>
@@ -7323,7 +6733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="118" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
         <v>400016</v>
       </c>
@@ -7358,7 +6768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="119" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="2">
         <v>400017</v>
       </c>
@@ -7393,7 +6803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="120" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="2">
         <v>400018</v>
       </c>
@@ -7428,7 +6838,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="121" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="2">
         <v>400019</v>
       </c>
@@ -7463,7 +6873,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="122" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="2">
         <v>400020</v>
       </c>
@@ -7498,7 +6908,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="123" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="2">
         <v>400021</v>
       </c>
@@ -7533,7 +6943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="124" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
         <v>400022</v>
       </c>
@@ -7568,7 +6978,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="125" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="2">
         <v>400023</v>
       </c>
@@ -7603,7 +7013,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="126" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="2">
         <v>400024</v>
       </c>
@@ -7638,7 +7048,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="127" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="2">
         <v>400025</v>
       </c>
@@ -7673,7 +7083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="128" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="2">
         <v>400026</v>
       </c>
@@ -7708,7 +7118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="129" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="2">
         <v>400027</v>
       </c>
@@ -7743,7 +7153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="130" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="2">
         <v>400028</v>
       </c>
@@ -7778,7 +7188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="131" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="2">
         <v>400029</v>
       </c>
@@ -7813,7 +7223,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="132" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="2">
         <v>400030</v>
       </c>
@@ -7848,7 +7258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="133" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="2">
         <v>400031</v>
       </c>
@@ -7883,7 +7293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="134" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
         <v>400032</v>
       </c>
@@ -7918,7 +7328,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="135" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="2">
         <v>400033</v>
       </c>
@@ -7953,7 +7363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="136" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="2">
         <v>400034</v>
       </c>
@@ -7988,7 +7398,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="137" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
         <v>400035</v>
       </c>
@@ -8023,7 +7433,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="20" customHeight="1" spans="3:13">
+    <row r="138" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="2">
         <v>400036</v>
       </c>
@@ -8058,7 +7468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" ht="20" customHeight="1" spans="3:13">
+    <row r="139" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="2">
         <v>400037</v>
       </c>
@@ -8093,7 +7503,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="140" ht="20" customHeight="1" spans="3:13">
+    <row r="140" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="2">
         <v>400038</v>
       </c>
@@ -8128,7 +7538,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" ht="20" customHeight="1" spans="3:13">
+    <row r="141" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
         <v>400039</v>
       </c>
@@ -8163,7 +7573,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" ht="20" customHeight="1" spans="3:13">
+    <row r="142" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="2">
         <v>400040</v>
       </c>
@@ -8198,7 +7608,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" ht="20" customHeight="1" spans="3:13">
+    <row r="143" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="2">
         <v>400041</v>
       </c>
@@ -8233,7 +7643,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" ht="20" customHeight="1" spans="3:13">
+    <row r="144" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="2">
         <v>400042</v>
       </c>
@@ -8268,7 +7678,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" ht="20" customHeight="1" spans="3:13">
+    <row r="145" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="2">
         <v>400043</v>
       </c>
@@ -8303,7 +7713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" ht="20" customHeight="1" spans="3:13">
+    <row r="146" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="2">
         <v>400044</v>
       </c>
@@ -8338,7 +7748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="147" ht="20" customHeight="1" spans="3:13">
+    <row r="147" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="2">
         <v>400045</v>
       </c>
@@ -8373,7 +7783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="148" ht="20" customHeight="1" spans="3:13">
+    <row r="148" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
         <v>400046</v>
       </c>
@@ -8408,7 +7818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" ht="20" customHeight="1" spans="3:13">
+    <row r="149" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
         <v>400047</v>
       </c>
@@ -8443,7 +7853,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" ht="20" customHeight="1" spans="3:13">
+    <row r="150" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
         <v>400048</v>
       </c>
@@ -8478,7 +7888,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" ht="20" customHeight="1" spans="3:13">
+    <row r="151" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
         <v>400049</v>
       </c>
@@ -8513,7 +7923,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="152" ht="20" customHeight="1" spans="3:13">
+    <row r="152" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="2">
         <v>400050</v>
       </c>
@@ -8548,7 +7958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="153" ht="20" customHeight="1" spans="3:13">
+    <row r="153" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="2">
         <v>400051</v>
       </c>
@@ -8583,7 +7993,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="154" ht="20" customHeight="1" spans="3:13">
+    <row r="154" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="2">
         <v>400052</v>
       </c>
@@ -8618,7 +8028,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" ht="20" customHeight="1" spans="3:13">
+    <row r="155" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="2">
         <v>400053</v>
       </c>
@@ -8653,7 +8063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" ht="20" customHeight="1" spans="3:13">
+    <row r="156" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="2">
         <v>400054</v>
       </c>
@@ -8688,7 +8098,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157" ht="20" customHeight="1" spans="3:13">
+    <row r="157" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="2">
         <v>400055</v>
       </c>
@@ -8723,7 +8133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="158" ht="20" customHeight="1" spans="3:13">
+    <row r="158" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="2">
         <v>400056</v>
       </c>
@@ -8758,7 +8168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="159" ht="20" customHeight="1" spans="3:13">
+    <row r="159" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="2">
         <v>400057</v>
       </c>
@@ -8793,7 +8203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" ht="20" customHeight="1" spans="3:13">
+    <row r="160" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="2">
         <v>400058</v>
       </c>
@@ -8828,7 +8238,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" ht="20" customHeight="1" spans="3:13">
+    <row r="161" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
         <v>400059</v>
       </c>
@@ -8863,7 +8273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" ht="20" customHeight="1" spans="3:13">
+    <row r="162" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="2">
         <v>400060</v>
       </c>
@@ -8898,7 +8308,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="163" ht="20" customHeight="1" spans="3:13">
+    <row r="163" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="2">
         <v>400061</v>
       </c>
@@ -8933,7 +8343,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="164" ht="20" customHeight="1" spans="3:13">
+    <row r="164" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="2">
         <v>400062</v>
       </c>
@@ -8968,7 +8378,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="165" ht="20" customHeight="1" spans="3:13">
+    <row r="165" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="2">
         <v>400063</v>
       </c>
@@ -9003,9 +8413,499 @@
         <v>184</v>
       </c>
     </row>
+    <row r="166" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="2">
+        <v>500001</v>
+      </c>
+      <c r="D166" s="2">
+        <v>500002</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F166" s="22">
+        <v>10034001</v>
+      </c>
+      <c r="G166" s="11">
+        <v>13</v>
+      </c>
+      <c r="H166" s="11">
+        <v>900</v>
+      </c>
+      <c r="I166" s="11">
+        <v>100</v>
+      </c>
+      <c r="J166" s="11">
+        <v>1</v>
+      </c>
+      <c r="K166" s="11">
+        <v>99</v>
+      </c>
+      <c r="L166" s="11">
+        <v>1</v>
+      </c>
+      <c r="M166" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="2">
+        <v>500002</v>
+      </c>
+      <c r="D167" s="2">
+        <v>500003</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F167" s="22">
+        <v>10034002</v>
+      </c>
+      <c r="G167" s="11">
+        <v>13</v>
+      </c>
+      <c r="H167" s="11">
+        <v>1350</v>
+      </c>
+      <c r="I167" s="11">
+        <v>100</v>
+      </c>
+      <c r="J167" s="11">
+        <v>1</v>
+      </c>
+      <c r="K167" s="11">
+        <v>99</v>
+      </c>
+      <c r="L167" s="11">
+        <v>2</v>
+      </c>
+      <c r="M167" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="2">
+        <v>500003</v>
+      </c>
+      <c r="D168" s="2">
+        <v>500004</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F168" s="22">
+        <v>10034003</v>
+      </c>
+      <c r="G168" s="11">
+        <v>13</v>
+      </c>
+      <c r="H168" s="11">
+        <v>1800</v>
+      </c>
+      <c r="I168" s="11">
+        <v>100</v>
+      </c>
+      <c r="J168" s="11">
+        <v>1</v>
+      </c>
+      <c r="K168" s="11">
+        <v>99</v>
+      </c>
+      <c r="L168" s="11">
+        <v>3</v>
+      </c>
+      <c r="M168" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="2">
+        <v>500004</v>
+      </c>
+      <c r="D169" s="2">
+        <v>500005</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F169" s="22">
+        <v>10034004</v>
+      </c>
+      <c r="G169" s="11">
+        <v>13</v>
+      </c>
+      <c r="H169" s="11">
+        <v>2250</v>
+      </c>
+      <c r="I169" s="11">
+        <v>100</v>
+      </c>
+      <c r="J169" s="11">
+        <v>1</v>
+      </c>
+      <c r="K169" s="11">
+        <v>99</v>
+      </c>
+      <c r="L169" s="11">
+        <v>5</v>
+      </c>
+      <c r="M169" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="2">
+        <v>500005</v>
+      </c>
+      <c r="D170" s="2">
+        <v>500006</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F170" s="22">
+        <v>10034005</v>
+      </c>
+      <c r="G170" s="11">
+        <v>13</v>
+      </c>
+      <c r="H170" s="11">
+        <v>2700</v>
+      </c>
+      <c r="I170" s="11">
+        <v>100</v>
+      </c>
+      <c r="J170" s="11">
+        <v>1</v>
+      </c>
+      <c r="K170" s="11">
+        <v>99</v>
+      </c>
+      <c r="L170" s="11">
+        <v>7</v>
+      </c>
+      <c r="M170" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="2">
+        <v>500006</v>
+      </c>
+      <c r="D171" s="2">
+        <v>500007</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F171" s="22">
+        <v>10034006</v>
+      </c>
+      <c r="G171" s="11">
+        <v>13</v>
+      </c>
+      <c r="H171" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I171" s="11">
+        <v>100</v>
+      </c>
+      <c r="J171" s="11">
+        <v>1</v>
+      </c>
+      <c r="K171" s="11">
+        <v>99</v>
+      </c>
+      <c r="L171" s="11">
+        <v>9</v>
+      </c>
+      <c r="M171" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="2">
+        <v>500007</v>
+      </c>
+      <c r="D172" s="2">
+        <v>500008</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F172" s="22">
+        <v>10034007</v>
+      </c>
+      <c r="G172" s="11">
+        <v>13</v>
+      </c>
+      <c r="H172" s="11">
+        <v>3450</v>
+      </c>
+      <c r="I172" s="11">
+        <v>100</v>
+      </c>
+      <c r="J172" s="11">
+        <v>1</v>
+      </c>
+      <c r="K172" s="11">
+        <v>99</v>
+      </c>
+      <c r="L172" s="11">
+        <v>11</v>
+      </c>
+      <c r="M172" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="2">
+        <v>500008</v>
+      </c>
+      <c r="D173" s="2">
+        <v>500009</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F173" s="22">
+        <v>10034008</v>
+      </c>
+      <c r="G173" s="11">
+        <v>13</v>
+      </c>
+      <c r="H173" s="11">
+        <v>3900</v>
+      </c>
+      <c r="I173" s="11">
+        <v>100</v>
+      </c>
+      <c r="J173" s="11">
+        <v>1</v>
+      </c>
+      <c r="K173" s="11">
+        <v>99</v>
+      </c>
+      <c r="L173" s="11">
+        <v>13</v>
+      </c>
+      <c r="M173" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="2">
+        <v>500009</v>
+      </c>
+      <c r="D174" s="2">
+        <v>500010</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F174" s="22">
+        <v>10034009</v>
+      </c>
+      <c r="G174" s="11">
+        <v>13</v>
+      </c>
+      <c r="H174" s="11">
+        <v>4500</v>
+      </c>
+      <c r="I174" s="11">
+        <v>100</v>
+      </c>
+      <c r="J174" s="11">
+        <v>1</v>
+      </c>
+      <c r="K174" s="11">
+        <v>99</v>
+      </c>
+      <c r="L174" s="11">
+        <v>15</v>
+      </c>
+      <c r="M174" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="2">
+        <v>500010</v>
+      </c>
+      <c r="D175" s="2">
+        <v>500011</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F175" s="22">
+        <v>10034010</v>
+      </c>
+      <c r="G175" s="11">
+        <v>13</v>
+      </c>
+      <c r="H175" s="11">
+        <v>5100</v>
+      </c>
+      <c r="I175" s="11">
+        <v>100</v>
+      </c>
+      <c r="J175" s="11">
+        <v>1</v>
+      </c>
+      <c r="K175" s="11">
+        <v>99</v>
+      </c>
+      <c r="L175" s="11">
+        <v>17</v>
+      </c>
+      <c r="M175" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="176" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="2">
+        <v>500011</v>
+      </c>
+      <c r="D176" s="2">
+        <v>500012</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F176" s="22">
+        <v>10034011</v>
+      </c>
+      <c r="G176" s="11">
+        <v>13</v>
+      </c>
+      <c r="H176" s="11">
+        <v>5700</v>
+      </c>
+      <c r="I176" s="11">
+        <v>100</v>
+      </c>
+      <c r="J176" s="11">
+        <v>1</v>
+      </c>
+      <c r="K176" s="11">
+        <v>99</v>
+      </c>
+      <c r="L176" s="11">
+        <v>19</v>
+      </c>
+      <c r="M176" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="2">
+        <v>500012</v>
+      </c>
+      <c r="D177" s="2">
+        <v>500013</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F177" s="22">
+        <v>10034012</v>
+      </c>
+      <c r="G177" s="11">
+        <v>13</v>
+      </c>
+      <c r="H177" s="11">
+        <v>6300</v>
+      </c>
+      <c r="I177" s="11">
+        <v>100</v>
+      </c>
+      <c r="J177" s="11">
+        <v>1</v>
+      </c>
+      <c r="K177" s="11">
+        <v>99</v>
+      </c>
+      <c r="L177" s="11">
+        <v>21</v>
+      </c>
+      <c r="M177" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="2">
+        <v>500013</v>
+      </c>
+      <c r="D178" s="2">
+        <v>500014</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="22">
+        <v>10034013</v>
+      </c>
+      <c r="G178" s="11">
+        <v>13</v>
+      </c>
+      <c r="H178" s="11">
+        <v>6900</v>
+      </c>
+      <c r="I178" s="11">
+        <v>100</v>
+      </c>
+      <c r="J178" s="11">
+        <v>1</v>
+      </c>
+      <c r="K178" s="11">
+        <v>99</v>
+      </c>
+      <c r="L178" s="11">
+        <v>23</v>
+      </c>
+      <c r="M178" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="2">
+        <v>500014</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F179" s="22">
+        <v>10034014</v>
+      </c>
+      <c r="G179" s="11">
+        <v>13</v>
+      </c>
+      <c r="H179" s="11">
+        <v>7500</v>
+      </c>
+      <c r="I179" s="11">
+        <v>100</v>
+      </c>
+      <c r="J179" s="11">
+        <v>1</v>
+      </c>
+      <c r="K179" s="11">
+        <v>99</v>
+      </c>
+      <c r="L179" s="11">
+        <v>25</v>
+      </c>
+      <c r="M179" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133E8F91-927F-4B7B-BD0B-E7AEC570DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F500B-54C5-4F71-877E-DD3D7B871DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -2625,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P179"/>
+  <dimension ref="C1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8903,6 +8903,216 @@
         <v>121</v>
       </c>
     </row>
+    <row r="180" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="2">
+        <v>600001</v>
+      </c>
+      <c r="D180" s="2">
+        <v>600002</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F180" s="22">
+        <v>10034001</v>
+      </c>
+      <c r="G180" s="11">
+        <v>13</v>
+      </c>
+      <c r="H180" s="11">
+        <v>900</v>
+      </c>
+      <c r="I180" s="11">
+        <v>100</v>
+      </c>
+      <c r="J180" s="11">
+        <v>1</v>
+      </c>
+      <c r="K180" s="11">
+        <v>99</v>
+      </c>
+      <c r="L180" s="11">
+        <v>1</v>
+      </c>
+      <c r="M180" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="2">
+        <v>600002</v>
+      </c>
+      <c r="D181" s="2">
+        <v>600003</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F181" s="22">
+        <v>10034002</v>
+      </c>
+      <c r="G181" s="11">
+        <v>13</v>
+      </c>
+      <c r="H181" s="11">
+        <v>1350</v>
+      </c>
+      <c r="I181" s="11">
+        <v>100</v>
+      </c>
+      <c r="J181" s="11">
+        <v>1</v>
+      </c>
+      <c r="K181" s="11">
+        <v>99</v>
+      </c>
+      <c r="L181" s="11">
+        <v>2</v>
+      </c>
+      <c r="M181" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="2">
+        <v>600003</v>
+      </c>
+      <c r="D182" s="2">
+        <v>600004</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F182" s="22">
+        <v>10034003</v>
+      </c>
+      <c r="G182" s="11">
+        <v>13</v>
+      </c>
+      <c r="H182" s="11">
+        <v>1800</v>
+      </c>
+      <c r="I182" s="11">
+        <v>100</v>
+      </c>
+      <c r="J182" s="11">
+        <v>1</v>
+      </c>
+      <c r="K182" s="11">
+        <v>99</v>
+      </c>
+      <c r="L182" s="11">
+        <v>3</v>
+      </c>
+      <c r="M182" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="2">
+        <v>600004</v>
+      </c>
+      <c r="D183" s="2">
+        <v>600005</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F183" s="22">
+        <v>10034001</v>
+      </c>
+      <c r="G183" s="11">
+        <v>13</v>
+      </c>
+      <c r="H183" s="11">
+        <v>900</v>
+      </c>
+      <c r="I183" s="11">
+        <v>100</v>
+      </c>
+      <c r="J183" s="11">
+        <v>1</v>
+      </c>
+      <c r="K183" s="11">
+        <v>99</v>
+      </c>
+      <c r="L183" s="11">
+        <v>1</v>
+      </c>
+      <c r="M183" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="2">
+        <v>600005</v>
+      </c>
+      <c r="D184" s="2">
+        <v>600006</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F184" s="22">
+        <v>10034002</v>
+      </c>
+      <c r="G184" s="11">
+        <v>13</v>
+      </c>
+      <c r="H184" s="11">
+        <v>1350</v>
+      </c>
+      <c r="I184" s="11">
+        <v>100</v>
+      </c>
+      <c r="J184" s="11">
+        <v>1</v>
+      </c>
+      <c r="K184" s="11">
+        <v>99</v>
+      </c>
+      <c r="L184" s="11">
+        <v>2</v>
+      </c>
+      <c r="M184" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="2">
+        <v>600006</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F185" s="22">
+        <v>10034003</v>
+      </c>
+      <c r="G185" s="11">
+        <v>13</v>
+      </c>
+      <c r="H185" s="11">
+        <v>1800</v>
+      </c>
+      <c r="I185" s="11">
+        <v>100</v>
+      </c>
+      <c r="J185" s="11">
+        <v>1</v>
+      </c>
+      <c r="K185" s="11">
+        <v>99</v>
+      </c>
+      <c r="L185" s="11">
+        <v>3</v>
+      </c>
+      <c r="M185" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F500B-54C5-4F71-877E-DD3D7B871DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8927636-F83B-480E-B9B3-03BB9857FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -581,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +674,13 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1886,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1980,6 +1987,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2625,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P185"/>
+  <dimension ref="C1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="C206" workbookViewId="0">
+      <selection activeCell="J227" sqref="J227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4233,7 +4243,7 @@
         <v>10000</v>
       </c>
       <c r="I46" s="11">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
@@ -4268,7 +4278,7 @@
         <v>25000</v>
       </c>
       <c r="I47" s="11">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="J47" s="11">
         <v>1</v>
@@ -4583,7 +4593,7 @@
         <v>15000</v>
       </c>
       <c r="I56" s="11">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="J56" s="11">
         <v>2</v>
@@ -4618,7 +4628,7 @@
         <v>30000</v>
       </c>
       <c r="I57" s="11">
-        <v>30000</v>
+        <v>80</v>
       </c>
       <c r="J57" s="11">
         <v>2</v>
@@ -4933,7 +4943,7 @@
         <v>20000</v>
       </c>
       <c r="I66" s="11">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="J66" s="11">
         <v>3</v>
@@ -4968,7 +4978,7 @@
         <v>40000</v>
       </c>
       <c r="I67" s="11">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="J67" s="11">
         <v>3</v>
@@ -5283,7 +5293,7 @@
         <v>25000</v>
       </c>
       <c r="I76" s="11">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="J76" s="11">
         <v>5</v>
@@ -5318,7 +5328,7 @@
         <v>50000</v>
       </c>
       <c r="I77" s="11">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="J77" s="11">
         <v>5</v>
@@ -5633,7 +5643,7 @@
         <v>30000</v>
       </c>
       <c r="I86" s="11">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="J86" s="11">
         <v>7</v>
@@ -5668,7 +5678,7 @@
         <v>60000</v>
       </c>
       <c r="I87" s="11">
-        <v>60000</v>
+        <v>180</v>
       </c>
       <c r="J87" s="11">
         <v>7</v>
@@ -8798,7 +8808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="2">
         <v>500012</v>
       </c>
@@ -8833,7 +8843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="2">
         <v>500013</v>
       </c>
@@ -8868,7 +8878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="2">
         <v>500014</v>
       </c>
@@ -8903,7 +8913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="2">
         <v>600001</v>
       </c>
@@ -8911,34 +8921,41 @@
         <v>600002</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F180" s="22">
-        <v>10034001</v>
-      </c>
-      <c r="G180" s="11">
-        <v>13</v>
-      </c>
-      <c r="H180" s="11">
-        <v>900</v>
+        <v>55</v>
+      </c>
+      <c r="F180" s="8">
+        <v>10020001</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1</v>
       </c>
       <c r="I180" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J180" s="11">
         <v>1</v>
       </c>
       <c r="K180" s="11">
-        <v>99</v>
-      </c>
-      <c r="L180" s="11">
-        <v>1</v>
-      </c>
-      <c r="M180" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="181" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L180" s="2">
+        <v>0</v>
+      </c>
+      <c r="M180" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O180" s="33">
+        <v>5</v>
+      </c>
+      <c r="P180" s="33">
+        <f>O180*3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="2">
         <v>600002</v>
       </c>
@@ -8946,34 +8963,39 @@
         <v>600003</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F181" s="22">
-        <v>10034002</v>
-      </c>
-      <c r="G181" s="11">
-        <v>13</v>
-      </c>
-      <c r="H181" s="11">
-        <v>1350</v>
+        <v>55</v>
+      </c>
+      <c r="F181" s="8">
+        <v>10021001</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1</v>
       </c>
       <c r="I181" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J181" s="11">
         <v>1</v>
       </c>
       <c r="K181" s="11">
-        <v>99</v>
-      </c>
-      <c r="L181" s="11">
-        <v>2</v>
-      </c>
-      <c r="M181" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="182" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L181" s="2">
+        <v>0</v>
+      </c>
+      <c r="M181" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O181" s="33"/>
+      <c r="P181" s="33">
+        <f>5*10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="2">
         <v>600003</v>
       </c>
@@ -8981,69 +9003,76 @@
         <v>600004</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F182" s="22">
-        <v>10034003</v>
-      </c>
-      <c r="G182" s="11">
-        <v>13</v>
-      </c>
-      <c r="H182" s="11">
-        <v>1800</v>
+        <v>55</v>
+      </c>
+      <c r="F182" s="8">
+        <v>10021002</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1</v>
       </c>
       <c r="I182" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J182" s="11">
         <v>1</v>
       </c>
       <c r="K182" s="11">
-        <v>99</v>
-      </c>
-      <c r="L182" s="11">
-        <v>3</v>
-      </c>
-      <c r="M182" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="183" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L182" s="2">
+        <v>0</v>
+      </c>
+      <c r="M182" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O182" s="33"/>
+      <c r="P182" s="33">
+        <f>10*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="2">
         <v>600004</v>
       </c>
       <c r="D183" s="2">
         <v>600005</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F183" s="22">
-        <v>10034001</v>
-      </c>
-      <c r="G183" s="11">
-        <v>13</v>
-      </c>
-      <c r="H183" s="11">
-        <v>900</v>
+      <c r="E183" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183" s="8">
+        <v>10021003</v>
+      </c>
+      <c r="G183" s="2">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1</v>
       </c>
       <c r="I183" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J183" s="11">
         <v>1</v>
       </c>
       <c r="K183" s="11">
-        <v>99</v>
-      </c>
-      <c r="L183" s="11">
-        <v>1</v>
-      </c>
-      <c r="M183" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="184" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L183" s="2">
+        <v>0</v>
+      </c>
+      <c r="M183" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O183" s="33"/>
+      <c r="P183" s="33"/>
+    </row>
+    <row r="184" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="2">
         <v>600005</v>
       </c>
@@ -9051,67 +9080,1739 @@
         <v>600006</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F184" s="22">
-        <v>10034002</v>
-      </c>
-      <c r="G184" s="11">
-        <v>13</v>
-      </c>
-      <c r="H184" s="11">
-        <v>1350</v>
+        <v>55</v>
+      </c>
+      <c r="F184" s="8">
+        <v>10021004</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1</v>
       </c>
       <c r="I184" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J184" s="11">
         <v>1</v>
       </c>
       <c r="K184" s="11">
-        <v>99</v>
-      </c>
-      <c r="L184" s="11">
-        <v>2</v>
-      </c>
-      <c r="M184" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="185" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L184" s="2">
+        <v>0</v>
+      </c>
+      <c r="M184" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O184" s="33"/>
+      <c r="P184" s="33"/>
+    </row>
+    <row r="185" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="2">
         <v>600006</v>
       </c>
       <c r="D185" s="2">
-        <v>0</v>
+        <v>600007</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F185" s="22">
-        <v>10034003</v>
-      </c>
-      <c r="G185" s="11">
-        <v>13</v>
-      </c>
-      <c r="H185" s="11">
-        <v>1800</v>
+        <v>55</v>
+      </c>
+      <c r="F185" s="8">
+        <v>10021005</v>
+      </c>
+      <c r="G185" s="2">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2">
+        <v>1</v>
       </c>
       <c r="I185" s="11">
+        <v>50</v>
+      </c>
+      <c r="J185" s="11">
+        <v>1</v>
+      </c>
+      <c r="K185" s="11">
+        <v>20</v>
+      </c>
+      <c r="L185" s="2">
+        <v>0</v>
+      </c>
+      <c r="M185" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O185" s="33"/>
+      <c r="P185" s="33"/>
+    </row>
+    <row r="186" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="2">
+        <v>600007</v>
+      </c>
+      <c r="D186" s="2">
+        <v>600008</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F186" s="8">
+        <v>10021006</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2">
+        <v>1</v>
+      </c>
+      <c r="I186" s="11">
+        <v>50</v>
+      </c>
+      <c r="J186" s="11">
+        <v>1</v>
+      </c>
+      <c r="K186" s="11">
+        <v>20</v>
+      </c>
+      <c r="L186" s="2">
+        <v>0</v>
+      </c>
+      <c r="M186" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O186" s="33"/>
+      <c r="P186" s="33"/>
+    </row>
+    <row r="187" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="2">
+        <v>600008</v>
+      </c>
+      <c r="D187" s="2">
+        <v>600009</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F187" s="8">
+        <v>10021007</v>
+      </c>
+      <c r="G187" s="2">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2">
+        <v>1</v>
+      </c>
+      <c r="I187" s="11">
+        <v>50</v>
+      </c>
+      <c r="J187" s="11">
+        <v>1</v>
+      </c>
+      <c r="K187" s="11">
+        <v>20</v>
+      </c>
+      <c r="L187" s="2">
+        <v>0</v>
+      </c>
+      <c r="M187" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O187" s="33"/>
+      <c r="P187" s="33"/>
+    </row>
+    <row r="188" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="2">
+        <v>600009</v>
+      </c>
+      <c r="D188" s="2">
+        <v>600010</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F188" s="8">
+        <v>10021008</v>
+      </c>
+      <c r="G188" s="2">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2">
+        <v>60</v>
+      </c>
+      <c r="I188" s="11">
+        <v>50</v>
+      </c>
+      <c r="J188" s="11">
+        <v>1</v>
+      </c>
+      <c r="K188" s="11">
+        <v>1</v>
+      </c>
+      <c r="L188" s="2">
+        <v>0</v>
+      </c>
+      <c r="M188" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O188" s="33"/>
+      <c r="P188" s="33"/>
+    </row>
+    <row r="189" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="2">
+        <v>600010</v>
+      </c>
+      <c r="D189" s="2">
+        <v>600011</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" s="8">
+        <v>10021009</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2">
+        <v>180</v>
+      </c>
+      <c r="I189" s="11">
+        <v>50</v>
+      </c>
+      <c r="J189" s="11">
+        <v>1</v>
+      </c>
+      <c r="K189" s="11">
+        <v>1</v>
+      </c>
+      <c r="L189" s="2">
+        <v>0</v>
+      </c>
+      <c r="M189" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O189" s="33"/>
+      <c r="P189" s="33"/>
+    </row>
+    <row r="190" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="2">
+        <v>600011</v>
+      </c>
+      <c r="D190" s="2">
+        <v>600012</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F190" s="8">
+        <v>10021010</v>
+      </c>
+      <c r="G190" s="2">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1</v>
+      </c>
+      <c r="I190" s="11">
+        <v>50</v>
+      </c>
+      <c r="J190" s="11">
+        <v>1</v>
+      </c>
+      <c r="K190" s="11">
+        <v>20</v>
+      </c>
+      <c r="L190" s="2">
+        <v>0</v>
+      </c>
+      <c r="M190" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="O190" s="33"/>
+      <c r="P190" s="33"/>
+    </row>
+    <row r="191" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="2">
+        <v>600012</v>
+      </c>
+      <c r="D191" s="2">
+        <v>600013</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F191" s="8">
+        <v>10022001</v>
+      </c>
+      <c r="G191" s="2">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2">
+        <v>1</v>
+      </c>
+      <c r="I191" s="11">
+        <v>80</v>
+      </c>
+      <c r="J191" s="11">
+        <v>2</v>
+      </c>
+      <c r="K191" s="11">
+        <v>20</v>
+      </c>
+      <c r="L191" s="2">
+        <v>0</v>
+      </c>
+      <c r="M191" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O191" s="33"/>
+      <c r="P191" s="33"/>
+    </row>
+    <row r="192" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="2">
+        <v>600013</v>
+      </c>
+      <c r="D192" s="2">
+        <v>600014</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F192" s="8">
+        <v>10022002</v>
+      </c>
+      <c r="G192" s="2">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1</v>
+      </c>
+      <c r="I192" s="11">
+        <v>80</v>
+      </c>
+      <c r="J192" s="11">
+        <v>2</v>
+      </c>
+      <c r="K192" s="11">
+        <v>20</v>
+      </c>
+      <c r="L192" s="2">
+        <v>0</v>
+      </c>
+      <c r="M192" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O192" s="33"/>
+      <c r="P192" s="33"/>
+    </row>
+    <row r="193" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="2">
+        <v>600014</v>
+      </c>
+      <c r="D193" s="2">
+        <v>600015</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F193" s="8">
+        <v>10022003</v>
+      </c>
+      <c r="G193" s="2">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1</v>
+      </c>
+      <c r="I193" s="11">
+        <v>80</v>
+      </c>
+      <c r="J193" s="11">
+        <v>2</v>
+      </c>
+      <c r="K193" s="11">
+        <v>20</v>
+      </c>
+      <c r="L193" s="2">
+        <v>0</v>
+      </c>
+      <c r="M193" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O193" s="33"/>
+      <c r="P193" s="33"/>
+    </row>
+    <row r="194" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="2">
+        <v>600015</v>
+      </c>
+      <c r="D194" s="2">
+        <v>600016</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F194" s="8">
+        <v>10022004</v>
+      </c>
+      <c r="G194" s="2">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1</v>
+      </c>
+      <c r="I194" s="11">
+        <v>80</v>
+      </c>
+      <c r="J194" s="11">
+        <v>2</v>
+      </c>
+      <c r="K194" s="11">
+        <v>20</v>
+      </c>
+      <c r="L194" s="2">
+        <v>0</v>
+      </c>
+      <c r="M194" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O194" s="33"/>
+      <c r="P194" s="33"/>
+    </row>
+    <row r="195" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="2">
+        <v>600016</v>
+      </c>
+      <c r="D195" s="2">
+        <v>600017</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F195" s="8">
+        <v>10022005</v>
+      </c>
+      <c r="G195" s="2">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1</v>
+      </c>
+      <c r="I195" s="11">
+        <v>80</v>
+      </c>
+      <c r="J195" s="11">
+        <v>2</v>
+      </c>
+      <c r="K195" s="11">
+        <v>20</v>
+      </c>
+      <c r="L195" s="2">
+        <v>0</v>
+      </c>
+      <c r="M195" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O195" s="33"/>
+      <c r="P195" s="33"/>
+    </row>
+    <row r="196" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="2">
+        <v>600017</v>
+      </c>
+      <c r="D196" s="2">
+        <v>600018</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F196" s="8">
+        <v>10022006</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2">
+        <v>1</v>
+      </c>
+      <c r="I196" s="11">
+        <v>80</v>
+      </c>
+      <c r="J196" s="11">
+        <v>2</v>
+      </c>
+      <c r="K196" s="11">
+        <v>20</v>
+      </c>
+      <c r="L196" s="2">
+        <v>0</v>
+      </c>
+      <c r="M196" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O196" s="33"/>
+      <c r="P196" s="33"/>
+    </row>
+    <row r="197" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="2">
+        <v>600018</v>
+      </c>
+      <c r="D197" s="2">
+        <v>600019</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F197" s="8">
+        <v>10022007</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2">
+        <v>1</v>
+      </c>
+      <c r="I197" s="11">
+        <v>80</v>
+      </c>
+      <c r="J197" s="11">
+        <v>2</v>
+      </c>
+      <c r="K197" s="11">
+        <v>20</v>
+      </c>
+      <c r="L197" s="2">
+        <v>0</v>
+      </c>
+      <c r="M197" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O197" s="33"/>
+      <c r="P197" s="33"/>
+    </row>
+    <row r="198" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="2">
+        <v>600019</v>
+      </c>
+      <c r="D198" s="2">
+        <v>600020</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F198" s="8">
+        <v>10022008</v>
+      </c>
+      <c r="G198" s="2">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2">
+        <v>60</v>
+      </c>
+      <c r="I198" s="11">
+        <v>15000</v>
+      </c>
+      <c r="J198" s="11">
+        <v>2</v>
+      </c>
+      <c r="K198" s="11">
+        <v>1</v>
+      </c>
+      <c r="L198" s="2">
+        <v>0</v>
+      </c>
+      <c r="M198" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O198" s="33"/>
+      <c r="P198" s="33">
+        <f>H198/H197</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="2">
+        <v>600020</v>
+      </c>
+      <c r="D199" s="2">
+        <v>600021</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F199" s="8">
+        <v>10022009</v>
+      </c>
+      <c r="G199" s="2">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2">
+        <v>180</v>
+      </c>
+      <c r="I199" s="11">
+        <v>30000</v>
+      </c>
+      <c r="J199" s="11">
+        <v>2</v>
+      </c>
+      <c r="K199" s="11">
+        <v>1</v>
+      </c>
+      <c r="L199" s="2">
+        <v>0</v>
+      </c>
+      <c r="M199" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O199" s="33"/>
+      <c r="P199" s="33"/>
+    </row>
+    <row r="200" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="2">
+        <v>600021</v>
+      </c>
+      <c r="D200" s="2">
+        <v>600022</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F200" s="8">
+        <v>10022010</v>
+      </c>
+      <c r="G200" s="2">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2">
+        <v>1</v>
+      </c>
+      <c r="I200" s="11">
+        <v>80</v>
+      </c>
+      <c r="J200" s="11">
+        <v>2</v>
+      </c>
+      <c r="K200" s="11">
+        <v>20</v>
+      </c>
+      <c r="L200" s="2">
+        <v>0</v>
+      </c>
+      <c r="M200" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O200" s="33"/>
+      <c r="P200" s="33"/>
+    </row>
+    <row r="201" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="2">
+        <v>600022</v>
+      </c>
+      <c r="D201" s="2">
+        <v>600023</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F201" s="8">
+        <v>10023001</v>
+      </c>
+      <c r="G201" s="2">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2">
+        <v>1</v>
+      </c>
+      <c r="I201" s="11">
+        <v>120</v>
+      </c>
+      <c r="J201" s="11">
+        <v>3</v>
+      </c>
+      <c r="K201" s="11">
+        <v>20</v>
+      </c>
+      <c r="L201" s="2">
+        <v>0</v>
+      </c>
+      <c r="M201" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O201" s="33"/>
+      <c r="P201" s="33"/>
+    </row>
+    <row r="202" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="2">
+        <v>600023</v>
+      </c>
+      <c r="D202" s="2">
+        <v>600024</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F202" s="8">
+        <v>10023002</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2">
+        <v>1</v>
+      </c>
+      <c r="I202" s="11">
+        <v>120</v>
+      </c>
+      <c r="J202" s="11">
+        <v>3</v>
+      </c>
+      <c r="K202" s="11">
+        <v>20</v>
+      </c>
+      <c r="L202" s="2">
+        <v>0</v>
+      </c>
+      <c r="M202" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O202" s="33"/>
+      <c r="P202" s="33"/>
+    </row>
+    <row r="203" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="2">
+        <v>600024</v>
+      </c>
+      <c r="D203" s="2">
+        <v>600025</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F203" s="8">
+        <v>10023003</v>
+      </c>
+      <c r="G203" s="2">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2">
+        <v>1</v>
+      </c>
+      <c r="I203" s="11">
+        <v>120</v>
+      </c>
+      <c r="J203" s="11">
+        <v>3</v>
+      </c>
+      <c r="K203" s="11">
+        <v>20</v>
+      </c>
+      <c r="L203" s="2">
+        <v>0</v>
+      </c>
+      <c r="M203" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O203" s="33"/>
+      <c r="P203" s="33"/>
+    </row>
+    <row r="204" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="2">
+        <v>600025</v>
+      </c>
+      <c r="D204" s="2">
+        <v>600026</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F204" s="8">
+        <v>10023004</v>
+      </c>
+      <c r="G204" s="2">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1</v>
+      </c>
+      <c r="I204" s="11">
+        <v>120</v>
+      </c>
+      <c r="J204" s="11">
+        <v>3</v>
+      </c>
+      <c r="K204" s="11">
+        <v>20</v>
+      </c>
+      <c r="L204" s="2">
+        <v>0</v>
+      </c>
+      <c r="M204" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O204" s="33"/>
+      <c r="P204" s="33"/>
+    </row>
+    <row r="205" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="2">
+        <v>600026</v>
+      </c>
+      <c r="D205" s="2">
+        <v>600027</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F205" s="8">
+        <v>10023005</v>
+      </c>
+      <c r="G205" s="2">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2">
+        <v>1</v>
+      </c>
+      <c r="I205" s="11">
+        <v>120</v>
+      </c>
+      <c r="J205" s="11">
+        <v>3</v>
+      </c>
+      <c r="K205" s="11">
+        <v>20</v>
+      </c>
+      <c r="L205" s="2">
+        <v>0</v>
+      </c>
+      <c r="M205" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O205" s="33"/>
+      <c r="P205" s="33"/>
+    </row>
+    <row r="206" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="2">
+        <v>600027</v>
+      </c>
+      <c r="D206" s="2">
+        <v>600028</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F206" s="8">
+        <v>10023006</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2">
+        <v>1</v>
+      </c>
+      <c r="I206" s="11">
+        <v>120</v>
+      </c>
+      <c r="J206" s="11">
+        <v>3</v>
+      </c>
+      <c r="K206" s="11">
+        <v>20</v>
+      </c>
+      <c r="L206" s="2">
+        <v>0</v>
+      </c>
+      <c r="M206" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O206" s="33"/>
+      <c r="P206" s="33"/>
+    </row>
+    <row r="207" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="2">
+        <v>600028</v>
+      </c>
+      <c r="D207" s="2">
+        <v>600029</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F207" s="8">
+        <v>10023007</v>
+      </c>
+      <c r="G207" s="2">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2">
+        <v>1</v>
+      </c>
+      <c r="I207" s="11">
+        <v>120</v>
+      </c>
+      <c r="J207" s="11">
+        <v>3</v>
+      </c>
+      <c r="K207" s="11">
+        <v>20</v>
+      </c>
+      <c r="L207" s="2">
+        <v>0</v>
+      </c>
+      <c r="M207" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O207" s="33"/>
+      <c r="P207" s="33"/>
+    </row>
+    <row r="208" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="2">
+        <v>600029</v>
+      </c>
+      <c r="D208" s="2">
+        <v>600030</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" s="8">
+        <v>10023008</v>
+      </c>
+      <c r="G208" s="2">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2">
+        <v>60</v>
+      </c>
+      <c r="I208" s="11">
+        <v>20000</v>
+      </c>
+      <c r="J208" s="11">
+        <v>3</v>
+      </c>
+      <c r="K208" s="11">
+        <v>1</v>
+      </c>
+      <c r="L208" s="2">
+        <v>0</v>
+      </c>
+      <c r="M208" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O208" s="33"/>
+      <c r="P208" s="33"/>
+    </row>
+    <row r="209" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="2">
+        <v>600030</v>
+      </c>
+      <c r="D209" s="2">
+        <v>600031</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" s="8">
+        <v>10023009</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2">
+        <v>180</v>
+      </c>
+      <c r="I209" s="11">
+        <v>40000</v>
+      </c>
+      <c r="J209" s="11">
+        <v>3</v>
+      </c>
+      <c r="K209" s="11">
+        <v>1</v>
+      </c>
+      <c r="L209" s="2">
+        <v>0</v>
+      </c>
+      <c r="M209" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O209" s="33"/>
+      <c r="P209" s="33"/>
+    </row>
+    <row r="210" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="2">
+        <v>600031</v>
+      </c>
+      <c r="D210" s="2">
+        <v>600032</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F210" s="8">
+        <v>10023010</v>
+      </c>
+      <c r="G210" s="2">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2">
+        <v>1</v>
+      </c>
+      <c r="I210" s="11">
+        <v>120</v>
+      </c>
+      <c r="J210" s="11">
+        <v>3</v>
+      </c>
+      <c r="K210" s="11">
+        <v>20</v>
+      </c>
+      <c r="L210" s="2">
+        <v>0</v>
+      </c>
+      <c r="M210" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O210" s="33"/>
+      <c r="P210" s="33"/>
+    </row>
+    <row r="211" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="2">
+        <v>600032</v>
+      </c>
+      <c r="D211" s="2">
+        <v>600033</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F211" s="8">
+        <v>10024001</v>
+      </c>
+      <c r="G211" s="2">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2">
+        <v>1</v>
+      </c>
+      <c r="I211" s="11">
+        <v>150</v>
+      </c>
+      <c r="J211" s="11">
+        <v>5</v>
+      </c>
+      <c r="K211" s="11">
+        <v>20</v>
+      </c>
+      <c r="L211" s="2">
+        <v>0</v>
+      </c>
+      <c r="M211" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="O211" s="33"/>
+      <c r="P211" s="33"/>
+    </row>
+    <row r="212" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="2">
+        <v>600033</v>
+      </c>
+      <c r="D212" s="2">
+        <v>600034</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F212" s="8">
+        <v>10024002</v>
+      </c>
+      <c r="G212" s="2">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2">
+        <v>1</v>
+      </c>
+      <c r="I212" s="11">
+        <v>150</v>
+      </c>
+      <c r="J212" s="11">
+        <v>5</v>
+      </c>
+      <c r="K212" s="11">
+        <v>20</v>
+      </c>
+      <c r="L212" s="2">
+        <v>0</v>
+      </c>
+      <c r="M212" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O212" s="33"/>
+      <c r="P212" s="33"/>
+    </row>
+    <row r="213" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="2">
+        <v>600034</v>
+      </c>
+      <c r="D213" s="2">
+        <v>600035</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F213" s="8">
+        <v>10024003</v>
+      </c>
+      <c r="G213" s="2">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2">
+        <v>1</v>
+      </c>
+      <c r="I213" s="11">
+        <v>150</v>
+      </c>
+      <c r="J213" s="11">
+        <v>5</v>
+      </c>
+      <c r="K213" s="11">
+        <v>20</v>
+      </c>
+      <c r="L213" s="2">
+        <v>0</v>
+      </c>
+      <c r="M213" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O213" s="33"/>
+      <c r="P213" s="33"/>
+    </row>
+    <row r="214" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="2">
+        <v>600035</v>
+      </c>
+      <c r="D214" s="2">
+        <v>600036</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F214" s="8">
+        <v>10024004</v>
+      </c>
+      <c r="G214" s="2">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2">
+        <v>1</v>
+      </c>
+      <c r="I214" s="11">
+        <v>150</v>
+      </c>
+      <c r="J214" s="11">
+        <v>5</v>
+      </c>
+      <c r="K214" s="11">
+        <v>20</v>
+      </c>
+      <c r="L214" s="2">
+        <v>0</v>
+      </c>
+      <c r="M214" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="O214" s="33"/>
+      <c r="P214" s="33"/>
+    </row>
+    <row r="215" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="2">
+        <v>600036</v>
+      </c>
+      <c r="D215" s="2">
+        <v>600037</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F215" s="8">
+        <v>10024005</v>
+      </c>
+      <c r="G215" s="2">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2">
+        <v>1</v>
+      </c>
+      <c r="I215" s="11">
+        <v>150</v>
+      </c>
+      <c r="J215" s="11">
+        <v>5</v>
+      </c>
+      <c r="K215" s="11">
+        <v>20</v>
+      </c>
+      <c r="L215" s="2">
+        <v>0</v>
+      </c>
+      <c r="M215" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O215" s="33"/>
+      <c r="P215" s="33"/>
+    </row>
+    <row r="216" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="2">
+        <v>600037</v>
+      </c>
+      <c r="D216" s="2">
+        <v>600038</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F216" s="8">
+        <v>10024006</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2">
+        <v>1</v>
+      </c>
+      <c r="I216" s="11">
+        <v>150</v>
+      </c>
+      <c r="J216" s="11">
+        <v>5</v>
+      </c>
+      <c r="K216" s="11">
+        <v>20</v>
+      </c>
+      <c r="L216" s="2">
+        <v>0</v>
+      </c>
+      <c r="M216" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O216" s="33"/>
+      <c r="P216" s="33"/>
+    </row>
+    <row r="217" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="2">
+        <v>600038</v>
+      </c>
+      <c r="D217" s="2">
+        <v>600039</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F217" s="8">
+        <v>10024007</v>
+      </c>
+      <c r="G217" s="2">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2">
+        <v>1</v>
+      </c>
+      <c r="I217" s="11">
+        <v>150</v>
+      </c>
+      <c r="J217" s="11">
+        <v>5</v>
+      </c>
+      <c r="K217" s="11">
+        <v>20</v>
+      </c>
+      <c r="L217" s="2">
+        <v>0</v>
+      </c>
+      <c r="M217" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O217" s="33"/>
+      <c r="P217" s="33"/>
+    </row>
+    <row r="218" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="2">
+        <v>600039</v>
+      </c>
+      <c r="D218" s="2">
+        <v>600040</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" s="8">
+        <v>10024008</v>
+      </c>
+      <c r="G218" s="2">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2">
+        <v>60</v>
+      </c>
+      <c r="I218" s="11">
+        <v>25000</v>
+      </c>
+      <c r="J218" s="11">
+        <v>5</v>
+      </c>
+      <c r="K218" s="11">
+        <v>1</v>
+      </c>
+      <c r="L218" s="2">
+        <v>0</v>
+      </c>
+      <c r="M218" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O218" s="33"/>
+      <c r="P218" s="33"/>
+    </row>
+    <row r="219" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="2">
+        <v>600040</v>
+      </c>
+      <c r="D219" s="2">
+        <v>600041</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F219" s="8">
+        <v>10024009</v>
+      </c>
+      <c r="G219" s="2">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2">
+        <v>180</v>
+      </c>
+      <c r="I219" s="11">
+        <v>50000</v>
+      </c>
+      <c r="J219" s="11">
+        <v>5</v>
+      </c>
+      <c r="K219" s="11">
+        <v>1</v>
+      </c>
+      <c r="L219" s="2">
+        <v>0</v>
+      </c>
+      <c r="M219" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O219" s="33"/>
+      <c r="P219" s="33"/>
+    </row>
+    <row r="220" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="2">
+        <v>600041</v>
+      </c>
+      <c r="D220" s="2">
+        <v>600042</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F220" s="8">
+        <v>10024010</v>
+      </c>
+      <c r="G220" s="2">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2">
+        <v>1</v>
+      </c>
+      <c r="I220" s="11">
+        <v>150</v>
+      </c>
+      <c r="J220" s="11">
+        <v>5</v>
+      </c>
+      <c r="K220" s="11">
+        <v>20</v>
+      </c>
+      <c r="L220" s="2">
+        <v>0</v>
+      </c>
+      <c r="M220" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="O220" s="33"/>
+      <c r="P220" s="33"/>
+    </row>
+    <row r="221" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="2">
+        <v>600042</v>
+      </c>
+      <c r="D221" s="2">
+        <v>600043</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F221" s="8">
+        <v>10025001</v>
+      </c>
+      <c r="G221" s="2">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2">
+        <v>1</v>
+      </c>
+      <c r="I221" s="11">
+        <v>180</v>
+      </c>
+      <c r="J221" s="11">
+        <v>7</v>
+      </c>
+      <c r="K221" s="11">
+        <v>20</v>
+      </c>
+      <c r="L221" s="2">
+        <v>0</v>
+      </c>
+      <c r="M221" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O221" s="33"/>
+      <c r="P221" s="33"/>
+    </row>
+    <row r="222" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="2">
+        <v>600043</v>
+      </c>
+      <c r="D222" s="2">
+        <v>600044</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F222" s="8">
+        <v>10025002</v>
+      </c>
+      <c r="G222" s="2">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2">
+        <v>1</v>
+      </c>
+      <c r="I222" s="11">
+        <v>180</v>
+      </c>
+      <c r="J222" s="11">
+        <v>7</v>
+      </c>
+      <c r="K222" s="11">
+        <v>20</v>
+      </c>
+      <c r="L222" s="2">
+        <v>0</v>
+      </c>
+      <c r="M222" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O222" s="33"/>
+      <c r="P222" s="33"/>
+    </row>
+    <row r="223" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="2">
+        <v>600044</v>
+      </c>
+      <c r="D223" s="2">
+        <v>600045</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F223" s="8">
+        <v>10025003</v>
+      </c>
+      <c r="G223" s="2">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2">
+        <v>1</v>
+      </c>
+      <c r="I223" s="11">
+        <v>180</v>
+      </c>
+      <c r="J223" s="11">
+        <v>7</v>
+      </c>
+      <c r="K223" s="11">
+        <v>20</v>
+      </c>
+      <c r="L223" s="2">
+        <v>0</v>
+      </c>
+      <c r="M223" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O223" s="33"/>
+      <c r="P223" s="33"/>
+    </row>
+    <row r="224" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="2">
+        <v>600045</v>
+      </c>
+      <c r="D224" s="2">
+        <v>600046</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F224" s="8">
+        <v>10025004</v>
+      </c>
+      <c r="G224" s="2">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2">
+        <v>1</v>
+      </c>
+      <c r="I224" s="11">
+        <v>180</v>
+      </c>
+      <c r="J224" s="11">
+        <v>7</v>
+      </c>
+      <c r="K224" s="11">
+        <v>20</v>
+      </c>
+      <c r="L224" s="2">
+        <v>0</v>
+      </c>
+      <c r="M224" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J185" s="11">
-        <v>1</v>
-      </c>
-      <c r="K185" s="11">
-        <v>99</v>
-      </c>
-      <c r="L185" s="11">
-        <v>3</v>
-      </c>
-      <c r="M185" s="26" t="s">
-        <v>110</v>
-      </c>
+      <c r="O224" s="33"/>
+      <c r="P224" s="33"/>
+    </row>
+    <row r="225" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="2">
+        <v>600046</v>
+      </c>
+      <c r="D225" s="2">
+        <v>600047</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F225" s="8">
+        <v>10025005</v>
+      </c>
+      <c r="G225" s="2">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2">
+        <v>1</v>
+      </c>
+      <c r="I225" s="11">
+        <v>180</v>
+      </c>
+      <c r="J225" s="11">
+        <v>7</v>
+      </c>
+      <c r="K225" s="11">
+        <v>20</v>
+      </c>
+      <c r="L225" s="2">
+        <v>0</v>
+      </c>
+      <c r="M225" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O225" s="33"/>
+      <c r="P225" s="33"/>
+    </row>
+    <row r="226" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="2">
+        <v>600047</v>
+      </c>
+      <c r="D226" s="2">
+        <v>600048</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F226" s="8">
+        <v>10025006</v>
+      </c>
+      <c r="G226" s="2">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2">
+        <v>1</v>
+      </c>
+      <c r="I226" s="11">
+        <v>180</v>
+      </c>
+      <c r="J226" s="11">
+        <v>7</v>
+      </c>
+      <c r="K226" s="11">
+        <v>20</v>
+      </c>
+      <c r="L226" s="2">
+        <v>0</v>
+      </c>
+      <c r="M226" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O226" s="33"/>
+      <c r="P226" s="33"/>
+    </row>
+    <row r="227" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="2">
+        <v>600048</v>
+      </c>
+      <c r="D227" s="2">
+        <v>600049</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F227" s="8">
+        <v>10025007</v>
+      </c>
+      <c r="G227" s="2">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2">
+        <v>1</v>
+      </c>
+      <c r="I227" s="11">
+        <v>180</v>
+      </c>
+      <c r="J227" s="11">
+        <v>7</v>
+      </c>
+      <c r="K227" s="11">
+        <v>20</v>
+      </c>
+      <c r="L227" s="2">
+        <v>0</v>
+      </c>
+      <c r="M227" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O227" s="33"/>
+      <c r="P227" s="33"/>
+    </row>
+    <row r="228" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="2">
+        <v>600049</v>
+      </c>
+      <c r="D228" s="2">
+        <v>600050</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F228" s="8">
+        <v>10025008</v>
+      </c>
+      <c r="G228" s="2">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2">
+        <v>60</v>
+      </c>
+      <c r="I228" s="11">
+        <v>30000</v>
+      </c>
+      <c r="J228" s="11">
+        <v>7</v>
+      </c>
+      <c r="K228" s="11">
+        <v>1</v>
+      </c>
+      <c r="L228" s="2">
+        <v>0</v>
+      </c>
+      <c r="M228" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O228" s="33"/>
+      <c r="P228" s="33"/>
+    </row>
+    <row r="229" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="2">
+        <v>600050</v>
+      </c>
+      <c r="D229" s="2">
+        <v>600051</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="8">
+        <v>10025009</v>
+      </c>
+      <c r="G229" s="2">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2">
+        <v>180</v>
+      </c>
+      <c r="I229" s="11">
+        <v>60000</v>
+      </c>
+      <c r="J229" s="11">
+        <v>7</v>
+      </c>
+      <c r="K229" s="11">
+        <v>1</v>
+      </c>
+      <c r="L229" s="2">
+        <v>0</v>
+      </c>
+      <c r="M229" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O229" s="33"/>
+      <c r="P229" s="33"/>
+    </row>
+    <row r="230" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="2">
+        <v>600051</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F230" s="8">
+        <v>10025010</v>
+      </c>
+      <c r="G230" s="2">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2">
+        <v>1</v>
+      </c>
+      <c r="I230" s="11">
+        <v>180</v>
+      </c>
+      <c r="J230" s="11">
+        <v>7</v>
+      </c>
+      <c r="K230" s="11">
+        <v>20</v>
+      </c>
+      <c r="L230" s="2">
+        <v>0</v>
+      </c>
+      <c r="M230" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O230" s="33"/>
+      <c r="P230" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8927636-F83B-480E-B9B3-03BB9857FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7046E25-B9C0-4DD5-AA35-7B29121D3EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2637,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C206" workbookViewId="0">
-      <selection activeCell="J227" sqref="J227"/>
+    <sheetView tabSelected="1" topLeftCell="C203" workbookViewId="0">
+      <selection activeCell="K219" sqref="K219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8927,7 +8927,7 @@
         <v>10020001</v>
       </c>
       <c r="G180" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H180" s="2">
         <v>1</v>
@@ -8969,7 +8969,7 @@
         <v>10021001</v>
       </c>
       <c r="G181" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H181" s="2">
         <v>1</v>
@@ -9009,7 +9009,7 @@
         <v>10021002</v>
       </c>
       <c r="G182" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H182" s="2">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>10021003</v>
       </c>
       <c r="G183" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H183" s="2">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>10021004</v>
       </c>
       <c r="G184" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H184" s="2">
         <v>1</v>
@@ -9123,7 +9123,7 @@
         <v>10021005</v>
       </c>
       <c r="G185" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H185" s="2">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>10021006</v>
       </c>
       <c r="G186" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H186" s="2">
         <v>1</v>
@@ -9197,7 +9197,7 @@
         <v>10021007</v>
       </c>
       <c r="G187" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H187" s="2">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>10021008</v>
       </c>
       <c r="G188" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H188" s="2">
         <v>60</v>
@@ -9271,7 +9271,7 @@
         <v>10021009</v>
       </c>
       <c r="G189" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H189" s="2">
         <v>180</v>
@@ -9308,7 +9308,7 @@
         <v>10021010</v>
       </c>
       <c r="G190" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H190" s="2">
         <v>1</v>
@@ -9345,7 +9345,7 @@
         <v>10022001</v>
       </c>
       <c r="G191" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H191" s="2">
         <v>1</v>
@@ -9382,7 +9382,7 @@
         <v>10022002</v>
       </c>
       <c r="G192" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H192" s="2">
         <v>1</v>
@@ -9419,7 +9419,7 @@
         <v>10022003</v>
       </c>
       <c r="G193" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H193" s="2">
         <v>1</v>
@@ -9456,7 +9456,7 @@
         <v>10022004</v>
       </c>
       <c r="G194" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H194" s="2">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>10022005</v>
       </c>
       <c r="G195" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H195" s="2">
         <v>1</v>
@@ -9530,7 +9530,7 @@
         <v>10022006</v>
       </c>
       <c r="G196" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H196" s="2">
         <v>1</v>
@@ -9567,7 +9567,7 @@
         <v>10022007</v>
       </c>
       <c r="G197" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H197" s="2">
         <v>1</v>
@@ -9604,13 +9604,13 @@
         <v>10022008</v>
       </c>
       <c r="G198" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H198" s="2">
         <v>60</v>
       </c>
       <c r="I198" s="11">
-        <v>15000</v>
+        <v>80</v>
       </c>
       <c r="J198" s="11">
         <v>2</v>
@@ -9644,13 +9644,13 @@
         <v>10022009</v>
       </c>
       <c r="G199" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H199" s="2">
         <v>180</v>
       </c>
       <c r="I199" s="11">
-        <v>30000</v>
+        <v>80</v>
       </c>
       <c r="J199" s="11">
         <v>2</v>
@@ -9681,7 +9681,7 @@
         <v>10022010</v>
       </c>
       <c r="G200" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H200" s="2">
         <v>1</v>
@@ -9718,7 +9718,7 @@
         <v>10023001</v>
       </c>
       <c r="G201" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H201" s="2">
         <v>1</v>
@@ -9755,7 +9755,7 @@
         <v>10023002</v>
       </c>
       <c r="G202" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H202" s="2">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>10023003</v>
       </c>
       <c r="G203" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H203" s="2">
         <v>1</v>
@@ -9829,7 +9829,7 @@
         <v>10023004</v>
       </c>
       <c r="G204" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H204" s="2">
         <v>1</v>
@@ -9866,7 +9866,7 @@
         <v>10023005</v>
       </c>
       <c r="G205" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H205" s="2">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>10023006</v>
       </c>
       <c r="G206" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H206" s="2">
         <v>1</v>
@@ -9940,7 +9940,7 @@
         <v>10023007</v>
       </c>
       <c r="G207" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H207" s="2">
         <v>1</v>
@@ -9977,13 +9977,13 @@
         <v>10023008</v>
       </c>
       <c r="G208" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H208" s="2">
         <v>60</v>
       </c>
       <c r="I208" s="11">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="J208" s="11">
         <v>3</v>
@@ -10014,13 +10014,13 @@
         <v>10023009</v>
       </c>
       <c r="G209" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H209" s="2">
         <v>180</v>
       </c>
       <c r="I209" s="11">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="J209" s="11">
         <v>3</v>
@@ -10051,7 +10051,7 @@
         <v>10023010</v>
       </c>
       <c r="G210" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H210" s="2">
         <v>1</v>
@@ -10088,7 +10088,7 @@
         <v>10024001</v>
       </c>
       <c r="G211" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H211" s="2">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         <v>10024002</v>
       </c>
       <c r="G212" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H212" s="2">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>10024003</v>
       </c>
       <c r="G213" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H213" s="2">
         <v>1</v>
@@ -10199,7 +10199,7 @@
         <v>10024004</v>
       </c>
       <c r="G214" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H214" s="2">
         <v>1</v>
@@ -10236,7 +10236,7 @@
         <v>10024005</v>
       </c>
       <c r="G215" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H215" s="2">
         <v>1</v>
@@ -10273,7 +10273,7 @@
         <v>10024006</v>
       </c>
       <c r="G216" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H216" s="2">
         <v>1</v>
@@ -10310,7 +10310,7 @@
         <v>10024007</v>
       </c>
       <c r="G217" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H217" s="2">
         <v>1</v>
@@ -10347,13 +10347,13 @@
         <v>10024008</v>
       </c>
       <c r="G218" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H218" s="2">
         <v>60</v>
       </c>
       <c r="I218" s="11">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="J218" s="11">
         <v>5</v>
@@ -10384,13 +10384,13 @@
         <v>10024009</v>
       </c>
       <c r="G219" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H219" s="2">
         <v>180</v>
       </c>
       <c r="I219" s="11">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="J219" s="11">
         <v>5</v>
@@ -10421,7 +10421,7 @@
         <v>10024010</v>
       </c>
       <c r="G220" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H220" s="2">
         <v>1</v>
@@ -10458,7 +10458,7 @@
         <v>10025001</v>
       </c>
       <c r="G221" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H221" s="2">
         <v>1</v>
@@ -10495,7 +10495,7 @@
         <v>10025002</v>
       </c>
       <c r="G222" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H222" s="2">
         <v>1</v>
@@ -10532,7 +10532,7 @@
         <v>10025003</v>
       </c>
       <c r="G223" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H223" s="2">
         <v>1</v>
@@ -10569,7 +10569,7 @@
         <v>10025004</v>
       </c>
       <c r="G224" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H224" s="2">
         <v>1</v>
@@ -10606,7 +10606,7 @@
         <v>10025005</v>
       </c>
       <c r="G225" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H225" s="2">
         <v>1</v>
@@ -10643,7 +10643,7 @@
         <v>10025006</v>
       </c>
       <c r="G226" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H226" s="2">
         <v>1</v>
@@ -10680,7 +10680,7 @@
         <v>10025007</v>
       </c>
       <c r="G227" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H227" s="2">
         <v>1</v>
@@ -10717,13 +10717,13 @@
         <v>10025008</v>
       </c>
       <c r="G228" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H228" s="2">
         <v>60</v>
       </c>
       <c r="I228" s="11">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="J228" s="11">
         <v>7</v>
@@ -10754,13 +10754,13 @@
         <v>10025009</v>
       </c>
       <c r="G229" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H229" s="2">
         <v>180</v>
       </c>
       <c r="I229" s="11">
-        <v>60000</v>
+        <v>180</v>
       </c>
       <c r="J229" s="11">
         <v>7</v>
@@ -10791,7 +10791,7 @@
         <v>10025010</v>
       </c>
       <c r="G230" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H230" s="2">
         <v>1</v>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7046E25-B9C0-4DD5-AA35-7B29121D3EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D2BCB-89BA-4FE5-91E4-3FBD34FAC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -575,13 +575,36 @@
   </si>
   <si>
     <t>绿色果汁</t>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢锭</t>
+  </si>
+  <si>
+    <t>符文布</t>
+  </si>
+  <si>
+    <t>炼金石</t>
+  </si>
+  <si>
+    <t>无粉尘</t>
+  </si>
+  <si>
+    <t>宠物蛋壳</t>
+  </si>
+  <si>
+    <t>宠物之核碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,15 +698,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +835,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79985961485641044"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1488387707144383"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1488082522049623"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,7 +1921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1989,8 +2017,14 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="314">
@@ -2635,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P230"/>
+  <dimension ref="C1:P199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C203" workbookViewId="0">
-      <selection activeCell="K219" sqref="K219"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8808,7 +8842,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="2">
         <v>500012</v>
       </c>
@@ -8843,7 +8877,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="2">
         <v>500013</v>
       </c>
@@ -8878,7 +8912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="2">
         <v>500014</v>
       </c>
@@ -8913,1907 +8947,300 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="2">
+    <row r="180" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="11">
         <v>600001</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="11">
         <v>600002</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F180" s="8">
-        <v>10020001</v>
-      </c>
-      <c r="G180" s="2">
+      <c r="E180" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F180" s="6">
+        <v>10000144</v>
+      </c>
+      <c r="G180" s="11">
         <v>16</v>
       </c>
-      <c r="H180" s="2">
-        <v>1</v>
+      <c r="H180" s="11">
+        <v>10</v>
       </c>
       <c r="I180" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J180" s="11">
         <v>1</v>
       </c>
       <c r="K180" s="11">
-        <v>20</v>
-      </c>
-      <c r="L180" s="2">
-        <v>0</v>
-      </c>
-      <c r="M180" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="O180" s="33">
         <v>5</v>
       </c>
-      <c r="P180" s="33">
-        <f>O180*3</f>
+      <c r="L180" s="11">
+        <v>0</v>
+      </c>
+      <c r="M180" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="11">
+        <v>600002</v>
+      </c>
+      <c r="D181" s="11">
+        <v>600003</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F181" s="6">
+        <v>10000145</v>
+      </c>
+      <c r="G181" s="11">
+        <v>16</v>
+      </c>
+      <c r="H181" s="11">
+        <v>10</v>
+      </c>
+      <c r="I181" s="11">
+        <v>100</v>
+      </c>
+      <c r="J181" s="11">
+        <v>1</v>
+      </c>
+      <c r="K181" s="11">
+        <v>5</v>
+      </c>
+      <c r="L181" s="11">
+        <v>0</v>
+      </c>
+      <c r="M181" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="11">
+        <v>600003</v>
+      </c>
+      <c r="D182" s="11">
+        <v>600004</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F182" s="6">
+        <v>10000146</v>
+      </c>
+      <c r="G182" s="11">
+        <v>16</v>
+      </c>
+      <c r="H182" s="11">
+        <v>10</v>
+      </c>
+      <c r="I182" s="11">
+        <v>100</v>
+      </c>
+      <c r="J182" s="11">
+        <v>1</v>
+      </c>
+      <c r="K182" s="11">
+        <v>5</v>
+      </c>
+      <c r="L182" s="11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="11">
+        <v>600004</v>
+      </c>
+      <c r="D183" s="11">
+        <v>600005</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F183" s="6">
+        <v>10000147</v>
+      </c>
+      <c r="G183" s="11">
+        <v>16</v>
+      </c>
+      <c r="H183" s="11">
+        <v>10</v>
+      </c>
+      <c r="I183" s="11">
+        <v>100</v>
+      </c>
+      <c r="J183" s="11">
+        <v>1</v>
+      </c>
+      <c r="K183" s="11">
+        <v>5</v>
+      </c>
+      <c r="L183" s="11">
+        <v>0</v>
+      </c>
+      <c r="M183" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="11">
+        <v>600005</v>
+      </c>
+      <c r="D184" s="11">
+        <v>600006</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F184" s="6">
+        <v>10000132</v>
+      </c>
+      <c r="G184" s="11">
+        <v>16</v>
+      </c>
+      <c r="H184" s="11">
+        <v>5</v>
+      </c>
+      <c r="I184" s="11">
+        <v>100</v>
+      </c>
+      <c r="J184" s="11">
+        <v>1</v>
+      </c>
+      <c r="K184" s="11">
+        <v>5</v>
+      </c>
+      <c r="L184" s="11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="11">
+        <v>600006</v>
+      </c>
+      <c r="D185" s="11">
+        <v>600007</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F185" s="6">
+        <v>10000131</v>
+      </c>
+      <c r="G185" s="11">
+        <v>16</v>
+      </c>
+      <c r="H185" s="11">
+        <v>5</v>
+      </c>
+      <c r="I185" s="11">
+        <v>100</v>
+      </c>
+      <c r="J185" s="11">
+        <v>1</v>
+      </c>
+      <c r="K185" s="11">
+        <v>5</v>
+      </c>
+      <c r="L185" s="11">
+        <v>0</v>
+      </c>
+      <c r="M185" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="11">
+        <v>600007</v>
+      </c>
+      <c r="D186" s="11">
+        <v>600008</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F186" s="33">
+        <v>10025008</v>
+      </c>
+      <c r="G186" s="11">
+        <v>16</v>
+      </c>
+      <c r="H186" s="11">
+        <v>10</v>
+      </c>
+      <c r="I186" s="11">
+        <v>100</v>
+      </c>
+      <c r="J186" s="11">
+        <v>1</v>
+      </c>
+      <c r="K186" s="11">
+        <v>5</v>
+      </c>
+      <c r="L186" s="11">
+        <v>0</v>
+      </c>
+      <c r="M186" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="11">
+        <v>600008</v>
+      </c>
+      <c r="D187" s="11">
+        <v>0</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F187" s="33">
+        <v>10025009</v>
+      </c>
+      <c r="G187" s="11">
+        <v>16</v>
+      </c>
+      <c r="H187" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="2">
-        <v>600002</v>
-      </c>
-      <c r="D181" s="2">
-        <v>600003</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F181" s="8">
-        <v>10021001</v>
-      </c>
-      <c r="G181" s="2">
-        <v>16</v>
-      </c>
-      <c r="H181" s="2">
-        <v>1</v>
-      </c>
-      <c r="I181" s="11">
-        <v>50</v>
-      </c>
-      <c r="J181" s="11">
-        <v>1</v>
-      </c>
-      <c r="K181" s="11">
-        <v>20</v>
-      </c>
-      <c r="L181" s="2">
-        <v>0</v>
-      </c>
-      <c r="M181" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O181" s="33"/>
-      <c r="P181" s="33">
-        <f>5*10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="2">
-        <v>600003</v>
-      </c>
-      <c r="D182" s="2">
-        <v>600004</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F182" s="8">
-        <v>10021002</v>
-      </c>
-      <c r="G182" s="2">
-        <v>16</v>
-      </c>
-      <c r="H182" s="2">
-        <v>1</v>
-      </c>
-      <c r="I182" s="11">
-        <v>50</v>
-      </c>
-      <c r="J182" s="11">
-        <v>1</v>
-      </c>
-      <c r="K182" s="11">
-        <v>20</v>
-      </c>
-      <c r="L182" s="2">
-        <v>0</v>
-      </c>
-      <c r="M182" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O182" s="33"/>
-      <c r="P182" s="33">
-        <f>10*5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="183" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="2">
-        <v>600004</v>
-      </c>
-      <c r="D183" s="2">
-        <v>600005</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F183" s="8">
-        <v>10021003</v>
-      </c>
-      <c r="G183" s="2">
-        <v>16</v>
-      </c>
-      <c r="H183" s="2">
-        <v>1</v>
-      </c>
-      <c r="I183" s="11">
-        <v>50</v>
-      </c>
-      <c r="J183" s="11">
-        <v>1</v>
-      </c>
-      <c r="K183" s="11">
-        <v>20</v>
-      </c>
-      <c r="L183" s="2">
-        <v>0</v>
-      </c>
-      <c r="M183" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O183" s="33"/>
-      <c r="P183" s="33"/>
-    </row>
-    <row r="184" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="2">
-        <v>600005</v>
-      </c>
-      <c r="D184" s="2">
-        <v>600006</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F184" s="8">
-        <v>10021004</v>
-      </c>
-      <c r="G184" s="2">
-        <v>16</v>
-      </c>
-      <c r="H184" s="2">
-        <v>1</v>
-      </c>
-      <c r="I184" s="11">
-        <v>50</v>
-      </c>
-      <c r="J184" s="11">
-        <v>1</v>
-      </c>
-      <c r="K184" s="11">
-        <v>20</v>
-      </c>
-      <c r="L184" s="2">
-        <v>0</v>
-      </c>
-      <c r="M184" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O184" s="33"/>
-      <c r="P184" s="33"/>
-    </row>
-    <row r="185" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="2">
-        <v>600006</v>
-      </c>
-      <c r="D185" s="2">
-        <v>600007</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F185" s="8">
-        <v>10021005</v>
-      </c>
-      <c r="G185" s="2">
-        <v>16</v>
-      </c>
-      <c r="H185" s="2">
-        <v>1</v>
-      </c>
-      <c r="I185" s="11">
-        <v>50</v>
-      </c>
-      <c r="J185" s="11">
-        <v>1</v>
-      </c>
-      <c r="K185" s="11">
-        <v>20</v>
-      </c>
-      <c r="L185" s="2">
-        <v>0</v>
-      </c>
-      <c r="M185" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O185" s="33"/>
-      <c r="P185" s="33"/>
-    </row>
-    <row r="186" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="2">
-        <v>600007</v>
-      </c>
-      <c r="D186" s="2">
-        <v>600008</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F186" s="8">
-        <v>10021006</v>
-      </c>
-      <c r="G186" s="2">
-        <v>16</v>
-      </c>
-      <c r="H186" s="2">
-        <v>1</v>
-      </c>
-      <c r="I186" s="11">
-        <v>50</v>
-      </c>
-      <c r="J186" s="11">
-        <v>1</v>
-      </c>
-      <c r="K186" s="11">
-        <v>20</v>
-      </c>
-      <c r="L186" s="2">
-        <v>0</v>
-      </c>
-      <c r="M186" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O186" s="33"/>
-      <c r="P186" s="33"/>
-    </row>
-    <row r="187" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="2">
-        <v>600008</v>
-      </c>
-      <c r="D187" s="2">
-        <v>600009</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F187" s="8">
-        <v>10021007</v>
-      </c>
-      <c r="G187" s="2">
-        <v>16</v>
-      </c>
-      <c r="H187" s="2">
-        <v>1</v>
-      </c>
       <c r="I187" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J187" s="11">
         <v>1</v>
       </c>
       <c r="K187" s="11">
-        <v>20</v>
-      </c>
-      <c r="L187" s="2">
-        <v>0</v>
-      </c>
-      <c r="M187" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O187" s="33"/>
-      <c r="P187" s="33"/>
-    </row>
-    <row r="188" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="2">
-        <v>600009</v>
-      </c>
-      <c r="D188" s="2">
-        <v>600010</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F188" s="8">
-        <v>10021008</v>
-      </c>
-      <c r="G188" s="2">
-        <v>16</v>
-      </c>
-      <c r="H188" s="2">
-        <v>60</v>
-      </c>
-      <c r="I188" s="11">
-        <v>50</v>
-      </c>
-      <c r="J188" s="11">
-        <v>1</v>
-      </c>
-      <c r="K188" s="11">
-        <v>1</v>
-      </c>
-      <c r="L188" s="2">
-        <v>0</v>
-      </c>
-      <c r="M188" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="O188" s="33"/>
-      <c r="P188" s="33"/>
-    </row>
-    <row r="189" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="2">
-        <v>600010</v>
-      </c>
-      <c r="D189" s="2">
-        <v>600011</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F189" s="8">
-        <v>10021009</v>
-      </c>
-      <c r="G189" s="2">
-        <v>16</v>
-      </c>
-      <c r="H189" s="2">
-        <v>180</v>
-      </c>
-      <c r="I189" s="11">
-        <v>50</v>
-      </c>
-      <c r="J189" s="11">
-        <v>1</v>
-      </c>
-      <c r="K189" s="11">
-        <v>1</v>
-      </c>
-      <c r="L189" s="2">
-        <v>0</v>
-      </c>
-      <c r="M189" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="O189" s="33"/>
-      <c r="P189" s="33"/>
-    </row>
-    <row r="190" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="2">
-        <v>600011</v>
-      </c>
-      <c r="D190" s="2">
-        <v>600012</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F190" s="8">
-        <v>10021010</v>
-      </c>
-      <c r="G190" s="2">
-        <v>16</v>
-      </c>
-      <c r="H190" s="2">
-        <v>1</v>
-      </c>
-      <c r="I190" s="11">
-        <v>50</v>
-      </c>
-      <c r="J190" s="11">
-        <v>1</v>
-      </c>
-      <c r="K190" s="11">
-        <v>20</v>
-      </c>
-      <c r="L190" s="2">
-        <v>0</v>
-      </c>
-      <c r="M190" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O190" s="33"/>
-      <c r="P190" s="33"/>
-    </row>
-    <row r="191" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="2">
-        <v>600012</v>
-      </c>
-      <c r="D191" s="2">
-        <v>600013</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F191" s="8">
-        <v>10022001</v>
-      </c>
-      <c r="G191" s="2">
-        <v>16</v>
-      </c>
-      <c r="H191" s="2">
-        <v>1</v>
-      </c>
-      <c r="I191" s="11">
-        <v>80</v>
-      </c>
-      <c r="J191" s="11">
-        <v>2</v>
-      </c>
-      <c r="K191" s="11">
-        <v>20</v>
-      </c>
-      <c r="L191" s="2">
-        <v>0</v>
-      </c>
-      <c r="M191" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="O191" s="33"/>
-      <c r="P191" s="33"/>
-    </row>
-    <row r="192" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="2">
-        <v>600013</v>
-      </c>
-      <c r="D192" s="2">
-        <v>600014</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F192" s="8">
-        <v>10022002</v>
-      </c>
-      <c r="G192" s="2">
-        <v>16</v>
-      </c>
-      <c r="H192" s="2">
-        <v>1</v>
-      </c>
-      <c r="I192" s="11">
-        <v>80</v>
-      </c>
-      <c r="J192" s="11">
-        <v>2</v>
-      </c>
-      <c r="K192" s="11">
-        <v>20</v>
-      </c>
-      <c r="L192" s="2">
-        <v>0</v>
-      </c>
-      <c r="M192" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="O192" s="33"/>
-      <c r="P192" s="33"/>
-    </row>
-    <row r="193" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="2">
-        <v>600014</v>
-      </c>
-      <c r="D193" s="2">
-        <v>600015</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F193" s="8">
-        <v>10022003</v>
-      </c>
-      <c r="G193" s="2">
-        <v>16</v>
-      </c>
-      <c r="H193" s="2">
-        <v>1</v>
-      </c>
-      <c r="I193" s="11">
-        <v>80</v>
-      </c>
-      <c r="J193" s="11">
-        <v>2</v>
-      </c>
-      <c r="K193" s="11">
-        <v>20</v>
-      </c>
-      <c r="L193" s="2">
-        <v>0</v>
-      </c>
-      <c r="M193" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="O193" s="33"/>
-      <c r="P193" s="33"/>
-    </row>
-    <row r="194" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="2">
-        <v>600015</v>
-      </c>
-      <c r="D194" s="2">
-        <v>600016</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F194" s="8">
-        <v>10022004</v>
-      </c>
-      <c r="G194" s="2">
-        <v>16</v>
-      </c>
-      <c r="H194" s="2">
-        <v>1</v>
-      </c>
-      <c r="I194" s="11">
-        <v>80</v>
-      </c>
-      <c r="J194" s="11">
-        <v>2</v>
-      </c>
-      <c r="K194" s="11">
-        <v>20</v>
-      </c>
-      <c r="L194" s="2">
-        <v>0</v>
-      </c>
-      <c r="M194" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O194" s="33"/>
-      <c r="P194" s="33"/>
-    </row>
-    <row r="195" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="2">
-        <v>600016</v>
-      </c>
-      <c r="D195" s="2">
-        <v>600017</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F195" s="8">
-        <v>10022005</v>
-      </c>
-      <c r="G195" s="2">
-        <v>16</v>
-      </c>
-      <c r="H195" s="2">
-        <v>1</v>
-      </c>
-      <c r="I195" s="11">
-        <v>80</v>
-      </c>
-      <c r="J195" s="11">
-        <v>2</v>
-      </c>
-      <c r="K195" s="11">
-        <v>20</v>
-      </c>
-      <c r="L195" s="2">
-        <v>0</v>
-      </c>
-      <c r="M195" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="O195" s="33"/>
-      <c r="P195" s="33"/>
-    </row>
-    <row r="196" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="2">
-        <v>600017</v>
-      </c>
-      <c r="D196" s="2">
-        <v>600018</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F196" s="8">
-        <v>10022006</v>
-      </c>
-      <c r="G196" s="2">
-        <v>16</v>
-      </c>
-      <c r="H196" s="2">
-        <v>1</v>
-      </c>
-      <c r="I196" s="11">
-        <v>80</v>
-      </c>
-      <c r="J196" s="11">
-        <v>2</v>
-      </c>
-      <c r="K196" s="11">
-        <v>20</v>
-      </c>
-      <c r="L196" s="2">
-        <v>0</v>
-      </c>
-      <c r="M196" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O196" s="33"/>
-      <c r="P196" s="33"/>
-    </row>
-    <row r="197" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="2">
-        <v>600018</v>
-      </c>
-      <c r="D197" s="2">
-        <v>600019</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F197" s="8">
-        <v>10022007</v>
-      </c>
-      <c r="G197" s="2">
-        <v>16</v>
-      </c>
-      <c r="H197" s="2">
-        <v>1</v>
-      </c>
-      <c r="I197" s="11">
-        <v>80</v>
-      </c>
-      <c r="J197" s="11">
-        <v>2</v>
-      </c>
-      <c r="K197" s="11">
-        <v>20</v>
-      </c>
-      <c r="L197" s="2">
-        <v>0</v>
-      </c>
-      <c r="M197" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O197" s="33"/>
-      <c r="P197" s="33"/>
-    </row>
-    <row r="198" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="2">
-        <v>600019</v>
-      </c>
-      <c r="D198" s="2">
-        <v>600020</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F198" s="8">
-        <v>10022008</v>
-      </c>
-      <c r="G198" s="2">
-        <v>16</v>
-      </c>
-      <c r="H198" s="2">
-        <v>60</v>
-      </c>
-      <c r="I198" s="11">
-        <v>80</v>
-      </c>
-      <c r="J198" s="11">
-        <v>2</v>
-      </c>
-      <c r="K198" s="11">
-        <v>1</v>
-      </c>
-      <c r="L198" s="2">
-        <v>0</v>
-      </c>
-      <c r="M198" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="O198" s="33"/>
-      <c r="P198" s="33">
-        <f>H198/H197</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="199" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="2">
-        <v>600020</v>
-      </c>
-      <c r="D199" s="2">
-        <v>600021</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F199" s="8">
-        <v>10022009</v>
-      </c>
-      <c r="G199" s="2">
-        <v>16</v>
-      </c>
-      <c r="H199" s="2">
-        <v>180</v>
-      </c>
-      <c r="I199" s="11">
-        <v>80</v>
-      </c>
-      <c r="J199" s="11">
-        <v>2</v>
-      </c>
-      <c r="K199" s="11">
-        <v>1</v>
-      </c>
-      <c r="L199" s="2">
-        <v>0</v>
-      </c>
-      <c r="M199" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="O199" s="33"/>
-      <c r="P199" s="33"/>
-    </row>
-    <row r="200" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="2">
-        <v>600021</v>
-      </c>
-      <c r="D200" s="2">
-        <v>600022</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F200" s="8">
-        <v>10022010</v>
-      </c>
-      <c r="G200" s="2">
-        <v>16</v>
-      </c>
-      <c r="H200" s="2">
-        <v>1</v>
-      </c>
-      <c r="I200" s="11">
-        <v>80</v>
-      </c>
-      <c r="J200" s="11">
-        <v>2</v>
-      </c>
-      <c r="K200" s="11">
-        <v>20</v>
-      </c>
-      <c r="L200" s="2">
-        <v>0</v>
-      </c>
-      <c r="M200" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O200" s="33"/>
-      <c r="P200" s="33"/>
-    </row>
-    <row r="201" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="2">
-        <v>600022</v>
-      </c>
-      <c r="D201" s="2">
-        <v>600023</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F201" s="8">
-        <v>10023001</v>
-      </c>
-      <c r="G201" s="2">
-        <v>16</v>
-      </c>
-      <c r="H201" s="2">
-        <v>1</v>
-      </c>
-      <c r="I201" s="11">
-        <v>120</v>
-      </c>
-      <c r="J201" s="11">
-        <v>3</v>
-      </c>
-      <c r="K201" s="11">
-        <v>20</v>
-      </c>
-      <c r="L201" s="2">
-        <v>0</v>
-      </c>
-      <c r="M201" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O201" s="33"/>
-      <c r="P201" s="33"/>
-    </row>
-    <row r="202" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="2">
-        <v>600023</v>
-      </c>
-      <c r="D202" s="2">
-        <v>600024</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F202" s="8">
-        <v>10023002</v>
-      </c>
-      <c r="G202" s="2">
-        <v>16</v>
-      </c>
-      <c r="H202" s="2">
-        <v>1</v>
-      </c>
-      <c r="I202" s="11">
-        <v>120</v>
-      </c>
-      <c r="J202" s="11">
-        <v>3</v>
-      </c>
-      <c r="K202" s="11">
-        <v>20</v>
-      </c>
-      <c r="L202" s="2">
-        <v>0</v>
-      </c>
-      <c r="M202" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O202" s="33"/>
-      <c r="P202" s="33"/>
-    </row>
-    <row r="203" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="2">
-        <v>600024</v>
-      </c>
-      <c r="D203" s="2">
-        <v>600025</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F203" s="8">
-        <v>10023003</v>
-      </c>
-      <c r="G203" s="2">
-        <v>16</v>
-      </c>
-      <c r="H203" s="2">
-        <v>1</v>
-      </c>
-      <c r="I203" s="11">
-        <v>120</v>
-      </c>
-      <c r="J203" s="11">
-        <v>3</v>
-      </c>
-      <c r="K203" s="11">
-        <v>20</v>
-      </c>
-      <c r="L203" s="2">
-        <v>0</v>
-      </c>
-      <c r="M203" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="O203" s="33"/>
-      <c r="P203" s="33"/>
-    </row>
-    <row r="204" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="2">
-        <v>600025</v>
-      </c>
-      <c r="D204" s="2">
-        <v>600026</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F204" s="8">
-        <v>10023004</v>
-      </c>
-      <c r="G204" s="2">
-        <v>16</v>
-      </c>
-      <c r="H204" s="2">
-        <v>1</v>
-      </c>
-      <c r="I204" s="11">
-        <v>120</v>
-      </c>
-      <c r="J204" s="11">
-        <v>3</v>
-      </c>
-      <c r="K204" s="11">
-        <v>20</v>
-      </c>
-      <c r="L204" s="2">
-        <v>0</v>
-      </c>
-      <c r="M204" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O204" s="33"/>
-      <c r="P204" s="33"/>
-    </row>
-    <row r="205" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="2">
-        <v>600026</v>
-      </c>
-      <c r="D205" s="2">
-        <v>600027</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F205" s="8">
-        <v>10023005</v>
-      </c>
-      <c r="G205" s="2">
-        <v>16</v>
-      </c>
-      <c r="H205" s="2">
-        <v>1</v>
-      </c>
-      <c r="I205" s="11">
-        <v>120</v>
-      </c>
-      <c r="J205" s="11">
-        <v>3</v>
-      </c>
-      <c r="K205" s="11">
-        <v>20</v>
-      </c>
-      <c r="L205" s="2">
-        <v>0</v>
-      </c>
-      <c r="M205" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O205" s="33"/>
-      <c r="P205" s="33"/>
-    </row>
-    <row r="206" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="2">
-        <v>600027</v>
-      </c>
-      <c r="D206" s="2">
-        <v>600028</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F206" s="8">
-        <v>10023006</v>
-      </c>
-      <c r="G206" s="2">
-        <v>16</v>
-      </c>
-      <c r="H206" s="2">
-        <v>1</v>
-      </c>
-      <c r="I206" s="11">
-        <v>120</v>
-      </c>
-      <c r="J206" s="11">
-        <v>3</v>
-      </c>
-      <c r="K206" s="11">
-        <v>20</v>
-      </c>
-      <c r="L206" s="2">
-        <v>0</v>
-      </c>
-      <c r="M206" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O206" s="33"/>
-      <c r="P206" s="33"/>
-    </row>
-    <row r="207" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="2">
-        <v>600028</v>
-      </c>
-      <c r="D207" s="2">
-        <v>600029</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F207" s="8">
-        <v>10023007</v>
-      </c>
-      <c r="G207" s="2">
-        <v>16</v>
-      </c>
-      <c r="H207" s="2">
-        <v>1</v>
-      </c>
-      <c r="I207" s="11">
-        <v>120</v>
-      </c>
-      <c r="J207" s="11">
-        <v>3</v>
-      </c>
-      <c r="K207" s="11">
-        <v>20</v>
-      </c>
-      <c r="L207" s="2">
-        <v>0</v>
-      </c>
-      <c r="M207" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O207" s="33"/>
-      <c r="P207" s="33"/>
-    </row>
-    <row r="208" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="2">
-        <v>600029</v>
-      </c>
-      <c r="D208" s="2">
-        <v>600030</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F208" s="8">
-        <v>10023008</v>
-      </c>
-      <c r="G208" s="2">
-        <v>16</v>
-      </c>
-      <c r="H208" s="2">
-        <v>60</v>
-      </c>
-      <c r="I208" s="11">
-        <v>120</v>
-      </c>
-      <c r="J208" s="11">
-        <v>3</v>
-      </c>
-      <c r="K208" s="11">
-        <v>1</v>
-      </c>
-      <c r="L208" s="2">
-        <v>0</v>
-      </c>
-      <c r="M208" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="O208" s="33"/>
-      <c r="P208" s="33"/>
-    </row>
-    <row r="209" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="2">
-        <v>600030</v>
-      </c>
-      <c r="D209" s="2">
-        <v>600031</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F209" s="8">
-        <v>10023009</v>
-      </c>
-      <c r="G209" s="2">
-        <v>16</v>
-      </c>
-      <c r="H209" s="2">
-        <v>180</v>
-      </c>
-      <c r="I209" s="11">
-        <v>120</v>
-      </c>
-      <c r="J209" s="11">
-        <v>3</v>
-      </c>
-      <c r="K209" s="11">
-        <v>1</v>
-      </c>
-      <c r="L209" s="2">
-        <v>0</v>
-      </c>
-      <c r="M209" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O209" s="33"/>
-      <c r="P209" s="33"/>
-    </row>
-    <row r="210" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="2">
-        <v>600031</v>
-      </c>
-      <c r="D210" s="2">
-        <v>600032</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F210" s="8">
-        <v>10023010</v>
-      </c>
-      <c r="G210" s="2">
-        <v>16</v>
-      </c>
-      <c r="H210" s="2">
-        <v>1</v>
-      </c>
-      <c r="I210" s="11">
-        <v>120</v>
-      </c>
-      <c r="J210" s="11">
-        <v>3</v>
-      </c>
-      <c r="K210" s="11">
-        <v>20</v>
-      </c>
-      <c r="L210" s="2">
-        <v>0</v>
-      </c>
-      <c r="M210" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="O210" s="33"/>
-      <c r="P210" s="33"/>
-    </row>
-    <row r="211" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="2">
-        <v>600032</v>
-      </c>
-      <c r="D211" s="2">
-        <v>600033</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F211" s="8">
-        <v>10024001</v>
-      </c>
-      <c r="G211" s="2">
-        <v>16</v>
-      </c>
-      <c r="H211" s="2">
-        <v>1</v>
-      </c>
-      <c r="I211" s="11">
-        <v>150</v>
-      </c>
-      <c r="J211" s="11">
         <v>5</v>
       </c>
-      <c r="K211" s="11">
-        <v>20</v>
-      </c>
-      <c r="L211" s="2">
-        <v>0</v>
-      </c>
-      <c r="M211" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="O211" s="33"/>
-      <c r="P211" s="33"/>
-    </row>
-    <row r="212" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="2">
-        <v>600033</v>
-      </c>
-      <c r="D212" s="2">
-        <v>600034</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F212" s="8">
-        <v>10024002</v>
-      </c>
-      <c r="G212" s="2">
-        <v>16</v>
-      </c>
-      <c r="H212" s="2">
-        <v>1</v>
-      </c>
-      <c r="I212" s="11">
-        <v>150</v>
-      </c>
-      <c r="J212" s="11">
-        <v>5</v>
-      </c>
-      <c r="K212" s="11">
-        <v>20</v>
-      </c>
-      <c r="L212" s="2">
-        <v>0</v>
-      </c>
-      <c r="M212" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="O212" s="33"/>
-      <c r="P212" s="33"/>
-    </row>
-    <row r="213" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C213" s="2">
-        <v>600034</v>
-      </c>
-      <c r="D213" s="2">
-        <v>600035</v>
-      </c>
-      <c r="E213" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F213" s="8">
-        <v>10024003</v>
-      </c>
-      <c r="G213" s="2">
-        <v>16</v>
-      </c>
-      <c r="H213" s="2">
-        <v>1</v>
-      </c>
-      <c r="I213" s="11">
-        <v>150</v>
-      </c>
-      <c r="J213" s="11">
-        <v>5</v>
-      </c>
-      <c r="K213" s="11">
-        <v>20</v>
-      </c>
-      <c r="L213" s="2">
-        <v>0</v>
-      </c>
-      <c r="M213" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="O213" s="33"/>
-      <c r="P213" s="33"/>
-    </row>
-    <row r="214" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C214" s="2">
-        <v>600035</v>
-      </c>
-      <c r="D214" s="2">
-        <v>600036</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F214" s="8">
-        <v>10024004</v>
-      </c>
-      <c r="G214" s="2">
-        <v>16</v>
-      </c>
-      <c r="H214" s="2">
-        <v>1</v>
-      </c>
-      <c r="I214" s="11">
-        <v>150</v>
-      </c>
-      <c r="J214" s="11">
-        <v>5</v>
-      </c>
-      <c r="K214" s="11">
-        <v>20</v>
-      </c>
-      <c r="L214" s="2">
-        <v>0</v>
-      </c>
-      <c r="M214" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="O214" s="33"/>
-      <c r="P214" s="33"/>
-    </row>
-    <row r="215" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C215" s="2">
-        <v>600036</v>
-      </c>
-      <c r="D215" s="2">
-        <v>600037</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F215" s="8">
-        <v>10024005</v>
-      </c>
-      <c r="G215" s="2">
-        <v>16</v>
-      </c>
-      <c r="H215" s="2">
-        <v>1</v>
-      </c>
-      <c r="I215" s="11">
-        <v>150</v>
-      </c>
-      <c r="J215" s="11">
-        <v>5</v>
-      </c>
-      <c r="K215" s="11">
-        <v>20</v>
-      </c>
-      <c r="L215" s="2">
-        <v>0</v>
-      </c>
-      <c r="M215" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="O215" s="33"/>
-      <c r="P215" s="33"/>
-    </row>
-    <row r="216" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C216" s="2">
-        <v>600037</v>
-      </c>
-      <c r="D216" s="2">
-        <v>600038</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F216" s="8">
-        <v>10024006</v>
-      </c>
-      <c r="G216" s="2">
-        <v>16</v>
-      </c>
-      <c r="H216" s="2">
-        <v>1</v>
-      </c>
-      <c r="I216" s="11">
-        <v>150</v>
-      </c>
-      <c r="J216" s="11">
-        <v>5</v>
-      </c>
-      <c r="K216" s="11">
-        <v>20</v>
-      </c>
-      <c r="L216" s="2">
-        <v>0</v>
-      </c>
-      <c r="M216" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="O216" s="33"/>
-      <c r="P216" s="33"/>
-    </row>
-    <row r="217" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C217" s="2">
-        <v>600038</v>
-      </c>
-      <c r="D217" s="2">
-        <v>600039</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F217" s="8">
-        <v>10024007</v>
-      </c>
-      <c r="G217" s="2">
-        <v>16</v>
-      </c>
-      <c r="H217" s="2">
-        <v>1</v>
-      </c>
-      <c r="I217" s="11">
-        <v>150</v>
-      </c>
-      <c r="J217" s="11">
-        <v>5</v>
-      </c>
-      <c r="K217" s="11">
-        <v>20</v>
-      </c>
-      <c r="L217" s="2">
-        <v>0</v>
-      </c>
-      <c r="M217" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O217" s="33"/>
-      <c r="P217" s="33"/>
-    </row>
-    <row r="218" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="2">
-        <v>600039</v>
-      </c>
-      <c r="D218" s="2">
-        <v>600040</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F218" s="8">
-        <v>10024008</v>
-      </c>
-      <c r="G218" s="2">
-        <v>16</v>
-      </c>
-      <c r="H218" s="2">
-        <v>60</v>
-      </c>
-      <c r="I218" s="11">
-        <v>150</v>
-      </c>
-      <c r="J218" s="11">
-        <v>5</v>
-      </c>
-      <c r="K218" s="11">
-        <v>1</v>
-      </c>
-      <c r="L218" s="2">
-        <v>0</v>
-      </c>
-      <c r="M218" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="O218" s="33"/>
-      <c r="P218" s="33"/>
-    </row>
-    <row r="219" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="2">
-        <v>600040</v>
-      </c>
-      <c r="D219" s="2">
-        <v>600041</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F219" s="8">
-        <v>10024009</v>
-      </c>
-      <c r="G219" s="2">
-        <v>16</v>
-      </c>
-      <c r="H219" s="2">
-        <v>180</v>
-      </c>
-      <c r="I219" s="11">
-        <v>150</v>
-      </c>
-      <c r="J219" s="11">
-        <v>5</v>
-      </c>
-      <c r="K219" s="11">
-        <v>1</v>
-      </c>
-      <c r="L219" s="2">
-        <v>0</v>
-      </c>
-      <c r="M219" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O219" s="33"/>
-      <c r="P219" s="33"/>
-    </row>
-    <row r="220" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="2">
-        <v>600041</v>
-      </c>
-      <c r="D220" s="2">
-        <v>600042</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F220" s="8">
-        <v>10024010</v>
-      </c>
-      <c r="G220" s="2">
-        <v>16</v>
-      </c>
-      <c r="H220" s="2">
-        <v>1</v>
-      </c>
-      <c r="I220" s="11">
-        <v>150</v>
-      </c>
-      <c r="J220" s="11">
-        <v>5</v>
-      </c>
-      <c r="K220" s="11">
-        <v>20</v>
-      </c>
-      <c r="L220" s="2">
-        <v>0</v>
-      </c>
-      <c r="M220" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="O220" s="33"/>
-      <c r="P220" s="33"/>
-    </row>
-    <row r="221" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="2">
-        <v>600042</v>
-      </c>
-      <c r="D221" s="2">
-        <v>600043</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F221" s="8">
-        <v>10025001</v>
-      </c>
-      <c r="G221" s="2">
-        <v>16</v>
-      </c>
-      <c r="H221" s="2">
-        <v>1</v>
-      </c>
-      <c r="I221" s="11">
-        <v>180</v>
-      </c>
-      <c r="J221" s="11">
-        <v>7</v>
-      </c>
-      <c r="K221" s="11">
-        <v>20</v>
-      </c>
-      <c r="L221" s="2">
-        <v>0</v>
-      </c>
-      <c r="M221" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="O221" s="33"/>
-      <c r="P221" s="33"/>
-    </row>
-    <row r="222" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="2">
-        <v>600043</v>
-      </c>
-      <c r="D222" s="2">
-        <v>600044</v>
-      </c>
-      <c r="E222" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F222" s="8">
-        <v>10025002</v>
-      </c>
-      <c r="G222" s="2">
-        <v>16</v>
-      </c>
-      <c r="H222" s="2">
-        <v>1</v>
-      </c>
-      <c r="I222" s="11">
-        <v>180</v>
-      </c>
-      <c r="J222" s="11">
-        <v>7</v>
-      </c>
-      <c r="K222" s="11">
-        <v>20</v>
-      </c>
-      <c r="L222" s="2">
-        <v>0</v>
-      </c>
-      <c r="M222" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O222" s="33"/>
-      <c r="P222" s="33"/>
-    </row>
-    <row r="223" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="2">
-        <v>600044</v>
-      </c>
-      <c r="D223" s="2">
-        <v>600045</v>
-      </c>
-      <c r="E223" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F223" s="8">
-        <v>10025003</v>
-      </c>
-      <c r="G223" s="2">
-        <v>16</v>
-      </c>
-      <c r="H223" s="2">
-        <v>1</v>
-      </c>
-      <c r="I223" s="11">
-        <v>180</v>
-      </c>
-      <c r="J223" s="11">
-        <v>7</v>
-      </c>
-      <c r="K223" s="11">
-        <v>20</v>
-      </c>
-      <c r="L223" s="2">
-        <v>0</v>
-      </c>
-      <c r="M223" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="O223" s="33"/>
-      <c r="P223" s="33"/>
-    </row>
-    <row r="224" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="2">
-        <v>600045</v>
-      </c>
-      <c r="D224" s="2">
-        <v>600046</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F224" s="8">
-        <v>10025004</v>
-      </c>
-      <c r="G224" s="2">
-        <v>16</v>
-      </c>
-      <c r="H224" s="2">
-        <v>1</v>
-      </c>
-      <c r="I224" s="11">
-        <v>180</v>
-      </c>
-      <c r="J224" s="11">
-        <v>7</v>
-      </c>
-      <c r="K224" s="11">
-        <v>20</v>
-      </c>
-      <c r="L224" s="2">
-        <v>0</v>
-      </c>
-      <c r="M224" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O224" s="33"/>
-      <c r="P224" s="33"/>
-    </row>
-    <row r="225" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="2">
-        <v>600046</v>
-      </c>
-      <c r="D225" s="2">
-        <v>600047</v>
-      </c>
-      <c r="E225" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F225" s="8">
-        <v>10025005</v>
-      </c>
-      <c r="G225" s="2">
-        <v>16</v>
-      </c>
-      <c r="H225" s="2">
-        <v>1</v>
-      </c>
-      <c r="I225" s="11">
-        <v>180</v>
-      </c>
-      <c r="J225" s="11">
-        <v>7</v>
-      </c>
-      <c r="K225" s="11">
-        <v>20</v>
-      </c>
-      <c r="L225" s="2">
-        <v>0</v>
-      </c>
-      <c r="M225" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O225" s="33"/>
-      <c r="P225" s="33"/>
-    </row>
-    <row r="226" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C226" s="2">
-        <v>600047</v>
-      </c>
-      <c r="D226" s="2">
-        <v>600048</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F226" s="8">
-        <v>10025006</v>
-      </c>
-      <c r="G226" s="2">
-        <v>16</v>
-      </c>
-      <c r="H226" s="2">
-        <v>1</v>
-      </c>
-      <c r="I226" s="11">
-        <v>180</v>
-      </c>
-      <c r="J226" s="11">
-        <v>7</v>
-      </c>
-      <c r="K226" s="11">
-        <v>20</v>
-      </c>
-      <c r="L226" s="2">
-        <v>0</v>
-      </c>
-      <c r="M226" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O226" s="33"/>
-      <c r="P226" s="33"/>
-    </row>
-    <row r="227" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="2">
-        <v>600048</v>
-      </c>
-      <c r="D227" s="2">
-        <v>600049</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F227" s="8">
-        <v>10025007</v>
-      </c>
-      <c r="G227" s="2">
-        <v>16</v>
-      </c>
-      <c r="H227" s="2">
-        <v>1</v>
-      </c>
-      <c r="I227" s="11">
-        <v>180</v>
-      </c>
-      <c r="J227" s="11">
-        <v>7</v>
-      </c>
-      <c r="K227" s="11">
-        <v>20</v>
-      </c>
-      <c r="L227" s="2">
-        <v>0</v>
-      </c>
-      <c r="M227" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O227" s="33"/>
-      <c r="P227" s="33"/>
-    </row>
-    <row r="228" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C228" s="2">
-        <v>600049</v>
-      </c>
-      <c r="D228" s="2">
-        <v>600050</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F228" s="8">
-        <v>10025008</v>
-      </c>
-      <c r="G228" s="2">
-        <v>16</v>
-      </c>
-      <c r="H228" s="2">
-        <v>60</v>
-      </c>
-      <c r="I228" s="11">
-        <v>180</v>
-      </c>
-      <c r="J228" s="11">
-        <v>7</v>
-      </c>
-      <c r="K228" s="11">
-        <v>1</v>
-      </c>
-      <c r="L228" s="2">
-        <v>0</v>
-      </c>
-      <c r="M228" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="O228" s="33"/>
-      <c r="P228" s="33"/>
-    </row>
-    <row r="229" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C229" s="2">
-        <v>600050</v>
-      </c>
-      <c r="D229" s="2">
-        <v>600051</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F229" s="8">
-        <v>10025009</v>
-      </c>
-      <c r="G229" s="2">
-        <v>16</v>
-      </c>
-      <c r="H229" s="2">
-        <v>180</v>
-      </c>
-      <c r="I229" s="11">
-        <v>180</v>
-      </c>
-      <c r="J229" s="11">
-        <v>7</v>
-      </c>
-      <c r="K229" s="11">
-        <v>1</v>
-      </c>
-      <c r="L229" s="2">
-        <v>0</v>
-      </c>
-      <c r="M229" s="20" t="s">
+      <c r="L187" s="11">
+        <v>0</v>
+      </c>
+      <c r="M187" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="O229" s="33"/>
-      <c r="P229" s="33"/>
-    </row>
-    <row r="230" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C230" s="2">
-        <v>600051</v>
-      </c>
-      <c r="D230" s="2">
-        <v>0</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F230" s="8">
-        <v>10025010</v>
-      </c>
-      <c r="G230" s="2">
-        <v>16</v>
-      </c>
-      <c r="H230" s="2">
-        <v>1</v>
-      </c>
-      <c r="I230" s="11">
-        <v>180</v>
-      </c>
-      <c r="J230" s="11">
-        <v>7</v>
-      </c>
-      <c r="K230" s="11">
-        <v>20</v>
-      </c>
-      <c r="L230" s="2">
-        <v>0</v>
-      </c>
-      <c r="M230" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O230" s="33"/>
-      <c r="P230" s="33"/>
-    </row>
+    </row>
+    <row r="188" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MysteryConfig.xlsx
+++ b/Excel/MysteryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D2BCB-89BA-4FE5-91E4-3FBD34FAC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F355D5BB-E515-48FD-92B6-CE376C02E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -103,18 +103,9 @@
     <t>5,5</t>
   </si>
   <si>
-    <t>幼小的宠物蛋</t>
-  </si>
-  <si>
-    <t>稀少的宠物蛋</t>
-  </si>
-  <si>
     <t>珍贵的宠物蛋</t>
   </si>
   <si>
-    <t>宠物骨头</t>
-  </si>
-  <si>
     <t>宠物牛奶</t>
   </si>
   <si>
@@ -130,21 +121,6 @@
     <t>高级宝石箱子</t>
   </si>
   <si>
-    <t>第一章装备盒子</t>
-  </si>
-  <si>
-    <t>第二章装备盒子</t>
-  </si>
-  <si>
-    <t>第三章装备盒子</t>
-  </si>
-  <si>
-    <t>第四章装备盒子</t>
-  </si>
-  <si>
-    <t>第五章装备盒子</t>
-  </si>
-  <si>
     <t>冷却时间清空</t>
   </si>
   <si>
@@ -157,12 +133,6 @@
     <t>领主刷新券</t>
   </si>
   <si>
-    <t>藏宝图</t>
-  </si>
-  <si>
-    <t>史诗宝石宝箱</t>
-  </si>
-  <si>
     <t>金钥匙</t>
   </si>
   <si>
@@ -170,9 +140,6 @@
   </si>
   <si>
     <t>50,50</t>
-  </si>
-  <si>
-    <t>经验盒子</t>
   </si>
   <si>
     <t>深渊券</t>
@@ -597,6 +564,27 @@
   </si>
   <si>
     <t>宠物之核碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级宠之晶</t>
+  </si>
+  <si>
+    <t>宠灵之锁</t>
+  </si>
+  <si>
+    <t>孵化灵球</t>
+  </si>
+  <si>
+    <t>高级藏宝图</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗宝石宝箱</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2671,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
@@ -2966,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
@@ -3007,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="I11" s="2">
         <v>100</v>
@@ -3022,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="13">
         <v>6</v>
@@ -3048,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="I12" s="2">
         <v>100</v>
@@ -3063,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O12" s="13">
         <v>7</v>
@@ -3089,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
@@ -3104,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O13" s="13">
         <v>8</v>
@@ -3130,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="I14" s="2">
         <v>100</v>
@@ -3145,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O14" s="13">
         <v>9</v>
@@ -3174,7 +3162,7 @@
         <v>240</v>
       </c>
       <c r="I15" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J15" s="11">
         <v>1</v>
@@ -3186,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O15" s="13">
         <v>10</v>
@@ -3215,7 +3203,7 @@
         <v>240</v>
       </c>
       <c r="I16" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J16" s="11">
         <v>3</v>
@@ -3227,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,7 +3238,7 @@
         <v>240</v>
       </c>
       <c r="I17" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J17" s="11">
         <v>5</v>
@@ -3262,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3285,7 +3273,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J18" s="11">
         <v>7</v>
@@ -3297,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,13 +3299,13 @@
         <v>26</v>
       </c>
       <c r="F19" s="6">
-        <v>10000121</v>
+        <v>10010078</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="I19" s="2">
         <v>50</v>
@@ -3331,8 +3319,8 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>36</v>
+      <c r="M19" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3346,19 +3334,19 @@
         <v>26</v>
       </c>
       <c r="F20" s="6">
-        <v>10000122</v>
+        <v>10010079</v>
       </c>
       <c r="G20" s="2">
         <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="I20" s="2">
         <v>50</v>
       </c>
       <c r="J20" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -3366,8 +3354,8 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>37</v>
+      <c r="M20" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,19 +3369,19 @@
         <v>26</v>
       </c>
       <c r="F21" s="6">
-        <v>10000123</v>
+        <v>10010078</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
       </c>
       <c r="H21" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="I21" s="2">
         <v>50</v>
       </c>
       <c r="J21" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -3401,8 +3389,8 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>38</v>
+      <c r="M21" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,19 +3404,19 @@
         <v>26</v>
       </c>
       <c r="F22" s="6">
-        <v>10000124</v>
+        <v>10010079</v>
       </c>
       <c r="G22" s="2">
         <v>3</v>
       </c>
       <c r="H22" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="I22" s="2">
         <v>50</v>
       </c>
       <c r="J22" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -3436,8 +3424,8 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>39</v>
+      <c r="M22" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3451,7 +3439,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="6">
-        <v>10000125</v>
+        <v>10010096</v>
       </c>
       <c r="G23" s="2">
         <v>3</v>
@@ -3463,7 +3451,7 @@
         <v>50</v>
       </c>
       <c r="J23" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -3472,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3492,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="I24" s="2">
         <v>50</v>
@@ -3507,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3577,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3612,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3647,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3661,13 +3649,13 @@
         <v>26</v>
       </c>
       <c r="F29" s="6">
-        <v>10010039</v>
+        <v>10010040</v>
       </c>
       <c r="G29" s="2">
         <v>3</v>
       </c>
       <c r="H29" s="2">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="I29" s="2">
         <v>50</v>
@@ -3682,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3702,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="2">
-        <v>3750</v>
+        <v>980</v>
       </c>
       <c r="I30" s="2">
         <v>50</v>
@@ -3717,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3787,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3798,7 +3786,7 @@
         <v>100029</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F33" s="6">
         <v>10010041</v>
@@ -3807,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="2">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="I33" s="2">
         <v>50</v>
@@ -3816,13 +3804,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3842,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="2">
-        <v>980</v>
+        <v>360</v>
       </c>
       <c r="I34" s="2">
         <v>50</v>
@@ -3857,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3877,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="2">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="I35" s="2">
         <v>50</v>
@@ -3892,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3903,7 +3891,7 @@
         <v>100032</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F36" s="6">
         <v>10000152</v>
@@ -3912,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="2">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="I36" s="2">
         <v>200</v>
@@ -3921,13 +3909,13 @@
         <v>7</v>
       </c>
       <c r="K36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O36" s="13">
         <v>1</v>
@@ -3944,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F37" s="6">
         <v>10000157</v>
@@ -3953,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="2">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="I37" s="2">
         <v>200</v>
@@ -3962,13 +3950,13 @@
         <v>7</v>
       </c>
       <c r="K37" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O37" s="13">
         <v>1</v>
@@ -3985,7 +3973,7 @@
         <v>200002</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F38" s="8">
         <v>10020001</v>
@@ -4009,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4020,7 +4008,7 @@
         <v>200003</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F39" s="8">
         <v>10021001</v>
@@ -4044,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4055,7 +4043,7 @@
         <v>200004</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F40" s="8">
         <v>10021002</v>
@@ -4079,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4090,7 +4078,7 @@
         <v>200005</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F41" s="8">
         <v>10021003</v>
@@ -4114,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4125,7 +4113,7 @@
         <v>200006</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F42" s="8">
         <v>10021004</v>
@@ -4149,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,7 +4148,7 @@
         <v>200007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F43" s="8">
         <v>10021005</v>
@@ -4184,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4195,7 +4183,7 @@
         <v>200008</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F44" s="8">
         <v>10021006</v>
@@ -4219,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4230,7 +4218,7 @@
         <v>200009</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F45" s="8">
         <v>10021007</v>
@@ -4254,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4289,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4324,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4335,7 +4323,7 @@
         <v>200012</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F48" s="8">
         <v>10021010</v>
@@ -4359,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4370,7 +4358,7 @@
         <v>200013</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F49" s="8">
         <v>10022001</v>
@@ -4394,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4405,7 +4393,7 @@
         <v>200014</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F50" s="8">
         <v>10022002</v>
@@ -4429,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4440,7 +4428,7 @@
         <v>200015</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F51" s="8">
         <v>10022003</v>
@@ -4464,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4475,7 +4463,7 @@
         <v>200016</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F52" s="8">
         <v>10022004</v>
@@ -4499,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4510,7 +4498,7 @@
         <v>200017</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F53" s="8">
         <v>10022005</v>
@@ -4534,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4545,7 +4533,7 @@
         <v>200018</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F54" s="8">
         <v>10022006</v>
@@ -4569,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4580,7 +4568,7 @@
         <v>200019</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F55" s="8">
         <v>10022007</v>
@@ -4604,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4639,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4674,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4685,7 +4673,7 @@
         <v>200022</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F58" s="8">
         <v>10022010</v>
@@ -4709,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4720,7 +4708,7 @@
         <v>200023</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F59" s="8">
         <v>10023001</v>
@@ -4744,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4755,7 +4743,7 @@
         <v>200024</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F60" s="8">
         <v>10023002</v>
@@ -4779,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4790,7 +4778,7 @@
         <v>200025</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F61" s="8">
         <v>10023003</v>
@@ -4814,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4825,7 +4813,7 @@
         <v>200026</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F62" s="8">
         <v>10023004</v>
@@ -4849,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4860,7 +4848,7 @@
         <v>200027</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F63" s="8">
         <v>10023005</v>
@@ -4884,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4895,7 +4883,7 @@
         <v>200028</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F64" s="8">
         <v>10023006</v>
@@ -4919,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4930,7 +4918,7 @@
         <v>200029</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F65" s="8">
         <v>10023007</v>
@@ -4954,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4989,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5024,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5035,7 +5023,7 @@
         <v>200032</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F68" s="8">
         <v>10023010</v>
@@ -5059,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,7 +5058,7 @@
         <v>200033</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F69" s="8">
         <v>10024001</v>
@@ -5094,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5105,7 +5093,7 @@
         <v>200034</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F70" s="8">
         <v>10024002</v>
@@ -5129,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5140,7 +5128,7 @@
         <v>200035</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F71" s="8">
         <v>10024003</v>
@@ -5164,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5175,7 +5163,7 @@
         <v>200036</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F72" s="8">
         <v>10024004</v>
@@ -5199,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5210,7 +5198,7 @@
         <v>200037</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F73" s="8">
         <v>10024005</v>
@@ -5234,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5245,7 +5233,7 @@
         <v>200038</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F74" s="8">
         <v>10024006</v>
@@ -5269,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5280,7 +5268,7 @@
         <v>200039</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F75" s="8">
         <v>10024007</v>
@@ -5304,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5339,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,7 +5373,7 @@
         <v>200042</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F78" s="8">
         <v>10024010</v>
@@ -5409,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,7 +5408,7 @@
         <v>200043</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F79" s="8">
         <v>10025001</v>
@@ -5444,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5455,7 +5443,7 @@
         <v>200044</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F80" s="8">
         <v>10025002</v>
@@ -5479,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5490,7 +5478,7 @@
         <v>200045</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F81" s="8">
         <v>10025003</v>
@@ -5514,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5525,7 +5513,7 @@
         <v>200046</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F82" s="8">
         <v>10025004</v>
@@ -5549,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5560,7 +5548,7 @@
         <v>200047</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F83" s="8">
         <v>10025005</v>
@@ -5584,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5595,7 +5583,7 @@
         <v>200048</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F84" s="8">
         <v>10025006</v>
@@ -5619,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5630,7 +5618,7 @@
         <v>200049</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F85" s="8">
         <v>10025007</v>
@@ -5654,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5689,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5724,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5735,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F88" s="8">
         <v>10025010</v>
@@ -5759,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5770,7 +5758,7 @@
         <v>300002</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F89" s="22">
         <v>10034001</v>
@@ -5794,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5805,7 +5793,7 @@
         <v>300003</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F90" s="22">
         <v>10034002</v>
@@ -5829,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="M90" s="26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5840,7 +5828,7 @@
         <v>300004</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F91" s="22">
         <v>10034003</v>
@@ -5864,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="M91" s="26" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5875,7 +5863,7 @@
         <v>300005</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F92" s="22">
         <v>10034004</v>
@@ -5899,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="M92" s="26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5910,7 +5898,7 @@
         <v>300006</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F93" s="22">
         <v>10034005</v>
@@ -5934,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="M93" s="26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5945,7 +5933,7 @@
         <v>300007</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F94" s="22">
         <v>10034006</v>
@@ -5969,7 +5957,7 @@
         <v>9</v>
       </c>
       <c r="M94" s="26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5980,7 +5968,7 @@
         <v>300008</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F95" s="22">
         <v>10034007</v>
@@ -6004,7 +5992,7 @@
         <v>11</v>
       </c>
       <c r="M95" s="26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6015,7 +6003,7 @@
         <v>300009</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F96" s="22">
         <v>10034008</v>
@@ -6039,7 +6027,7 @@
         <v>13</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6050,7 +6038,7 @@
         <v>300010</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F97" s="22">
         <v>10034009</v>
@@ -6074,7 +6062,7 @@
         <v>15</v>
       </c>
       <c r="M97" s="26" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6085,7 +6073,7 @@
         <v>300011</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F98" s="22">
         <v>10034010</v>
@@ -6109,7 +6097,7 @@
         <v>17</v>
       </c>
       <c r="M98" s="26" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6120,7 +6108,7 @@
         <v>300012</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F99" s="22">
         <v>10034011</v>
@@ -6144,7 +6132,7 @@
         <v>19</v>
       </c>
       <c r="M99" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6155,7 +6143,7 @@
         <v>300013</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F100" s="22">
         <v>10034012</v>
@@ -6179,7 +6167,7 @@
         <v>21</v>
       </c>
       <c r="M100" s="26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6190,7 +6178,7 @@
         <v>300014</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F101" s="22">
         <v>10034013</v>
@@ -6214,7 +6202,7 @@
         <v>23</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6225,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F102" s="22">
         <v>10034014</v>
@@ -6249,7 +6237,7 @@
         <v>25</v>
       </c>
       <c r="M102" s="26" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6260,7 +6248,7 @@
         <v>400002</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F103" s="23">
         <v>10033001</v>
@@ -6284,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="28" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6295,7 +6283,7 @@
         <v>400003</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F104" s="23">
         <v>10033002</v>
@@ -6319,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="M104" s="28" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6330,7 +6318,7 @@
         <v>400004</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F105" s="23">
         <v>10033003</v>
@@ -6354,7 +6342,7 @@
         <v>3</v>
       </c>
       <c r="M105" s="28" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6365,7 +6353,7 @@
         <v>400005</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F106" s="23">
         <v>10033004</v>
@@ -6389,7 +6377,7 @@
         <v>5</v>
       </c>
       <c r="M106" s="28" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6400,7 +6388,7 @@
         <v>400006</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F107" s="23">
         <v>10033005</v>
@@ -6424,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="M107" s="28" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6435,7 +6423,7 @@
         <v>400007</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F108" s="23">
         <v>10033006</v>
@@ -6459,7 +6447,7 @@
         <v>9</v>
       </c>
       <c r="M108" s="28" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6470,7 +6458,7 @@
         <v>400008</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F109" s="23">
         <v>10033007</v>
@@ -6494,7 +6482,7 @@
         <v>11</v>
       </c>
       <c r="M109" s="28" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6505,7 +6493,7 @@
         <v>400009</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F110" s="23">
         <v>10033008</v>
@@ -6529,7 +6517,7 @@
         <v>13</v>
       </c>
       <c r="M110" s="28" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6540,7 +6528,7 @@
         <v>400010</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F111" s="23">
         <v>10033009</v>
@@ -6564,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="M111" s="28" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6575,7 +6563,7 @@
         <v>400011</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F112" s="23">
         <v>10033010</v>
@@ -6599,7 +6587,7 @@
         <v>17</v>
       </c>
       <c r="M112" s="28" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6610,7 +6598,7 @@
         <v>400012</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F113" s="23">
         <v>10033011</v>
@@ -6634,7 +6622,7 @@
         <v>19</v>
       </c>
       <c r="M113" s="28" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6645,7 +6633,7 @@
         <v>400013</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F114" s="23">
         <v>10033012</v>
@@ -6669,7 +6657,7 @@
         <v>21</v>
       </c>
       <c r="M114" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6680,7 +6668,7 @@
         <v>400014</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F115" s="23">
         <v>10033013</v>
@@ -6704,7 +6692,7 @@
         <v>23</v>
       </c>
       <c r="M115" s="28" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6715,7 +6703,7 @@
         <v>400015</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F116" s="23">
         <v>10033014</v>
@@ -6739,7 +6727,7 @@
         <v>25</v>
       </c>
       <c r="M116" s="28" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6750,7 +6738,7 @@
         <v>400016</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F117" s="23">
         <v>10035001</v>
@@ -6774,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="M117" s="28" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6785,7 +6773,7 @@
         <v>400017</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F118" s="23">
         <v>10035002</v>
@@ -6809,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="M118" s="28" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6820,7 +6808,7 @@
         <v>400018</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F119" s="23">
         <v>10035003</v>
@@ -6844,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="M119" s="28" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6855,7 +6843,7 @@
         <v>400019</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F120" s="23">
         <v>10035004</v>
@@ -6879,7 +6867,7 @@
         <v>5</v>
       </c>
       <c r="M120" s="28" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6890,7 +6878,7 @@
         <v>400020</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F121" s="23">
         <v>10035005</v>
@@ -6914,7 +6902,7 @@
         <v>7</v>
       </c>
       <c r="M121" s="28" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6925,7 +6913,7 @@
         <v>400021</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F122" s="23">
         <v>10035006</v>
@@ -6949,7 +6937,7 @@
         <v>9</v>
       </c>
       <c r="M122" s="30" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6960,7 +6948,7 @@
         <v>400022</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F123" s="23">
         <v>10035007</v>
@@ -6984,7 +6972,7 @@
         <v>11</v>
       </c>
       <c r="M123" s="28" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6995,7 +6983,7 @@
         <v>400023</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F124" s="23">
         <v>10035008</v>
@@ -7019,7 +7007,7 @@
         <v>13</v>
       </c>
       <c r="M124" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7030,7 +7018,7 @@
         <v>400024</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F125" s="23">
         <v>10035009</v>
@@ -7054,7 +7042,7 @@
         <v>15</v>
       </c>
       <c r="M125" s="28" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7065,7 +7053,7 @@
         <v>400025</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F126" s="23">
         <v>10035010</v>
@@ -7089,7 +7077,7 @@
         <v>17</v>
       </c>
       <c r="M126" s="28" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7100,7 +7088,7 @@
         <v>400026</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F127" s="6">
         <v>10035011</v>
@@ -7124,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="M127" s="30" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7135,7 +7123,7 @@
         <v>400027</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F128" s="6">
         <v>10035012</v>
@@ -7159,7 +7147,7 @@
         <v>21</v>
       </c>
       <c r="M128" s="30" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7170,7 +7158,7 @@
         <v>400028</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F129" s="23">
         <v>10035013</v>
@@ -7194,7 +7182,7 @@
         <v>23</v>
       </c>
       <c r="M129" s="28" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7205,7 +7193,7 @@
         <v>400029</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F130" s="23">
         <v>10035014</v>
@@ -7229,7 +7217,7 @@
         <v>25</v>
       </c>
       <c r="M130" s="28" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7240,7 +7228,7 @@
         <v>400030</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F131" s="31">
         <v>10036001</v>
@@ -7264,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="M131" s="31" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7275,7 +7263,7 @@
         <v>400031</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F132" s="31">
         <v>10036002</v>
@@ -7299,7 +7287,7 @@
         <v>2</v>
       </c>
       <c r="M132" s="31" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7310,7 +7298,7 @@
         <v>400032</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F133" s="31">
         <v>10036003</v>
@@ -7334,7 +7322,7 @@
         <v>2</v>
       </c>
       <c r="M133" s="31" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7345,7 +7333,7 @@
         <v>400033</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F134" s="31">
         <v>10036004</v>
@@ -7369,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="M134" s="31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7380,7 +7368,7 @@
         <v>400034</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F135" s="31">
         <v>10036005</v>
@@ -7404,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="M135" s="31" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7415,7 +7403,7 @@
         <v>400035</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F136" s="31">
         <v>10036006</v>
@@ -7439,7 +7427,7 @@
         <v>3</v>
       </c>
       <c r="M136" s="31" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7450,7 +7438,7 @@
         <v>400036</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F137" s="31">
         <v>10036007</v>
@@ -7474,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="M137" s="31" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7485,7 +7473,7 @@
         <v>400037</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F138" s="31">
         <v>10036008</v>
@@ -7509,7 +7497,7 @@
         <v>5</v>
       </c>
       <c r="M138" s="31" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7520,7 +7508,7 @@
         <v>400038</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F139" s="31">
         <v>10036009</v>
@@ -7544,7 +7532,7 @@
         <v>7</v>
       </c>
       <c r="M139" s="31" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7555,7 +7543,7 @@
         <v>400039</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F140" s="31">
         <v>10036010</v>
@@ -7579,7 +7567,7 @@
         <v>9</v>
       </c>
       <c r="M140" s="31" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7590,7 +7578,7 @@
         <v>400040</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F141" s="31">
         <v>10036011</v>
@@ -7614,7 +7602,7 @@
         <v>9</v>
       </c>
       <c r="M141" s="31" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7625,7 +7613,7 @@
         <v>400041</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F142" s="31">
         <v>10036012</v>
@@ -7649,7 +7637,7 @@
         <v>11</v>
       </c>
       <c r="M142" s="31" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7660,7 +7648,7 @@
         <v>400042</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F143" s="31">
         <v>10036013</v>
@@ -7684,7 +7672,7 @@
         <v>13</v>
       </c>
       <c r="M143" s="31" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7695,7 +7683,7 @@
         <v>400043</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F144" s="31">
         <v>10036014</v>
@@ -7719,7 +7707,7 @@
         <v>11</v>
       </c>
       <c r="M144" s="31" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7730,7 +7718,7 @@
         <v>400044</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F145" s="31">
         <v>10036015</v>
@@ -7754,7 +7742,7 @@
         <v>13</v>
       </c>
       <c r="M145" s="31" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7765,7 +7753,7 @@
         <v>400045</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F146" s="31">
         <v>10036016</v>
@@ -7789,7 +7777,7 @@
         <v>15</v>
       </c>
       <c r="M146" s="31" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,7 +7788,7 @@
         <v>400046</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F147" s="31">
         <v>10036017</v>
@@ -7824,7 +7812,7 @@
         <v>15</v>
       </c>
       <c r="M147" s="31" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7835,7 +7823,7 @@
         <v>400047</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F148" s="31">
         <v>10036018</v>
@@ -7859,7 +7847,7 @@
         <v>17</v>
       </c>
       <c r="M148" s="31" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7870,7 +7858,7 @@
         <v>400048</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F149" s="31">
         <v>10036019</v>
@@ -7894,7 +7882,7 @@
         <v>17</v>
       </c>
       <c r="M149" s="31" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7905,7 +7893,7 @@
         <v>400049</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F150" s="31">
         <v>10036020</v>
@@ -7929,7 +7917,7 @@
         <v>19</v>
       </c>
       <c r="M150" s="31" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7940,7 +7928,7 @@
         <v>400050</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F151" s="31">
         <v>10036021</v>
@@ -7964,7 +7952,7 @@
         <v>19</v>
       </c>
       <c r="M151" s="31" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7975,7 +7963,7 @@
         <v>400051</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F152" s="31">
         <v>10036022</v>
@@ -7999,7 +7987,7 @@
         <v>21</v>
       </c>
       <c r="M152" s="31" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8010,7 +7998,7 @@
         <v>400052</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F153" s="31">
         <v>10036023</v>
@@ -8034,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="M153" s="31" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8045,7 +8033,7 @@
         <v>400053</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F154" s="31">
         <v>10036024</v>
@@ -8069,7 +8057,7 @@
         <v>23</v>
       </c>
       <c r="M154" s="31" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8080,7 +8068,7 @@
         <v>400054</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F155" s="31">
         <v>10036025</v>
@@ -8104,7 +8092,7 @@
         <v>23</v>
       </c>
       <c r="M155" s="31" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8115,7 +8103,7 @@
         <v>400055</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F156" s="31">
         <v>10036026</v>
@@ -8139,7 +8127,7 @@
         <v>25</v>
       </c>
       <c r="M156" s="31" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8150,7 +8138,7 @@
         <v>400056</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F157" s="31">
         <v>10036027</v>
@@ -8174,7 +8162,7 @@
         <v>25</v>
       </c>
       <c r="M157" s="31" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8185,7 +8173,7 @@
         <v>400057</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F158" s="31">
         <v>10036028</v>
@@ -8209,7 +8197,7 @@
         <v>19</v>
       </c>
       <c r="M158" s="31" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8220,7 +8208,7 @@
         <v>400058</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F159" s="31">
         <v>10036029</v>
@@ -8244,7 +8232,7 @@
         <v>19</v>
       </c>
       <c r="M159" s="31" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8255,7 +8243,7 @@
         <v>400059</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F160" s="31">
         <v>10036030</v>
@@ -8279,7 +8267,7 @@
         <v>21</v>
       </c>
       <c r="M160" s="31" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8290,7 +8278,7 @@
         <v>400060</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F161" s="31">
         <v>10036031</v>
@@ -8314,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="M161" s="31" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8325,7 +8313,7 @@
         <v>400061</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F162" s="31">
         <v>10036032</v>
@@ -8349,7 +8337,7 @@
         <v>9</v>
       </c>
       <c r="M162" s="31" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8360,7 +8348,7 @@
         <v>400062</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F163" s="31">
         <v>10036033</v>
@@ -8384,7 +8372,7 @@
         <v>15</v>
       </c>
       <c r="M163" s="31" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8395,7 +8383,7 @@
         <v>400063</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F164" s="31">
         <v>10036034</v>
@@ -8419,7 +8407,7 @@
         <v>21</v>
       </c>
       <c r="M164" s="31" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8430,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F165" s="31">
         <v>10036035</v>
@@ -8454,7 +8442,7 @@
         <v>17</v>
       </c>
       <c r="M165" s="31" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8465,7 +8453,7 @@
         <v>500002</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F166" s="22">
         <v>10034001</v>
@@ -8489,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="M166" s="26" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8500,7 +8488,7 @@
         <v>500003</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F167" s="22">
         <v>10034002</v>
@@ -8524,7 +8512,7 @@
         <v>2</v>
       </c>
       <c r="M167" s="26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8535,7 +8523,7 @@
         <v>500004</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F168" s="22">
         <v>10034003</v>
@@ -8559,7 +8547,7 @@
         <v>3</v>
       </c>
       <c r="M168" s="26" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8570,7 +8558,7 @@
         <v>500005</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F169" s="22">
         <v>10034004</v>
@@ -8594,7 +8582,7 @@
         <v>5</v>
       </c>
       <c r="M169" s="26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8605,7 +8593,7 @@
         <v>500006</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F170" s="22">
         <v>10034005</v>
@@ -8629,7 +8617,7 @@
         <v>7</v>
       </c>
       <c r="M170" s="26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8640,7 +8628,7 @@
         <v>500007</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F171" s="22">
         <v>10034006</v>
@@ -8664,7 +8652,7 @@
         <v>9</v>
       </c>
       <c r="M171" s="26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8675,7 +8663,7 @@
         <v>500008</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F172" s="22">
         <v>10034007</v>
@@ -8699,7 +8687,7 @@
         <v>11</v>
       </c>
       <c r="M172" s="26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8710,7 +8698,7 @@
         <v>500009</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F173" s="22">
         <v>10034008</v>
@@ -8734,7 +8722,7 @@
         <v>13</v>
       </c>
       <c r="M173" s="26" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8745,7 +8733,7 @@
         <v>500010</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F174" s="22">
         <v>10034009</v>
@@ -8769,7 +8757,7 @@
         <v>15</v>
       </c>
       <c r="M174" s="26" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8780,7 +8768,7 @@
         <v>500011</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F175" s="22">
         <v>10034010</v>
@@ -8804,7 +8792,7 @@
         <v>17</v>
       </c>
       <c r="M175" s="26" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8815,7 +8803,7 @@
         <v>500012</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F176" s="22">
         <v>10034011</v>
@@ -8839,7 +8827,7 @@
         <v>19</v>
       </c>
       <c r="M176" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8850,7 +8838,7 @@
         <v>500013</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F177" s="22">
         <v>10034012</v>
@@ -8874,7 +8862,7 @@
         <v>21</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="178" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8885,7 +8873,7 @@
         <v>500014</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F178" s="22">
         <v>10034013</v>
@@ -8909,7 +8897,7 @@
         <v>23</v>
       </c>
       <c r="M178" s="26" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8920,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F179" s="22">
         <v>10034014</v>
@@ -8944,7 +8932,7 @@
         <v>25</v>
       </c>
       <c r="M179" s="26" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8955,7 +8943,7 @@
         <v>600002</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F180" s="6">
         <v>10000144</v>
@@ -8979,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8990,7 +8978,7 @@
         <v>600003</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F181" s="6">
         <v>10000145</v>
@@ -9014,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9025,7 +9013,7 @@
         <v>600004</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F182" s="6">
         <v>10000146</v>
@@ -9049,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="M182" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9060,7 +9048,7 @@
         <v>600005</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F183" s="6">
         <v>10000147</v>
@@ -9084,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="3:13" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9095,7 +9083,7 @@
         <v>600006</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F184" s="6">
         <v